--- a/AAII_Financials/Yearly/CIG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CIG_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>CIG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,120 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5199600</v>
+        <v>4698000</v>
       </c>
       <c r="E8" s="3">
-        <v>5070100</v>
+        <v>4119900</v>
       </c>
       <c r="F8" s="3">
-        <v>4383800</v>
+        <v>4017300</v>
       </c>
       <c r="G8" s="3">
-        <v>5106600</v>
+        <v>3473500</v>
       </c>
       <c r="H8" s="3">
-        <v>4562900</v>
+        <v>4046200</v>
       </c>
       <c r="I8" s="3">
-        <v>3415800</v>
+        <v>3615400</v>
       </c>
       <c r="J8" s="3">
+        <v>2706500</v>
+      </c>
+      <c r="K8" s="3">
         <v>3301400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3177300</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4128000</v>
+        <v>3626300</v>
       </c>
       <c r="E9" s="3">
-        <v>4083600</v>
+        <v>3270800</v>
       </c>
       <c r="F9" s="3">
-        <v>3369400</v>
+        <v>3235600</v>
       </c>
       <c r="G9" s="3">
-        <v>3705200</v>
+        <v>2669800</v>
       </c>
       <c r="H9" s="3">
-        <v>2989600</v>
+        <v>2935900</v>
       </c>
       <c r="I9" s="3">
-        <v>2299900</v>
+        <v>2368800</v>
       </c>
       <c r="J9" s="3">
+        <v>1822300</v>
+      </c>
+      <c r="K9" s="3">
         <v>2379600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2529300</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -777,29 +786,32 @@
         <v>1071600</v>
       </c>
       <c r="E10" s="3">
-        <v>986500</v>
+        <v>849100</v>
       </c>
       <c r="F10" s="3">
-        <v>1014400</v>
+        <v>781700</v>
       </c>
       <c r="G10" s="3">
-        <v>1401300</v>
+        <v>803700</v>
       </c>
       <c r="H10" s="3">
-        <v>1573200</v>
+        <v>1110400</v>
       </c>
       <c r="I10" s="3">
-        <v>1115900</v>
+        <v>1246600</v>
       </c>
       <c r="J10" s="3">
+        <v>884200</v>
+      </c>
+      <c r="K10" s="3">
         <v>921800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>648000</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,9 +887,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,11 +918,14 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>1800</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -931,9 +953,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4616800</v>
+        <v>4122600</v>
       </c>
       <c r="E17" s="3">
-        <v>4453100</v>
+        <v>3658100</v>
       </c>
       <c r="F17" s="3">
-        <v>3962300</v>
+        <v>3528400</v>
       </c>
       <c r="G17" s="3">
-        <v>4008500</v>
+        <v>3139500</v>
       </c>
       <c r="H17" s="3">
-        <v>3259700</v>
+        <v>3176200</v>
       </c>
       <c r="I17" s="3">
-        <v>2397000</v>
+        <v>2582900</v>
       </c>
       <c r="J17" s="3">
+        <v>1899300</v>
+      </c>
+      <c r="K17" s="3">
         <v>2489900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2202000</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>582800</v>
+        <v>575300</v>
       </c>
       <c r="E18" s="3">
-        <v>617100</v>
+        <v>461800</v>
       </c>
       <c r="F18" s="3">
-        <v>421500</v>
+        <v>488900</v>
       </c>
       <c r="G18" s="3">
-        <v>1098100</v>
+        <v>334000</v>
       </c>
       <c r="H18" s="3">
-        <v>1303100</v>
+        <v>870000</v>
       </c>
       <c r="I18" s="3">
-        <v>1018700</v>
+        <v>1032500</v>
       </c>
       <c r="J18" s="3">
+        <v>807200</v>
+      </c>
+      <c r="K18" s="3">
         <v>811400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>975300</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>188200</v>
+        <v>478700</v>
       </c>
       <c r="E20" s="3">
-        <v>125400</v>
+        <v>149100</v>
       </c>
       <c r="F20" s="3">
-        <v>114700</v>
+        <v>99400</v>
       </c>
       <c r="G20" s="3">
-        <v>10600</v>
+        <v>90900</v>
       </c>
       <c r="H20" s="3">
-        <v>-39700</v>
+        <v>8400</v>
       </c>
       <c r="I20" s="3">
-        <v>90900</v>
+        <v>-31500</v>
       </c>
       <c r="J20" s="3">
+        <v>72000</v>
+      </c>
+      <c r="K20" s="3">
         <v>570000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>68500</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>971600</v>
+        <v>1235700</v>
       </c>
       <c r="E21" s="3">
-        <v>943100</v>
+        <v>772000</v>
       </c>
       <c r="F21" s="3">
-        <v>733200</v>
+        <v>749400</v>
       </c>
       <c r="G21" s="3">
-        <v>1305800</v>
+        <v>583100</v>
       </c>
       <c r="H21" s="3">
-        <v>1452500</v>
+        <v>1036800</v>
       </c>
       <c r="I21" s="3">
-        <v>1304100</v>
+        <v>1152900</v>
       </c>
       <c r="J21" s="3">
+        <v>1035400</v>
+      </c>
+      <c r="K21" s="3">
         <v>1561600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1240600</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>309300</v>
+        <v>227000</v>
       </c>
       <c r="E22" s="3">
-        <v>358100</v>
+        <v>245100</v>
       </c>
       <c r="F22" s="3">
-        <v>450300</v>
+        <v>283800</v>
       </c>
       <c r="G22" s="3">
-        <v>323700</v>
+        <v>356800</v>
       </c>
       <c r="H22" s="3">
-        <v>217400</v>
+        <v>256500</v>
       </c>
       <c r="I22" s="3">
-        <v>163000</v>
+        <v>172200</v>
       </c>
       <c r="J22" s="3">
+        <v>129100</v>
+      </c>
+      <c r="K22" s="3">
         <v>189500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>232500</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>461800</v>
+        <v>827000</v>
       </c>
       <c r="E23" s="3">
-        <v>384300</v>
+        <v>365900</v>
       </c>
       <c r="F23" s="3">
-        <v>85900</v>
+        <v>304500</v>
       </c>
       <c r="G23" s="3">
-        <v>785000</v>
+        <v>68100</v>
       </c>
       <c r="H23" s="3">
-        <v>1046000</v>
+        <v>622000</v>
       </c>
       <c r="I23" s="3">
-        <v>946700</v>
+        <v>828800</v>
       </c>
       <c r="J23" s="3">
+        <v>750100</v>
+      </c>
+      <c r="K23" s="3">
         <v>1191900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>811200</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>139900</v>
+        <v>289700</v>
       </c>
       <c r="E24" s="3">
-        <v>150400</v>
+        <v>110900</v>
       </c>
       <c r="F24" s="3">
-        <v>7700</v>
+        <v>119200</v>
       </c>
       <c r="G24" s="3">
-        <v>208400</v>
+        <v>6100</v>
       </c>
       <c r="H24" s="3">
-        <v>313500</v>
+        <v>165200</v>
       </c>
       <c r="I24" s="3">
-        <v>221900</v>
+        <v>248400</v>
       </c>
       <c r="J24" s="3">
+        <v>175800</v>
+      </c>
+      <c r="K24" s="3">
         <v>194400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>192000</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>321900</v>
+        <v>537300</v>
       </c>
       <c r="E26" s="3">
-        <v>233900</v>
+        <v>255000</v>
       </c>
       <c r="F26" s="3">
-        <v>78200</v>
+        <v>185300</v>
       </c>
       <c r="G26" s="3">
-        <v>576600</v>
+        <v>61900</v>
       </c>
       <c r="H26" s="3">
-        <v>732500</v>
+        <v>456800</v>
       </c>
       <c r="I26" s="3">
-        <v>724800</v>
+        <v>580400</v>
       </c>
       <c r="J26" s="3">
+        <v>574300</v>
+      </c>
+      <c r="K26" s="3">
         <v>997500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>619200</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>312100</v>
+        <v>537200</v>
       </c>
       <c r="E27" s="3">
-        <v>233700</v>
+        <v>247300</v>
       </c>
       <c r="F27" s="3">
-        <v>78100</v>
+        <v>185200</v>
       </c>
       <c r="G27" s="3">
-        <v>576400</v>
+        <v>61900</v>
       </c>
       <c r="H27" s="3">
-        <v>732500</v>
+        <v>456700</v>
       </c>
       <c r="I27" s="3">
-        <v>724800</v>
+        <v>580400</v>
       </c>
       <c r="J27" s="3">
+        <v>574300</v>
+      </c>
+      <c r="K27" s="3">
         <v>997500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>619200</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,17 +1343,20 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>84900</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
+        <v>41500</v>
+      </c>
+      <c r="E29" s="3">
+        <v>67200</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1313,12 +1373,15 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-188200</v>
+        <v>-478700</v>
       </c>
       <c r="E32" s="3">
-        <v>-125400</v>
+        <v>-149100</v>
       </c>
       <c r="F32" s="3">
-        <v>-114700</v>
+        <v>-99400</v>
       </c>
       <c r="G32" s="3">
-        <v>-10600</v>
+        <v>-90900</v>
       </c>
       <c r="H32" s="3">
-        <v>39700</v>
+        <v>-8400</v>
       </c>
       <c r="I32" s="3">
-        <v>-90900</v>
+        <v>31500</v>
       </c>
       <c r="J32" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-570000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-68500</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>397000</v>
+        <v>578700</v>
       </c>
       <c r="E33" s="3">
-        <v>233700</v>
+        <v>314600</v>
       </c>
       <c r="F33" s="3">
-        <v>78100</v>
+        <v>185200</v>
       </c>
       <c r="G33" s="3">
-        <v>576400</v>
+        <v>61900</v>
       </c>
       <c r="H33" s="3">
-        <v>732500</v>
+        <v>456700</v>
       </c>
       <c r="I33" s="3">
-        <v>724800</v>
+        <v>580400</v>
       </c>
       <c r="J33" s="3">
+        <v>574300</v>
+      </c>
+      <c r="K33" s="3">
         <v>997500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>619200</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>397000</v>
+        <v>578700</v>
       </c>
       <c r="E35" s="3">
-        <v>233700</v>
+        <v>314600</v>
       </c>
       <c r="F35" s="3">
-        <v>78100</v>
+        <v>185200</v>
       </c>
       <c r="G35" s="3">
-        <v>576400</v>
+        <v>61900</v>
       </c>
       <c r="H35" s="3">
-        <v>732500</v>
+        <v>456700</v>
       </c>
       <c r="I35" s="3">
-        <v>724800</v>
+        <v>580400</v>
       </c>
       <c r="J35" s="3">
+        <v>574300</v>
+      </c>
+      <c r="K35" s="3">
         <v>997500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>619200</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>208000</v>
+        <v>100400</v>
       </c>
       <c r="E41" s="3">
-        <v>240600</v>
+        <v>166900</v>
       </c>
       <c r="F41" s="3">
-        <v>232400</v>
+        <v>193100</v>
       </c>
       <c r="G41" s="3">
-        <v>215900</v>
+        <v>186500</v>
       </c>
       <c r="H41" s="3">
-        <v>207200</v>
+        <v>173300</v>
       </c>
       <c r="I41" s="3">
-        <v>514200</v>
+        <v>166300</v>
       </c>
       <c r="J41" s="3">
+        <v>412600</v>
+      </c>
+      <c r="K41" s="3">
         <v>448200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>539400</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>185500</v>
+        <v>141100</v>
       </c>
       <c r="E42" s="3">
-        <v>272000</v>
+        <v>148900</v>
       </c>
       <c r="F42" s="3">
-        <v>322600</v>
+        <v>218200</v>
       </c>
       <c r="G42" s="3">
-        <v>566700</v>
+        <v>258900</v>
       </c>
       <c r="H42" s="3">
-        <v>232400</v>
+        <v>454800</v>
       </c>
       <c r="I42" s="3">
-        <v>218400</v>
+        <v>186500</v>
       </c>
       <c r="J42" s="3">
+        <v>175300</v>
+      </c>
+      <c r="K42" s="3">
         <v>548200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>102900</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1251900</v>
+        <v>1137600</v>
       </c>
       <c r="E43" s="3">
-        <v>1198500</v>
+        <v>1004700</v>
       </c>
       <c r="F43" s="3">
-        <v>1150200</v>
+        <v>961800</v>
       </c>
       <c r="G43" s="3">
-        <v>2036200</v>
+        <v>923000</v>
       </c>
       <c r="H43" s="3">
-        <v>803100</v>
+        <v>1634100</v>
       </c>
       <c r="I43" s="3">
-        <v>774600</v>
+        <v>644500</v>
       </c>
       <c r="J43" s="3">
+        <v>621600</v>
+      </c>
+      <c r="K43" s="3">
         <v>1341700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>976000</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8300</v>
+        <v>7400</v>
       </c>
       <c r="E44" s="3">
-        <v>8900</v>
+        <v>6700</v>
       </c>
       <c r="F44" s="3">
-        <v>11600</v>
+        <v>7100</v>
       </c>
       <c r="G44" s="3">
-        <v>8700</v>
+        <v>9300</v>
       </c>
       <c r="H44" s="3">
-        <v>9300</v>
+        <v>7000</v>
       </c>
       <c r="I44" s="3">
-        <v>8800</v>
+        <v>7500</v>
       </c>
       <c r="J44" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K44" s="3">
         <v>9600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7900</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4837100</v>
+        <v>513300</v>
       </c>
       <c r="E45" s="3">
-        <v>273700</v>
+        <v>3881800</v>
       </c>
       <c r="F45" s="3">
-        <v>218000</v>
+        <v>219600</v>
       </c>
       <c r="G45" s="3">
-        <v>241100</v>
+        <v>175000</v>
       </c>
       <c r="H45" s="3">
-        <v>278700</v>
+        <v>193500</v>
       </c>
       <c r="I45" s="3">
-        <v>41300</v>
+        <v>223600</v>
       </c>
       <c r="J45" s="3">
+        <v>33100</v>
+      </c>
+      <c r="K45" s="3">
         <v>72000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>287900</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6490900</v>
+        <v>1899800</v>
       </c>
       <c r="E46" s="3">
-        <v>1993600</v>
+        <v>5209000</v>
       </c>
       <c r="F46" s="3">
-        <v>1934800</v>
+        <v>1599900</v>
       </c>
       <c r="G46" s="3">
-        <v>2189700</v>
+        <v>1552700</v>
       </c>
       <c r="H46" s="3">
-        <v>1530600</v>
+        <v>1757200</v>
       </c>
       <c r="I46" s="3">
-        <v>1557300</v>
+        <v>1228300</v>
       </c>
       <c r="J46" s="3">
+        <v>1249700</v>
+      </c>
+      <c r="K46" s="3">
         <v>2055900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1478800</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3652700</v>
+        <v>4038900</v>
       </c>
       <c r="E47" s="3">
-        <v>4179400</v>
+        <v>2931300</v>
       </c>
       <c r="F47" s="3">
-        <v>4000000</v>
+        <v>3354000</v>
       </c>
       <c r="G47" s="3">
-        <v>3667800</v>
+        <v>3210000</v>
       </c>
       <c r="H47" s="3">
-        <v>4268000</v>
+        <v>2943400</v>
       </c>
       <c r="I47" s="3">
-        <v>3293300</v>
+        <v>3425100</v>
       </c>
       <c r="J47" s="3">
+        <v>2642900</v>
+      </c>
+      <c r="K47" s="3">
         <v>3381200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3724200</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>621500</v>
+        <v>511000</v>
       </c>
       <c r="E48" s="3">
-        <v>645100</v>
+        <v>498800</v>
       </c>
       <c r="F48" s="3">
-        <v>881600</v>
+        <v>517700</v>
       </c>
       <c r="G48" s="3">
-        <v>920100</v>
+        <v>707400</v>
       </c>
       <c r="H48" s="3">
-        <v>1294500</v>
+        <v>738400</v>
       </c>
       <c r="I48" s="3">
-        <v>1358500</v>
-      </c>
-      <c r="J48" s="3" t="s">
+        <v>1038900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1090200</v>
+      </c>
+      <c r="K48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3859500</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2516700</v>
+        <v>2178400</v>
       </c>
       <c r="E49" s="3">
-        <v>2605100</v>
+        <v>2019600</v>
       </c>
       <c r="F49" s="3">
-        <v>2526600</v>
+        <v>2090600</v>
       </c>
       <c r="G49" s="3">
-        <v>2399400</v>
+        <v>2027600</v>
       </c>
       <c r="H49" s="3">
-        <v>789100</v>
+        <v>1925600</v>
       </c>
       <c r="I49" s="3">
-        <v>468000</v>
+        <v>633300</v>
       </c>
       <c r="J49" s="3">
+        <v>375500</v>
+      </c>
+      <c r="K49" s="3">
         <v>875400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2101100</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>695400</v>
+        <v>728200</v>
       </c>
       <c r="E52" s="3">
-        <v>440600</v>
+        <v>558000</v>
       </c>
       <c r="F52" s="3">
-        <v>473200</v>
+        <v>353600</v>
       </c>
       <c r="G52" s="3">
-        <v>363900</v>
+        <v>379800</v>
       </c>
       <c r="H52" s="3">
-        <v>290900</v>
+        <v>292100</v>
       </c>
       <c r="I52" s="3">
-        <v>285100</v>
+        <v>233400</v>
       </c>
       <c r="J52" s="3">
+        <v>228800</v>
+      </c>
+      <c r="K52" s="3">
         <v>304500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>565800</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13977300</v>
+        <v>9356300</v>
       </c>
       <c r="E54" s="3">
-        <v>9863800</v>
+        <v>11216800</v>
       </c>
       <c r="F54" s="3">
-        <v>9816200</v>
+        <v>7915700</v>
       </c>
       <c r="G54" s="3">
-        <v>9540900</v>
+        <v>7877500</v>
       </c>
       <c r="H54" s="3">
-        <v>8173200</v>
+        <v>7656600</v>
       </c>
       <c r="I54" s="3">
-        <v>6962200</v>
+        <v>6559000</v>
       </c>
       <c r="J54" s="3">
+        <v>5587200</v>
+      </c>
+      <c r="K54" s="3">
         <v>7605700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7594200</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>420600</v>
+        <v>389800</v>
       </c>
       <c r="E57" s="3">
-        <v>547100</v>
+        <v>337600</v>
       </c>
       <c r="F57" s="3">
-        <v>452900</v>
+        <v>439000</v>
       </c>
       <c r="G57" s="3">
-        <v>444000</v>
+        <v>363500</v>
       </c>
       <c r="H57" s="3">
-        <v>374500</v>
+        <v>356300</v>
       </c>
       <c r="I57" s="3">
-        <v>249000</v>
+        <v>300500</v>
       </c>
       <c r="J57" s="3">
+        <v>199800</v>
+      </c>
+      <c r="K57" s="3">
         <v>305000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>216400</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>513200</v>
+        <v>530600</v>
       </c>
       <c r="E58" s="3">
-        <v>553600</v>
+        <v>411800</v>
       </c>
       <c r="F58" s="3">
-        <v>1129500</v>
+        <v>444200</v>
       </c>
       <c r="G58" s="3">
-        <v>1471300</v>
+        <v>906400</v>
       </c>
       <c r="H58" s="3">
-        <v>1235500</v>
+        <v>1180700</v>
       </c>
       <c r="I58" s="3">
-        <v>522600</v>
+        <v>991500</v>
       </c>
       <c r="J58" s="3">
+        <v>419400</v>
+      </c>
+      <c r="K58" s="3">
         <v>1510000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2271100</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4529100</v>
+        <v>562400</v>
       </c>
       <c r="E59" s="3">
-        <v>922200</v>
+        <v>3634600</v>
       </c>
       <c r="F59" s="3">
-        <v>1090800</v>
+        <v>740000</v>
       </c>
       <c r="G59" s="3">
-        <v>1137800</v>
+        <v>875300</v>
       </c>
       <c r="H59" s="3">
-        <v>754000</v>
+        <v>913100</v>
       </c>
       <c r="I59" s="3">
-        <v>611200</v>
+        <v>605100</v>
       </c>
       <c r="J59" s="3">
+        <v>490500</v>
+      </c>
+      <c r="K59" s="3">
         <v>1173700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>877400</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5462900</v>
+        <v>1482800</v>
       </c>
       <c r="E60" s="3">
-        <v>2022800</v>
+        <v>4384000</v>
       </c>
       <c r="F60" s="3">
-        <v>2673200</v>
+        <v>1623300</v>
       </c>
       <c r="G60" s="3">
-        <v>3053100</v>
+        <v>2145300</v>
       </c>
       <c r="H60" s="3">
-        <v>2364000</v>
+        <v>2450100</v>
       </c>
       <c r="I60" s="3">
-        <v>1382800</v>
+        <v>1897100</v>
       </c>
       <c r="J60" s="3">
+        <v>1109700</v>
+      </c>
+      <c r="K60" s="3">
         <v>2988700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2076400</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2936300</v>
+        <v>2292400</v>
       </c>
       <c r="E61" s="3">
-        <v>2808600</v>
+        <v>2356400</v>
       </c>
       <c r="F61" s="3">
-        <v>2415100</v>
+        <v>2253900</v>
       </c>
       <c r="G61" s="3">
-        <v>2070400</v>
+        <v>1938200</v>
       </c>
       <c r="H61" s="3">
-        <v>1919100</v>
+        <v>1661500</v>
       </c>
       <c r="I61" s="3">
-        <v>1685900</v>
+        <v>1540100</v>
       </c>
       <c r="J61" s="3">
+        <v>1353000</v>
+      </c>
+      <c r="K61" s="3">
         <v>922300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1538300</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1855900</v>
+        <v>2603200</v>
       </c>
       <c r="E62" s="3">
-        <v>1686000</v>
+        <v>1489400</v>
       </c>
       <c r="F62" s="3">
-        <v>1707400</v>
+        <v>1353000</v>
       </c>
       <c r="G62" s="3">
-        <v>1384600</v>
+        <v>1370200</v>
       </c>
       <c r="H62" s="3">
-        <v>1291400</v>
+        <v>1111100</v>
       </c>
       <c r="I62" s="3">
-        <v>942100</v>
+        <v>1036400</v>
       </c>
       <c r="J62" s="3">
+        <v>756100</v>
+      </c>
+      <c r="K62" s="3">
         <v>998900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1356400</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10572800</v>
+        <v>6379200</v>
       </c>
       <c r="E66" s="3">
-        <v>6518400</v>
+        <v>8484700</v>
       </c>
       <c r="F66" s="3">
-        <v>6796700</v>
+        <v>5231000</v>
       </c>
       <c r="G66" s="3">
-        <v>6509000</v>
+        <v>5454400</v>
       </c>
       <c r="H66" s="3">
-        <v>5538900</v>
+        <v>5223500</v>
       </c>
       <c r="I66" s="3">
-        <v>4010900</v>
+        <v>4445000</v>
       </c>
       <c r="J66" s="3">
+        <v>3218700</v>
+      </c>
+      <c r="K66" s="3">
         <v>4908600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4603300</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1485700</v>
+        <v>2061400</v>
       </c>
       <c r="E72" s="3">
-        <v>1337700</v>
+        <v>1192200</v>
       </c>
       <c r="F72" s="3">
-        <v>1214300</v>
+        <v>1073500</v>
       </c>
       <c r="G72" s="3">
-        <v>1088800</v>
+        <v>974500</v>
       </c>
       <c r="H72" s="3">
-        <v>605700</v>
+        <v>873800</v>
       </c>
       <c r="I72" s="3">
-        <v>896700</v>
+        <v>486100</v>
       </c>
       <c r="J72" s="3">
+        <v>719600</v>
+      </c>
+      <c r="K72" s="3">
         <v>2257300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2702200</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3404400</v>
+        <v>2977200</v>
       </c>
       <c r="E76" s="3">
-        <v>3345400</v>
+        <v>2732100</v>
       </c>
       <c r="F76" s="3">
-        <v>3019500</v>
+        <v>2684700</v>
       </c>
       <c r="G76" s="3">
-        <v>3032000</v>
+        <v>2423100</v>
       </c>
       <c r="H76" s="3">
-        <v>2634300</v>
+        <v>2433100</v>
       </c>
       <c r="I76" s="3">
-        <v>2951300</v>
+        <v>2114000</v>
       </c>
       <c r="J76" s="3">
+        <v>2368400</v>
+      </c>
+      <c r="K76" s="3">
         <v>2697200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2990900</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>397000</v>
+        <v>578700</v>
       </c>
       <c r="E81" s="3">
-        <v>233700</v>
+        <v>314600</v>
       </c>
       <c r="F81" s="3">
-        <v>78100</v>
+        <v>185200</v>
       </c>
       <c r="G81" s="3">
-        <v>576400</v>
+        <v>61900</v>
       </c>
       <c r="H81" s="3">
-        <v>732500</v>
+        <v>456700</v>
       </c>
       <c r="I81" s="3">
-        <v>724800</v>
+        <v>580400</v>
       </c>
       <c r="J81" s="3">
+        <v>574300</v>
+      </c>
+      <c r="K81" s="3">
         <v>997500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>619200</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>198300</v>
+        <v>177300</v>
       </c>
       <c r="E83" s="3">
-        <v>198400</v>
+        <v>157100</v>
       </c>
       <c r="F83" s="3">
-        <v>194800</v>
+        <v>157200</v>
       </c>
       <c r="G83" s="3">
-        <v>194900</v>
+        <v>154400</v>
       </c>
       <c r="H83" s="3">
-        <v>187000</v>
+        <v>154500</v>
       </c>
       <c r="I83" s="3">
-        <v>192300</v>
+        <v>148200</v>
       </c>
       <c r="J83" s="3">
+        <v>152400</v>
+      </c>
+      <c r="K83" s="3">
         <v>178200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>201500</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>235300</v>
+        <v>376900</v>
       </c>
       <c r="E89" s="3">
-        <v>135300</v>
+        <v>186500</v>
       </c>
       <c r="F89" s="3">
-        <v>283300</v>
+        <v>107200</v>
       </c>
       <c r="G89" s="3">
-        <v>702200</v>
+        <v>224500</v>
       </c>
       <c r="H89" s="3">
-        <v>871900</v>
+        <v>556400</v>
       </c>
       <c r="I89" s="3">
-        <v>820900</v>
+        <v>690900</v>
       </c>
       <c r="J89" s="3">
+        <v>650400</v>
+      </c>
+      <c r="K89" s="3">
         <v>566800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>939400</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-18000</v>
+        <v>-13000</v>
       </c>
       <c r="E91" s="3">
-        <v>-19400</v>
+        <v>-14200</v>
       </c>
       <c r="F91" s="3">
-        <v>-28000</v>
+        <v>-15400</v>
       </c>
       <c r="G91" s="3">
-        <v>-29400</v>
+        <v>-22200</v>
       </c>
       <c r="H91" s="3">
-        <v>-28500</v>
+        <v>-23300</v>
       </c>
       <c r="I91" s="3">
-        <v>-16200</v>
+        <v>-22600</v>
       </c>
       <c r="J91" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-25400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-24400</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-49300</v>
+        <v>-219900</v>
       </c>
       <c r="E94" s="3">
-        <v>-90200</v>
+        <v>-39000</v>
       </c>
       <c r="F94" s="3">
-        <v>-143300</v>
+        <v>-71400</v>
       </c>
       <c r="G94" s="3">
-        <v>-751200</v>
+        <v>-113500</v>
       </c>
       <c r="H94" s="3">
-        <v>-1003900</v>
+        <v>-595200</v>
       </c>
       <c r="I94" s="3">
-        <v>584400</v>
+        <v>-795400</v>
       </c>
       <c r="J94" s="3">
+        <v>463100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-118000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-644800</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-118800</v>
+        <v>-129700</v>
       </c>
       <c r="E96" s="3">
-        <v>-126000</v>
+        <v>-94100</v>
       </c>
       <c r="F96" s="3">
-        <v>-157500</v>
+        <v>-99800</v>
       </c>
       <c r="G96" s="3">
-        <v>-186000</v>
+        <v>-124800</v>
       </c>
       <c r="H96" s="3">
-        <v>-914800</v>
+        <v>-147400</v>
       </c>
       <c r="I96" s="3">
-        <v>-1074300</v>
+        <v>-724800</v>
       </c>
       <c r="J96" s="3">
+        <v>-851200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-408100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-522000</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,39 +3420,45 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-218600</v>
+        <v>-222600</v>
       </c>
       <c r="E100" s="3">
-        <v>-37000</v>
+        <v>-173200</v>
       </c>
       <c r="F100" s="3">
-        <v>-123600</v>
+        <v>-29300</v>
       </c>
       <c r="G100" s="3">
-        <v>57700</v>
+        <v>-97900</v>
       </c>
       <c r="H100" s="3">
-        <v>-175100</v>
+        <v>45700</v>
       </c>
       <c r="I100" s="3">
-        <v>-1339300</v>
+        <v>-138700</v>
       </c>
       <c r="J100" s="3">
+        <v>-1061200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-492000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-453500</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3238,37 +3486,43 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-32600</v>
+        <v>-65700</v>
       </c>
       <c r="E102" s="3">
-        <v>8200</v>
+        <v>-25800</v>
       </c>
       <c r="F102" s="3">
-        <v>16500</v>
+        <v>6500</v>
       </c>
       <c r="G102" s="3">
-        <v>8800</v>
+        <v>13000</v>
       </c>
       <c r="H102" s="3">
-        <v>-307000</v>
+        <v>6900</v>
       </c>
       <c r="I102" s="3">
-        <v>66000</v>
+        <v>-243300</v>
       </c>
       <c r="J102" s="3">
+        <v>52300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-43100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-159000</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CIG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CIG_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4698000</v>
+        <v>4529600</v>
       </c>
       <c r="E8" s="3">
-        <v>4119900</v>
+        <v>3972300</v>
       </c>
       <c r="F8" s="3">
-        <v>4017300</v>
+        <v>3873400</v>
       </c>
       <c r="G8" s="3">
-        <v>3473500</v>
+        <v>3349000</v>
       </c>
       <c r="H8" s="3">
-        <v>4046200</v>
+        <v>3901200</v>
       </c>
       <c r="I8" s="3">
-        <v>3615400</v>
+        <v>3485900</v>
       </c>
       <c r="J8" s="3">
-        <v>2706500</v>
+        <v>2609500</v>
       </c>
       <c r="K8" s="3">
         <v>3301400</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3626300</v>
+        <v>3496400</v>
       </c>
       <c r="E9" s="3">
-        <v>3270800</v>
+        <v>3153600</v>
       </c>
       <c r="F9" s="3">
-        <v>3235600</v>
+        <v>3119700</v>
       </c>
       <c r="G9" s="3">
-        <v>2669800</v>
+        <v>2574100</v>
       </c>
       <c r="H9" s="3">
-        <v>2935900</v>
+        <v>2830700</v>
       </c>
       <c r="I9" s="3">
-        <v>2368800</v>
+        <v>2284000</v>
       </c>
       <c r="J9" s="3">
-        <v>1822300</v>
+        <v>1757000</v>
       </c>
       <c r="K9" s="3">
         <v>2379600</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1071600</v>
+        <v>1033200</v>
       </c>
       <c r="E10" s="3">
-        <v>849100</v>
+        <v>818700</v>
       </c>
       <c r="F10" s="3">
-        <v>781700</v>
+        <v>753700</v>
       </c>
       <c r="G10" s="3">
-        <v>803700</v>
+        <v>774900</v>
       </c>
       <c r="H10" s="3">
-        <v>1110400</v>
+        <v>1070600</v>
       </c>
       <c r="I10" s="3">
-        <v>1246600</v>
+        <v>1201900</v>
       </c>
       <c r="J10" s="3">
-        <v>884200</v>
+        <v>852500</v>
       </c>
       <c r="K10" s="3">
         <v>921800</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4122600</v>
+        <v>3974900</v>
       </c>
       <c r="E17" s="3">
-        <v>3658100</v>
+        <v>3527000</v>
       </c>
       <c r="F17" s="3">
-        <v>3528400</v>
+        <v>3402000</v>
       </c>
       <c r="G17" s="3">
-        <v>3139500</v>
+        <v>3027000</v>
       </c>
       <c r="H17" s="3">
-        <v>3176200</v>
+        <v>3062400</v>
       </c>
       <c r="I17" s="3">
-        <v>2582900</v>
+        <v>2490300</v>
       </c>
       <c r="J17" s="3">
-        <v>1899300</v>
+        <v>1831200</v>
       </c>
       <c r="K17" s="3">
         <v>2489900</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>575300</v>
+        <v>554700</v>
       </c>
       <c r="E18" s="3">
-        <v>461800</v>
+        <v>445300</v>
       </c>
       <c r="F18" s="3">
-        <v>488900</v>
+        <v>471400</v>
       </c>
       <c r="G18" s="3">
-        <v>334000</v>
+        <v>322000</v>
       </c>
       <c r="H18" s="3">
-        <v>870000</v>
+        <v>838900</v>
       </c>
       <c r="I18" s="3">
-        <v>1032500</v>
+        <v>995500</v>
       </c>
       <c r="J18" s="3">
-        <v>807200</v>
+        <v>778300</v>
       </c>
       <c r="K18" s="3">
         <v>811400</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>478700</v>
+        <v>461600</v>
       </c>
       <c r="E20" s="3">
-        <v>149100</v>
+        <v>143800</v>
       </c>
       <c r="F20" s="3">
-        <v>99400</v>
+        <v>95800</v>
       </c>
       <c r="G20" s="3">
-        <v>90900</v>
+        <v>87600</v>
       </c>
       <c r="H20" s="3">
-        <v>8400</v>
+        <v>8100</v>
       </c>
       <c r="I20" s="3">
-        <v>-31500</v>
+        <v>-30400</v>
       </c>
       <c r="J20" s="3">
-        <v>72000</v>
+        <v>69500</v>
       </c>
       <c r="K20" s="3">
         <v>570000</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1235700</v>
+        <v>1190300</v>
       </c>
       <c r="E21" s="3">
-        <v>772000</v>
+        <v>743200</v>
       </c>
       <c r="F21" s="3">
-        <v>749400</v>
+        <v>721500</v>
       </c>
       <c r="G21" s="3">
-        <v>583100</v>
+        <v>561100</v>
       </c>
       <c r="H21" s="3">
-        <v>1036800</v>
+        <v>998600</v>
       </c>
       <c r="I21" s="3">
-        <v>1152900</v>
+        <v>1110600</v>
       </c>
       <c r="J21" s="3">
-        <v>1035400</v>
+        <v>997300</v>
       </c>
       <c r="K21" s="3">
         <v>1561600</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>227000</v>
+        <v>218900</v>
       </c>
       <c r="E22" s="3">
-        <v>245100</v>
+        <v>236300</v>
       </c>
       <c r="F22" s="3">
-        <v>283800</v>
+        <v>273600</v>
       </c>
       <c r="G22" s="3">
-        <v>356800</v>
+        <v>344000</v>
       </c>
       <c r="H22" s="3">
-        <v>256500</v>
+        <v>247300</v>
       </c>
       <c r="I22" s="3">
-        <v>172200</v>
+        <v>166100</v>
       </c>
       <c r="J22" s="3">
-        <v>129100</v>
+        <v>124500</v>
       </c>
       <c r="K22" s="3">
         <v>189500</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>827000</v>
+        <v>797400</v>
       </c>
       <c r="E23" s="3">
-        <v>365900</v>
+        <v>352800</v>
       </c>
       <c r="F23" s="3">
-        <v>304500</v>
+        <v>293600</v>
       </c>
       <c r="G23" s="3">
-        <v>68100</v>
+        <v>65600</v>
       </c>
       <c r="H23" s="3">
-        <v>622000</v>
+        <v>599700</v>
       </c>
       <c r="I23" s="3">
-        <v>828800</v>
+        <v>799100</v>
       </c>
       <c r="J23" s="3">
-        <v>750100</v>
+        <v>723200</v>
       </c>
       <c r="K23" s="3">
         <v>1191900</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>289700</v>
+        <v>279300</v>
       </c>
       <c r="E24" s="3">
-        <v>110900</v>
+        <v>106900</v>
       </c>
       <c r="F24" s="3">
-        <v>119200</v>
+        <v>114900</v>
       </c>
       <c r="G24" s="3">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="H24" s="3">
-        <v>165200</v>
+        <v>159200</v>
       </c>
       <c r="I24" s="3">
-        <v>248400</v>
+        <v>239500</v>
       </c>
       <c r="J24" s="3">
-        <v>175800</v>
+        <v>169500</v>
       </c>
       <c r="K24" s="3">
         <v>194400</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>537300</v>
+        <v>518100</v>
       </c>
       <c r="E26" s="3">
-        <v>255000</v>
+        <v>245900</v>
       </c>
       <c r="F26" s="3">
-        <v>185300</v>
+        <v>178700</v>
       </c>
       <c r="G26" s="3">
-        <v>61900</v>
+        <v>59700</v>
       </c>
       <c r="H26" s="3">
-        <v>456800</v>
+        <v>440500</v>
       </c>
       <c r="I26" s="3">
-        <v>580400</v>
+        <v>559600</v>
       </c>
       <c r="J26" s="3">
-        <v>574300</v>
+        <v>553700</v>
       </c>
       <c r="K26" s="3">
         <v>997500</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>537200</v>
+        <v>518000</v>
       </c>
       <c r="E27" s="3">
-        <v>247300</v>
+        <v>238500</v>
       </c>
       <c r="F27" s="3">
-        <v>185200</v>
+        <v>178600</v>
       </c>
       <c r="G27" s="3">
-        <v>61900</v>
+        <v>59600</v>
       </c>
       <c r="H27" s="3">
-        <v>456700</v>
+        <v>440400</v>
       </c>
       <c r="I27" s="3">
-        <v>580400</v>
+        <v>559600</v>
       </c>
       <c r="J27" s="3">
-        <v>574300</v>
+        <v>553700</v>
       </c>
       <c r="K27" s="3">
         <v>997500</v>
@@ -1353,10 +1353,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>41500</v>
+        <v>40000</v>
       </c>
       <c r="E29" s="3">
-        <v>67200</v>
+        <v>64800</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-478700</v>
+        <v>-461600</v>
       </c>
       <c r="E32" s="3">
-        <v>-149100</v>
+        <v>-143800</v>
       </c>
       <c r="F32" s="3">
-        <v>-99400</v>
+        <v>-95800</v>
       </c>
       <c r="G32" s="3">
-        <v>-90900</v>
+        <v>-87600</v>
       </c>
       <c r="H32" s="3">
-        <v>-8400</v>
+        <v>-8100</v>
       </c>
       <c r="I32" s="3">
-        <v>31500</v>
+        <v>30400</v>
       </c>
       <c r="J32" s="3">
-        <v>-72000</v>
+        <v>-69500</v>
       </c>
       <c r="K32" s="3">
         <v>-570000</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>578700</v>
+        <v>557900</v>
       </c>
       <c r="E33" s="3">
-        <v>314600</v>
+        <v>303300</v>
       </c>
       <c r="F33" s="3">
-        <v>185200</v>
+        <v>178600</v>
       </c>
       <c r="G33" s="3">
-        <v>61900</v>
+        <v>59600</v>
       </c>
       <c r="H33" s="3">
-        <v>456700</v>
+        <v>440400</v>
       </c>
       <c r="I33" s="3">
-        <v>580400</v>
+        <v>559600</v>
       </c>
       <c r="J33" s="3">
-        <v>574300</v>
+        <v>553700</v>
       </c>
       <c r="K33" s="3">
         <v>997500</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>578700</v>
+        <v>557900</v>
       </c>
       <c r="E35" s="3">
-        <v>314600</v>
+        <v>303300</v>
       </c>
       <c r="F35" s="3">
-        <v>185200</v>
+        <v>178600</v>
       </c>
       <c r="G35" s="3">
-        <v>61900</v>
+        <v>59600</v>
       </c>
       <c r="H35" s="3">
-        <v>456700</v>
+        <v>440400</v>
       </c>
       <c r="I35" s="3">
-        <v>580400</v>
+        <v>559600</v>
       </c>
       <c r="J35" s="3">
-        <v>574300</v>
+        <v>553700</v>
       </c>
       <c r="K35" s="3">
         <v>997500</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100400</v>
+        <v>95600</v>
       </c>
       <c r="E41" s="3">
-        <v>166900</v>
+        <v>158900</v>
       </c>
       <c r="F41" s="3">
-        <v>193100</v>
+        <v>183800</v>
       </c>
       <c r="G41" s="3">
-        <v>186500</v>
+        <v>177500</v>
       </c>
       <c r="H41" s="3">
-        <v>173300</v>
+        <v>165000</v>
       </c>
       <c r="I41" s="3">
-        <v>166300</v>
+        <v>158300</v>
       </c>
       <c r="J41" s="3">
-        <v>412600</v>
+        <v>392800</v>
       </c>
       <c r="K41" s="3">
         <v>448200</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>141100</v>
+        <v>134300</v>
       </c>
       <c r="E42" s="3">
-        <v>148900</v>
+        <v>141700</v>
       </c>
       <c r="F42" s="3">
-        <v>218200</v>
+        <v>207800</v>
       </c>
       <c r="G42" s="3">
-        <v>258900</v>
+        <v>246500</v>
       </c>
       <c r="H42" s="3">
-        <v>454800</v>
+        <v>433000</v>
       </c>
       <c r="I42" s="3">
-        <v>186500</v>
+        <v>177500</v>
       </c>
       <c r="J42" s="3">
-        <v>175300</v>
+        <v>166900</v>
       </c>
       <c r="K42" s="3">
         <v>548200</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1137600</v>
+        <v>1083000</v>
       </c>
       <c r="E43" s="3">
-        <v>1004700</v>
+        <v>956400</v>
       </c>
       <c r="F43" s="3">
-        <v>961800</v>
+        <v>915600</v>
       </c>
       <c r="G43" s="3">
-        <v>923000</v>
+        <v>878700</v>
       </c>
       <c r="H43" s="3">
-        <v>1634100</v>
+        <v>1555600</v>
       </c>
       <c r="I43" s="3">
-        <v>644500</v>
+        <v>613500</v>
       </c>
       <c r="J43" s="3">
-        <v>621600</v>
+        <v>591700</v>
       </c>
       <c r="K43" s="3">
         <v>1341700</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7400</v>
+        <v>7000</v>
       </c>
       <c r="E44" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F44" s="3">
+        <v>6800</v>
+      </c>
+      <c r="G44" s="3">
+        <v>8800</v>
+      </c>
+      <c r="H44" s="3">
+        <v>6600</v>
+      </c>
+      <c r="I44" s="3">
+        <v>7100</v>
+      </c>
+      <c r="J44" s="3">
         <v>6700</v>
-      </c>
-      <c r="F44" s="3">
-        <v>7100</v>
-      </c>
-      <c r="G44" s="3">
-        <v>9300</v>
-      </c>
-      <c r="H44" s="3">
-        <v>7000</v>
-      </c>
-      <c r="I44" s="3">
-        <v>7500</v>
-      </c>
-      <c r="J44" s="3">
-        <v>7100</v>
       </c>
       <c r="K44" s="3">
         <v>9600</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>513300</v>
+        <v>488600</v>
       </c>
       <c r="E45" s="3">
-        <v>3881800</v>
+        <v>3695400</v>
       </c>
       <c r="F45" s="3">
-        <v>219600</v>
+        <v>209100</v>
       </c>
       <c r="G45" s="3">
-        <v>175000</v>
+        <v>166600</v>
       </c>
       <c r="H45" s="3">
-        <v>193500</v>
+        <v>184200</v>
       </c>
       <c r="I45" s="3">
-        <v>223600</v>
+        <v>212900</v>
       </c>
       <c r="J45" s="3">
-        <v>33100</v>
+        <v>31600</v>
       </c>
       <c r="K45" s="3">
         <v>72000</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1899800</v>
+        <v>1808500</v>
       </c>
       <c r="E46" s="3">
-        <v>5209000</v>
+        <v>4958800</v>
       </c>
       <c r="F46" s="3">
-        <v>1599900</v>
+        <v>1523100</v>
       </c>
       <c r="G46" s="3">
-        <v>1552700</v>
+        <v>1478100</v>
       </c>
       <c r="H46" s="3">
-        <v>1757200</v>
+        <v>1672800</v>
       </c>
       <c r="I46" s="3">
-        <v>1228300</v>
+        <v>1169300</v>
       </c>
       <c r="J46" s="3">
-        <v>1249700</v>
+        <v>1189700</v>
       </c>
       <c r="K46" s="3">
         <v>2055900</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4038900</v>
+        <v>3844900</v>
       </c>
       <c r="E47" s="3">
-        <v>2931300</v>
+        <v>2790500</v>
       </c>
       <c r="F47" s="3">
-        <v>3354000</v>
+        <v>3192900</v>
       </c>
       <c r="G47" s="3">
-        <v>3210000</v>
+        <v>3055800</v>
       </c>
       <c r="H47" s="3">
-        <v>2943400</v>
+        <v>2802000</v>
       </c>
       <c r="I47" s="3">
-        <v>3425100</v>
+        <v>3260600</v>
       </c>
       <c r="J47" s="3">
-        <v>2642900</v>
+        <v>2516000</v>
       </c>
       <c r="K47" s="3">
         <v>3381200</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>511000</v>
+        <v>486500</v>
       </c>
       <c r="E48" s="3">
-        <v>498800</v>
+        <v>474800</v>
       </c>
       <c r="F48" s="3">
-        <v>517700</v>
+        <v>492800</v>
       </c>
       <c r="G48" s="3">
-        <v>707400</v>
+        <v>673500</v>
       </c>
       <c r="H48" s="3">
-        <v>738400</v>
+        <v>703000</v>
       </c>
       <c r="I48" s="3">
-        <v>1038900</v>
+        <v>989000</v>
       </c>
       <c r="J48" s="3">
-        <v>1090200</v>
+        <v>1037800</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>8</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2178400</v>
+        <v>2073800</v>
       </c>
       <c r="E49" s="3">
-        <v>2019600</v>
+        <v>1922700</v>
       </c>
       <c r="F49" s="3">
-        <v>2090600</v>
+        <v>1990200</v>
       </c>
       <c r="G49" s="3">
-        <v>2027600</v>
+        <v>1930200</v>
       </c>
       <c r="H49" s="3">
-        <v>1925600</v>
+        <v>1833100</v>
       </c>
       <c r="I49" s="3">
-        <v>633300</v>
+        <v>602900</v>
       </c>
       <c r="J49" s="3">
-        <v>375500</v>
+        <v>357500</v>
       </c>
       <c r="K49" s="3">
         <v>875400</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>728200</v>
+        <v>693300</v>
       </c>
       <c r="E52" s="3">
-        <v>558000</v>
+        <v>531200</v>
       </c>
       <c r="F52" s="3">
-        <v>353600</v>
+        <v>336600</v>
       </c>
       <c r="G52" s="3">
-        <v>379800</v>
+        <v>361500</v>
       </c>
       <c r="H52" s="3">
-        <v>292100</v>
+        <v>278000</v>
       </c>
       <c r="I52" s="3">
-        <v>233400</v>
+        <v>222200</v>
       </c>
       <c r="J52" s="3">
-        <v>228800</v>
+        <v>217800</v>
       </c>
       <c r="K52" s="3">
         <v>304500</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9356300</v>
+        <v>8907000</v>
       </c>
       <c r="E54" s="3">
-        <v>11216800</v>
+        <v>10678100</v>
       </c>
       <c r="F54" s="3">
-        <v>7915700</v>
+        <v>7535500</v>
       </c>
       <c r="G54" s="3">
-        <v>7877500</v>
+        <v>7499200</v>
       </c>
       <c r="H54" s="3">
-        <v>7656600</v>
+        <v>7288900</v>
       </c>
       <c r="I54" s="3">
-        <v>6559000</v>
+        <v>6244000</v>
       </c>
       <c r="J54" s="3">
-        <v>5587200</v>
+        <v>5318800</v>
       </c>
       <c r="K54" s="3">
         <v>7605700</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>389800</v>
+        <v>371100</v>
       </c>
       <c r="E57" s="3">
-        <v>337600</v>
+        <v>321300</v>
       </c>
       <c r="F57" s="3">
-        <v>439000</v>
+        <v>417900</v>
       </c>
       <c r="G57" s="3">
-        <v>363500</v>
+        <v>346000</v>
       </c>
       <c r="H57" s="3">
-        <v>356300</v>
+        <v>339200</v>
       </c>
       <c r="I57" s="3">
-        <v>300500</v>
+        <v>286100</v>
       </c>
       <c r="J57" s="3">
-        <v>199800</v>
+        <v>190200</v>
       </c>
       <c r="K57" s="3">
         <v>305000</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>530600</v>
+        <v>505100</v>
       </c>
       <c r="E58" s="3">
-        <v>411800</v>
+        <v>392000</v>
       </c>
       <c r="F58" s="3">
-        <v>444200</v>
+        <v>422900</v>
       </c>
       <c r="G58" s="3">
-        <v>906400</v>
+        <v>862900</v>
       </c>
       <c r="H58" s="3">
-        <v>1180700</v>
+        <v>1124000</v>
       </c>
       <c r="I58" s="3">
-        <v>991500</v>
+        <v>943900</v>
       </c>
       <c r="J58" s="3">
-        <v>419400</v>
+        <v>399200</v>
       </c>
       <c r="K58" s="3">
         <v>1510000</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>562400</v>
+        <v>535400</v>
       </c>
       <c r="E59" s="3">
-        <v>3634600</v>
+        <v>3460000</v>
       </c>
       <c r="F59" s="3">
-        <v>740000</v>
+        <v>704500</v>
       </c>
       <c r="G59" s="3">
-        <v>875300</v>
+        <v>833300</v>
       </c>
       <c r="H59" s="3">
-        <v>913100</v>
+        <v>869300</v>
       </c>
       <c r="I59" s="3">
-        <v>605100</v>
+        <v>576000</v>
       </c>
       <c r="J59" s="3">
-        <v>490500</v>
+        <v>467000</v>
       </c>
       <c r="K59" s="3">
         <v>1173700</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1482800</v>
+        <v>1411600</v>
       </c>
       <c r="E60" s="3">
-        <v>4384000</v>
+        <v>4173400</v>
       </c>
       <c r="F60" s="3">
-        <v>1623300</v>
+        <v>1545400</v>
       </c>
       <c r="G60" s="3">
-        <v>2145300</v>
+        <v>2042200</v>
       </c>
       <c r="H60" s="3">
-        <v>2450100</v>
+        <v>2332400</v>
       </c>
       <c r="I60" s="3">
-        <v>1897100</v>
+        <v>1806000</v>
       </c>
       <c r="J60" s="3">
-        <v>1109700</v>
+        <v>1056400</v>
       </c>
       <c r="K60" s="3">
         <v>2988700</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2292400</v>
+        <v>2182300</v>
       </c>
       <c r="E61" s="3">
-        <v>2356400</v>
+        <v>2243200</v>
       </c>
       <c r="F61" s="3">
-        <v>2253900</v>
+        <v>2145600</v>
       </c>
       <c r="G61" s="3">
-        <v>1938200</v>
+        <v>1845100</v>
       </c>
       <c r="H61" s="3">
-        <v>1661500</v>
+        <v>1581700</v>
       </c>
       <c r="I61" s="3">
-        <v>1540100</v>
+        <v>1466100</v>
       </c>
       <c r="J61" s="3">
-        <v>1353000</v>
+        <v>1288000</v>
       </c>
       <c r="K61" s="3">
         <v>922300</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2603200</v>
+        <v>2478200</v>
       </c>
       <c r="E62" s="3">
-        <v>1489400</v>
+        <v>1417800</v>
       </c>
       <c r="F62" s="3">
-        <v>1353000</v>
+        <v>1288100</v>
       </c>
       <c r="G62" s="3">
-        <v>1370200</v>
+        <v>1304400</v>
       </c>
       <c r="H62" s="3">
-        <v>1111100</v>
+        <v>1057800</v>
       </c>
       <c r="I62" s="3">
-        <v>1036400</v>
+        <v>986600</v>
       </c>
       <c r="J62" s="3">
-        <v>756100</v>
+        <v>719800</v>
       </c>
       <c r="K62" s="3">
         <v>998900</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6379200</v>
+        <v>6072800</v>
       </c>
       <c r="E66" s="3">
-        <v>8484700</v>
+        <v>8077200</v>
       </c>
       <c r="F66" s="3">
-        <v>5231000</v>
+        <v>4979800</v>
       </c>
       <c r="G66" s="3">
-        <v>5454400</v>
+        <v>5192400</v>
       </c>
       <c r="H66" s="3">
-        <v>5223500</v>
+        <v>4972600</v>
       </c>
       <c r="I66" s="3">
-        <v>4445000</v>
+        <v>4231500</v>
       </c>
       <c r="J66" s="3">
-        <v>3218700</v>
+        <v>3064200</v>
       </c>
       <c r="K66" s="3">
         <v>4908600</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2061400</v>
+        <v>1962400</v>
       </c>
       <c r="E72" s="3">
-        <v>1192200</v>
+        <v>1135000</v>
       </c>
       <c r="F72" s="3">
-        <v>1073500</v>
+        <v>1022000</v>
       </c>
       <c r="G72" s="3">
-        <v>974500</v>
+        <v>927700</v>
       </c>
       <c r="H72" s="3">
-        <v>873800</v>
+        <v>831800</v>
       </c>
       <c r="I72" s="3">
-        <v>486100</v>
+        <v>462700</v>
       </c>
       <c r="J72" s="3">
-        <v>719600</v>
+        <v>685000</v>
       </c>
       <c r="K72" s="3">
         <v>2257300</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2977200</v>
+        <v>2834200</v>
       </c>
       <c r="E76" s="3">
-        <v>2732100</v>
+        <v>2600800</v>
       </c>
       <c r="F76" s="3">
-        <v>2684700</v>
+        <v>2555800</v>
       </c>
       <c r="G76" s="3">
-        <v>2423100</v>
+        <v>2306800</v>
       </c>
       <c r="H76" s="3">
-        <v>2433100</v>
+        <v>2316300</v>
       </c>
       <c r="I76" s="3">
-        <v>2114000</v>
+        <v>2012500</v>
       </c>
       <c r="J76" s="3">
-        <v>2368400</v>
+        <v>2254700</v>
       </c>
       <c r="K76" s="3">
         <v>2697200</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>578700</v>
+        <v>557900</v>
       </c>
       <c r="E81" s="3">
-        <v>314600</v>
+        <v>303300</v>
       </c>
       <c r="F81" s="3">
-        <v>185200</v>
+        <v>178600</v>
       </c>
       <c r="G81" s="3">
-        <v>61900</v>
+        <v>59600</v>
       </c>
       <c r="H81" s="3">
-        <v>456700</v>
+        <v>440400</v>
       </c>
       <c r="I81" s="3">
-        <v>580400</v>
+        <v>559600</v>
       </c>
       <c r="J81" s="3">
-        <v>574300</v>
+        <v>553700</v>
       </c>
       <c r="K81" s="3">
         <v>997500</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>177300</v>
+        <v>170900</v>
       </c>
       <c r="E83" s="3">
-        <v>157100</v>
+        <v>151500</v>
       </c>
       <c r="F83" s="3">
-        <v>157200</v>
+        <v>151600</v>
       </c>
       <c r="G83" s="3">
-        <v>154400</v>
+        <v>148800</v>
       </c>
       <c r="H83" s="3">
-        <v>154500</v>
+        <v>148900</v>
       </c>
       <c r="I83" s="3">
-        <v>148200</v>
+        <v>142900</v>
       </c>
       <c r="J83" s="3">
-        <v>152400</v>
+        <v>146900</v>
       </c>
       <c r="K83" s="3">
         <v>178200</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>376900</v>
+        <v>363400</v>
       </c>
       <c r="E89" s="3">
-        <v>186500</v>
+        <v>179800</v>
       </c>
       <c r="F89" s="3">
-        <v>107200</v>
+        <v>103400</v>
       </c>
       <c r="G89" s="3">
-        <v>224500</v>
+        <v>216500</v>
       </c>
       <c r="H89" s="3">
-        <v>556400</v>
+        <v>536500</v>
       </c>
       <c r="I89" s="3">
-        <v>690900</v>
+        <v>666100</v>
       </c>
       <c r="J89" s="3">
-        <v>650400</v>
+        <v>627100</v>
       </c>
       <c r="K89" s="3">
         <v>566800</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-13000</v>
+        <v>-12600</v>
       </c>
       <c r="E91" s="3">
-        <v>-14200</v>
+        <v>-13700</v>
       </c>
       <c r="F91" s="3">
-        <v>-15400</v>
+        <v>-14800</v>
       </c>
       <c r="G91" s="3">
-        <v>-22200</v>
+        <v>-21400</v>
       </c>
       <c r="H91" s="3">
-        <v>-23300</v>
+        <v>-22400</v>
       </c>
       <c r="I91" s="3">
-        <v>-22600</v>
+        <v>-21700</v>
       </c>
       <c r="J91" s="3">
-        <v>-12800</v>
+        <v>-12400</v>
       </c>
       <c r="K91" s="3">
         <v>-25400</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-219900</v>
+        <v>-212100</v>
       </c>
       <c r="E94" s="3">
-        <v>-39000</v>
+        <v>-37600</v>
       </c>
       <c r="F94" s="3">
-        <v>-71400</v>
+        <v>-68900</v>
       </c>
       <c r="G94" s="3">
-        <v>-113500</v>
+        <v>-109500</v>
       </c>
       <c r="H94" s="3">
-        <v>-595200</v>
+        <v>-573900</v>
       </c>
       <c r="I94" s="3">
-        <v>-795400</v>
+        <v>-766900</v>
       </c>
       <c r="J94" s="3">
-        <v>463100</v>
+        <v>446500</v>
       </c>
       <c r="K94" s="3">
         <v>-118000</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-129700</v>
+        <v>-125100</v>
       </c>
       <c r="E96" s="3">
-        <v>-94100</v>
+        <v>-90800</v>
       </c>
       <c r="F96" s="3">
-        <v>-99800</v>
+        <v>-96300</v>
       </c>
       <c r="G96" s="3">
-        <v>-124800</v>
+        <v>-120300</v>
       </c>
       <c r="H96" s="3">
-        <v>-147400</v>
+        <v>-142100</v>
       </c>
       <c r="I96" s="3">
-        <v>-724800</v>
+        <v>-698900</v>
       </c>
       <c r="J96" s="3">
-        <v>-851200</v>
+        <v>-820700</v>
       </c>
       <c r="K96" s="3">
         <v>-408100</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-222600</v>
+        <v>-214700</v>
       </c>
       <c r="E100" s="3">
-        <v>-173200</v>
+        <v>-167000</v>
       </c>
       <c r="F100" s="3">
-        <v>-29300</v>
+        <v>-28300</v>
       </c>
       <c r="G100" s="3">
-        <v>-97900</v>
+        <v>-94400</v>
       </c>
       <c r="H100" s="3">
-        <v>45700</v>
+        <v>44100</v>
       </c>
       <c r="I100" s="3">
-        <v>-138700</v>
+        <v>-133800</v>
       </c>
       <c r="J100" s="3">
-        <v>-1061200</v>
+        <v>-1023200</v>
       </c>
       <c r="K100" s="3">
         <v>-492000</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-65700</v>
+        <v>-63300</v>
       </c>
       <c r="E102" s="3">
-        <v>-25800</v>
+        <v>-24900</v>
       </c>
       <c r="F102" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="G102" s="3">
-        <v>13000</v>
+        <v>12600</v>
       </c>
       <c r="H102" s="3">
-        <v>6900</v>
+        <v>6700</v>
       </c>
       <c r="I102" s="3">
-        <v>-243300</v>
+        <v>-234500</v>
       </c>
       <c r="J102" s="3">
-        <v>52300</v>
+        <v>50400</v>
       </c>
       <c r="K102" s="3">
         <v>-43100</v>

--- a/AAII_Financials/Yearly/CIG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CIG_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4529600</v>
+        <v>4751300</v>
       </c>
       <c r="E8" s="3">
-        <v>3972300</v>
+        <v>4166700</v>
       </c>
       <c r="F8" s="3">
-        <v>3873400</v>
+        <v>4062900</v>
       </c>
       <c r="G8" s="3">
-        <v>3349000</v>
+        <v>3512900</v>
       </c>
       <c r="H8" s="3">
-        <v>3901200</v>
+        <v>4092100</v>
       </c>
       <c r="I8" s="3">
-        <v>3485900</v>
+        <v>3656400</v>
       </c>
       <c r="J8" s="3">
-        <v>2609500</v>
+        <v>2737200</v>
       </c>
       <c r="K8" s="3">
         <v>3301400</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3496400</v>
+        <v>3667500</v>
       </c>
       <c r="E9" s="3">
-        <v>3153600</v>
+        <v>3307900</v>
       </c>
       <c r="F9" s="3">
-        <v>3119700</v>
+        <v>3272400</v>
       </c>
       <c r="G9" s="3">
-        <v>2574100</v>
+        <v>2700100</v>
       </c>
       <c r="H9" s="3">
-        <v>2830700</v>
+        <v>2969200</v>
       </c>
       <c r="I9" s="3">
-        <v>2284000</v>
+        <v>2395700</v>
       </c>
       <c r="J9" s="3">
-        <v>1757000</v>
+        <v>1843000</v>
       </c>
       <c r="K9" s="3">
         <v>2379600</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1033200</v>
+        <v>1083800</v>
       </c>
       <c r="E10" s="3">
-        <v>818700</v>
+        <v>858700</v>
       </c>
       <c r="F10" s="3">
-        <v>753700</v>
+        <v>790500</v>
       </c>
       <c r="G10" s="3">
-        <v>774900</v>
+        <v>812900</v>
       </c>
       <c r="H10" s="3">
-        <v>1070600</v>
+        <v>1123000</v>
       </c>
       <c r="I10" s="3">
-        <v>1201900</v>
+        <v>1260700</v>
       </c>
       <c r="J10" s="3">
-        <v>852500</v>
+        <v>894200</v>
       </c>
       <c r="K10" s="3">
         <v>921800</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3974900</v>
+        <v>4169400</v>
       </c>
       <c r="E17" s="3">
-        <v>3527000</v>
+        <v>3699600</v>
       </c>
       <c r="F17" s="3">
-        <v>3402000</v>
+        <v>3568400</v>
       </c>
       <c r="G17" s="3">
-        <v>3027000</v>
+        <v>3175100</v>
       </c>
       <c r="H17" s="3">
-        <v>3062400</v>
+        <v>3212200</v>
       </c>
       <c r="I17" s="3">
-        <v>2490300</v>
+        <v>2612200</v>
       </c>
       <c r="J17" s="3">
-        <v>1831200</v>
+        <v>1920900</v>
       </c>
       <c r="K17" s="3">
         <v>2489900</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>554700</v>
+        <v>581900</v>
       </c>
       <c r="E18" s="3">
-        <v>445300</v>
+        <v>467100</v>
       </c>
       <c r="F18" s="3">
-        <v>471400</v>
+        <v>494500</v>
       </c>
       <c r="G18" s="3">
-        <v>322000</v>
+        <v>337800</v>
       </c>
       <c r="H18" s="3">
-        <v>838900</v>
+        <v>879900</v>
       </c>
       <c r="I18" s="3">
-        <v>995500</v>
+        <v>1044300</v>
       </c>
       <c r="J18" s="3">
-        <v>778300</v>
+        <v>816300</v>
       </c>
       <c r="K18" s="3">
         <v>811400</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>461600</v>
+        <v>484100</v>
       </c>
       <c r="E20" s="3">
-        <v>143800</v>
+        <v>150800</v>
       </c>
       <c r="F20" s="3">
-        <v>95800</v>
+        <v>100500</v>
       </c>
       <c r="G20" s="3">
-        <v>87600</v>
+        <v>91900</v>
       </c>
       <c r="H20" s="3">
-        <v>8100</v>
+        <v>8500</v>
       </c>
       <c r="I20" s="3">
-        <v>-30400</v>
+        <v>-31800</v>
       </c>
       <c r="J20" s="3">
-        <v>69500</v>
+        <v>72900</v>
       </c>
       <c r="K20" s="3">
         <v>570000</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1190300</v>
+        <v>1245600</v>
       </c>
       <c r="E21" s="3">
-        <v>743200</v>
+        <v>777000</v>
       </c>
       <c r="F21" s="3">
-        <v>721500</v>
+        <v>754200</v>
       </c>
       <c r="G21" s="3">
-        <v>561100</v>
+        <v>586000</v>
       </c>
       <c r="H21" s="3">
-        <v>998600</v>
+        <v>1044900</v>
       </c>
       <c r="I21" s="3">
-        <v>1110600</v>
+        <v>1162500</v>
       </c>
       <c r="J21" s="3">
-        <v>997300</v>
+        <v>1043600</v>
       </c>
       <c r="K21" s="3">
         <v>1561600</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>218900</v>
+        <v>229600</v>
       </c>
       <c r="E22" s="3">
-        <v>236300</v>
+        <v>247900</v>
       </c>
       <c r="F22" s="3">
-        <v>273600</v>
+        <v>287000</v>
       </c>
       <c r="G22" s="3">
-        <v>344000</v>
+        <v>360900</v>
       </c>
       <c r="H22" s="3">
-        <v>247300</v>
+        <v>259400</v>
       </c>
       <c r="I22" s="3">
-        <v>166100</v>
+        <v>174200</v>
       </c>
       <c r="J22" s="3">
-        <v>124500</v>
+        <v>130600</v>
       </c>
       <c r="K22" s="3">
         <v>189500</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>797400</v>
+        <v>836400</v>
       </c>
       <c r="E23" s="3">
-        <v>352800</v>
+        <v>370000</v>
       </c>
       <c r="F23" s="3">
-        <v>293600</v>
+        <v>308000</v>
       </c>
       <c r="G23" s="3">
-        <v>65600</v>
+        <v>68900</v>
       </c>
       <c r="H23" s="3">
-        <v>599700</v>
+        <v>629100</v>
       </c>
       <c r="I23" s="3">
-        <v>799100</v>
+        <v>838200</v>
       </c>
       <c r="J23" s="3">
-        <v>723200</v>
+        <v>758600</v>
       </c>
       <c r="K23" s="3">
         <v>1191900</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>279300</v>
+        <v>293000</v>
       </c>
       <c r="E24" s="3">
-        <v>106900</v>
+        <v>112100</v>
       </c>
       <c r="F24" s="3">
-        <v>114900</v>
+        <v>120600</v>
       </c>
       <c r="G24" s="3">
-        <v>5900</v>
+        <v>6200</v>
       </c>
       <c r="H24" s="3">
-        <v>159200</v>
+        <v>167000</v>
       </c>
       <c r="I24" s="3">
-        <v>239500</v>
+        <v>251200</v>
       </c>
       <c r="J24" s="3">
-        <v>169500</v>
+        <v>177800</v>
       </c>
       <c r="K24" s="3">
         <v>194400</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>518100</v>
+        <v>543400</v>
       </c>
       <c r="E26" s="3">
-        <v>245900</v>
+        <v>257900</v>
       </c>
       <c r="F26" s="3">
-        <v>178700</v>
+        <v>187400</v>
       </c>
       <c r="G26" s="3">
-        <v>59700</v>
+        <v>62600</v>
       </c>
       <c r="H26" s="3">
-        <v>440500</v>
+        <v>462000</v>
       </c>
       <c r="I26" s="3">
-        <v>559600</v>
+        <v>587000</v>
       </c>
       <c r="J26" s="3">
-        <v>553700</v>
+        <v>580800</v>
       </c>
       <c r="K26" s="3">
         <v>997500</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>518000</v>
+        <v>543300</v>
       </c>
       <c r="E27" s="3">
-        <v>238500</v>
+        <v>250100</v>
       </c>
       <c r="F27" s="3">
-        <v>178600</v>
+        <v>187300</v>
       </c>
       <c r="G27" s="3">
-        <v>59600</v>
+        <v>62600</v>
       </c>
       <c r="H27" s="3">
-        <v>440400</v>
+        <v>461900</v>
       </c>
       <c r="I27" s="3">
-        <v>559600</v>
+        <v>587000</v>
       </c>
       <c r="J27" s="3">
-        <v>553700</v>
+        <v>580800</v>
       </c>
       <c r="K27" s="3">
         <v>997500</v>
@@ -1353,10 +1353,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>40000</v>
+        <v>41900</v>
       </c>
       <c r="E29" s="3">
-        <v>64800</v>
+        <v>68000</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-461600</v>
+        <v>-484100</v>
       </c>
       <c r="E32" s="3">
-        <v>-143800</v>
+        <v>-150800</v>
       </c>
       <c r="F32" s="3">
-        <v>-95800</v>
+        <v>-100500</v>
       </c>
       <c r="G32" s="3">
-        <v>-87600</v>
+        <v>-91900</v>
       </c>
       <c r="H32" s="3">
-        <v>-8100</v>
+        <v>-8500</v>
       </c>
       <c r="I32" s="3">
-        <v>30400</v>
+        <v>31800</v>
       </c>
       <c r="J32" s="3">
-        <v>-69500</v>
+        <v>-72900</v>
       </c>
       <c r="K32" s="3">
         <v>-570000</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>557900</v>
+        <v>585200</v>
       </c>
       <c r="E33" s="3">
-        <v>303300</v>
+        <v>318100</v>
       </c>
       <c r="F33" s="3">
-        <v>178600</v>
+        <v>187300</v>
       </c>
       <c r="G33" s="3">
-        <v>59600</v>
+        <v>62600</v>
       </c>
       <c r="H33" s="3">
-        <v>440400</v>
+        <v>461900</v>
       </c>
       <c r="I33" s="3">
-        <v>559600</v>
+        <v>587000</v>
       </c>
       <c r="J33" s="3">
-        <v>553700</v>
+        <v>580800</v>
       </c>
       <c r="K33" s="3">
         <v>997500</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>557900</v>
+        <v>585200</v>
       </c>
       <c r="E35" s="3">
-        <v>303300</v>
+        <v>318100</v>
       </c>
       <c r="F35" s="3">
-        <v>178600</v>
+        <v>187300</v>
       </c>
       <c r="G35" s="3">
-        <v>59600</v>
+        <v>62600</v>
       </c>
       <c r="H35" s="3">
-        <v>440400</v>
+        <v>461900</v>
       </c>
       <c r="I35" s="3">
-        <v>559600</v>
+        <v>587000</v>
       </c>
       <c r="J35" s="3">
-        <v>553700</v>
+        <v>580800</v>
       </c>
       <c r="K35" s="3">
         <v>997500</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>95600</v>
+        <v>100300</v>
       </c>
       <c r="E41" s="3">
-        <v>158900</v>
+        <v>166700</v>
       </c>
       <c r="F41" s="3">
-        <v>183800</v>
+        <v>192800</v>
       </c>
       <c r="G41" s="3">
-        <v>177500</v>
+        <v>186200</v>
       </c>
       <c r="H41" s="3">
-        <v>165000</v>
+        <v>173000</v>
       </c>
       <c r="I41" s="3">
-        <v>158300</v>
+        <v>166000</v>
       </c>
       <c r="J41" s="3">
-        <v>392800</v>
+        <v>412000</v>
       </c>
       <c r="K41" s="3">
         <v>448200</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>134300</v>
+        <v>140800</v>
       </c>
       <c r="E42" s="3">
-        <v>141700</v>
+        <v>148700</v>
       </c>
       <c r="F42" s="3">
-        <v>207800</v>
+        <v>217900</v>
       </c>
       <c r="G42" s="3">
-        <v>246500</v>
+        <v>258600</v>
       </c>
       <c r="H42" s="3">
-        <v>433000</v>
+        <v>454100</v>
       </c>
       <c r="I42" s="3">
-        <v>177500</v>
+        <v>186200</v>
       </c>
       <c r="J42" s="3">
-        <v>166900</v>
+        <v>175100</v>
       </c>
       <c r="K42" s="3">
         <v>548200</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1083000</v>
+        <v>1136000</v>
       </c>
       <c r="E43" s="3">
-        <v>956400</v>
+        <v>1003200</v>
       </c>
       <c r="F43" s="3">
-        <v>915600</v>
+        <v>960400</v>
       </c>
       <c r="G43" s="3">
-        <v>878700</v>
+        <v>921700</v>
       </c>
       <c r="H43" s="3">
-        <v>1555600</v>
+        <v>1631700</v>
       </c>
       <c r="I43" s="3">
-        <v>613500</v>
+        <v>643500</v>
       </c>
       <c r="J43" s="3">
-        <v>591700</v>
+        <v>620700</v>
       </c>
       <c r="K43" s="3">
         <v>1341700</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E44" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F44" s="3">
+        <v>7100</v>
+      </c>
+      <c r="G44" s="3">
+        <v>9300</v>
+      </c>
+      <c r="H44" s="3">
         <v>7000</v>
       </c>
-      <c r="E44" s="3">
-        <v>6400</v>
-      </c>
-      <c r="F44" s="3">
-        <v>6800</v>
-      </c>
-      <c r="G44" s="3">
-        <v>8800</v>
-      </c>
-      <c r="H44" s="3">
-        <v>6600</v>
-      </c>
       <c r="I44" s="3">
+        <v>7500</v>
+      </c>
+      <c r="J44" s="3">
         <v>7100</v>
-      </c>
-      <c r="J44" s="3">
-        <v>6700</v>
       </c>
       <c r="K44" s="3">
         <v>9600</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>488600</v>
+        <v>512600</v>
       </c>
       <c r="E45" s="3">
-        <v>3695400</v>
+        <v>3876200</v>
       </c>
       <c r="F45" s="3">
-        <v>209100</v>
+        <v>219300</v>
       </c>
       <c r="G45" s="3">
-        <v>166600</v>
+        <v>174700</v>
       </c>
       <c r="H45" s="3">
-        <v>184200</v>
+        <v>193200</v>
       </c>
       <c r="I45" s="3">
-        <v>212900</v>
+        <v>223300</v>
       </c>
       <c r="J45" s="3">
-        <v>31600</v>
+        <v>33100</v>
       </c>
       <c r="K45" s="3">
         <v>72000</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1808500</v>
+        <v>1897000</v>
       </c>
       <c r="E46" s="3">
-        <v>4958800</v>
+        <v>5201500</v>
       </c>
       <c r="F46" s="3">
-        <v>1523100</v>
+        <v>1597600</v>
       </c>
       <c r="G46" s="3">
-        <v>1478100</v>
+        <v>1550500</v>
       </c>
       <c r="H46" s="3">
-        <v>1672800</v>
+        <v>1754700</v>
       </c>
       <c r="I46" s="3">
-        <v>1169300</v>
+        <v>1226500</v>
       </c>
       <c r="J46" s="3">
-        <v>1189700</v>
+        <v>1247900</v>
       </c>
       <c r="K46" s="3">
         <v>2055900</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3844900</v>
+        <v>4033100</v>
       </c>
       <c r="E47" s="3">
-        <v>2790500</v>
+        <v>2927100</v>
       </c>
       <c r="F47" s="3">
-        <v>3192900</v>
+        <v>3349100</v>
       </c>
       <c r="G47" s="3">
-        <v>3055800</v>
+        <v>3205400</v>
       </c>
       <c r="H47" s="3">
-        <v>2802000</v>
+        <v>2939100</v>
       </c>
       <c r="I47" s="3">
-        <v>3260600</v>
+        <v>3420200</v>
       </c>
       <c r="J47" s="3">
-        <v>2516000</v>
+        <v>2639100</v>
       </c>
       <c r="K47" s="3">
         <v>3381200</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>486500</v>
+        <v>510300</v>
       </c>
       <c r="E48" s="3">
-        <v>474800</v>
+        <v>498100</v>
       </c>
       <c r="F48" s="3">
-        <v>492800</v>
+        <v>516900</v>
       </c>
       <c r="G48" s="3">
-        <v>673500</v>
+        <v>706400</v>
       </c>
       <c r="H48" s="3">
-        <v>703000</v>
+        <v>737400</v>
       </c>
       <c r="I48" s="3">
-        <v>989000</v>
+        <v>1037400</v>
       </c>
       <c r="J48" s="3">
-        <v>1037800</v>
+        <v>1088600</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>8</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2073800</v>
+        <v>2175300</v>
       </c>
       <c r="E49" s="3">
-        <v>1922700</v>
+        <v>2016700</v>
       </c>
       <c r="F49" s="3">
-        <v>1990200</v>
+        <v>2087600</v>
       </c>
       <c r="G49" s="3">
-        <v>1930200</v>
+        <v>2024700</v>
       </c>
       <c r="H49" s="3">
-        <v>1833100</v>
+        <v>1922800</v>
       </c>
       <c r="I49" s="3">
-        <v>602900</v>
+        <v>632400</v>
       </c>
       <c r="J49" s="3">
-        <v>357500</v>
+        <v>375000</v>
       </c>
       <c r="K49" s="3">
         <v>875400</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>693300</v>
+        <v>727200</v>
       </c>
       <c r="E52" s="3">
-        <v>531200</v>
+        <v>557200</v>
       </c>
       <c r="F52" s="3">
-        <v>336600</v>
+        <v>353100</v>
       </c>
       <c r="G52" s="3">
-        <v>361500</v>
+        <v>379200</v>
       </c>
       <c r="H52" s="3">
-        <v>278000</v>
+        <v>291600</v>
       </c>
       <c r="I52" s="3">
-        <v>222200</v>
+        <v>233100</v>
       </c>
       <c r="J52" s="3">
-        <v>217800</v>
+        <v>228500</v>
       </c>
       <c r="K52" s="3">
         <v>304500</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8907000</v>
+        <v>9342800</v>
       </c>
       <c r="E54" s="3">
-        <v>10678100</v>
+        <v>11200600</v>
       </c>
       <c r="F54" s="3">
-        <v>7535500</v>
+        <v>7904300</v>
       </c>
       <c r="G54" s="3">
-        <v>7499200</v>
+        <v>7866200</v>
       </c>
       <c r="H54" s="3">
-        <v>7288900</v>
+        <v>7645600</v>
       </c>
       <c r="I54" s="3">
-        <v>6244000</v>
+        <v>6549600</v>
       </c>
       <c r="J54" s="3">
-        <v>5318800</v>
+        <v>5579100</v>
       </c>
       <c r="K54" s="3">
         <v>7605700</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>371100</v>
+        <v>389200</v>
       </c>
       <c r="E57" s="3">
-        <v>321300</v>
+        <v>337100</v>
       </c>
       <c r="F57" s="3">
-        <v>417900</v>
+        <v>438400</v>
       </c>
       <c r="G57" s="3">
-        <v>346000</v>
+        <v>363000</v>
       </c>
       <c r="H57" s="3">
-        <v>339200</v>
+        <v>355800</v>
       </c>
       <c r="I57" s="3">
-        <v>286100</v>
+        <v>300100</v>
       </c>
       <c r="J57" s="3">
-        <v>190200</v>
+        <v>199500</v>
       </c>
       <c r="K57" s="3">
         <v>305000</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>505100</v>
+        <v>529800</v>
       </c>
       <c r="E58" s="3">
-        <v>392000</v>
+        <v>411200</v>
       </c>
       <c r="F58" s="3">
-        <v>422900</v>
+        <v>443600</v>
       </c>
       <c r="G58" s="3">
-        <v>862900</v>
+        <v>905100</v>
       </c>
       <c r="H58" s="3">
-        <v>1124000</v>
+        <v>1179000</v>
       </c>
       <c r="I58" s="3">
-        <v>943900</v>
+        <v>990000</v>
       </c>
       <c r="J58" s="3">
-        <v>399200</v>
+        <v>418800</v>
       </c>
       <c r="K58" s="3">
         <v>1510000</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>535400</v>
+        <v>561600</v>
       </c>
       <c r="E59" s="3">
-        <v>3460000</v>
+        <v>3629300</v>
       </c>
       <c r="F59" s="3">
-        <v>704500</v>
+        <v>739000</v>
       </c>
       <c r="G59" s="3">
-        <v>833300</v>
+        <v>874100</v>
       </c>
       <c r="H59" s="3">
-        <v>869300</v>
+        <v>911800</v>
       </c>
       <c r="I59" s="3">
-        <v>576000</v>
+        <v>604200</v>
       </c>
       <c r="J59" s="3">
-        <v>467000</v>
+        <v>489800</v>
       </c>
       <c r="K59" s="3">
         <v>1173700</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1411600</v>
+        <v>1480700</v>
       </c>
       <c r="E60" s="3">
-        <v>4173400</v>
+        <v>4377600</v>
       </c>
       <c r="F60" s="3">
-        <v>1545400</v>
+        <v>1621000</v>
       </c>
       <c r="G60" s="3">
-        <v>2042200</v>
+        <v>2142200</v>
       </c>
       <c r="H60" s="3">
-        <v>2332400</v>
+        <v>2446600</v>
       </c>
       <c r="I60" s="3">
-        <v>1806000</v>
+        <v>1894400</v>
       </c>
       <c r="J60" s="3">
-        <v>1056400</v>
+        <v>1108100</v>
       </c>
       <c r="K60" s="3">
         <v>2988700</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2182300</v>
+        <v>2289100</v>
       </c>
       <c r="E61" s="3">
-        <v>2243200</v>
+        <v>2353000</v>
       </c>
       <c r="F61" s="3">
-        <v>2145600</v>
+        <v>2250600</v>
       </c>
       <c r="G61" s="3">
-        <v>1845100</v>
+        <v>1935400</v>
       </c>
       <c r="H61" s="3">
-        <v>1581700</v>
+        <v>1659100</v>
       </c>
       <c r="I61" s="3">
-        <v>1466100</v>
+        <v>1537800</v>
       </c>
       <c r="J61" s="3">
-        <v>1288000</v>
+        <v>1351000</v>
       </c>
       <c r="K61" s="3">
         <v>922300</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2478200</v>
+        <v>2599500</v>
       </c>
       <c r="E62" s="3">
-        <v>1417800</v>
+        <v>1487200</v>
       </c>
       <c r="F62" s="3">
-        <v>1288100</v>
+        <v>1351100</v>
       </c>
       <c r="G62" s="3">
-        <v>1304400</v>
+        <v>1368200</v>
       </c>
       <c r="H62" s="3">
-        <v>1057800</v>
+        <v>1109500</v>
       </c>
       <c r="I62" s="3">
-        <v>986600</v>
+        <v>1034900</v>
       </c>
       <c r="J62" s="3">
-        <v>719800</v>
+        <v>755000</v>
       </c>
       <c r="K62" s="3">
         <v>998900</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6072800</v>
+        <v>6370000</v>
       </c>
       <c r="E66" s="3">
-        <v>8077200</v>
+        <v>8472500</v>
       </c>
       <c r="F66" s="3">
-        <v>4979800</v>
+        <v>5223500</v>
       </c>
       <c r="G66" s="3">
-        <v>5192400</v>
+        <v>5446500</v>
       </c>
       <c r="H66" s="3">
-        <v>4972600</v>
+        <v>5215900</v>
       </c>
       <c r="I66" s="3">
-        <v>4231500</v>
+        <v>4438600</v>
       </c>
       <c r="J66" s="3">
-        <v>3064200</v>
+        <v>3214100</v>
       </c>
       <c r="K66" s="3">
         <v>4908600</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1962400</v>
+        <v>2058400</v>
       </c>
       <c r="E72" s="3">
-        <v>1135000</v>
+        <v>1190500</v>
       </c>
       <c r="F72" s="3">
-        <v>1022000</v>
+        <v>1072000</v>
       </c>
       <c r="G72" s="3">
-        <v>927700</v>
+        <v>973000</v>
       </c>
       <c r="H72" s="3">
-        <v>831800</v>
+        <v>872500</v>
       </c>
       <c r="I72" s="3">
-        <v>462700</v>
+        <v>485400</v>
       </c>
       <c r="J72" s="3">
-        <v>685000</v>
+        <v>718600</v>
       </c>
       <c r="K72" s="3">
         <v>2257300</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2834200</v>
+        <v>2972900</v>
       </c>
       <c r="E76" s="3">
-        <v>2600800</v>
+        <v>2728100</v>
       </c>
       <c r="F76" s="3">
-        <v>2555800</v>
+        <v>2680800</v>
       </c>
       <c r="G76" s="3">
-        <v>2306800</v>
+        <v>2419600</v>
       </c>
       <c r="H76" s="3">
-        <v>2316300</v>
+        <v>2429600</v>
       </c>
       <c r="I76" s="3">
-        <v>2012500</v>
+        <v>2111000</v>
       </c>
       <c r="J76" s="3">
-        <v>2254700</v>
+        <v>2365000</v>
       </c>
       <c r="K76" s="3">
         <v>2697200</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>557900</v>
+        <v>585200</v>
       </c>
       <c r="E81" s="3">
-        <v>303300</v>
+        <v>318100</v>
       </c>
       <c r="F81" s="3">
-        <v>178600</v>
+        <v>187300</v>
       </c>
       <c r="G81" s="3">
-        <v>59600</v>
+        <v>62600</v>
       </c>
       <c r="H81" s="3">
-        <v>440400</v>
+        <v>461900</v>
       </c>
       <c r="I81" s="3">
-        <v>559600</v>
+        <v>587000</v>
       </c>
       <c r="J81" s="3">
-        <v>553700</v>
+        <v>580800</v>
       </c>
       <c r="K81" s="3">
         <v>997500</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>170900</v>
+        <v>179300</v>
       </c>
       <c r="E83" s="3">
-        <v>151500</v>
+        <v>158900</v>
       </c>
       <c r="F83" s="3">
-        <v>151600</v>
+        <v>159000</v>
       </c>
       <c r="G83" s="3">
-        <v>148800</v>
+        <v>156100</v>
       </c>
       <c r="H83" s="3">
-        <v>148900</v>
+        <v>156200</v>
       </c>
       <c r="I83" s="3">
-        <v>142900</v>
+        <v>149900</v>
       </c>
       <c r="J83" s="3">
-        <v>146900</v>
+        <v>154100</v>
       </c>
       <c r="K83" s="3">
         <v>178200</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>363400</v>
+        <v>381200</v>
       </c>
       <c r="E89" s="3">
-        <v>179800</v>
+        <v>188600</v>
       </c>
       <c r="F89" s="3">
-        <v>103400</v>
+        <v>108500</v>
       </c>
       <c r="G89" s="3">
-        <v>216500</v>
+        <v>227100</v>
       </c>
       <c r="H89" s="3">
-        <v>536500</v>
+        <v>562700</v>
       </c>
       <c r="I89" s="3">
-        <v>666100</v>
+        <v>698700</v>
       </c>
       <c r="J89" s="3">
-        <v>627100</v>
+        <v>657800</v>
       </c>
       <c r="K89" s="3">
         <v>566800</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-12600</v>
+        <v>-13200</v>
       </c>
       <c r="E91" s="3">
-        <v>-13700</v>
+        <v>-14400</v>
       </c>
       <c r="F91" s="3">
-        <v>-14800</v>
+        <v>-15500</v>
       </c>
       <c r="G91" s="3">
-        <v>-21400</v>
+        <v>-22400</v>
       </c>
       <c r="H91" s="3">
-        <v>-22400</v>
+        <v>-23500</v>
       </c>
       <c r="I91" s="3">
-        <v>-21700</v>
+        <v>-22800</v>
       </c>
       <c r="J91" s="3">
-        <v>-12400</v>
+        <v>-13000</v>
       </c>
       <c r="K91" s="3">
         <v>-25400</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-212100</v>
+        <v>-222400</v>
       </c>
       <c r="E94" s="3">
-        <v>-37600</v>
+        <v>-39500</v>
       </c>
       <c r="F94" s="3">
-        <v>-68900</v>
+        <v>-72200</v>
       </c>
       <c r="G94" s="3">
-        <v>-109500</v>
+        <v>-114800</v>
       </c>
       <c r="H94" s="3">
-        <v>-573900</v>
+        <v>-602000</v>
       </c>
       <c r="I94" s="3">
-        <v>-766900</v>
+        <v>-804400</v>
       </c>
       <c r="J94" s="3">
-        <v>446500</v>
+        <v>468300</v>
       </c>
       <c r="K94" s="3">
         <v>-118000</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-125100</v>
+        <v>-131200</v>
       </c>
       <c r="E96" s="3">
-        <v>-90800</v>
+        <v>-95200</v>
       </c>
       <c r="F96" s="3">
-        <v>-96300</v>
+        <v>-101000</v>
       </c>
       <c r="G96" s="3">
-        <v>-120300</v>
+        <v>-126200</v>
       </c>
       <c r="H96" s="3">
-        <v>-142100</v>
+        <v>-149000</v>
       </c>
       <c r="I96" s="3">
-        <v>-698900</v>
+        <v>-733100</v>
       </c>
       <c r="J96" s="3">
-        <v>-820700</v>
+        <v>-860900</v>
       </c>
       <c r="K96" s="3">
         <v>-408100</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-214700</v>
+        <v>-225200</v>
       </c>
       <c r="E100" s="3">
-        <v>-167000</v>
+        <v>-175200</v>
       </c>
       <c r="F100" s="3">
-        <v>-28300</v>
+        <v>-29600</v>
       </c>
       <c r="G100" s="3">
-        <v>-94400</v>
+        <v>-99100</v>
       </c>
       <c r="H100" s="3">
-        <v>44100</v>
+        <v>46200</v>
       </c>
       <c r="I100" s="3">
-        <v>-133800</v>
+        <v>-140300</v>
       </c>
       <c r="J100" s="3">
-        <v>-1023200</v>
+        <v>-1073200</v>
       </c>
       <c r="K100" s="3">
         <v>-492000</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-63300</v>
+        <v>-66400</v>
       </c>
       <c r="E102" s="3">
-        <v>-24900</v>
+        <v>-26100</v>
       </c>
       <c r="F102" s="3">
-        <v>6300</v>
+        <v>6600</v>
       </c>
       <c r="G102" s="3">
-        <v>12600</v>
+        <v>13200</v>
       </c>
       <c r="H102" s="3">
-        <v>6700</v>
+        <v>7000</v>
       </c>
       <c r="I102" s="3">
-        <v>-234500</v>
+        <v>-246000</v>
       </c>
       <c r="J102" s="3">
-        <v>50400</v>
+        <v>52900</v>
       </c>
       <c r="K102" s="3">
         <v>-43100</v>

--- a/AAII_Financials/Yearly/CIG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CIG_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4751300</v>
+        <v>4495900</v>
       </c>
       <c r="E8" s="3">
-        <v>4166700</v>
+        <v>3942700</v>
       </c>
       <c r="F8" s="3">
-        <v>4062900</v>
+        <v>3844500</v>
       </c>
       <c r="G8" s="3">
-        <v>3512900</v>
+        <v>3324100</v>
       </c>
       <c r="H8" s="3">
-        <v>4092100</v>
+        <v>3872100</v>
       </c>
       <c r="I8" s="3">
-        <v>3656400</v>
+        <v>3459900</v>
       </c>
       <c r="J8" s="3">
-        <v>2737200</v>
+        <v>2590100</v>
       </c>
       <c r="K8" s="3">
         <v>3301400</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3667500</v>
+        <v>3470300</v>
       </c>
       <c r="E9" s="3">
-        <v>3307900</v>
+        <v>3130100</v>
       </c>
       <c r="F9" s="3">
-        <v>3272400</v>
+        <v>3096400</v>
       </c>
       <c r="G9" s="3">
-        <v>2700100</v>
+        <v>2554900</v>
       </c>
       <c r="H9" s="3">
-        <v>2969200</v>
+        <v>2809600</v>
       </c>
       <c r="I9" s="3">
-        <v>2395700</v>
+        <v>2266900</v>
       </c>
       <c r="J9" s="3">
-        <v>1843000</v>
+        <v>1743900</v>
       </c>
       <c r="K9" s="3">
         <v>2379600</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1083800</v>
+        <v>1025500</v>
       </c>
       <c r="E10" s="3">
-        <v>858700</v>
+        <v>812600</v>
       </c>
       <c r="F10" s="3">
-        <v>790500</v>
+        <v>748000</v>
       </c>
       <c r="G10" s="3">
-        <v>812900</v>
+        <v>769200</v>
       </c>
       <c r="H10" s="3">
-        <v>1123000</v>
+        <v>1062600</v>
       </c>
       <c r="I10" s="3">
-        <v>1260700</v>
+        <v>1192900</v>
       </c>
       <c r="J10" s="3">
-        <v>894200</v>
+        <v>846100</v>
       </c>
       <c r="K10" s="3">
         <v>921800</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4169400</v>
+        <v>3945300</v>
       </c>
       <c r="E17" s="3">
-        <v>3699600</v>
+        <v>3500700</v>
       </c>
       <c r="F17" s="3">
-        <v>3568400</v>
+        <v>3376600</v>
       </c>
       <c r="G17" s="3">
-        <v>3175100</v>
+        <v>3004400</v>
       </c>
       <c r="H17" s="3">
-        <v>3212200</v>
+        <v>3039500</v>
       </c>
       <c r="I17" s="3">
-        <v>2612200</v>
+        <v>2471800</v>
       </c>
       <c r="J17" s="3">
-        <v>1920900</v>
+        <v>1817600</v>
       </c>
       <c r="K17" s="3">
         <v>2489900</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>581900</v>
+        <v>550600</v>
       </c>
       <c r="E18" s="3">
-        <v>467100</v>
+        <v>441900</v>
       </c>
       <c r="F18" s="3">
-        <v>494500</v>
+        <v>467900</v>
       </c>
       <c r="G18" s="3">
-        <v>337800</v>
+        <v>319600</v>
       </c>
       <c r="H18" s="3">
-        <v>879900</v>
+        <v>832600</v>
       </c>
       <c r="I18" s="3">
-        <v>1044300</v>
+        <v>988100</v>
       </c>
       <c r="J18" s="3">
-        <v>816300</v>
+        <v>772500</v>
       </c>
       <c r="K18" s="3">
         <v>811400</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>484100</v>
+        <v>458100</v>
       </c>
       <c r="E20" s="3">
-        <v>150800</v>
+        <v>142700</v>
       </c>
       <c r="F20" s="3">
-        <v>100500</v>
+        <v>95100</v>
       </c>
       <c r="G20" s="3">
-        <v>91900</v>
+        <v>87000</v>
       </c>
       <c r="H20" s="3">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="I20" s="3">
-        <v>-31800</v>
+        <v>-30100</v>
       </c>
       <c r="J20" s="3">
-        <v>72900</v>
+        <v>68900</v>
       </c>
       <c r="K20" s="3">
         <v>570000</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1245600</v>
+        <v>1179200</v>
       </c>
       <c r="E21" s="3">
-        <v>777000</v>
+        <v>735700</v>
       </c>
       <c r="F21" s="3">
-        <v>754200</v>
+        <v>714200</v>
       </c>
       <c r="G21" s="3">
-        <v>586000</v>
+        <v>555000</v>
       </c>
       <c r="H21" s="3">
-        <v>1044900</v>
+        <v>989200</v>
       </c>
       <c r="I21" s="3">
-        <v>1162500</v>
+        <v>1100500</v>
       </c>
       <c r="J21" s="3">
-        <v>1043600</v>
+        <v>987900</v>
       </c>
       <c r="K21" s="3">
         <v>1561600</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>229600</v>
+        <v>217200</v>
       </c>
       <c r="E22" s="3">
-        <v>247900</v>
+        <v>234500</v>
       </c>
       <c r="F22" s="3">
-        <v>287000</v>
+        <v>271500</v>
       </c>
       <c r="G22" s="3">
-        <v>360900</v>
+        <v>341500</v>
       </c>
       <c r="H22" s="3">
-        <v>259400</v>
+        <v>245400</v>
       </c>
       <c r="I22" s="3">
-        <v>174200</v>
+        <v>164800</v>
       </c>
       <c r="J22" s="3">
-        <v>130600</v>
+        <v>123600</v>
       </c>
       <c r="K22" s="3">
         <v>189500</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>836400</v>
+        <v>791400</v>
       </c>
       <c r="E23" s="3">
-        <v>370000</v>
+        <v>350100</v>
       </c>
       <c r="F23" s="3">
-        <v>308000</v>
+        <v>291400</v>
       </c>
       <c r="G23" s="3">
-        <v>68900</v>
+        <v>65100</v>
       </c>
       <c r="H23" s="3">
-        <v>629100</v>
+        <v>595200</v>
       </c>
       <c r="I23" s="3">
-        <v>838200</v>
+        <v>793200</v>
       </c>
       <c r="J23" s="3">
-        <v>758600</v>
+        <v>717800</v>
       </c>
       <c r="K23" s="3">
         <v>1191900</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>293000</v>
+        <v>277200</v>
       </c>
       <c r="E24" s="3">
-        <v>112100</v>
+        <v>106100</v>
       </c>
       <c r="F24" s="3">
-        <v>120600</v>
+        <v>114100</v>
       </c>
       <c r="G24" s="3">
-        <v>6200</v>
+        <v>5900</v>
       </c>
       <c r="H24" s="3">
-        <v>167000</v>
+        <v>158000</v>
       </c>
       <c r="I24" s="3">
-        <v>251200</v>
+        <v>237700</v>
       </c>
       <c r="J24" s="3">
-        <v>177800</v>
+        <v>168200</v>
       </c>
       <c r="K24" s="3">
         <v>194400</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>543400</v>
+        <v>514200</v>
       </c>
       <c r="E26" s="3">
-        <v>257900</v>
+        <v>244100</v>
       </c>
       <c r="F26" s="3">
-        <v>187400</v>
+        <v>177400</v>
       </c>
       <c r="G26" s="3">
-        <v>62600</v>
+        <v>59300</v>
       </c>
       <c r="H26" s="3">
-        <v>462000</v>
+        <v>437200</v>
       </c>
       <c r="I26" s="3">
-        <v>587000</v>
+        <v>555500</v>
       </c>
       <c r="J26" s="3">
-        <v>580800</v>
+        <v>549600</v>
       </c>
       <c r="K26" s="3">
         <v>997500</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>543300</v>
+        <v>514100</v>
       </c>
       <c r="E27" s="3">
-        <v>250100</v>
+        <v>236700</v>
       </c>
       <c r="F27" s="3">
-        <v>187300</v>
+        <v>177200</v>
       </c>
       <c r="G27" s="3">
-        <v>62600</v>
+        <v>59200</v>
       </c>
       <c r="H27" s="3">
-        <v>461900</v>
+        <v>437100</v>
       </c>
       <c r="I27" s="3">
-        <v>587000</v>
+        <v>555400</v>
       </c>
       <c r="J27" s="3">
-        <v>580800</v>
+        <v>549600</v>
       </c>
       <c r="K27" s="3">
         <v>997500</v>
@@ -1353,10 +1353,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>41900</v>
+        <v>39700</v>
       </c>
       <c r="E29" s="3">
-        <v>68000</v>
+        <v>64400</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-484100</v>
+        <v>-458100</v>
       </c>
       <c r="E32" s="3">
-        <v>-150800</v>
+        <v>-142700</v>
       </c>
       <c r="F32" s="3">
-        <v>-100500</v>
+        <v>-95100</v>
       </c>
       <c r="G32" s="3">
-        <v>-91900</v>
+        <v>-87000</v>
       </c>
       <c r="H32" s="3">
-        <v>-8500</v>
+        <v>-8000</v>
       </c>
       <c r="I32" s="3">
-        <v>31800</v>
+        <v>30100</v>
       </c>
       <c r="J32" s="3">
-        <v>-72900</v>
+        <v>-68900</v>
       </c>
       <c r="K32" s="3">
         <v>-570000</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>585200</v>
+        <v>553800</v>
       </c>
       <c r="E33" s="3">
-        <v>318100</v>
+        <v>301000</v>
       </c>
       <c r="F33" s="3">
-        <v>187300</v>
+        <v>177200</v>
       </c>
       <c r="G33" s="3">
-        <v>62600</v>
+        <v>59200</v>
       </c>
       <c r="H33" s="3">
-        <v>461900</v>
+        <v>437100</v>
       </c>
       <c r="I33" s="3">
-        <v>587000</v>
+        <v>555400</v>
       </c>
       <c r="J33" s="3">
-        <v>580800</v>
+        <v>549600</v>
       </c>
       <c r="K33" s="3">
         <v>997500</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>585200</v>
+        <v>553800</v>
       </c>
       <c r="E35" s="3">
-        <v>318100</v>
+        <v>301000</v>
       </c>
       <c r="F35" s="3">
-        <v>187300</v>
+        <v>177200</v>
       </c>
       <c r="G35" s="3">
-        <v>62600</v>
+        <v>59200</v>
       </c>
       <c r="H35" s="3">
-        <v>461900</v>
+        <v>437100</v>
       </c>
       <c r="I35" s="3">
-        <v>587000</v>
+        <v>555400</v>
       </c>
       <c r="J35" s="3">
-        <v>580800</v>
+        <v>549600</v>
       </c>
       <c r="K35" s="3">
         <v>997500</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100300</v>
+        <v>94900</v>
       </c>
       <c r="E41" s="3">
-        <v>166700</v>
+        <v>157700</v>
       </c>
       <c r="F41" s="3">
-        <v>192800</v>
+        <v>182400</v>
       </c>
       <c r="G41" s="3">
-        <v>186200</v>
+        <v>176200</v>
       </c>
       <c r="H41" s="3">
-        <v>173000</v>
+        <v>163700</v>
       </c>
       <c r="I41" s="3">
-        <v>166000</v>
+        <v>157100</v>
       </c>
       <c r="J41" s="3">
-        <v>412000</v>
+        <v>389900</v>
       </c>
       <c r="K41" s="3">
         <v>448200</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>140800</v>
+        <v>133300</v>
       </c>
       <c r="E42" s="3">
-        <v>148700</v>
+        <v>140700</v>
       </c>
       <c r="F42" s="3">
-        <v>217900</v>
+        <v>206200</v>
       </c>
       <c r="G42" s="3">
-        <v>258600</v>
+        <v>244700</v>
       </c>
       <c r="H42" s="3">
-        <v>454100</v>
+        <v>429700</v>
       </c>
       <c r="I42" s="3">
-        <v>186200</v>
+        <v>176200</v>
       </c>
       <c r="J42" s="3">
-        <v>175100</v>
+        <v>165600</v>
       </c>
       <c r="K42" s="3">
         <v>548200</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1136000</v>
+        <v>1074900</v>
       </c>
       <c r="E43" s="3">
-        <v>1003200</v>
+        <v>949300</v>
       </c>
       <c r="F43" s="3">
-        <v>960400</v>
+        <v>908800</v>
       </c>
       <c r="G43" s="3">
-        <v>921700</v>
+        <v>872200</v>
       </c>
       <c r="H43" s="3">
-        <v>1631700</v>
+        <v>1544000</v>
       </c>
       <c r="I43" s="3">
-        <v>643500</v>
+        <v>608900</v>
       </c>
       <c r="J43" s="3">
-        <v>620700</v>
+        <v>587300</v>
       </c>
       <c r="K43" s="3">
         <v>1341700</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7400</v>
+        <v>7000</v>
       </c>
       <c r="E44" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F44" s="3">
+        <v>6800</v>
+      </c>
+      <c r="G44" s="3">
+        <v>8800</v>
+      </c>
+      <c r="H44" s="3">
+        <v>6600</v>
+      </c>
+      <c r="I44" s="3">
+        <v>7100</v>
+      </c>
+      <c r="J44" s="3">
         <v>6700</v>
-      </c>
-      <c r="F44" s="3">
-        <v>7100</v>
-      </c>
-      <c r="G44" s="3">
-        <v>9300</v>
-      </c>
-      <c r="H44" s="3">
-        <v>7000</v>
-      </c>
-      <c r="I44" s="3">
-        <v>7500</v>
-      </c>
-      <c r="J44" s="3">
-        <v>7100</v>
       </c>
       <c r="K44" s="3">
         <v>9600</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>512600</v>
+        <v>485000</v>
       </c>
       <c r="E45" s="3">
-        <v>3876200</v>
+        <v>3667800</v>
       </c>
       <c r="F45" s="3">
-        <v>219300</v>
+        <v>207500</v>
       </c>
       <c r="G45" s="3">
-        <v>174700</v>
+        <v>165300</v>
       </c>
       <c r="H45" s="3">
-        <v>193200</v>
+        <v>182800</v>
       </c>
       <c r="I45" s="3">
-        <v>223300</v>
+        <v>211300</v>
       </c>
       <c r="J45" s="3">
-        <v>33100</v>
+        <v>31300</v>
       </c>
       <c r="K45" s="3">
         <v>72000</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1897000</v>
+        <v>1795000</v>
       </c>
       <c r="E46" s="3">
-        <v>5201500</v>
+        <v>4921900</v>
       </c>
       <c r="F46" s="3">
-        <v>1597600</v>
+        <v>1511700</v>
       </c>
       <c r="G46" s="3">
-        <v>1550500</v>
+        <v>1467100</v>
       </c>
       <c r="H46" s="3">
-        <v>1754700</v>
+        <v>1660300</v>
       </c>
       <c r="I46" s="3">
-        <v>1226500</v>
+        <v>1160600</v>
       </c>
       <c r="J46" s="3">
-        <v>1247900</v>
+        <v>1180800</v>
       </c>
       <c r="K46" s="3">
         <v>2055900</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4033100</v>
+        <v>3816300</v>
       </c>
       <c r="E47" s="3">
-        <v>2927100</v>
+        <v>2769700</v>
       </c>
       <c r="F47" s="3">
-        <v>3349100</v>
+        <v>3169100</v>
       </c>
       <c r="G47" s="3">
-        <v>3205400</v>
+        <v>3033100</v>
       </c>
       <c r="H47" s="3">
-        <v>2939100</v>
+        <v>2781100</v>
       </c>
       <c r="I47" s="3">
-        <v>3420200</v>
+        <v>3236300</v>
       </c>
       <c r="J47" s="3">
-        <v>2639100</v>
+        <v>2497200</v>
       </c>
       <c r="K47" s="3">
         <v>3381200</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>510300</v>
+        <v>482900</v>
       </c>
       <c r="E48" s="3">
-        <v>498100</v>
+        <v>471300</v>
       </c>
       <c r="F48" s="3">
-        <v>516900</v>
+        <v>489100</v>
       </c>
       <c r="G48" s="3">
-        <v>706400</v>
+        <v>668500</v>
       </c>
       <c r="H48" s="3">
-        <v>737400</v>
+        <v>697700</v>
       </c>
       <c r="I48" s="3">
-        <v>1037400</v>
+        <v>981600</v>
       </c>
       <c r="J48" s="3">
-        <v>1088600</v>
+        <v>1030100</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>8</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2175300</v>
+        <v>2058300</v>
       </c>
       <c r="E49" s="3">
-        <v>2016700</v>
+        <v>1908300</v>
       </c>
       <c r="F49" s="3">
-        <v>2087600</v>
+        <v>1975400</v>
       </c>
       <c r="G49" s="3">
-        <v>2024700</v>
+        <v>1915800</v>
       </c>
       <c r="H49" s="3">
-        <v>1922800</v>
+        <v>1819400</v>
       </c>
       <c r="I49" s="3">
-        <v>632400</v>
+        <v>598400</v>
       </c>
       <c r="J49" s="3">
-        <v>375000</v>
+        <v>354800</v>
       </c>
       <c r="K49" s="3">
         <v>875400</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>727200</v>
+        <v>688100</v>
       </c>
       <c r="E52" s="3">
-        <v>557200</v>
+        <v>527300</v>
       </c>
       <c r="F52" s="3">
-        <v>353100</v>
+        <v>334100</v>
       </c>
       <c r="G52" s="3">
-        <v>379200</v>
+        <v>358800</v>
       </c>
       <c r="H52" s="3">
-        <v>291600</v>
+        <v>276000</v>
       </c>
       <c r="I52" s="3">
-        <v>233100</v>
+        <v>220600</v>
       </c>
       <c r="J52" s="3">
-        <v>228500</v>
+        <v>216200</v>
       </c>
       <c r="K52" s="3">
         <v>304500</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9342800</v>
+        <v>8840600</v>
       </c>
       <c r="E54" s="3">
-        <v>11200600</v>
+        <v>10598500</v>
       </c>
       <c r="F54" s="3">
-        <v>7904300</v>
+        <v>7479400</v>
       </c>
       <c r="G54" s="3">
-        <v>7866200</v>
+        <v>7443300</v>
       </c>
       <c r="H54" s="3">
-        <v>7645600</v>
+        <v>7234600</v>
       </c>
       <c r="I54" s="3">
-        <v>6549600</v>
+        <v>6197500</v>
       </c>
       <c r="J54" s="3">
-        <v>5579100</v>
+        <v>5279200</v>
       </c>
       <c r="K54" s="3">
         <v>7605700</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>389200</v>
+        <v>368300</v>
       </c>
       <c r="E57" s="3">
-        <v>337100</v>
+        <v>318900</v>
       </c>
       <c r="F57" s="3">
-        <v>438400</v>
+        <v>414800</v>
       </c>
       <c r="G57" s="3">
-        <v>363000</v>
+        <v>343400</v>
       </c>
       <c r="H57" s="3">
-        <v>355800</v>
+        <v>336600</v>
       </c>
       <c r="I57" s="3">
-        <v>300100</v>
+        <v>284000</v>
       </c>
       <c r="J57" s="3">
-        <v>199500</v>
+        <v>188800</v>
       </c>
       <c r="K57" s="3">
         <v>305000</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>529800</v>
+        <v>501300</v>
       </c>
       <c r="E58" s="3">
-        <v>411200</v>
+        <v>389100</v>
       </c>
       <c r="F58" s="3">
-        <v>443600</v>
+        <v>419800</v>
       </c>
       <c r="G58" s="3">
-        <v>905100</v>
+        <v>856500</v>
       </c>
       <c r="H58" s="3">
-        <v>1179000</v>
+        <v>1115600</v>
       </c>
       <c r="I58" s="3">
-        <v>990000</v>
+        <v>936800</v>
       </c>
       <c r="J58" s="3">
-        <v>418800</v>
+        <v>396200</v>
       </c>
       <c r="K58" s="3">
         <v>1510000</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>561600</v>
+        <v>531400</v>
       </c>
       <c r="E59" s="3">
-        <v>3629300</v>
+        <v>3434200</v>
       </c>
       <c r="F59" s="3">
-        <v>739000</v>
+        <v>699200</v>
       </c>
       <c r="G59" s="3">
-        <v>874100</v>
+        <v>827100</v>
       </c>
       <c r="H59" s="3">
-        <v>911800</v>
+        <v>862800</v>
       </c>
       <c r="I59" s="3">
-        <v>604200</v>
+        <v>571700</v>
       </c>
       <c r="J59" s="3">
-        <v>489800</v>
+        <v>463500</v>
       </c>
       <c r="K59" s="3">
         <v>1173700</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1480700</v>
+        <v>1401100</v>
       </c>
       <c r="E60" s="3">
-        <v>4377600</v>
+        <v>4142300</v>
       </c>
       <c r="F60" s="3">
-        <v>1621000</v>
+        <v>1533800</v>
       </c>
       <c r="G60" s="3">
-        <v>2142200</v>
+        <v>2027000</v>
       </c>
       <c r="H60" s="3">
-        <v>2446600</v>
+        <v>2315000</v>
       </c>
       <c r="I60" s="3">
-        <v>1894400</v>
+        <v>1792500</v>
       </c>
       <c r="J60" s="3">
-        <v>1108100</v>
+        <v>1048500</v>
       </c>
       <c r="K60" s="3">
         <v>2988700</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2289100</v>
+        <v>2166000</v>
       </c>
       <c r="E61" s="3">
-        <v>2353000</v>
+        <v>2226500</v>
       </c>
       <c r="F61" s="3">
-        <v>2250600</v>
+        <v>2129600</v>
       </c>
       <c r="G61" s="3">
-        <v>1935400</v>
+        <v>1831300</v>
       </c>
       <c r="H61" s="3">
-        <v>1659100</v>
+        <v>1569900</v>
       </c>
       <c r="I61" s="3">
-        <v>1537800</v>
+        <v>1455200</v>
       </c>
       <c r="J61" s="3">
-        <v>1351000</v>
+        <v>1278400</v>
       </c>
       <c r="K61" s="3">
         <v>922300</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2599500</v>
+        <v>2459700</v>
       </c>
       <c r="E62" s="3">
-        <v>1487200</v>
+        <v>1407300</v>
       </c>
       <c r="F62" s="3">
-        <v>1351100</v>
+        <v>1278400</v>
       </c>
       <c r="G62" s="3">
-        <v>1368200</v>
+        <v>1294700</v>
       </c>
       <c r="H62" s="3">
-        <v>1109500</v>
+        <v>1049900</v>
       </c>
       <c r="I62" s="3">
-        <v>1034900</v>
+        <v>979200</v>
       </c>
       <c r="J62" s="3">
-        <v>755000</v>
+        <v>714400</v>
       </c>
       <c r="K62" s="3">
         <v>998900</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6370000</v>
+        <v>6027500</v>
       </c>
       <c r="E66" s="3">
-        <v>8472500</v>
+        <v>8017000</v>
       </c>
       <c r="F66" s="3">
-        <v>5223500</v>
+        <v>4942700</v>
       </c>
       <c r="G66" s="3">
-        <v>5446500</v>
+        <v>5153700</v>
       </c>
       <c r="H66" s="3">
-        <v>5215900</v>
+        <v>4935500</v>
       </c>
       <c r="I66" s="3">
-        <v>4438600</v>
+        <v>4199900</v>
       </c>
       <c r="J66" s="3">
-        <v>3214100</v>
+        <v>3041300</v>
       </c>
       <c r="K66" s="3">
         <v>4908600</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2058400</v>
+        <v>1947700</v>
       </c>
       <c r="E72" s="3">
-        <v>1190500</v>
+        <v>1126500</v>
       </c>
       <c r="F72" s="3">
-        <v>1072000</v>
+        <v>1014400</v>
       </c>
       <c r="G72" s="3">
-        <v>973000</v>
+        <v>920700</v>
       </c>
       <c r="H72" s="3">
-        <v>872500</v>
+        <v>825600</v>
       </c>
       <c r="I72" s="3">
-        <v>485400</v>
+        <v>459300</v>
       </c>
       <c r="J72" s="3">
-        <v>718600</v>
+        <v>679900</v>
       </c>
       <c r="K72" s="3">
         <v>2257300</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2972900</v>
+        <v>2813000</v>
       </c>
       <c r="E76" s="3">
-        <v>2728100</v>
+        <v>2581500</v>
       </c>
       <c r="F76" s="3">
-        <v>2680800</v>
+        <v>2536700</v>
       </c>
       <c r="G76" s="3">
-        <v>2419600</v>
+        <v>2289600</v>
       </c>
       <c r="H76" s="3">
-        <v>2429600</v>
+        <v>2299000</v>
       </c>
       <c r="I76" s="3">
-        <v>2111000</v>
+        <v>1997500</v>
       </c>
       <c r="J76" s="3">
-        <v>2365000</v>
+        <v>2237900</v>
       </c>
       <c r="K76" s="3">
         <v>2697200</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>585200</v>
+        <v>553800</v>
       </c>
       <c r="E81" s="3">
-        <v>318100</v>
+        <v>301000</v>
       </c>
       <c r="F81" s="3">
-        <v>187300</v>
+        <v>177200</v>
       </c>
       <c r="G81" s="3">
-        <v>62600</v>
+        <v>59200</v>
       </c>
       <c r="H81" s="3">
-        <v>461900</v>
+        <v>437100</v>
       </c>
       <c r="I81" s="3">
-        <v>587000</v>
+        <v>555400</v>
       </c>
       <c r="J81" s="3">
-        <v>580800</v>
+        <v>549600</v>
       </c>
       <c r="K81" s="3">
         <v>997500</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>179300</v>
+        <v>169700</v>
       </c>
       <c r="E83" s="3">
-        <v>158900</v>
+        <v>150300</v>
       </c>
       <c r="F83" s="3">
-        <v>159000</v>
+        <v>150500</v>
       </c>
       <c r="G83" s="3">
-        <v>156100</v>
+        <v>147700</v>
       </c>
       <c r="H83" s="3">
-        <v>156200</v>
+        <v>147800</v>
       </c>
       <c r="I83" s="3">
-        <v>149900</v>
+        <v>141800</v>
       </c>
       <c r="J83" s="3">
-        <v>154100</v>
+        <v>145800</v>
       </c>
       <c r="K83" s="3">
         <v>178200</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>381200</v>
+        <v>360700</v>
       </c>
       <c r="E89" s="3">
-        <v>188600</v>
+        <v>178500</v>
       </c>
       <c r="F89" s="3">
-        <v>108500</v>
+        <v>102600</v>
       </c>
       <c r="G89" s="3">
-        <v>227100</v>
+        <v>214900</v>
       </c>
       <c r="H89" s="3">
-        <v>562700</v>
+        <v>532500</v>
       </c>
       <c r="I89" s="3">
-        <v>698700</v>
+        <v>661200</v>
       </c>
       <c r="J89" s="3">
-        <v>657800</v>
+        <v>622400</v>
       </c>
       <c r="K89" s="3">
         <v>566800</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-13200</v>
+        <v>-12500</v>
       </c>
       <c r="E91" s="3">
-        <v>-14400</v>
+        <v>-13600</v>
       </c>
       <c r="F91" s="3">
-        <v>-15500</v>
+        <v>-14700</v>
       </c>
       <c r="G91" s="3">
-        <v>-22400</v>
+        <v>-21200</v>
       </c>
       <c r="H91" s="3">
-        <v>-23500</v>
+        <v>-22300</v>
       </c>
       <c r="I91" s="3">
-        <v>-22800</v>
+        <v>-21600</v>
       </c>
       <c r="J91" s="3">
-        <v>-13000</v>
+        <v>-12300</v>
       </c>
       <c r="K91" s="3">
         <v>-25400</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-222400</v>
+        <v>-210500</v>
       </c>
       <c r="E94" s="3">
-        <v>-39500</v>
+        <v>-37400</v>
       </c>
       <c r="F94" s="3">
-        <v>-72200</v>
+        <v>-68400</v>
       </c>
       <c r="G94" s="3">
-        <v>-114800</v>
+        <v>-108600</v>
       </c>
       <c r="H94" s="3">
-        <v>-602000</v>
+        <v>-569600</v>
       </c>
       <c r="I94" s="3">
-        <v>-804400</v>
+        <v>-761200</v>
       </c>
       <c r="J94" s="3">
-        <v>468300</v>
+        <v>443200</v>
       </c>
       <c r="K94" s="3">
         <v>-118000</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-131200</v>
+        <v>-124200</v>
       </c>
       <c r="E96" s="3">
-        <v>-95200</v>
+        <v>-90100</v>
       </c>
       <c r="F96" s="3">
-        <v>-101000</v>
+        <v>-95600</v>
       </c>
       <c r="G96" s="3">
-        <v>-126200</v>
+        <v>-119500</v>
       </c>
       <c r="H96" s="3">
-        <v>-149000</v>
+        <v>-141000</v>
       </c>
       <c r="I96" s="3">
-        <v>-733100</v>
+        <v>-693600</v>
       </c>
       <c r="J96" s="3">
-        <v>-860900</v>
+        <v>-814600</v>
       </c>
       <c r="K96" s="3">
         <v>-408100</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-225200</v>
+        <v>-213100</v>
       </c>
       <c r="E100" s="3">
-        <v>-175200</v>
+        <v>-165800</v>
       </c>
       <c r="F100" s="3">
-        <v>-29600</v>
+        <v>-28000</v>
       </c>
       <c r="G100" s="3">
-        <v>-99100</v>
+        <v>-93700</v>
       </c>
       <c r="H100" s="3">
-        <v>46200</v>
+        <v>43800</v>
       </c>
       <c r="I100" s="3">
-        <v>-140300</v>
+        <v>-132800</v>
       </c>
       <c r="J100" s="3">
-        <v>-1073200</v>
+        <v>-1015500</v>
       </c>
       <c r="K100" s="3">
         <v>-492000</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-66400</v>
+        <v>-62900</v>
       </c>
       <c r="E102" s="3">
-        <v>-26100</v>
+        <v>-24700</v>
       </c>
       <c r="F102" s="3">
+        <v>6200</v>
+      </c>
+      <c r="G102" s="3">
+        <v>12500</v>
+      </c>
+      <c r="H102" s="3">
         <v>6600</v>
       </c>
-      <c r="G102" s="3">
-        <v>13200</v>
-      </c>
-      <c r="H102" s="3">
-        <v>7000</v>
-      </c>
       <c r="I102" s="3">
-        <v>-246000</v>
+        <v>-232800</v>
       </c>
       <c r="J102" s="3">
-        <v>52900</v>
+        <v>50100</v>
       </c>
       <c r="K102" s="3">
         <v>-43100</v>

--- a/AAII_Financials/Yearly/CIG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CIG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>CIG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4495900</v>
+        <v>4732200</v>
       </c>
       <c r="E8" s="3">
-        <v>3942700</v>
+        <v>4780800</v>
       </c>
       <c r="F8" s="3">
-        <v>3844500</v>
+        <v>4176700</v>
       </c>
       <c r="G8" s="3">
-        <v>3324100</v>
+        <v>4072700</v>
       </c>
       <c r="H8" s="3">
-        <v>3872100</v>
+        <v>3521400</v>
       </c>
       <c r="I8" s="3">
-        <v>3459900</v>
+        <v>4102000</v>
       </c>
       <c r="J8" s="3">
+        <v>3665200</v>
+      </c>
+      <c r="K8" s="3">
         <v>2590100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3301400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3177300</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3470300</v>
+        <v>3722500</v>
       </c>
       <c r="E9" s="3">
-        <v>3130100</v>
+        <v>3676300</v>
       </c>
       <c r="F9" s="3">
-        <v>3096400</v>
+        <v>3315900</v>
       </c>
       <c r="G9" s="3">
-        <v>2554900</v>
+        <v>3280200</v>
       </c>
       <c r="H9" s="3">
-        <v>2809600</v>
+        <v>2706600</v>
       </c>
       <c r="I9" s="3">
-        <v>2266900</v>
+        <v>2976300</v>
       </c>
       <c r="J9" s="3">
+        <v>2401500</v>
+      </c>
+      <c r="K9" s="3">
         <v>1743900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2379600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2529300</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1025500</v>
+        <v>1009700</v>
       </c>
       <c r="E10" s="3">
-        <v>812600</v>
+        <v>1104500</v>
       </c>
       <c r="F10" s="3">
-        <v>748000</v>
+        <v>860800</v>
       </c>
       <c r="G10" s="3">
-        <v>769200</v>
+        <v>792400</v>
       </c>
       <c r="H10" s="3">
-        <v>1062600</v>
+        <v>814800</v>
       </c>
       <c r="I10" s="3">
-        <v>1192900</v>
+        <v>1125700</v>
       </c>
       <c r="J10" s="3">
+        <v>1263700</v>
+      </c>
+      <c r="K10" s="3">
         <v>846100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>921800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>648000</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,9 +906,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -921,11 +940,14 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>1800</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -956,9 +978,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3945300</v>
+        <v>3849400</v>
       </c>
       <c r="E17" s="3">
-        <v>3500700</v>
+        <v>4178800</v>
       </c>
       <c r="F17" s="3">
-        <v>3376600</v>
+        <v>3708500</v>
       </c>
       <c r="G17" s="3">
-        <v>3004400</v>
+        <v>3577000</v>
       </c>
       <c r="H17" s="3">
-        <v>3039500</v>
+        <v>3182800</v>
       </c>
       <c r="I17" s="3">
-        <v>2471800</v>
+        <v>3219900</v>
       </c>
       <c r="J17" s="3">
+        <v>2618500</v>
+      </c>
+      <c r="K17" s="3">
         <v>1817600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2489900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2202000</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>550600</v>
+        <v>882800</v>
       </c>
       <c r="E18" s="3">
-        <v>441900</v>
+        <v>602100</v>
       </c>
       <c r="F18" s="3">
-        <v>467900</v>
+        <v>468200</v>
       </c>
       <c r="G18" s="3">
-        <v>319600</v>
+        <v>495700</v>
       </c>
       <c r="H18" s="3">
-        <v>832600</v>
+        <v>338600</v>
       </c>
       <c r="I18" s="3">
-        <v>988100</v>
+        <v>882000</v>
       </c>
       <c r="J18" s="3">
+        <v>1046800</v>
+      </c>
+      <c r="K18" s="3">
         <v>772500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>811400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>975300</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>458100</v>
+        <v>51100</v>
       </c>
       <c r="E20" s="3">
-        <v>142700</v>
+        <v>485300</v>
       </c>
       <c r="F20" s="3">
-        <v>95100</v>
+        <v>151200</v>
       </c>
       <c r="G20" s="3">
-        <v>87000</v>
+        <v>100700</v>
       </c>
       <c r="H20" s="3">
-        <v>8000</v>
+        <v>92100</v>
       </c>
       <c r="I20" s="3">
-        <v>-30100</v>
+        <v>8500</v>
       </c>
       <c r="J20" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="K20" s="3">
         <v>68900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>570000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>68500</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1179200</v>
+        <v>1119900</v>
       </c>
       <c r="E21" s="3">
-        <v>735700</v>
+        <v>1267600</v>
       </c>
       <c r="F21" s="3">
-        <v>714200</v>
+        <v>779100</v>
       </c>
       <c r="G21" s="3">
-        <v>555000</v>
+        <v>756200</v>
       </c>
       <c r="H21" s="3">
-        <v>989200</v>
+        <v>587600</v>
       </c>
       <c r="I21" s="3">
-        <v>1100500</v>
+        <v>1047600</v>
       </c>
       <c r="J21" s="3">
+        <v>1165500</v>
+      </c>
+      <c r="K21" s="3">
         <v>987900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1561600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1240600</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>217200</v>
+        <v>220900</v>
       </c>
       <c r="E22" s="3">
-        <v>234500</v>
+        <v>230100</v>
       </c>
       <c r="F22" s="3">
-        <v>271500</v>
+        <v>248500</v>
       </c>
       <c r="G22" s="3">
-        <v>341500</v>
+        <v>287700</v>
       </c>
       <c r="H22" s="3">
-        <v>245400</v>
+        <v>361700</v>
       </c>
       <c r="I22" s="3">
-        <v>164800</v>
+        <v>260000</v>
       </c>
       <c r="J22" s="3">
+        <v>174600</v>
+      </c>
+      <c r="K22" s="3">
         <v>123600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>189500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>232500</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>791400</v>
+        <v>713000</v>
       </c>
       <c r="E23" s="3">
-        <v>350100</v>
+        <v>857300</v>
       </c>
       <c r="F23" s="3">
-        <v>291400</v>
+        <v>370900</v>
       </c>
       <c r="G23" s="3">
-        <v>65100</v>
+        <v>308700</v>
       </c>
       <c r="H23" s="3">
-        <v>595200</v>
+        <v>69000</v>
       </c>
       <c r="I23" s="3">
-        <v>793200</v>
+        <v>630600</v>
       </c>
       <c r="J23" s="3">
+        <v>840200</v>
+      </c>
+      <c r="K23" s="3">
         <v>717800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1191900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>811200</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>277200</v>
+        <v>175500</v>
       </c>
       <c r="E24" s="3">
-        <v>106100</v>
+        <v>300100</v>
       </c>
       <c r="F24" s="3">
-        <v>114100</v>
+        <v>112400</v>
       </c>
       <c r="G24" s="3">
-        <v>5900</v>
+        <v>120900</v>
       </c>
       <c r="H24" s="3">
-        <v>158000</v>
+        <v>6200</v>
       </c>
       <c r="I24" s="3">
-        <v>237700</v>
+        <v>167400</v>
       </c>
       <c r="J24" s="3">
+        <v>251800</v>
+      </c>
+      <c r="K24" s="3">
         <v>168200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>194400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>192000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>514200</v>
+        <v>537400</v>
       </c>
       <c r="E26" s="3">
-        <v>244100</v>
+        <v>557200</v>
       </c>
       <c r="F26" s="3">
-        <v>177400</v>
+        <v>258500</v>
       </c>
       <c r="G26" s="3">
-        <v>59300</v>
+        <v>187900</v>
       </c>
       <c r="H26" s="3">
-        <v>437200</v>
+        <v>62800</v>
       </c>
       <c r="I26" s="3">
-        <v>555500</v>
+        <v>463100</v>
       </c>
       <c r="J26" s="3">
+        <v>588400</v>
+      </c>
+      <c r="K26" s="3">
         <v>549600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>997500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>619200</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>514100</v>
+        <v>537200</v>
       </c>
       <c r="E27" s="3">
-        <v>236700</v>
+        <v>557000</v>
       </c>
       <c r="F27" s="3">
-        <v>177200</v>
+        <v>250700</v>
       </c>
       <c r="G27" s="3">
-        <v>59200</v>
+        <v>187800</v>
       </c>
       <c r="H27" s="3">
-        <v>437100</v>
+        <v>62700</v>
       </c>
       <c r="I27" s="3">
-        <v>555400</v>
+        <v>463000</v>
       </c>
       <c r="J27" s="3">
+        <v>588400</v>
+      </c>
+      <c r="K27" s="3">
         <v>549600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>997500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>619200</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,20 +1403,23 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>39700</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>64400</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
+        <v>42000</v>
+      </c>
+      <c r="F29" s="3">
+        <v>68200</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1376,12 +1436,15 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-458100</v>
+        <v>-51100</v>
       </c>
       <c r="E32" s="3">
-        <v>-142700</v>
+        <v>-485300</v>
       </c>
       <c r="F32" s="3">
-        <v>-95100</v>
+        <v>-151200</v>
       </c>
       <c r="G32" s="3">
-        <v>-87000</v>
+        <v>-100700</v>
       </c>
       <c r="H32" s="3">
-        <v>-8000</v>
+        <v>-92100</v>
       </c>
       <c r="I32" s="3">
-        <v>30100</v>
+        <v>-8500</v>
       </c>
       <c r="J32" s="3">
+        <v>31900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-68900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-570000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-68500</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>553800</v>
+        <v>537200</v>
       </c>
       <c r="E33" s="3">
-        <v>301000</v>
+        <v>599100</v>
       </c>
       <c r="F33" s="3">
-        <v>177200</v>
+        <v>318900</v>
       </c>
       <c r="G33" s="3">
-        <v>59200</v>
+        <v>187800</v>
       </c>
       <c r="H33" s="3">
-        <v>437100</v>
+        <v>62700</v>
       </c>
       <c r="I33" s="3">
-        <v>555400</v>
+        <v>463000</v>
       </c>
       <c r="J33" s="3">
+        <v>588400</v>
+      </c>
+      <c r="K33" s="3">
         <v>549600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>997500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>619200</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>553800</v>
+        <v>537200</v>
       </c>
       <c r="E35" s="3">
-        <v>301000</v>
+        <v>599100</v>
       </c>
       <c r="F35" s="3">
-        <v>177200</v>
+        <v>318900</v>
       </c>
       <c r="G35" s="3">
-        <v>59200</v>
+        <v>187800</v>
       </c>
       <c r="H35" s="3">
-        <v>437100</v>
+        <v>62700</v>
       </c>
       <c r="I35" s="3">
-        <v>555400</v>
+        <v>463000</v>
       </c>
       <c r="J35" s="3">
+        <v>588400</v>
+      </c>
+      <c r="K35" s="3">
         <v>549600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>997500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>619200</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>94900</v>
+        <v>315200</v>
       </c>
       <c r="E41" s="3">
-        <v>157700</v>
+        <v>100500</v>
       </c>
       <c r="F41" s="3">
-        <v>182400</v>
+        <v>334200</v>
       </c>
       <c r="G41" s="3">
-        <v>176200</v>
+        <v>193300</v>
       </c>
       <c r="H41" s="3">
-        <v>163700</v>
+        <v>186700</v>
       </c>
       <c r="I41" s="3">
-        <v>157100</v>
+        <v>173400</v>
       </c>
       <c r="J41" s="3">
+        <v>166400</v>
+      </c>
+      <c r="K41" s="3">
         <v>389900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>448200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>539400</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>133300</v>
+        <v>630300</v>
       </c>
       <c r="E42" s="3">
-        <v>140700</v>
+        <v>141200</v>
       </c>
       <c r="F42" s="3">
-        <v>206200</v>
+        <v>149000</v>
       </c>
       <c r="G42" s="3">
-        <v>244700</v>
+        <v>218500</v>
       </c>
       <c r="H42" s="3">
-        <v>429700</v>
+        <v>259200</v>
       </c>
       <c r="I42" s="3">
-        <v>176200</v>
+        <v>455200</v>
       </c>
       <c r="J42" s="3">
+        <v>186700</v>
+      </c>
+      <c r="K42" s="3">
         <v>165600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>548200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>102900</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1074900</v>
+        <v>1486700</v>
       </c>
       <c r="E43" s="3">
-        <v>949300</v>
+        <v>1214600</v>
       </c>
       <c r="F43" s="3">
-        <v>908800</v>
+        <v>1122800</v>
       </c>
       <c r="G43" s="3">
-        <v>872200</v>
+        <v>962700</v>
       </c>
       <c r="H43" s="3">
-        <v>1544000</v>
+        <v>923900</v>
       </c>
       <c r="I43" s="3">
-        <v>608900</v>
+        <v>1635700</v>
       </c>
       <c r="J43" s="3">
+        <v>645100</v>
+      </c>
+      <c r="K43" s="3">
         <v>587300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1341700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>976000</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F44" s="3">
+        <v>6700</v>
+      </c>
+      <c r="G44" s="3">
+        <v>7200</v>
+      </c>
+      <c r="H44" s="3">
+        <v>9300</v>
+      </c>
+      <c r="I44" s="3">
         <v>7000</v>
       </c>
-      <c r="E44" s="3">
-        <v>6300</v>
-      </c>
-      <c r="F44" s="3">
-        <v>6800</v>
-      </c>
-      <c r="G44" s="3">
-        <v>8800</v>
-      </c>
-      <c r="H44" s="3">
-        <v>6600</v>
-      </c>
-      <c r="I44" s="3">
-        <v>7100</v>
-      </c>
       <c r="J44" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K44" s="3">
         <v>6700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>9600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7900</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>485000</v>
+        <v>467100</v>
       </c>
       <c r="E45" s="3">
-        <v>3667800</v>
+        <v>558100</v>
       </c>
       <c r="F45" s="3">
-        <v>207500</v>
+        <v>3949600</v>
       </c>
       <c r="G45" s="3">
-        <v>165300</v>
+        <v>219800</v>
       </c>
       <c r="H45" s="3">
-        <v>182800</v>
+        <v>175200</v>
       </c>
       <c r="I45" s="3">
-        <v>211300</v>
+        <v>193700</v>
       </c>
       <c r="J45" s="3">
+        <v>223800</v>
+      </c>
+      <c r="K45" s="3">
         <v>31300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>72000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>287900</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1795000</v>
+        <v>2899300</v>
       </c>
       <c r="E46" s="3">
-        <v>4921900</v>
+        <v>1942000</v>
       </c>
       <c r="F46" s="3">
-        <v>1511700</v>
+        <v>5245900</v>
       </c>
       <c r="G46" s="3">
-        <v>1467100</v>
+        <v>1601400</v>
       </c>
       <c r="H46" s="3">
-        <v>1660300</v>
+        <v>1554200</v>
       </c>
       <c r="I46" s="3">
-        <v>1160600</v>
+        <v>1758900</v>
       </c>
       <c r="J46" s="3">
+        <v>1229500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1180800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2055900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1478800</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3816300</v>
+        <v>3623800</v>
       </c>
       <c r="E47" s="3">
-        <v>2769700</v>
+        <v>4114700</v>
       </c>
       <c r="F47" s="3">
-        <v>3169100</v>
+        <v>3991100</v>
       </c>
       <c r="G47" s="3">
-        <v>3033100</v>
+        <v>3357200</v>
       </c>
       <c r="H47" s="3">
-        <v>2781100</v>
+        <v>3213100</v>
       </c>
       <c r="I47" s="3">
-        <v>3236300</v>
+        <v>2946200</v>
       </c>
       <c r="J47" s="3">
+        <v>3428400</v>
+      </c>
+      <c r="K47" s="3">
         <v>2497200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3381200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3724200</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>482900</v>
+        <v>491300</v>
       </c>
       <c r="E48" s="3">
-        <v>471300</v>
+        <v>511500</v>
       </c>
       <c r="F48" s="3">
-        <v>489100</v>
+        <v>998500</v>
       </c>
       <c r="G48" s="3">
-        <v>668500</v>
+        <v>518200</v>
       </c>
       <c r="H48" s="3">
-        <v>697700</v>
+        <v>708100</v>
       </c>
       <c r="I48" s="3">
-        <v>981600</v>
+        <v>739100</v>
       </c>
       <c r="J48" s="3">
+        <v>1039900</v>
+      </c>
+      <c r="K48" s="3">
         <v>1030100</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="L48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3859500</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2058300</v>
+        <v>2215300</v>
       </c>
       <c r="E49" s="3">
-        <v>1908300</v>
+        <v>2180500</v>
       </c>
       <c r="F49" s="3">
-        <v>1975400</v>
+        <v>4043200</v>
       </c>
       <c r="G49" s="3">
-        <v>1915800</v>
+        <v>2092600</v>
       </c>
       <c r="H49" s="3">
-        <v>1819400</v>
+        <v>2029600</v>
       </c>
       <c r="I49" s="3">
-        <v>598400</v>
+        <v>1927400</v>
       </c>
       <c r="J49" s="3">
+        <v>633900</v>
+      </c>
+      <c r="K49" s="3">
         <v>354800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>875400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2101100</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>688100</v>
+        <v>915200</v>
       </c>
       <c r="E52" s="3">
-        <v>527300</v>
+        <v>728900</v>
       </c>
       <c r="F52" s="3">
-        <v>334100</v>
+        <v>558600</v>
       </c>
       <c r="G52" s="3">
-        <v>358800</v>
+        <v>353900</v>
       </c>
       <c r="H52" s="3">
-        <v>276000</v>
+        <v>380100</v>
       </c>
       <c r="I52" s="3">
-        <v>220600</v>
+        <v>292300</v>
       </c>
       <c r="J52" s="3">
+        <v>233700</v>
+      </c>
+      <c r="K52" s="3">
         <v>216200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>304500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>565800</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8840600</v>
+        <v>10144900</v>
       </c>
       <c r="E54" s="3">
-        <v>10598500</v>
+        <v>9477600</v>
       </c>
       <c r="F54" s="3">
-        <v>7479400</v>
+        <v>11318100</v>
       </c>
       <c r="G54" s="3">
-        <v>7443300</v>
+        <v>7923300</v>
       </c>
       <c r="H54" s="3">
-        <v>7234600</v>
+        <v>7885100</v>
       </c>
       <c r="I54" s="3">
-        <v>6197500</v>
+        <v>7664000</v>
       </c>
       <c r="J54" s="3">
+        <v>6565300</v>
+      </c>
+      <c r="K54" s="3">
         <v>5279200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7605700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7594200</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>368300</v>
+        <v>442400</v>
       </c>
       <c r="E57" s="3">
-        <v>318900</v>
+        <v>390100</v>
       </c>
       <c r="F57" s="3">
-        <v>414800</v>
+        <v>337900</v>
       </c>
       <c r="G57" s="3">
-        <v>343400</v>
+        <v>439500</v>
       </c>
       <c r="H57" s="3">
-        <v>336600</v>
+        <v>363800</v>
       </c>
       <c r="I57" s="3">
-        <v>284000</v>
+        <v>356600</v>
       </c>
       <c r="J57" s="3">
+        <v>300800</v>
+      </c>
+      <c r="K57" s="3">
         <v>188800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>305000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>216400</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>501300</v>
+        <v>395300</v>
       </c>
       <c r="E58" s="3">
-        <v>389100</v>
+        <v>531100</v>
       </c>
       <c r="F58" s="3">
-        <v>419800</v>
+        <v>412200</v>
       </c>
       <c r="G58" s="3">
-        <v>856500</v>
+        <v>444700</v>
       </c>
       <c r="H58" s="3">
-        <v>1115600</v>
+        <v>907300</v>
       </c>
       <c r="I58" s="3">
-        <v>936800</v>
+        <v>1181800</v>
       </c>
       <c r="J58" s="3">
+        <v>992400</v>
+      </c>
+      <c r="K58" s="3">
         <v>396200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1510000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2271100</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>531400</v>
+        <v>980100</v>
       </c>
       <c r="E59" s="3">
-        <v>3434200</v>
+        <v>574300</v>
       </c>
       <c r="F59" s="3">
-        <v>699200</v>
+        <v>3661100</v>
       </c>
       <c r="G59" s="3">
-        <v>827100</v>
+        <v>740700</v>
       </c>
       <c r="H59" s="3">
-        <v>862800</v>
+        <v>876200</v>
       </c>
       <c r="I59" s="3">
-        <v>571700</v>
+        <v>914000</v>
       </c>
       <c r="J59" s="3">
+        <v>605700</v>
+      </c>
+      <c r="K59" s="3">
         <v>463500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1173700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>877400</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1401100</v>
+        <v>1817700</v>
       </c>
       <c r="E60" s="3">
-        <v>4142300</v>
+        <v>1494000</v>
       </c>
       <c r="F60" s="3">
-        <v>1533800</v>
+        <v>4396300</v>
       </c>
       <c r="G60" s="3">
-        <v>2027000</v>
+        <v>1624900</v>
       </c>
       <c r="H60" s="3">
-        <v>2315000</v>
+        <v>2147300</v>
       </c>
       <c r="I60" s="3">
-        <v>1792500</v>
+        <v>2452400</v>
       </c>
       <c r="J60" s="3">
+        <v>1898900</v>
+      </c>
+      <c r="K60" s="3">
         <v>1048500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2988700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2076400</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2166000</v>
+        <v>2464800</v>
       </c>
       <c r="E61" s="3">
-        <v>2226500</v>
+        <v>2294600</v>
       </c>
       <c r="F61" s="3">
-        <v>2129600</v>
+        <v>2358700</v>
       </c>
       <c r="G61" s="3">
-        <v>1831300</v>
+        <v>2256100</v>
       </c>
       <c r="H61" s="3">
-        <v>1569900</v>
+        <v>1940000</v>
       </c>
       <c r="I61" s="3">
-        <v>1455200</v>
+        <v>1663100</v>
       </c>
       <c r="J61" s="3">
+        <v>1541500</v>
+      </c>
+      <c r="K61" s="3">
         <v>1278400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>922300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1538300</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2459700</v>
+        <v>2584000</v>
       </c>
       <c r="E62" s="3">
-        <v>1407300</v>
+        <v>2792500</v>
       </c>
       <c r="F62" s="3">
-        <v>1278400</v>
+        <v>1682800</v>
       </c>
       <c r="G62" s="3">
-        <v>1294700</v>
+        <v>1354300</v>
       </c>
       <c r="H62" s="3">
-        <v>1049900</v>
+        <v>1371500</v>
       </c>
       <c r="I62" s="3">
-        <v>979200</v>
+        <v>1112200</v>
       </c>
       <c r="J62" s="3">
+        <v>1037400</v>
+      </c>
+      <c r="K62" s="3">
         <v>714400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>998900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1356400</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6027500</v>
+        <v>6867400</v>
       </c>
       <c r="E66" s="3">
-        <v>8017000</v>
+        <v>6457900</v>
       </c>
       <c r="F66" s="3">
-        <v>4942700</v>
+        <v>8556200</v>
       </c>
       <c r="G66" s="3">
-        <v>5153700</v>
+        <v>5236000</v>
       </c>
       <c r="H66" s="3">
-        <v>4935500</v>
+        <v>5459600</v>
       </c>
       <c r="I66" s="3">
-        <v>4199900</v>
+        <v>5228500</v>
       </c>
       <c r="J66" s="3">
+        <v>4449200</v>
+      </c>
+      <c r="K66" s="3">
         <v>3041300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4908600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4603300</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1947700</v>
+        <v>1887200</v>
       </c>
       <c r="E72" s="3">
-        <v>1126500</v>
+        <v>2103000</v>
       </c>
       <c r="F72" s="3">
-        <v>1014400</v>
+        <v>1220700</v>
       </c>
       <c r="G72" s="3">
-        <v>920700</v>
+        <v>1074600</v>
       </c>
       <c r="H72" s="3">
-        <v>825600</v>
+        <v>975400</v>
       </c>
       <c r="I72" s="3">
-        <v>459300</v>
+        <v>874600</v>
       </c>
       <c r="J72" s="3">
+        <v>486600</v>
+      </c>
+      <c r="K72" s="3">
         <v>679900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2257300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2702200</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2813000</v>
+        <v>3277500</v>
       </c>
       <c r="E76" s="3">
-        <v>2581500</v>
+        <v>3019700</v>
       </c>
       <c r="F76" s="3">
-        <v>2536700</v>
+        <v>2761900</v>
       </c>
       <c r="G76" s="3">
-        <v>2289600</v>
+        <v>2687300</v>
       </c>
       <c r="H76" s="3">
-        <v>2299000</v>
+        <v>2425500</v>
       </c>
       <c r="I76" s="3">
-        <v>1997500</v>
+        <v>2435500</v>
       </c>
       <c r="J76" s="3">
+        <v>2116100</v>
+      </c>
+      <c r="K76" s="3">
         <v>2237900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2697200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2990900</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>553800</v>
+        <v>537200</v>
       </c>
       <c r="E81" s="3">
-        <v>301000</v>
+        <v>599100</v>
       </c>
       <c r="F81" s="3">
-        <v>177200</v>
+        <v>318900</v>
       </c>
       <c r="G81" s="3">
-        <v>59200</v>
+        <v>187800</v>
       </c>
       <c r="H81" s="3">
-        <v>437100</v>
+        <v>62700</v>
       </c>
       <c r="I81" s="3">
-        <v>555400</v>
+        <v>463000</v>
       </c>
       <c r="J81" s="3">
+        <v>588400</v>
+      </c>
+      <c r="K81" s="3">
         <v>549600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>997500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>619200</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>169700</v>
+        <v>185500</v>
       </c>
       <c r="E83" s="3">
-        <v>150300</v>
+        <v>179700</v>
       </c>
       <c r="F83" s="3">
-        <v>150500</v>
+        <v>159300</v>
       </c>
       <c r="G83" s="3">
-        <v>147700</v>
+        <v>159400</v>
       </c>
       <c r="H83" s="3">
-        <v>147800</v>
+        <v>156500</v>
       </c>
       <c r="I83" s="3">
-        <v>141800</v>
+        <v>156600</v>
       </c>
       <c r="J83" s="3">
+        <v>150200</v>
+      </c>
+      <c r="K83" s="3">
         <v>145800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>178200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>201500</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>360700</v>
+        <v>1614900</v>
       </c>
       <c r="E89" s="3">
-        <v>178500</v>
+        <v>382100</v>
       </c>
       <c r="F89" s="3">
-        <v>102600</v>
+        <v>189000</v>
       </c>
       <c r="G89" s="3">
-        <v>214900</v>
+        <v>108700</v>
       </c>
       <c r="H89" s="3">
-        <v>532500</v>
+        <v>227600</v>
       </c>
       <c r="I89" s="3">
-        <v>661200</v>
+        <v>564100</v>
       </c>
       <c r="J89" s="3">
+        <v>700400</v>
+      </c>
+      <c r="K89" s="3">
         <v>622400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>566800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>939400</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-12500</v>
+        <v>-25000</v>
       </c>
       <c r="E91" s="3">
-        <v>-13600</v>
+        <v>-13200</v>
       </c>
       <c r="F91" s="3">
-        <v>-14700</v>
+        <v>-14400</v>
       </c>
       <c r="G91" s="3">
-        <v>-21200</v>
+        <v>-15600</v>
       </c>
       <c r="H91" s="3">
-        <v>-22300</v>
+        <v>-22500</v>
       </c>
       <c r="I91" s="3">
-        <v>-21600</v>
+        <v>-23600</v>
       </c>
       <c r="J91" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-12300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-25400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-24400</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-210500</v>
+        <v>-952300</v>
       </c>
       <c r="E94" s="3">
-        <v>-37400</v>
+        <v>-223000</v>
       </c>
       <c r="F94" s="3">
-        <v>-68400</v>
+        <v>-39600</v>
       </c>
       <c r="G94" s="3">
-        <v>-108600</v>
+        <v>-72400</v>
       </c>
       <c r="H94" s="3">
-        <v>-569600</v>
+        <v>-115100</v>
       </c>
       <c r="I94" s="3">
-        <v>-761200</v>
+        <v>-603400</v>
       </c>
       <c r="J94" s="3">
+        <v>-806400</v>
+      </c>
+      <c r="K94" s="3">
         <v>443200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-118000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-644800</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-124200</v>
+        <v>-112200</v>
       </c>
       <c r="E96" s="3">
-        <v>-90100</v>
+        <v>-131500</v>
       </c>
       <c r="F96" s="3">
-        <v>-95600</v>
+        <v>-95400</v>
       </c>
       <c r="G96" s="3">
-        <v>-119500</v>
+        <v>-101200</v>
       </c>
       <c r="H96" s="3">
-        <v>-141000</v>
+        <v>-126500</v>
       </c>
       <c r="I96" s="3">
-        <v>-693600</v>
+        <v>-149400</v>
       </c>
       <c r="J96" s="3">
+        <v>-734800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-814600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-408100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-522000</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,42 +3665,48 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-213100</v>
+        <v>-447800</v>
       </c>
       <c r="E100" s="3">
-        <v>-165800</v>
+        <v>-225700</v>
       </c>
       <c r="F100" s="3">
-        <v>-28000</v>
+        <v>-175600</v>
       </c>
       <c r="G100" s="3">
-        <v>-93700</v>
+        <v>-29700</v>
       </c>
       <c r="H100" s="3">
-        <v>43800</v>
+        <v>-99300</v>
       </c>
       <c r="I100" s="3">
-        <v>-132800</v>
+        <v>46300</v>
       </c>
       <c r="J100" s="3">
+        <v>-140600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1015500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-492000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-453500</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3489,40 +3737,46 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-62900</v>
+        <v>214700</v>
       </c>
       <c r="E102" s="3">
-        <v>-24700</v>
+        <v>-66600</v>
       </c>
       <c r="F102" s="3">
-        <v>6200</v>
+        <v>-26200</v>
       </c>
       <c r="G102" s="3">
-        <v>12500</v>
+        <v>6600</v>
       </c>
       <c r="H102" s="3">
-        <v>6600</v>
+        <v>13200</v>
       </c>
       <c r="I102" s="3">
-        <v>-232800</v>
+        <v>7000</v>
       </c>
       <c r="J102" s="3">
+        <v>-246600</v>
+      </c>
+      <c r="K102" s="3">
         <v>50100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-43100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-159000</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CIG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CIG_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4732200</v>
+        <v>4659500</v>
       </c>
       <c r="E8" s="3">
-        <v>4780800</v>
+        <v>4707400</v>
       </c>
       <c r="F8" s="3">
-        <v>4176700</v>
+        <v>4112600</v>
       </c>
       <c r="G8" s="3">
-        <v>4072700</v>
+        <v>4010100</v>
       </c>
       <c r="H8" s="3">
-        <v>3521400</v>
+        <v>3467300</v>
       </c>
       <c r="I8" s="3">
-        <v>4102000</v>
+        <v>4039000</v>
       </c>
       <c r="J8" s="3">
-        <v>3665200</v>
+        <v>3609000</v>
       </c>
       <c r="K8" s="3">
         <v>2590100</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3722500</v>
+        <v>3665300</v>
       </c>
       <c r="E9" s="3">
-        <v>3676300</v>
+        <v>3619900</v>
       </c>
       <c r="F9" s="3">
-        <v>3315900</v>
+        <v>3265000</v>
       </c>
       <c r="G9" s="3">
-        <v>3280200</v>
+        <v>3229900</v>
       </c>
       <c r="H9" s="3">
-        <v>2706600</v>
+        <v>2665000</v>
       </c>
       <c r="I9" s="3">
-        <v>2976300</v>
+        <v>2930600</v>
       </c>
       <c r="J9" s="3">
-        <v>2401500</v>
+        <v>2364600</v>
       </c>
       <c r="K9" s="3">
         <v>1743900</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1009700</v>
+        <v>994200</v>
       </c>
       <c r="E10" s="3">
-        <v>1104500</v>
+        <v>1087600</v>
       </c>
       <c r="F10" s="3">
-        <v>860800</v>
+        <v>847600</v>
       </c>
       <c r="G10" s="3">
-        <v>792400</v>
+        <v>780300</v>
       </c>
       <c r="H10" s="3">
-        <v>814800</v>
+        <v>802300</v>
       </c>
       <c r="I10" s="3">
-        <v>1125700</v>
+        <v>1108400</v>
       </c>
       <c r="J10" s="3">
-        <v>1263700</v>
+        <v>1244300</v>
       </c>
       <c r="K10" s="3">
         <v>846100</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3849400</v>
+        <v>3790300</v>
       </c>
       <c r="E17" s="3">
-        <v>4178800</v>
+        <v>4114600</v>
       </c>
       <c r="F17" s="3">
-        <v>3708500</v>
+        <v>3651600</v>
       </c>
       <c r="G17" s="3">
-        <v>3577000</v>
+        <v>3522100</v>
       </c>
       <c r="H17" s="3">
-        <v>3182800</v>
+        <v>3133900</v>
       </c>
       <c r="I17" s="3">
-        <v>3219900</v>
+        <v>3170500</v>
       </c>
       <c r="J17" s="3">
-        <v>2618500</v>
+        <v>2578300</v>
       </c>
       <c r="K17" s="3">
         <v>1817600</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>882800</v>
+        <v>869300</v>
       </c>
       <c r="E18" s="3">
-        <v>602100</v>
+        <v>592900</v>
       </c>
       <c r="F18" s="3">
-        <v>468200</v>
+        <v>461000</v>
       </c>
       <c r="G18" s="3">
-        <v>495700</v>
+        <v>488100</v>
       </c>
       <c r="H18" s="3">
-        <v>338600</v>
+        <v>333400</v>
       </c>
       <c r="I18" s="3">
-        <v>882000</v>
+        <v>868500</v>
       </c>
       <c r="J18" s="3">
-        <v>1046800</v>
+        <v>1030700</v>
       </c>
       <c r="K18" s="3">
         <v>772500</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>51100</v>
+        <v>50300</v>
       </c>
       <c r="E20" s="3">
-        <v>485300</v>
+        <v>477900</v>
       </c>
       <c r="F20" s="3">
-        <v>151200</v>
+        <v>136300</v>
       </c>
       <c r="G20" s="3">
-        <v>100700</v>
+        <v>99200</v>
       </c>
       <c r="H20" s="3">
-        <v>92100</v>
+        <v>90700</v>
       </c>
       <c r="I20" s="3">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="J20" s="3">
-        <v>-31900</v>
+        <v>-31400</v>
       </c>
       <c r="K20" s="3">
         <v>68900</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1119900</v>
+        <v>1103400</v>
       </c>
       <c r="E21" s="3">
-        <v>1267600</v>
+        <v>1248800</v>
       </c>
       <c r="F21" s="3">
-        <v>779100</v>
+        <v>755100</v>
       </c>
       <c r="G21" s="3">
-        <v>756200</v>
+        <v>745200</v>
       </c>
       <c r="H21" s="3">
-        <v>587600</v>
+        <v>579200</v>
       </c>
       <c r="I21" s="3">
-        <v>1047600</v>
+        <v>1032100</v>
       </c>
       <c r="J21" s="3">
-        <v>1165500</v>
+        <v>1148200</v>
       </c>
       <c r="K21" s="3">
         <v>987900</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>220900</v>
+        <v>217500</v>
       </c>
       <c r="E22" s="3">
-        <v>230100</v>
+        <v>226600</v>
       </c>
       <c r="F22" s="3">
-        <v>248500</v>
+        <v>232100</v>
       </c>
       <c r="G22" s="3">
-        <v>287700</v>
+        <v>283300</v>
       </c>
       <c r="H22" s="3">
-        <v>361700</v>
+        <v>356200</v>
       </c>
       <c r="I22" s="3">
-        <v>260000</v>
+        <v>256000</v>
       </c>
       <c r="J22" s="3">
-        <v>174600</v>
+        <v>171900</v>
       </c>
       <c r="K22" s="3">
         <v>123600</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>713000</v>
+        <v>702000</v>
       </c>
       <c r="E23" s="3">
-        <v>857300</v>
+        <v>844100</v>
       </c>
       <c r="F23" s="3">
-        <v>370900</v>
+        <v>365200</v>
       </c>
       <c r="G23" s="3">
-        <v>308700</v>
+        <v>304000</v>
       </c>
       <c r="H23" s="3">
-        <v>69000</v>
+        <v>68000</v>
       </c>
       <c r="I23" s="3">
-        <v>630600</v>
+        <v>620900</v>
       </c>
       <c r="J23" s="3">
-        <v>840200</v>
+        <v>827300</v>
       </c>
       <c r="K23" s="3">
         <v>717800</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>175500</v>
+        <v>172800</v>
       </c>
       <c r="E24" s="3">
-        <v>300100</v>
+        <v>295500</v>
       </c>
       <c r="F24" s="3">
-        <v>112400</v>
+        <v>110700</v>
       </c>
       <c r="G24" s="3">
-        <v>120900</v>
+        <v>119000</v>
       </c>
       <c r="H24" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="I24" s="3">
-        <v>167400</v>
+        <v>164900</v>
       </c>
       <c r="J24" s="3">
-        <v>251800</v>
+        <v>248000</v>
       </c>
       <c r="K24" s="3">
         <v>168200</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>537400</v>
+        <v>529200</v>
       </c>
       <c r="E26" s="3">
-        <v>557200</v>
+        <v>548600</v>
       </c>
       <c r="F26" s="3">
-        <v>258500</v>
+        <v>254600</v>
       </c>
       <c r="G26" s="3">
-        <v>187900</v>
+        <v>185000</v>
       </c>
       <c r="H26" s="3">
-        <v>62800</v>
+        <v>61800</v>
       </c>
       <c r="I26" s="3">
-        <v>463100</v>
+        <v>456000</v>
       </c>
       <c r="J26" s="3">
-        <v>588400</v>
+        <v>579400</v>
       </c>
       <c r="K26" s="3">
         <v>549600</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>537200</v>
+        <v>529000</v>
       </c>
       <c r="E27" s="3">
-        <v>557000</v>
+        <v>548500</v>
       </c>
       <c r="F27" s="3">
-        <v>250700</v>
+        <v>246900</v>
       </c>
       <c r="G27" s="3">
-        <v>187800</v>
+        <v>184900</v>
       </c>
       <c r="H27" s="3">
-        <v>62700</v>
+        <v>61800</v>
       </c>
       <c r="I27" s="3">
-        <v>463000</v>
+        <v>455900</v>
       </c>
       <c r="J27" s="3">
-        <v>588400</v>
+        <v>579300</v>
       </c>
       <c r="K27" s="3">
         <v>549600</v>
@@ -1416,10 +1416,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>42000</v>
+        <v>41400</v>
       </c>
       <c r="F29" s="3">
-        <v>68200</v>
+        <v>67100</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-51100</v>
+        <v>-50300</v>
       </c>
       <c r="E32" s="3">
-        <v>-485300</v>
+        <v>-477900</v>
       </c>
       <c r="F32" s="3">
-        <v>-151200</v>
+        <v>-136300</v>
       </c>
       <c r="G32" s="3">
-        <v>-100700</v>
+        <v>-99200</v>
       </c>
       <c r="H32" s="3">
-        <v>-92100</v>
+        <v>-90700</v>
       </c>
       <c r="I32" s="3">
-        <v>-8500</v>
+        <v>-8400</v>
       </c>
       <c r="J32" s="3">
-        <v>31900</v>
+        <v>31400</v>
       </c>
       <c r="K32" s="3">
         <v>-68900</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>537200</v>
+        <v>529000</v>
       </c>
       <c r="E33" s="3">
-        <v>599100</v>
+        <v>589900</v>
       </c>
       <c r="F33" s="3">
-        <v>318900</v>
+        <v>314000</v>
       </c>
       <c r="G33" s="3">
-        <v>187800</v>
+        <v>184900</v>
       </c>
       <c r="H33" s="3">
-        <v>62700</v>
+        <v>61800</v>
       </c>
       <c r="I33" s="3">
-        <v>463000</v>
+        <v>455900</v>
       </c>
       <c r="J33" s="3">
-        <v>588400</v>
+        <v>579300</v>
       </c>
       <c r="K33" s="3">
         <v>549600</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>537200</v>
+        <v>529000</v>
       </c>
       <c r="E35" s="3">
-        <v>599100</v>
+        <v>589900</v>
       </c>
       <c r="F35" s="3">
-        <v>318900</v>
+        <v>314000</v>
       </c>
       <c r="G35" s="3">
-        <v>187800</v>
+        <v>184900</v>
       </c>
       <c r="H35" s="3">
-        <v>62700</v>
+        <v>61800</v>
       </c>
       <c r="I35" s="3">
-        <v>463000</v>
+        <v>455900</v>
       </c>
       <c r="J35" s="3">
-        <v>588400</v>
+        <v>579300</v>
       </c>
       <c r="K35" s="3">
         <v>549600</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>315200</v>
+        <v>310400</v>
       </c>
       <c r="E41" s="3">
-        <v>100500</v>
+        <v>99000</v>
       </c>
       <c r="F41" s="3">
-        <v>334200</v>
+        <v>329100</v>
       </c>
       <c r="G41" s="3">
-        <v>193300</v>
+        <v>190300</v>
       </c>
       <c r="H41" s="3">
-        <v>186700</v>
+        <v>183800</v>
       </c>
       <c r="I41" s="3">
-        <v>173400</v>
+        <v>170800</v>
       </c>
       <c r="J41" s="3">
-        <v>166400</v>
+        <v>163900</v>
       </c>
       <c r="K41" s="3">
         <v>389900</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>630300</v>
+        <v>620600</v>
       </c>
       <c r="E42" s="3">
-        <v>141200</v>
+        <v>139000</v>
       </c>
       <c r="F42" s="3">
-        <v>149000</v>
+        <v>146800</v>
       </c>
       <c r="G42" s="3">
-        <v>218500</v>
+        <v>215100</v>
       </c>
       <c r="H42" s="3">
-        <v>259200</v>
+        <v>255200</v>
       </c>
       <c r="I42" s="3">
-        <v>455200</v>
+        <v>448200</v>
       </c>
       <c r="J42" s="3">
-        <v>186700</v>
+        <v>183800</v>
       </c>
       <c r="K42" s="3">
         <v>165600</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1486700</v>
+        <v>1463900</v>
       </c>
       <c r="E43" s="3">
-        <v>1214600</v>
+        <v>1195900</v>
       </c>
       <c r="F43" s="3">
-        <v>1122800</v>
+        <v>1105600</v>
       </c>
       <c r="G43" s="3">
-        <v>962700</v>
+        <v>948000</v>
       </c>
       <c r="H43" s="3">
-        <v>923900</v>
+        <v>909700</v>
       </c>
       <c r="I43" s="3">
-        <v>1635700</v>
+        <v>1610500</v>
       </c>
       <c r="J43" s="3">
-        <v>645100</v>
+        <v>635200</v>
       </c>
       <c r="K43" s="3">
         <v>587300</v>
@@ -1849,22 +1849,22 @@
         <v>8</v>
       </c>
       <c r="E44" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F44" s="3">
+        <v>6600</v>
+      </c>
+      <c r="G44" s="3">
+        <v>7000</v>
+      </c>
+      <c r="H44" s="3">
+        <v>9100</v>
+      </c>
+      <c r="I44" s="3">
+        <v>6900</v>
+      </c>
+      <c r="J44" s="3">
         <v>7400</v>
-      </c>
-      <c r="F44" s="3">
-        <v>6700</v>
-      </c>
-      <c r="G44" s="3">
-        <v>7200</v>
-      </c>
-      <c r="H44" s="3">
-        <v>9300</v>
-      </c>
-      <c r="I44" s="3">
-        <v>7000</v>
-      </c>
-      <c r="J44" s="3">
-        <v>7500</v>
       </c>
       <c r="K44" s="3">
         <v>6700</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>467100</v>
+        <v>459900</v>
       </c>
       <c r="E45" s="3">
-        <v>558100</v>
+        <v>549600</v>
       </c>
       <c r="F45" s="3">
-        <v>3949600</v>
+        <v>3888900</v>
       </c>
       <c r="G45" s="3">
-        <v>219800</v>
+        <v>216400</v>
       </c>
       <c r="H45" s="3">
-        <v>175200</v>
+        <v>172500</v>
       </c>
       <c r="I45" s="3">
-        <v>193700</v>
+        <v>190700</v>
       </c>
       <c r="J45" s="3">
-        <v>223800</v>
+        <v>220400</v>
       </c>
       <c r="K45" s="3">
         <v>31300</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2899300</v>
+        <v>2854800</v>
       </c>
       <c r="E46" s="3">
-        <v>1942000</v>
+        <v>1912100</v>
       </c>
       <c r="F46" s="3">
-        <v>5245900</v>
+        <v>5165400</v>
       </c>
       <c r="G46" s="3">
-        <v>1601400</v>
+        <v>1576800</v>
       </c>
       <c r="H46" s="3">
-        <v>1554200</v>
+        <v>1530300</v>
       </c>
       <c r="I46" s="3">
-        <v>1758900</v>
+        <v>1731900</v>
       </c>
       <c r="J46" s="3">
-        <v>1229500</v>
+        <v>1210600</v>
       </c>
       <c r="K46" s="3">
         <v>1180800</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3623800</v>
+        <v>3568100</v>
       </c>
       <c r="E47" s="3">
-        <v>4114700</v>
+        <v>4051500</v>
       </c>
       <c r="F47" s="3">
-        <v>3991100</v>
+        <v>3929800</v>
       </c>
       <c r="G47" s="3">
-        <v>3357200</v>
+        <v>3305600</v>
       </c>
       <c r="H47" s="3">
-        <v>3213100</v>
+        <v>3163700</v>
       </c>
       <c r="I47" s="3">
-        <v>2946200</v>
+        <v>2901000</v>
       </c>
       <c r="J47" s="3">
-        <v>3428400</v>
+        <v>3375800</v>
       </c>
       <c r="K47" s="3">
         <v>2497200</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>491300</v>
+        <v>483800</v>
       </c>
       <c r="E48" s="3">
-        <v>511500</v>
+        <v>503700</v>
       </c>
       <c r="F48" s="3">
-        <v>998500</v>
+        <v>983200</v>
       </c>
       <c r="G48" s="3">
-        <v>518200</v>
+        <v>510200</v>
       </c>
       <c r="H48" s="3">
-        <v>708100</v>
+        <v>697300</v>
       </c>
       <c r="I48" s="3">
-        <v>739100</v>
+        <v>727800</v>
       </c>
       <c r="J48" s="3">
-        <v>1039900</v>
+        <v>1023900</v>
       </c>
       <c r="K48" s="3">
         <v>1030100</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2215300</v>
+        <v>2181300</v>
       </c>
       <c r="E49" s="3">
-        <v>2180500</v>
+        <v>2147000</v>
       </c>
       <c r="F49" s="3">
-        <v>4043200</v>
+        <v>3981100</v>
       </c>
       <c r="G49" s="3">
-        <v>2092600</v>
+        <v>2060500</v>
       </c>
       <c r="H49" s="3">
-        <v>2029600</v>
+        <v>1998400</v>
       </c>
       <c r="I49" s="3">
-        <v>1927400</v>
+        <v>1897800</v>
       </c>
       <c r="J49" s="3">
-        <v>633900</v>
+        <v>624200</v>
       </c>
       <c r="K49" s="3">
         <v>354800</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>915200</v>
+        <v>901200</v>
       </c>
       <c r="E52" s="3">
-        <v>728900</v>
+        <v>717700</v>
       </c>
       <c r="F52" s="3">
-        <v>558600</v>
+        <v>550000</v>
       </c>
       <c r="G52" s="3">
-        <v>353900</v>
+        <v>348500</v>
       </c>
       <c r="H52" s="3">
-        <v>380100</v>
+        <v>374300</v>
       </c>
       <c r="I52" s="3">
-        <v>292300</v>
+        <v>287900</v>
       </c>
       <c r="J52" s="3">
-        <v>233700</v>
+        <v>230100</v>
       </c>
       <c r="K52" s="3">
         <v>216200</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10144900</v>
+        <v>9989100</v>
       </c>
       <c r="E54" s="3">
-        <v>9477600</v>
+        <v>9332100</v>
       </c>
       <c r="F54" s="3">
-        <v>11318100</v>
+        <v>11144400</v>
       </c>
       <c r="G54" s="3">
-        <v>7923300</v>
+        <v>7801700</v>
       </c>
       <c r="H54" s="3">
-        <v>7885100</v>
+        <v>7764000</v>
       </c>
       <c r="I54" s="3">
-        <v>7664000</v>
+        <v>7546300</v>
       </c>
       <c r="J54" s="3">
-        <v>6565300</v>
+        <v>6464500</v>
       </c>
       <c r="K54" s="3">
         <v>5279200</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>442400</v>
+        <v>435600</v>
       </c>
       <c r="E57" s="3">
-        <v>390100</v>
+        <v>384200</v>
       </c>
       <c r="F57" s="3">
-        <v>337900</v>
+        <v>332700</v>
       </c>
       <c r="G57" s="3">
-        <v>439500</v>
+        <v>432700</v>
       </c>
       <c r="H57" s="3">
-        <v>363800</v>
+        <v>358200</v>
       </c>
       <c r="I57" s="3">
-        <v>356600</v>
+        <v>351100</v>
       </c>
       <c r="J57" s="3">
-        <v>300800</v>
+        <v>296200</v>
       </c>
       <c r="K57" s="3">
         <v>188800</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>395300</v>
+        <v>389200</v>
       </c>
       <c r="E58" s="3">
-        <v>531100</v>
+        <v>522900</v>
       </c>
       <c r="F58" s="3">
-        <v>412200</v>
+        <v>405900</v>
       </c>
       <c r="G58" s="3">
-        <v>444700</v>
+        <v>437800</v>
       </c>
       <c r="H58" s="3">
-        <v>907300</v>
+        <v>893400</v>
       </c>
       <c r="I58" s="3">
-        <v>1181800</v>
+        <v>1163700</v>
       </c>
       <c r="J58" s="3">
-        <v>992400</v>
+        <v>977200</v>
       </c>
       <c r="K58" s="3">
         <v>396200</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>980100</v>
+        <v>965000</v>
       </c>
       <c r="E59" s="3">
-        <v>574300</v>
+        <v>565500</v>
       </c>
       <c r="F59" s="3">
-        <v>3661100</v>
+        <v>3604900</v>
       </c>
       <c r="G59" s="3">
-        <v>740700</v>
+        <v>729400</v>
       </c>
       <c r="H59" s="3">
-        <v>876200</v>
+        <v>862700</v>
       </c>
       <c r="I59" s="3">
-        <v>914000</v>
+        <v>900000</v>
       </c>
       <c r="J59" s="3">
-        <v>605700</v>
+        <v>596400</v>
       </c>
       <c r="K59" s="3">
         <v>463500</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1817700</v>
+        <v>1789800</v>
       </c>
       <c r="E60" s="3">
-        <v>1494000</v>
+        <v>1471100</v>
       </c>
       <c r="F60" s="3">
-        <v>4396300</v>
+        <v>4328800</v>
       </c>
       <c r="G60" s="3">
-        <v>1624900</v>
+        <v>1599900</v>
       </c>
       <c r="H60" s="3">
-        <v>2147300</v>
+        <v>2114300</v>
       </c>
       <c r="I60" s="3">
-        <v>2452400</v>
+        <v>2414800</v>
       </c>
       <c r="J60" s="3">
-        <v>1898900</v>
+        <v>1869800</v>
       </c>
       <c r="K60" s="3">
         <v>1048500</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2464800</v>
+        <v>2426900</v>
       </c>
       <c r="E61" s="3">
-        <v>2294600</v>
+        <v>2259300</v>
       </c>
       <c r="F61" s="3">
-        <v>2358700</v>
+        <v>2322500</v>
       </c>
       <c r="G61" s="3">
-        <v>2256100</v>
+        <v>2221400</v>
       </c>
       <c r="H61" s="3">
-        <v>1940000</v>
+        <v>1910200</v>
       </c>
       <c r="I61" s="3">
-        <v>1663100</v>
+        <v>1637600</v>
       </c>
       <c r="J61" s="3">
-        <v>1541500</v>
+        <v>1517900</v>
       </c>
       <c r="K61" s="3">
         <v>1278400</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2584000</v>
+        <v>2544300</v>
       </c>
       <c r="E62" s="3">
-        <v>2792500</v>
+        <v>2749700</v>
       </c>
       <c r="F62" s="3">
-        <v>1682800</v>
+        <v>1657000</v>
       </c>
       <c r="G62" s="3">
-        <v>1354300</v>
+        <v>1333500</v>
       </c>
       <c r="H62" s="3">
-        <v>1371500</v>
+        <v>1350500</v>
       </c>
       <c r="I62" s="3">
-        <v>1112200</v>
+        <v>1095100</v>
       </c>
       <c r="J62" s="3">
-        <v>1037400</v>
+        <v>1021400</v>
       </c>
       <c r="K62" s="3">
         <v>714400</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6867400</v>
+        <v>6761900</v>
       </c>
       <c r="E66" s="3">
-        <v>6457900</v>
+        <v>6358800</v>
       </c>
       <c r="F66" s="3">
-        <v>8556200</v>
+        <v>8424800</v>
       </c>
       <c r="G66" s="3">
-        <v>5236000</v>
+        <v>5155600</v>
       </c>
       <c r="H66" s="3">
-        <v>5459600</v>
+        <v>5375800</v>
       </c>
       <c r="I66" s="3">
-        <v>5228500</v>
+        <v>5148200</v>
       </c>
       <c r="J66" s="3">
-        <v>4449200</v>
+        <v>4380900</v>
       </c>
       <c r="K66" s="3">
         <v>3041300</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1887200</v>
+        <v>1858200</v>
       </c>
       <c r="E72" s="3">
-        <v>2103000</v>
+        <v>2070700</v>
       </c>
       <c r="F72" s="3">
-        <v>1220700</v>
+        <v>1201900</v>
       </c>
       <c r="G72" s="3">
-        <v>1074600</v>
+        <v>1058100</v>
       </c>
       <c r="H72" s="3">
-        <v>975400</v>
+        <v>960400</v>
       </c>
       <c r="I72" s="3">
-        <v>874600</v>
+        <v>861200</v>
       </c>
       <c r="J72" s="3">
-        <v>486600</v>
+        <v>479100</v>
       </c>
       <c r="K72" s="3">
         <v>679900</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3277500</v>
+        <v>3227200</v>
       </c>
       <c r="E76" s="3">
-        <v>3019700</v>
+        <v>2973300</v>
       </c>
       <c r="F76" s="3">
-        <v>2761900</v>
+        <v>2719500</v>
       </c>
       <c r="G76" s="3">
-        <v>2687300</v>
+        <v>2646000</v>
       </c>
       <c r="H76" s="3">
-        <v>2425500</v>
+        <v>2388200</v>
       </c>
       <c r="I76" s="3">
-        <v>2435500</v>
+        <v>2398100</v>
       </c>
       <c r="J76" s="3">
-        <v>2116100</v>
+        <v>2083600</v>
       </c>
       <c r="K76" s="3">
         <v>2237900</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>537200</v>
+        <v>529000</v>
       </c>
       <c r="E81" s="3">
-        <v>599100</v>
+        <v>589900</v>
       </c>
       <c r="F81" s="3">
-        <v>318900</v>
+        <v>314000</v>
       </c>
       <c r="G81" s="3">
-        <v>187800</v>
+        <v>184900</v>
       </c>
       <c r="H81" s="3">
-        <v>62700</v>
+        <v>61800</v>
       </c>
       <c r="I81" s="3">
-        <v>463000</v>
+        <v>455900</v>
       </c>
       <c r="J81" s="3">
-        <v>588400</v>
+        <v>579300</v>
       </c>
       <c r="K81" s="3">
         <v>549600</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>185500</v>
+        <v>182700</v>
       </c>
       <c r="E83" s="3">
-        <v>179700</v>
+        <v>177000</v>
       </c>
       <c r="F83" s="3">
-        <v>159300</v>
+        <v>156800</v>
       </c>
       <c r="G83" s="3">
-        <v>159400</v>
+        <v>157000</v>
       </c>
       <c r="H83" s="3">
-        <v>156500</v>
+        <v>154100</v>
       </c>
       <c r="I83" s="3">
-        <v>156600</v>
+        <v>154200</v>
       </c>
       <c r="J83" s="3">
-        <v>150200</v>
+        <v>147900</v>
       </c>
       <c r="K83" s="3">
         <v>145800</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1614900</v>
+        <v>1590100</v>
       </c>
       <c r="E89" s="3">
-        <v>382100</v>
+        <v>376200</v>
       </c>
       <c r="F89" s="3">
-        <v>189000</v>
+        <v>186100</v>
       </c>
       <c r="G89" s="3">
-        <v>108700</v>
+        <v>107000</v>
       </c>
       <c r="H89" s="3">
-        <v>227600</v>
+        <v>224100</v>
       </c>
       <c r="I89" s="3">
-        <v>564100</v>
+        <v>555400</v>
       </c>
       <c r="J89" s="3">
-        <v>700400</v>
+        <v>689700</v>
       </c>
       <c r="K89" s="3">
         <v>622400</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-25000</v>
+        <v>-24600</v>
       </c>
       <c r="E91" s="3">
-        <v>-13200</v>
+        <v>-13000</v>
       </c>
       <c r="F91" s="3">
-        <v>-14400</v>
+        <v>-14200</v>
       </c>
       <c r="G91" s="3">
-        <v>-15600</v>
+        <v>-15300</v>
       </c>
       <c r="H91" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="J91" s="3">
         <v>-22500</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-23600</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-22900</v>
       </c>
       <c r="K91" s="3">
         <v>-12300</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-952300</v>
+        <v>-937700</v>
       </c>
       <c r="E94" s="3">
-        <v>-223000</v>
+        <v>-219600</v>
       </c>
       <c r="F94" s="3">
-        <v>-39600</v>
+        <v>-39000</v>
       </c>
       <c r="G94" s="3">
-        <v>-72400</v>
+        <v>-71300</v>
       </c>
       <c r="H94" s="3">
-        <v>-115100</v>
+        <v>-113300</v>
       </c>
       <c r="I94" s="3">
-        <v>-603400</v>
+        <v>-594100</v>
       </c>
       <c r="J94" s="3">
-        <v>-806400</v>
+        <v>-794000</v>
       </c>
       <c r="K94" s="3">
         <v>443200</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-112200</v>
+        <v>-110500</v>
       </c>
       <c r="E96" s="3">
-        <v>-131500</v>
+        <v>-129500</v>
       </c>
       <c r="F96" s="3">
-        <v>-95400</v>
+        <v>-94000</v>
       </c>
       <c r="G96" s="3">
-        <v>-101200</v>
+        <v>-99700</v>
       </c>
       <c r="H96" s="3">
-        <v>-126500</v>
+        <v>-124600</v>
       </c>
       <c r="I96" s="3">
-        <v>-149400</v>
+        <v>-147100</v>
       </c>
       <c r="J96" s="3">
-        <v>-734800</v>
+        <v>-723500</v>
       </c>
       <c r="K96" s="3">
         <v>-814600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-447800</v>
+        <v>-441000</v>
       </c>
       <c r="E100" s="3">
-        <v>-225700</v>
+        <v>-222200</v>
       </c>
       <c r="F100" s="3">
-        <v>-175600</v>
+        <v>-172900</v>
       </c>
       <c r="G100" s="3">
-        <v>-29700</v>
+        <v>-29200</v>
       </c>
       <c r="H100" s="3">
-        <v>-99300</v>
+        <v>-97800</v>
       </c>
       <c r="I100" s="3">
-        <v>46300</v>
+        <v>45600</v>
       </c>
       <c r="J100" s="3">
-        <v>-140600</v>
+        <v>-138500</v>
       </c>
       <c r="K100" s="3">
         <v>-1015500</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>214700</v>
+        <v>211400</v>
       </c>
       <c r="E102" s="3">
-        <v>-66600</v>
+        <v>-65600</v>
       </c>
       <c r="F102" s="3">
-        <v>-26200</v>
+        <v>-25800</v>
       </c>
       <c r="G102" s="3">
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="H102" s="3">
-        <v>13200</v>
+        <v>13000</v>
       </c>
       <c r="I102" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="J102" s="3">
-        <v>-246600</v>
+        <v>-242800</v>
       </c>
       <c r="K102" s="3">
         <v>50100</v>

--- a/AAII_Financials/Yearly/CIG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CIG_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4659500</v>
+        <v>4503600</v>
       </c>
       <c r="E8" s="3">
-        <v>4707400</v>
+        <v>4549900</v>
       </c>
       <c r="F8" s="3">
-        <v>4112600</v>
+        <v>3975000</v>
       </c>
       <c r="G8" s="3">
-        <v>4010100</v>
+        <v>3876000</v>
       </c>
       <c r="H8" s="3">
-        <v>3467300</v>
+        <v>3351300</v>
       </c>
       <c r="I8" s="3">
-        <v>4039000</v>
+        <v>3903800</v>
       </c>
       <c r="J8" s="3">
-        <v>3609000</v>
+        <v>3488200</v>
       </c>
       <c r="K8" s="3">
         <v>2590100</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3665300</v>
+        <v>3542700</v>
       </c>
       <c r="E9" s="3">
-        <v>3619900</v>
+        <v>3498800</v>
       </c>
       <c r="F9" s="3">
-        <v>3265000</v>
+        <v>3155700</v>
       </c>
       <c r="G9" s="3">
-        <v>3229900</v>
+        <v>3121800</v>
       </c>
       <c r="H9" s="3">
-        <v>2665000</v>
+        <v>2575800</v>
       </c>
       <c r="I9" s="3">
-        <v>2930600</v>
+        <v>2832600</v>
       </c>
       <c r="J9" s="3">
-        <v>2364600</v>
+        <v>2285500</v>
       </c>
       <c r="K9" s="3">
         <v>1743900</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>994200</v>
+        <v>961000</v>
       </c>
       <c r="E10" s="3">
-        <v>1087600</v>
+        <v>1051200</v>
       </c>
       <c r="F10" s="3">
-        <v>847600</v>
+        <v>819200</v>
       </c>
       <c r="G10" s="3">
-        <v>780300</v>
+        <v>754200</v>
       </c>
       <c r="H10" s="3">
-        <v>802300</v>
+        <v>775500</v>
       </c>
       <c r="I10" s="3">
-        <v>1108400</v>
+        <v>1071300</v>
       </c>
       <c r="J10" s="3">
-        <v>1244300</v>
+        <v>1202700</v>
       </c>
       <c r="K10" s="3">
         <v>846100</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3790300</v>
+        <v>3663500</v>
       </c>
       <c r="E17" s="3">
-        <v>4114600</v>
+        <v>3976900</v>
       </c>
       <c r="F17" s="3">
-        <v>3651600</v>
+        <v>3529400</v>
       </c>
       <c r="G17" s="3">
-        <v>3522100</v>
+        <v>3404200</v>
       </c>
       <c r="H17" s="3">
-        <v>3133900</v>
+        <v>3029000</v>
       </c>
       <c r="I17" s="3">
-        <v>3170500</v>
+        <v>3064400</v>
       </c>
       <c r="J17" s="3">
-        <v>2578300</v>
+        <v>2492000</v>
       </c>
       <c r="K17" s="3">
         <v>1817600</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>869300</v>
+        <v>840200</v>
       </c>
       <c r="E18" s="3">
-        <v>592900</v>
+        <v>573000</v>
       </c>
       <c r="F18" s="3">
-        <v>461000</v>
+        <v>445600</v>
       </c>
       <c r="G18" s="3">
-        <v>488100</v>
+        <v>471700</v>
       </c>
       <c r="H18" s="3">
-        <v>333400</v>
+        <v>322200</v>
       </c>
       <c r="I18" s="3">
-        <v>868500</v>
+        <v>839400</v>
       </c>
       <c r="J18" s="3">
-        <v>1030700</v>
+        <v>996200</v>
       </c>
       <c r="K18" s="3">
         <v>772500</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>50300</v>
+        <v>48600</v>
       </c>
       <c r="E20" s="3">
-        <v>477900</v>
+        <v>461900</v>
       </c>
       <c r="F20" s="3">
-        <v>136300</v>
+        <v>131700</v>
       </c>
       <c r="G20" s="3">
-        <v>99200</v>
+        <v>95900</v>
       </c>
       <c r="H20" s="3">
-        <v>90700</v>
+        <v>87700</v>
       </c>
       <c r="I20" s="3">
-        <v>8400</v>
+        <v>8100</v>
       </c>
       <c r="J20" s="3">
-        <v>-31400</v>
+        <v>-30400</v>
       </c>
       <c r="K20" s="3">
         <v>68900</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1103400</v>
+        <v>1065100</v>
       </c>
       <c r="E21" s="3">
-        <v>1248800</v>
+        <v>1205700</v>
       </c>
       <c r="F21" s="3">
-        <v>755100</v>
+        <v>728700</v>
       </c>
       <c r="G21" s="3">
-        <v>745200</v>
+        <v>719100</v>
       </c>
       <c r="H21" s="3">
-        <v>579200</v>
+        <v>558700</v>
       </c>
       <c r="I21" s="3">
-        <v>1032100</v>
+        <v>996400</v>
       </c>
       <c r="J21" s="3">
-        <v>1148200</v>
+        <v>1108600</v>
       </c>
       <c r="K21" s="3">
         <v>987900</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>217500</v>
+        <v>210300</v>
       </c>
       <c r="E22" s="3">
-        <v>226600</v>
+        <v>219000</v>
       </c>
       <c r="F22" s="3">
-        <v>232100</v>
+        <v>224300</v>
       </c>
       <c r="G22" s="3">
-        <v>283300</v>
+        <v>273800</v>
       </c>
       <c r="H22" s="3">
-        <v>356200</v>
+        <v>344300</v>
       </c>
       <c r="I22" s="3">
-        <v>256000</v>
+        <v>247400</v>
       </c>
       <c r="J22" s="3">
-        <v>171900</v>
+        <v>166200</v>
       </c>
       <c r="K22" s="3">
         <v>123600</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>702000</v>
+        <v>678500</v>
       </c>
       <c r="E23" s="3">
-        <v>844100</v>
+        <v>815900</v>
       </c>
       <c r="F23" s="3">
-        <v>365200</v>
+        <v>353000</v>
       </c>
       <c r="G23" s="3">
-        <v>304000</v>
+        <v>293800</v>
       </c>
       <c r="H23" s="3">
-        <v>68000</v>
+        <v>65700</v>
       </c>
       <c r="I23" s="3">
-        <v>620900</v>
+        <v>600100</v>
       </c>
       <c r="J23" s="3">
-        <v>827300</v>
+        <v>799700</v>
       </c>
       <c r="K23" s="3">
         <v>717800</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>172800</v>
+        <v>167000</v>
       </c>
       <c r="E24" s="3">
-        <v>295500</v>
+        <v>285600</v>
       </c>
       <c r="F24" s="3">
-        <v>110700</v>
+        <v>107000</v>
       </c>
       <c r="G24" s="3">
-        <v>119000</v>
+        <v>115000</v>
       </c>
       <c r="H24" s="3">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="I24" s="3">
-        <v>164900</v>
+        <v>159300</v>
       </c>
       <c r="J24" s="3">
-        <v>248000</v>
+        <v>239700</v>
       </c>
       <c r="K24" s="3">
         <v>168200</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>529200</v>
+        <v>511500</v>
       </c>
       <c r="E26" s="3">
-        <v>548600</v>
+        <v>530300</v>
       </c>
       <c r="F26" s="3">
-        <v>254600</v>
+        <v>246100</v>
       </c>
       <c r="G26" s="3">
-        <v>185000</v>
+        <v>178800</v>
       </c>
       <c r="H26" s="3">
-        <v>61800</v>
+        <v>59800</v>
       </c>
       <c r="I26" s="3">
-        <v>456000</v>
+        <v>440800</v>
       </c>
       <c r="J26" s="3">
-        <v>579400</v>
+        <v>560000</v>
       </c>
       <c r="K26" s="3">
         <v>549600</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>529000</v>
+        <v>511300</v>
       </c>
       <c r="E27" s="3">
-        <v>548500</v>
+        <v>530100</v>
       </c>
       <c r="F27" s="3">
-        <v>246900</v>
+        <v>238600</v>
       </c>
       <c r="G27" s="3">
-        <v>184900</v>
+        <v>178700</v>
       </c>
       <c r="H27" s="3">
-        <v>61800</v>
+        <v>59700</v>
       </c>
       <c r="I27" s="3">
-        <v>455900</v>
+        <v>440700</v>
       </c>
       <c r="J27" s="3">
-        <v>579300</v>
+        <v>560000</v>
       </c>
       <c r="K27" s="3">
         <v>549600</v>
@@ -1416,10 +1416,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>41400</v>
+        <v>40000</v>
       </c>
       <c r="F29" s="3">
-        <v>67100</v>
+        <v>64900</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-50300</v>
+        <v>-48600</v>
       </c>
       <c r="E32" s="3">
-        <v>-477900</v>
+        <v>-461900</v>
       </c>
       <c r="F32" s="3">
-        <v>-136300</v>
+        <v>-131700</v>
       </c>
       <c r="G32" s="3">
-        <v>-99200</v>
+        <v>-95900</v>
       </c>
       <c r="H32" s="3">
-        <v>-90700</v>
+        <v>-87700</v>
       </c>
       <c r="I32" s="3">
-        <v>-8400</v>
+        <v>-8100</v>
       </c>
       <c r="J32" s="3">
-        <v>31400</v>
+        <v>30400</v>
       </c>
       <c r="K32" s="3">
         <v>-68900</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>529000</v>
+        <v>511300</v>
       </c>
       <c r="E33" s="3">
-        <v>589900</v>
+        <v>570100</v>
       </c>
       <c r="F33" s="3">
-        <v>314000</v>
+        <v>303500</v>
       </c>
       <c r="G33" s="3">
-        <v>184900</v>
+        <v>178700</v>
       </c>
       <c r="H33" s="3">
-        <v>61800</v>
+        <v>59700</v>
       </c>
       <c r="I33" s="3">
-        <v>455900</v>
+        <v>440700</v>
       </c>
       <c r="J33" s="3">
-        <v>579300</v>
+        <v>560000</v>
       </c>
       <c r="K33" s="3">
         <v>549600</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>529000</v>
+        <v>511300</v>
       </c>
       <c r="E35" s="3">
-        <v>589900</v>
+        <v>570100</v>
       </c>
       <c r="F35" s="3">
-        <v>314000</v>
+        <v>303500</v>
       </c>
       <c r="G35" s="3">
-        <v>184900</v>
+        <v>178700</v>
       </c>
       <c r="H35" s="3">
-        <v>61800</v>
+        <v>59700</v>
       </c>
       <c r="I35" s="3">
-        <v>455900</v>
+        <v>440700</v>
       </c>
       <c r="J35" s="3">
-        <v>579300</v>
+        <v>560000</v>
       </c>
       <c r="K35" s="3">
         <v>549600</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>310400</v>
+        <v>300000</v>
       </c>
       <c r="E41" s="3">
-        <v>99000</v>
+        <v>95600</v>
       </c>
       <c r="F41" s="3">
-        <v>329100</v>
+        <v>318100</v>
       </c>
       <c r="G41" s="3">
-        <v>190300</v>
+        <v>183900</v>
       </c>
       <c r="H41" s="3">
-        <v>183800</v>
+        <v>177700</v>
       </c>
       <c r="I41" s="3">
-        <v>170800</v>
+        <v>165100</v>
       </c>
       <c r="J41" s="3">
-        <v>163900</v>
+        <v>158400</v>
       </c>
       <c r="K41" s="3">
         <v>389900</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>620600</v>
+        <v>599900</v>
       </c>
       <c r="E42" s="3">
-        <v>139000</v>
+        <v>134400</v>
       </c>
       <c r="F42" s="3">
-        <v>146800</v>
+        <v>141800</v>
       </c>
       <c r="G42" s="3">
-        <v>215100</v>
+        <v>207900</v>
       </c>
       <c r="H42" s="3">
-        <v>255200</v>
+        <v>246700</v>
       </c>
       <c r="I42" s="3">
-        <v>448200</v>
+        <v>433300</v>
       </c>
       <c r="J42" s="3">
-        <v>183800</v>
+        <v>177600</v>
       </c>
       <c r="K42" s="3">
         <v>165600</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1463900</v>
+        <v>1414900</v>
       </c>
       <c r="E43" s="3">
-        <v>1195900</v>
+        <v>1155900</v>
       </c>
       <c r="F43" s="3">
-        <v>1105600</v>
+        <v>1068600</v>
       </c>
       <c r="G43" s="3">
-        <v>948000</v>
+        <v>916200</v>
       </c>
       <c r="H43" s="3">
-        <v>909700</v>
+        <v>879300</v>
       </c>
       <c r="I43" s="3">
-        <v>1610500</v>
+        <v>1556700</v>
       </c>
       <c r="J43" s="3">
-        <v>635200</v>
+        <v>613900</v>
       </c>
       <c r="K43" s="3">
         <v>587300</v>
@@ -1849,22 +1849,22 @@
         <v>8</v>
       </c>
       <c r="E44" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="F44" s="3">
-        <v>6600</v>
+        <v>6400</v>
       </c>
       <c r="G44" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="H44" s="3">
-        <v>9100</v>
+        <v>8800</v>
       </c>
       <c r="I44" s="3">
-        <v>6900</v>
+        <v>6700</v>
       </c>
       <c r="J44" s="3">
-        <v>7400</v>
+        <v>7100</v>
       </c>
       <c r="K44" s="3">
         <v>6700</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>459900</v>
+        <v>444500</v>
       </c>
       <c r="E45" s="3">
-        <v>549600</v>
+        <v>531200</v>
       </c>
       <c r="F45" s="3">
-        <v>3888900</v>
+        <v>3758800</v>
       </c>
       <c r="G45" s="3">
-        <v>216400</v>
+        <v>209200</v>
       </c>
       <c r="H45" s="3">
-        <v>172500</v>
+        <v>166700</v>
       </c>
       <c r="I45" s="3">
-        <v>190700</v>
+        <v>184300</v>
       </c>
       <c r="J45" s="3">
-        <v>220400</v>
+        <v>213000</v>
       </c>
       <c r="K45" s="3">
         <v>31300</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2854800</v>
+        <v>2759200</v>
       </c>
       <c r="E46" s="3">
-        <v>1912100</v>
+        <v>1848200</v>
       </c>
       <c r="F46" s="3">
-        <v>5165400</v>
+        <v>4992500</v>
       </c>
       <c r="G46" s="3">
-        <v>1576800</v>
+        <v>1524100</v>
       </c>
       <c r="H46" s="3">
-        <v>1530300</v>
+        <v>1479100</v>
       </c>
       <c r="I46" s="3">
-        <v>1731900</v>
+        <v>1673900</v>
       </c>
       <c r="J46" s="3">
-        <v>1210600</v>
+        <v>1170100</v>
       </c>
       <c r="K46" s="3">
         <v>1180800</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3568100</v>
+        <v>3448700</v>
       </c>
       <c r="E47" s="3">
-        <v>4051500</v>
+        <v>3915900</v>
       </c>
       <c r="F47" s="3">
-        <v>3929800</v>
+        <v>3798300</v>
       </c>
       <c r="G47" s="3">
-        <v>3305600</v>
+        <v>3195000</v>
       </c>
       <c r="H47" s="3">
-        <v>3163700</v>
+        <v>3057900</v>
       </c>
       <c r="I47" s="3">
-        <v>2901000</v>
+        <v>2803900</v>
       </c>
       <c r="J47" s="3">
-        <v>3375800</v>
+        <v>3262800</v>
       </c>
       <c r="K47" s="3">
         <v>2497200</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>483800</v>
+        <v>467600</v>
       </c>
       <c r="E48" s="3">
-        <v>503700</v>
+        <v>486800</v>
       </c>
       <c r="F48" s="3">
-        <v>983200</v>
+        <v>950300</v>
       </c>
       <c r="G48" s="3">
-        <v>510200</v>
+        <v>493100</v>
       </c>
       <c r="H48" s="3">
-        <v>697300</v>
+        <v>673900</v>
       </c>
       <c r="I48" s="3">
-        <v>727800</v>
+        <v>703400</v>
       </c>
       <c r="J48" s="3">
-        <v>1023900</v>
+        <v>989600</v>
       </c>
       <c r="K48" s="3">
         <v>1030100</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2181300</v>
+        <v>2108300</v>
       </c>
       <c r="E49" s="3">
-        <v>2147000</v>
+        <v>2075200</v>
       </c>
       <c r="F49" s="3">
-        <v>3981100</v>
+        <v>3847900</v>
       </c>
       <c r="G49" s="3">
-        <v>2060500</v>
+        <v>1991600</v>
       </c>
       <c r="H49" s="3">
-        <v>1998400</v>
+        <v>1931500</v>
       </c>
       <c r="I49" s="3">
-        <v>1897800</v>
+        <v>1834300</v>
       </c>
       <c r="J49" s="3">
-        <v>624200</v>
+        <v>603300</v>
       </c>
       <c r="K49" s="3">
         <v>354800</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>901200</v>
+        <v>871000</v>
       </c>
       <c r="E52" s="3">
-        <v>717700</v>
+        <v>693700</v>
       </c>
       <c r="F52" s="3">
-        <v>550000</v>
+        <v>531600</v>
       </c>
       <c r="G52" s="3">
-        <v>348500</v>
+        <v>336800</v>
       </c>
       <c r="H52" s="3">
-        <v>374300</v>
+        <v>361800</v>
       </c>
       <c r="I52" s="3">
-        <v>287900</v>
+        <v>278200</v>
       </c>
       <c r="J52" s="3">
-        <v>230100</v>
+        <v>222400</v>
       </c>
       <c r="K52" s="3">
         <v>216200</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9989100</v>
+        <v>9654900</v>
       </c>
       <c r="E54" s="3">
-        <v>9332100</v>
+        <v>9019900</v>
       </c>
       <c r="F54" s="3">
-        <v>11144400</v>
+        <v>10771500</v>
       </c>
       <c r="G54" s="3">
-        <v>7801700</v>
+        <v>7540600</v>
       </c>
       <c r="H54" s="3">
-        <v>7764000</v>
+        <v>7504200</v>
       </c>
       <c r="I54" s="3">
-        <v>7546300</v>
+        <v>7293800</v>
       </c>
       <c r="J54" s="3">
-        <v>6464500</v>
+        <v>6248200</v>
       </c>
       <c r="K54" s="3">
         <v>5279200</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>435600</v>
+        <v>421000</v>
       </c>
       <c r="E57" s="3">
-        <v>384200</v>
+        <v>371300</v>
       </c>
       <c r="F57" s="3">
-        <v>332700</v>
+        <v>321600</v>
       </c>
       <c r="G57" s="3">
-        <v>432700</v>
+        <v>418200</v>
       </c>
       <c r="H57" s="3">
-        <v>358200</v>
+        <v>346300</v>
       </c>
       <c r="I57" s="3">
-        <v>351100</v>
+        <v>339400</v>
       </c>
       <c r="J57" s="3">
-        <v>296200</v>
+        <v>286300</v>
       </c>
       <c r="K57" s="3">
         <v>188800</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>389200</v>
+        <v>376200</v>
       </c>
       <c r="E58" s="3">
-        <v>522900</v>
+        <v>505400</v>
       </c>
       <c r="F58" s="3">
-        <v>405900</v>
+        <v>392300</v>
       </c>
       <c r="G58" s="3">
-        <v>437800</v>
+        <v>423200</v>
       </c>
       <c r="H58" s="3">
-        <v>893400</v>
+        <v>863500</v>
       </c>
       <c r="I58" s="3">
-        <v>1163700</v>
+        <v>1124700</v>
       </c>
       <c r="J58" s="3">
-        <v>977200</v>
+        <v>944500</v>
       </c>
       <c r="K58" s="3">
         <v>396200</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>965000</v>
+        <v>932700</v>
       </c>
       <c r="E59" s="3">
-        <v>565500</v>
+        <v>546600</v>
       </c>
       <c r="F59" s="3">
-        <v>3604900</v>
+        <v>3484300</v>
       </c>
       <c r="G59" s="3">
-        <v>729400</v>
+        <v>705000</v>
       </c>
       <c r="H59" s="3">
-        <v>862700</v>
+        <v>833900</v>
       </c>
       <c r="I59" s="3">
-        <v>900000</v>
+        <v>869800</v>
       </c>
       <c r="J59" s="3">
-        <v>596400</v>
+        <v>576400</v>
       </c>
       <c r="K59" s="3">
         <v>463500</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1789800</v>
+        <v>1729900</v>
       </c>
       <c r="E60" s="3">
-        <v>1471100</v>
+        <v>1421800</v>
       </c>
       <c r="F60" s="3">
-        <v>4328800</v>
+        <v>4184000</v>
       </c>
       <c r="G60" s="3">
-        <v>1599900</v>
+        <v>1546400</v>
       </c>
       <c r="H60" s="3">
-        <v>2114300</v>
+        <v>2043600</v>
       </c>
       <c r="I60" s="3">
-        <v>2414800</v>
+        <v>2334000</v>
       </c>
       <c r="J60" s="3">
-        <v>1869800</v>
+        <v>1807200</v>
       </c>
       <c r="K60" s="3">
         <v>1048500</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2426900</v>
+        <v>2345700</v>
       </c>
       <c r="E61" s="3">
-        <v>2259300</v>
+        <v>2183800</v>
       </c>
       <c r="F61" s="3">
-        <v>2322500</v>
+        <v>2244800</v>
       </c>
       <c r="G61" s="3">
-        <v>2221400</v>
+        <v>2147100</v>
       </c>
       <c r="H61" s="3">
-        <v>1910200</v>
+        <v>1846300</v>
       </c>
       <c r="I61" s="3">
-        <v>1637600</v>
+        <v>1582800</v>
       </c>
       <c r="J61" s="3">
-        <v>1517900</v>
+        <v>1467100</v>
       </c>
       <c r="K61" s="3">
         <v>1278400</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2544300</v>
+        <v>2459200</v>
       </c>
       <c r="E62" s="3">
-        <v>2749700</v>
+        <v>2657700</v>
       </c>
       <c r="F62" s="3">
-        <v>1657000</v>
+        <v>1601600</v>
       </c>
       <c r="G62" s="3">
-        <v>1333500</v>
+        <v>1288900</v>
       </c>
       <c r="H62" s="3">
-        <v>1350500</v>
+        <v>1305300</v>
       </c>
       <c r="I62" s="3">
-        <v>1095100</v>
+        <v>1058500</v>
       </c>
       <c r="J62" s="3">
-        <v>1021400</v>
+        <v>987200</v>
       </c>
       <c r="K62" s="3">
         <v>714400</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6761900</v>
+        <v>6535700</v>
       </c>
       <c r="E66" s="3">
-        <v>6358800</v>
+        <v>6146000</v>
       </c>
       <c r="F66" s="3">
-        <v>8424800</v>
+        <v>8142900</v>
       </c>
       <c r="G66" s="3">
-        <v>5155600</v>
+        <v>4983100</v>
       </c>
       <c r="H66" s="3">
-        <v>5375800</v>
+        <v>5195900</v>
       </c>
       <c r="I66" s="3">
-        <v>5148200</v>
+        <v>4976000</v>
       </c>
       <c r="J66" s="3">
-        <v>4380900</v>
+        <v>4234300</v>
       </c>
       <c r="K66" s="3">
         <v>3041300</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1858200</v>
+        <v>1796000</v>
       </c>
       <c r="E72" s="3">
-        <v>2070700</v>
+        <v>2001500</v>
       </c>
       <c r="F72" s="3">
-        <v>1201900</v>
+        <v>1161700</v>
       </c>
       <c r="G72" s="3">
-        <v>1058100</v>
+        <v>1022700</v>
       </c>
       <c r="H72" s="3">
-        <v>960400</v>
+        <v>928300</v>
       </c>
       <c r="I72" s="3">
-        <v>861200</v>
+        <v>832400</v>
       </c>
       <c r="J72" s="3">
-        <v>479100</v>
+        <v>463100</v>
       </c>
       <c r="K72" s="3">
         <v>679900</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3227200</v>
+        <v>3119200</v>
       </c>
       <c r="E76" s="3">
-        <v>2973300</v>
+        <v>2873900</v>
       </c>
       <c r="F76" s="3">
-        <v>2719500</v>
+        <v>2628500</v>
       </c>
       <c r="G76" s="3">
-        <v>2646000</v>
+        <v>2557500</v>
       </c>
       <c r="H76" s="3">
-        <v>2388200</v>
+        <v>2308300</v>
       </c>
       <c r="I76" s="3">
-        <v>2398100</v>
+        <v>2317800</v>
       </c>
       <c r="J76" s="3">
-        <v>2083600</v>
+        <v>2013900</v>
       </c>
       <c r="K76" s="3">
         <v>2237900</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>529000</v>
+        <v>511300</v>
       </c>
       <c r="E81" s="3">
-        <v>589900</v>
+        <v>570100</v>
       </c>
       <c r="F81" s="3">
-        <v>314000</v>
+        <v>303500</v>
       </c>
       <c r="G81" s="3">
-        <v>184900</v>
+        <v>178700</v>
       </c>
       <c r="H81" s="3">
-        <v>61800</v>
+        <v>59700</v>
       </c>
       <c r="I81" s="3">
-        <v>455900</v>
+        <v>440700</v>
       </c>
       <c r="J81" s="3">
-        <v>579300</v>
+        <v>560000</v>
       </c>
       <c r="K81" s="3">
         <v>549600</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>182700</v>
+        <v>176600</v>
       </c>
       <c r="E83" s="3">
-        <v>177000</v>
+        <v>171100</v>
       </c>
       <c r="F83" s="3">
-        <v>156800</v>
+        <v>151600</v>
       </c>
       <c r="G83" s="3">
-        <v>157000</v>
+        <v>151700</v>
       </c>
       <c r="H83" s="3">
-        <v>154100</v>
+        <v>148900</v>
       </c>
       <c r="I83" s="3">
-        <v>154200</v>
+        <v>149000</v>
       </c>
       <c r="J83" s="3">
-        <v>147900</v>
+        <v>143000</v>
       </c>
       <c r="K83" s="3">
         <v>145800</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1590100</v>
+        <v>1536900</v>
       </c>
       <c r="E89" s="3">
-        <v>376200</v>
+        <v>363600</v>
       </c>
       <c r="F89" s="3">
-        <v>186100</v>
+        <v>179900</v>
       </c>
       <c r="G89" s="3">
-        <v>107000</v>
+        <v>103500</v>
       </c>
       <c r="H89" s="3">
-        <v>224100</v>
+        <v>216600</v>
       </c>
       <c r="I89" s="3">
-        <v>555400</v>
+        <v>536900</v>
       </c>
       <c r="J89" s="3">
-        <v>689700</v>
+        <v>666600</v>
       </c>
       <c r="K89" s="3">
         <v>622400</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-24600</v>
+        <v>-23800</v>
       </c>
       <c r="E91" s="3">
-        <v>-13000</v>
+        <v>-12600</v>
       </c>
       <c r="F91" s="3">
-        <v>-14200</v>
+        <v>-13700</v>
       </c>
       <c r="G91" s="3">
-        <v>-15300</v>
+        <v>-14800</v>
       </c>
       <c r="H91" s="3">
-        <v>-22100</v>
+        <v>-21400</v>
       </c>
       <c r="I91" s="3">
-        <v>-23200</v>
+        <v>-22400</v>
       </c>
       <c r="J91" s="3">
-        <v>-22500</v>
+        <v>-21800</v>
       </c>
       <c r="K91" s="3">
         <v>-12300</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-937700</v>
+        <v>-906300</v>
       </c>
       <c r="E94" s="3">
-        <v>-219600</v>
+        <v>-212200</v>
       </c>
       <c r="F94" s="3">
-        <v>-39000</v>
+        <v>-37700</v>
       </c>
       <c r="G94" s="3">
-        <v>-71300</v>
+        <v>-68900</v>
       </c>
       <c r="H94" s="3">
-        <v>-113300</v>
+        <v>-109500</v>
       </c>
       <c r="I94" s="3">
-        <v>-594100</v>
+        <v>-574300</v>
       </c>
       <c r="J94" s="3">
-        <v>-794000</v>
+        <v>-767400</v>
       </c>
       <c r="K94" s="3">
         <v>443200</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-110500</v>
+        <v>-106800</v>
       </c>
       <c r="E96" s="3">
-        <v>-129500</v>
+        <v>-125200</v>
       </c>
       <c r="F96" s="3">
-        <v>-94000</v>
+        <v>-90800</v>
       </c>
       <c r="G96" s="3">
-        <v>-99700</v>
+        <v>-96300</v>
       </c>
       <c r="H96" s="3">
-        <v>-124600</v>
+        <v>-120400</v>
       </c>
       <c r="I96" s="3">
-        <v>-147100</v>
+        <v>-142200</v>
       </c>
       <c r="J96" s="3">
-        <v>-723500</v>
+        <v>-699300</v>
       </c>
       <c r="K96" s="3">
         <v>-814600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-441000</v>
+        <v>-426200</v>
       </c>
       <c r="E100" s="3">
-        <v>-222200</v>
+        <v>-214800</v>
       </c>
       <c r="F100" s="3">
-        <v>-172900</v>
+        <v>-167100</v>
       </c>
       <c r="G100" s="3">
-        <v>-29200</v>
+        <v>-28300</v>
       </c>
       <c r="H100" s="3">
-        <v>-97800</v>
+        <v>-94500</v>
       </c>
       <c r="I100" s="3">
-        <v>45600</v>
+        <v>44100</v>
       </c>
       <c r="J100" s="3">
-        <v>-138500</v>
+        <v>-133800</v>
       </c>
       <c r="K100" s="3">
         <v>-1015500</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>211400</v>
+        <v>204300</v>
       </c>
       <c r="E102" s="3">
-        <v>-65600</v>
+        <v>-63400</v>
       </c>
       <c r="F102" s="3">
-        <v>-25800</v>
+        <v>-24900</v>
       </c>
       <c r="G102" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="H102" s="3">
-        <v>13000</v>
+        <v>12600</v>
       </c>
       <c r="I102" s="3">
-        <v>6900</v>
+        <v>6700</v>
       </c>
       <c r="J102" s="3">
-        <v>-242800</v>
+        <v>-234700</v>
       </c>
       <c r="K102" s="3">
         <v>50100</v>

--- a/AAII_Financials/Yearly/CIG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CIG_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4503600</v>
+        <v>4971400</v>
       </c>
       <c r="E8" s="3">
-        <v>4549900</v>
+        <v>5022500</v>
       </c>
       <c r="F8" s="3">
-        <v>3975000</v>
+        <v>4387800</v>
       </c>
       <c r="G8" s="3">
-        <v>3876000</v>
+        <v>4278500</v>
       </c>
       <c r="H8" s="3">
-        <v>3351300</v>
+        <v>3699300</v>
       </c>
       <c r="I8" s="3">
-        <v>3903800</v>
+        <v>4309300</v>
       </c>
       <c r="J8" s="3">
-        <v>3488200</v>
+        <v>3850500</v>
       </c>
       <c r="K8" s="3">
         <v>2590100</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3542700</v>
+        <v>3910600</v>
       </c>
       <c r="E9" s="3">
-        <v>3498800</v>
+        <v>3862100</v>
       </c>
       <c r="F9" s="3">
-        <v>3155700</v>
+        <v>3483500</v>
       </c>
       <c r="G9" s="3">
-        <v>3121800</v>
+        <v>3446000</v>
       </c>
       <c r="H9" s="3">
-        <v>2575800</v>
+        <v>2843300</v>
       </c>
       <c r="I9" s="3">
-        <v>2832600</v>
+        <v>3126700</v>
       </c>
       <c r="J9" s="3">
-        <v>2285500</v>
+        <v>2522900</v>
       </c>
       <c r="K9" s="3">
         <v>1743900</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>961000</v>
+        <v>1060700</v>
       </c>
       <c r="E10" s="3">
-        <v>1051200</v>
+        <v>1160300</v>
       </c>
       <c r="F10" s="3">
-        <v>819200</v>
+        <v>904300</v>
       </c>
       <c r="G10" s="3">
-        <v>754200</v>
+        <v>832500</v>
       </c>
       <c r="H10" s="3">
-        <v>775500</v>
+        <v>856000</v>
       </c>
       <c r="I10" s="3">
-        <v>1071300</v>
+        <v>1182500</v>
       </c>
       <c r="J10" s="3">
-        <v>1202700</v>
+        <v>1327600</v>
       </c>
       <c r="K10" s="3">
         <v>846100</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3663500</v>
+        <v>4043900</v>
       </c>
       <c r="E17" s="3">
-        <v>3976900</v>
+        <v>4389900</v>
       </c>
       <c r="F17" s="3">
-        <v>3529400</v>
+        <v>3895900</v>
       </c>
       <c r="G17" s="3">
-        <v>3404200</v>
+        <v>3757800</v>
       </c>
       <c r="H17" s="3">
-        <v>3029000</v>
+        <v>3343600</v>
       </c>
       <c r="I17" s="3">
-        <v>3064400</v>
+        <v>3382700</v>
       </c>
       <c r="J17" s="3">
-        <v>2492000</v>
+        <v>2750800</v>
       </c>
       <c r="K17" s="3">
         <v>1817600</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>840200</v>
+        <v>927400</v>
       </c>
       <c r="E18" s="3">
-        <v>573000</v>
+        <v>632500</v>
       </c>
       <c r="F18" s="3">
-        <v>445600</v>
+        <v>491800</v>
       </c>
       <c r="G18" s="3">
-        <v>471700</v>
+        <v>520700</v>
       </c>
       <c r="H18" s="3">
-        <v>322200</v>
+        <v>355700</v>
       </c>
       <c r="I18" s="3">
-        <v>839400</v>
+        <v>926600</v>
       </c>
       <c r="J18" s="3">
-        <v>996200</v>
+        <v>1099700</v>
       </c>
       <c r="K18" s="3">
         <v>772500</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>48600</v>
+        <v>53700</v>
       </c>
       <c r="E20" s="3">
-        <v>461900</v>
+        <v>509800</v>
       </c>
       <c r="F20" s="3">
-        <v>131700</v>
+        <v>145400</v>
       </c>
       <c r="G20" s="3">
-        <v>95900</v>
+        <v>105800</v>
       </c>
       <c r="H20" s="3">
-        <v>87700</v>
+        <v>96800</v>
       </c>
       <c r="I20" s="3">
-        <v>8100</v>
+        <v>9000</v>
       </c>
       <c r="J20" s="3">
-        <v>-30400</v>
+        <v>-33500</v>
       </c>
       <c r="K20" s="3">
         <v>68900</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1065100</v>
+        <v>1178400</v>
       </c>
       <c r="E21" s="3">
-        <v>1205700</v>
+        <v>1333500</v>
       </c>
       <c r="F21" s="3">
-        <v>728700</v>
+        <v>806700</v>
       </c>
       <c r="G21" s="3">
-        <v>719100</v>
+        <v>796100</v>
       </c>
       <c r="H21" s="3">
-        <v>558700</v>
+        <v>619000</v>
       </c>
       <c r="I21" s="3">
-        <v>996400</v>
+        <v>1102100</v>
       </c>
       <c r="J21" s="3">
-        <v>1108600</v>
+        <v>1225900</v>
       </c>
       <c r="K21" s="3">
         <v>987900</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>210300</v>
+        <v>232100</v>
       </c>
       <c r="E22" s="3">
-        <v>219000</v>
+        <v>241800</v>
       </c>
       <c r="F22" s="3">
-        <v>224300</v>
+        <v>247600</v>
       </c>
       <c r="G22" s="3">
-        <v>273800</v>
+        <v>302200</v>
       </c>
       <c r="H22" s="3">
-        <v>344300</v>
+        <v>380000</v>
       </c>
       <c r="I22" s="3">
-        <v>247400</v>
+        <v>273100</v>
       </c>
       <c r="J22" s="3">
-        <v>166200</v>
+        <v>183400</v>
       </c>
       <c r="K22" s="3">
         <v>123600</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>678500</v>
+        <v>749000</v>
       </c>
       <c r="E23" s="3">
-        <v>815900</v>
+        <v>900600</v>
       </c>
       <c r="F23" s="3">
-        <v>353000</v>
+        <v>389700</v>
       </c>
       <c r="G23" s="3">
-        <v>293800</v>
+        <v>324300</v>
       </c>
       <c r="H23" s="3">
-        <v>65700</v>
+        <v>72500</v>
       </c>
       <c r="I23" s="3">
-        <v>600100</v>
+        <v>662400</v>
       </c>
       <c r="J23" s="3">
-        <v>799700</v>
+        <v>882700</v>
       </c>
       <c r="K23" s="3">
         <v>717800</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>167000</v>
+        <v>184400</v>
       </c>
       <c r="E24" s="3">
-        <v>285600</v>
+        <v>315300</v>
       </c>
       <c r="F24" s="3">
-        <v>107000</v>
+        <v>118100</v>
       </c>
       <c r="G24" s="3">
-        <v>115000</v>
+        <v>127000</v>
       </c>
       <c r="H24" s="3">
-        <v>5900</v>
+        <v>6500</v>
       </c>
       <c r="I24" s="3">
-        <v>159300</v>
+        <v>175900</v>
       </c>
       <c r="J24" s="3">
-        <v>239700</v>
+        <v>264600</v>
       </c>
       <c r="K24" s="3">
         <v>168200</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>511500</v>
+        <v>564600</v>
       </c>
       <c r="E26" s="3">
-        <v>530300</v>
+        <v>585300</v>
       </c>
       <c r="F26" s="3">
-        <v>246100</v>
+        <v>271600</v>
       </c>
       <c r="G26" s="3">
-        <v>178800</v>
+        <v>197400</v>
       </c>
       <c r="H26" s="3">
-        <v>59800</v>
+        <v>66000</v>
       </c>
       <c r="I26" s="3">
-        <v>440800</v>
+        <v>486500</v>
       </c>
       <c r="J26" s="3">
-        <v>560000</v>
+        <v>618200</v>
       </c>
       <c r="K26" s="3">
         <v>549600</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>511300</v>
+        <v>564400</v>
       </c>
       <c r="E27" s="3">
-        <v>530100</v>
+        <v>585200</v>
       </c>
       <c r="F27" s="3">
-        <v>238600</v>
+        <v>263400</v>
       </c>
       <c r="G27" s="3">
-        <v>178700</v>
+        <v>197200</v>
       </c>
       <c r="H27" s="3">
-        <v>59700</v>
+        <v>65900</v>
       </c>
       <c r="I27" s="3">
-        <v>440700</v>
+        <v>486400</v>
       </c>
       <c r="J27" s="3">
-        <v>560000</v>
+        <v>618100</v>
       </c>
       <c r="K27" s="3">
         <v>549600</v>
@@ -1416,10 +1416,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>40000</v>
+        <v>44200</v>
       </c>
       <c r="F29" s="3">
-        <v>64900</v>
+        <v>71600</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-48600</v>
+        <v>-53700</v>
       </c>
       <c r="E32" s="3">
-        <v>-461900</v>
+        <v>-509800</v>
       </c>
       <c r="F32" s="3">
-        <v>-131700</v>
+        <v>-145400</v>
       </c>
       <c r="G32" s="3">
-        <v>-95900</v>
+        <v>-105800</v>
       </c>
       <c r="H32" s="3">
-        <v>-87700</v>
+        <v>-96800</v>
       </c>
       <c r="I32" s="3">
-        <v>-8100</v>
+        <v>-9000</v>
       </c>
       <c r="J32" s="3">
-        <v>30400</v>
+        <v>33500</v>
       </c>
       <c r="K32" s="3">
         <v>-68900</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>511300</v>
+        <v>564400</v>
       </c>
       <c r="E33" s="3">
-        <v>570100</v>
+        <v>629300</v>
       </c>
       <c r="F33" s="3">
-        <v>303500</v>
+        <v>335000</v>
       </c>
       <c r="G33" s="3">
-        <v>178700</v>
+        <v>197200</v>
       </c>
       <c r="H33" s="3">
-        <v>59700</v>
+        <v>65900</v>
       </c>
       <c r="I33" s="3">
-        <v>440700</v>
+        <v>486400</v>
       </c>
       <c r="J33" s="3">
-        <v>560000</v>
+        <v>618100</v>
       </c>
       <c r="K33" s="3">
         <v>549600</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>511300</v>
+        <v>564400</v>
       </c>
       <c r="E35" s="3">
-        <v>570100</v>
+        <v>629300</v>
       </c>
       <c r="F35" s="3">
-        <v>303500</v>
+        <v>335000</v>
       </c>
       <c r="G35" s="3">
-        <v>178700</v>
+        <v>197200</v>
       </c>
       <c r="H35" s="3">
-        <v>59700</v>
+        <v>65900</v>
       </c>
       <c r="I35" s="3">
-        <v>440700</v>
+        <v>486400</v>
       </c>
       <c r="J35" s="3">
-        <v>560000</v>
+        <v>618100</v>
       </c>
       <c r="K35" s="3">
         <v>549600</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>300000</v>
+        <v>331100</v>
       </c>
       <c r="E41" s="3">
-        <v>95600</v>
+        <v>105600</v>
       </c>
       <c r="F41" s="3">
-        <v>318100</v>
+        <v>351100</v>
       </c>
       <c r="G41" s="3">
-        <v>183900</v>
+        <v>203000</v>
       </c>
       <c r="H41" s="3">
-        <v>177700</v>
+        <v>196100</v>
       </c>
       <c r="I41" s="3">
-        <v>165100</v>
+        <v>182200</v>
       </c>
       <c r="J41" s="3">
-        <v>158400</v>
+        <v>174800</v>
       </c>
       <c r="K41" s="3">
         <v>389900</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>599900</v>
+        <v>662200</v>
       </c>
       <c r="E42" s="3">
-        <v>134400</v>
+        <v>148300</v>
       </c>
       <c r="F42" s="3">
-        <v>141800</v>
+        <v>156600</v>
       </c>
       <c r="G42" s="3">
-        <v>207900</v>
+        <v>229500</v>
       </c>
       <c r="H42" s="3">
-        <v>246700</v>
+        <v>272300</v>
       </c>
       <c r="I42" s="3">
-        <v>433300</v>
+        <v>478200</v>
       </c>
       <c r="J42" s="3">
-        <v>177600</v>
+        <v>196100</v>
       </c>
       <c r="K42" s="3">
         <v>165600</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1414900</v>
+        <v>1561800</v>
       </c>
       <c r="E43" s="3">
-        <v>1155900</v>
+        <v>1275900</v>
       </c>
       <c r="F43" s="3">
-        <v>1068600</v>
+        <v>1179500</v>
       </c>
       <c r="G43" s="3">
-        <v>916200</v>
+        <v>1011400</v>
       </c>
       <c r="H43" s="3">
-        <v>879300</v>
+        <v>970600</v>
       </c>
       <c r="I43" s="3">
-        <v>1556700</v>
+        <v>1718300</v>
       </c>
       <c r="J43" s="3">
-        <v>613900</v>
+        <v>677700</v>
       </c>
       <c r="K43" s="3">
         <v>587300</v>
@@ -1849,22 +1849,22 @@
         <v>8</v>
       </c>
       <c r="E44" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F44" s="3">
         <v>7000</v>
       </c>
-      <c r="F44" s="3">
-        <v>6400</v>
-      </c>
       <c r="G44" s="3">
-        <v>6800</v>
+        <v>7500</v>
       </c>
       <c r="H44" s="3">
-        <v>8800</v>
+        <v>9700</v>
       </c>
       <c r="I44" s="3">
-        <v>6700</v>
+        <v>7300</v>
       </c>
       <c r="J44" s="3">
-        <v>7100</v>
+        <v>7900</v>
       </c>
       <c r="K44" s="3">
         <v>6700</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>444500</v>
+        <v>490700</v>
       </c>
       <c r="E45" s="3">
-        <v>531200</v>
+        <v>586400</v>
       </c>
       <c r="F45" s="3">
-        <v>3758800</v>
+        <v>4149200</v>
       </c>
       <c r="G45" s="3">
-        <v>209200</v>
+        <v>230900</v>
       </c>
       <c r="H45" s="3">
-        <v>166700</v>
+        <v>184000</v>
       </c>
       <c r="I45" s="3">
-        <v>184300</v>
+        <v>203500</v>
       </c>
       <c r="J45" s="3">
-        <v>213000</v>
+        <v>235100</v>
       </c>
       <c r="K45" s="3">
         <v>31300</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2759200</v>
+        <v>3045800</v>
       </c>
       <c r="E46" s="3">
-        <v>1848200</v>
+        <v>2040100</v>
       </c>
       <c r="F46" s="3">
-        <v>4992500</v>
+        <v>5511000</v>
       </c>
       <c r="G46" s="3">
-        <v>1524100</v>
+        <v>1682400</v>
       </c>
       <c r="H46" s="3">
-        <v>1479100</v>
+        <v>1632700</v>
       </c>
       <c r="I46" s="3">
-        <v>1673900</v>
+        <v>1847800</v>
       </c>
       <c r="J46" s="3">
-        <v>1170100</v>
+        <v>1291600</v>
       </c>
       <c r="K46" s="3">
         <v>1180800</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3448700</v>
+        <v>3806900</v>
       </c>
       <c r="E47" s="3">
-        <v>3915900</v>
+        <v>4322600</v>
       </c>
       <c r="F47" s="3">
-        <v>3798300</v>
+        <v>4192800</v>
       </c>
       <c r="G47" s="3">
-        <v>3195000</v>
+        <v>3526800</v>
       </c>
       <c r="H47" s="3">
-        <v>3057900</v>
+        <v>3375500</v>
       </c>
       <c r="I47" s="3">
-        <v>2803900</v>
+        <v>3095100</v>
       </c>
       <c r="J47" s="3">
-        <v>3262800</v>
+        <v>3601700</v>
       </c>
       <c r="K47" s="3">
         <v>2497200</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>467600</v>
+        <v>516100</v>
       </c>
       <c r="E48" s="3">
-        <v>486800</v>
+        <v>537400</v>
       </c>
       <c r="F48" s="3">
-        <v>950300</v>
+        <v>1049000</v>
       </c>
       <c r="G48" s="3">
-        <v>493100</v>
+        <v>544300</v>
       </c>
       <c r="H48" s="3">
-        <v>673900</v>
+        <v>743900</v>
       </c>
       <c r="I48" s="3">
-        <v>703400</v>
+        <v>776500</v>
       </c>
       <c r="J48" s="3">
-        <v>989600</v>
+        <v>1092400</v>
       </c>
       <c r="K48" s="3">
         <v>1030100</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2108300</v>
+        <v>2327300</v>
       </c>
       <c r="E49" s="3">
-        <v>2075200</v>
+        <v>2290700</v>
       </c>
       <c r="F49" s="3">
-        <v>3847900</v>
+        <v>4247500</v>
       </c>
       <c r="G49" s="3">
-        <v>1991600</v>
+        <v>2198400</v>
       </c>
       <c r="H49" s="3">
-        <v>1931500</v>
+        <v>2132100</v>
       </c>
       <c r="I49" s="3">
-        <v>1834300</v>
+        <v>2024800</v>
       </c>
       <c r="J49" s="3">
-        <v>603300</v>
+        <v>665900</v>
       </c>
       <c r="K49" s="3">
         <v>354800</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>871000</v>
+        <v>961500</v>
       </c>
       <c r="E52" s="3">
-        <v>693700</v>
+        <v>765800</v>
       </c>
       <c r="F52" s="3">
-        <v>531600</v>
+        <v>586800</v>
       </c>
       <c r="G52" s="3">
-        <v>336800</v>
+        <v>371800</v>
       </c>
       <c r="H52" s="3">
-        <v>361800</v>
+        <v>399300</v>
       </c>
       <c r="I52" s="3">
-        <v>278200</v>
+        <v>307100</v>
       </c>
       <c r="J52" s="3">
-        <v>222400</v>
+        <v>245500</v>
       </c>
       <c r="K52" s="3">
         <v>216200</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9654900</v>
+        <v>10657600</v>
       </c>
       <c r="E54" s="3">
-        <v>9019900</v>
+        <v>9956600</v>
       </c>
       <c r="F54" s="3">
-        <v>10771500</v>
+        <v>11890100</v>
       </c>
       <c r="G54" s="3">
-        <v>7540600</v>
+        <v>8323700</v>
       </c>
       <c r="H54" s="3">
-        <v>7504200</v>
+        <v>8283600</v>
       </c>
       <c r="I54" s="3">
-        <v>7293800</v>
+        <v>8051300</v>
       </c>
       <c r="J54" s="3">
-        <v>6248200</v>
+        <v>6897100</v>
       </c>
       <c r="K54" s="3">
         <v>5279200</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>421000</v>
+        <v>464700</v>
       </c>
       <c r="E57" s="3">
-        <v>371300</v>
+        <v>409900</v>
       </c>
       <c r="F57" s="3">
-        <v>321600</v>
+        <v>355000</v>
       </c>
       <c r="G57" s="3">
-        <v>418200</v>
+        <v>461700</v>
       </c>
       <c r="H57" s="3">
-        <v>346300</v>
+        <v>382200</v>
       </c>
       <c r="I57" s="3">
-        <v>339400</v>
+        <v>374600</v>
       </c>
       <c r="J57" s="3">
-        <v>286300</v>
+        <v>316000</v>
       </c>
       <c r="K57" s="3">
         <v>188800</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>376200</v>
+        <v>415200</v>
       </c>
       <c r="E58" s="3">
-        <v>505400</v>
+        <v>557900</v>
       </c>
       <c r="F58" s="3">
-        <v>392300</v>
+        <v>433100</v>
       </c>
       <c r="G58" s="3">
-        <v>423200</v>
+        <v>467100</v>
       </c>
       <c r="H58" s="3">
-        <v>863500</v>
+        <v>953200</v>
       </c>
       <c r="I58" s="3">
-        <v>1124700</v>
+        <v>1241500</v>
       </c>
       <c r="J58" s="3">
-        <v>944500</v>
+        <v>1042600</v>
       </c>
       <c r="K58" s="3">
         <v>396200</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>932700</v>
+        <v>1029600</v>
       </c>
       <c r="E59" s="3">
-        <v>546600</v>
+        <v>603400</v>
       </c>
       <c r="F59" s="3">
-        <v>3484300</v>
+        <v>3846200</v>
       </c>
       <c r="G59" s="3">
-        <v>705000</v>
+        <v>778200</v>
       </c>
       <c r="H59" s="3">
-        <v>833900</v>
+        <v>920500</v>
       </c>
       <c r="I59" s="3">
-        <v>869800</v>
+        <v>960200</v>
       </c>
       <c r="J59" s="3">
-        <v>576400</v>
+        <v>636300</v>
       </c>
       <c r="K59" s="3">
         <v>463500</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1729900</v>
+        <v>1909600</v>
       </c>
       <c r="E60" s="3">
-        <v>1421800</v>
+        <v>1569500</v>
       </c>
       <c r="F60" s="3">
-        <v>4184000</v>
+        <v>4618500</v>
       </c>
       <c r="G60" s="3">
-        <v>1546400</v>
+        <v>1707000</v>
       </c>
       <c r="H60" s="3">
-        <v>2043600</v>
+        <v>2255800</v>
       </c>
       <c r="I60" s="3">
-        <v>2334000</v>
+        <v>2576400</v>
       </c>
       <c r="J60" s="3">
-        <v>1807200</v>
+        <v>1994900</v>
       </c>
       <c r="K60" s="3">
         <v>1048500</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2345700</v>
+        <v>2589400</v>
       </c>
       <c r="E61" s="3">
-        <v>2183800</v>
+        <v>2410500</v>
       </c>
       <c r="F61" s="3">
-        <v>2244800</v>
+        <v>2477900</v>
       </c>
       <c r="G61" s="3">
-        <v>2147100</v>
+        <v>2370100</v>
       </c>
       <c r="H61" s="3">
-        <v>1846300</v>
+        <v>2038100</v>
       </c>
       <c r="I61" s="3">
-        <v>1582800</v>
+        <v>1747200</v>
       </c>
       <c r="J61" s="3">
-        <v>1467100</v>
+        <v>1619500</v>
       </c>
       <c r="K61" s="3">
         <v>1278400</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2459200</v>
+        <v>2714600</v>
       </c>
       <c r="E62" s="3">
-        <v>2657700</v>
+        <v>2933700</v>
       </c>
       <c r="F62" s="3">
-        <v>1601600</v>
+        <v>1767900</v>
       </c>
       <c r="G62" s="3">
-        <v>1288900</v>
+        <v>1422800</v>
       </c>
       <c r="H62" s="3">
-        <v>1305300</v>
+        <v>1440800</v>
       </c>
       <c r="I62" s="3">
-        <v>1058500</v>
+        <v>1168400</v>
       </c>
       <c r="J62" s="3">
-        <v>987200</v>
+        <v>1089800</v>
       </c>
       <c r="K62" s="3">
         <v>714400</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6535700</v>
+        <v>7214400</v>
       </c>
       <c r="E66" s="3">
-        <v>6146000</v>
+        <v>6784300</v>
       </c>
       <c r="F66" s="3">
-        <v>8142900</v>
+        <v>8988600</v>
       </c>
       <c r="G66" s="3">
-        <v>4983100</v>
+        <v>5500700</v>
       </c>
       <c r="H66" s="3">
-        <v>5195900</v>
+        <v>5735500</v>
       </c>
       <c r="I66" s="3">
-        <v>4976000</v>
+        <v>5492700</v>
       </c>
       <c r="J66" s="3">
-        <v>4234300</v>
+        <v>4674100</v>
       </c>
       <c r="K66" s="3">
         <v>3041300</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1796000</v>
+        <v>1982500</v>
       </c>
       <c r="E72" s="3">
-        <v>2001500</v>
+        <v>2209300</v>
       </c>
       <c r="F72" s="3">
-        <v>1161700</v>
+        <v>1282300</v>
       </c>
       <c r="G72" s="3">
-        <v>1022700</v>
+        <v>1128900</v>
       </c>
       <c r="H72" s="3">
-        <v>928300</v>
+        <v>1024700</v>
       </c>
       <c r="I72" s="3">
-        <v>832400</v>
+        <v>918800</v>
       </c>
       <c r="J72" s="3">
-        <v>463100</v>
+        <v>511100</v>
       </c>
       <c r="K72" s="3">
         <v>679900</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3119200</v>
+        <v>3443200</v>
       </c>
       <c r="E76" s="3">
-        <v>2873900</v>
+        <v>3172300</v>
       </c>
       <c r="F76" s="3">
-        <v>2628500</v>
+        <v>2901500</v>
       </c>
       <c r="G76" s="3">
-        <v>2557500</v>
+        <v>2823100</v>
       </c>
       <c r="H76" s="3">
-        <v>2308300</v>
+        <v>2548000</v>
       </c>
       <c r="I76" s="3">
-        <v>2317800</v>
+        <v>2558600</v>
       </c>
       <c r="J76" s="3">
-        <v>2013900</v>
+        <v>2223000</v>
       </c>
       <c r="K76" s="3">
         <v>2237900</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>511300</v>
+        <v>564400</v>
       </c>
       <c r="E81" s="3">
-        <v>570100</v>
+        <v>629300</v>
       </c>
       <c r="F81" s="3">
-        <v>303500</v>
+        <v>335000</v>
       </c>
       <c r="G81" s="3">
-        <v>178700</v>
+        <v>197200</v>
       </c>
       <c r="H81" s="3">
-        <v>59700</v>
+        <v>65900</v>
       </c>
       <c r="I81" s="3">
-        <v>440700</v>
+        <v>486400</v>
       </c>
       <c r="J81" s="3">
-        <v>560000</v>
+        <v>618100</v>
       </c>
       <c r="K81" s="3">
         <v>549600</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>176600</v>
+        <v>194900</v>
       </c>
       <c r="E83" s="3">
-        <v>171100</v>
+        <v>188800</v>
       </c>
       <c r="F83" s="3">
-        <v>151600</v>
+        <v>167300</v>
       </c>
       <c r="G83" s="3">
-        <v>151700</v>
+        <v>167500</v>
       </c>
       <c r="H83" s="3">
-        <v>148900</v>
+        <v>164400</v>
       </c>
       <c r="I83" s="3">
-        <v>149000</v>
+        <v>164500</v>
       </c>
       <c r="J83" s="3">
-        <v>143000</v>
+        <v>157800</v>
       </c>
       <c r="K83" s="3">
         <v>145800</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1536900</v>
+        <v>1696500</v>
       </c>
       <c r="E89" s="3">
-        <v>363600</v>
+        <v>401400</v>
       </c>
       <c r="F89" s="3">
-        <v>179900</v>
+        <v>198600</v>
       </c>
       <c r="G89" s="3">
-        <v>103500</v>
+        <v>114200</v>
       </c>
       <c r="H89" s="3">
-        <v>216600</v>
+        <v>239100</v>
       </c>
       <c r="I89" s="3">
-        <v>536900</v>
+        <v>592600</v>
       </c>
       <c r="J89" s="3">
-        <v>666600</v>
+        <v>735800</v>
       </c>
       <c r="K89" s="3">
         <v>622400</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-23800</v>
+        <v>-26200</v>
       </c>
       <c r="E91" s="3">
-        <v>-12600</v>
+        <v>-13900</v>
       </c>
       <c r="F91" s="3">
-        <v>-13700</v>
+        <v>-15200</v>
       </c>
       <c r="G91" s="3">
-        <v>-14800</v>
+        <v>-16400</v>
       </c>
       <c r="H91" s="3">
-        <v>-21400</v>
+        <v>-23600</v>
       </c>
       <c r="I91" s="3">
-        <v>-22400</v>
+        <v>-24800</v>
       </c>
       <c r="J91" s="3">
-        <v>-21800</v>
+        <v>-24000</v>
       </c>
       <c r="K91" s="3">
         <v>-12300</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-906300</v>
+        <v>-1000500</v>
       </c>
       <c r="E94" s="3">
-        <v>-212200</v>
+        <v>-234200</v>
       </c>
       <c r="F94" s="3">
-        <v>-37700</v>
+        <v>-41600</v>
       </c>
       <c r="G94" s="3">
-        <v>-68900</v>
+        <v>-76100</v>
       </c>
       <c r="H94" s="3">
-        <v>-109500</v>
+        <v>-120900</v>
       </c>
       <c r="I94" s="3">
-        <v>-574300</v>
+        <v>-633900</v>
       </c>
       <c r="J94" s="3">
-        <v>-767400</v>
+        <v>-847100</v>
       </c>
       <c r="K94" s="3">
         <v>443200</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-106800</v>
+        <v>-117900</v>
       </c>
       <c r="E96" s="3">
-        <v>-125200</v>
+        <v>-138200</v>
       </c>
       <c r="F96" s="3">
-        <v>-90800</v>
+        <v>-100300</v>
       </c>
       <c r="G96" s="3">
-        <v>-96300</v>
+        <v>-106300</v>
       </c>
       <c r="H96" s="3">
-        <v>-120400</v>
+        <v>-132900</v>
       </c>
       <c r="I96" s="3">
-        <v>-142200</v>
+        <v>-156900</v>
       </c>
       <c r="J96" s="3">
-        <v>-699300</v>
+        <v>-772000</v>
       </c>
       <c r="K96" s="3">
         <v>-814600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-426200</v>
+        <v>-470500</v>
       </c>
       <c r="E100" s="3">
-        <v>-214800</v>
+        <v>-237100</v>
       </c>
       <c r="F100" s="3">
-        <v>-167100</v>
+        <v>-184500</v>
       </c>
       <c r="G100" s="3">
-        <v>-28300</v>
+        <v>-31200</v>
       </c>
       <c r="H100" s="3">
-        <v>-94500</v>
+        <v>-104300</v>
       </c>
       <c r="I100" s="3">
-        <v>44100</v>
+        <v>48700</v>
       </c>
       <c r="J100" s="3">
-        <v>-133800</v>
+        <v>-147800</v>
       </c>
       <c r="K100" s="3">
         <v>-1015500</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>204300</v>
+        <v>225600</v>
       </c>
       <c r="E102" s="3">
-        <v>-63400</v>
+        <v>-70000</v>
       </c>
       <c r="F102" s="3">
-        <v>-24900</v>
+        <v>-27500</v>
       </c>
       <c r="G102" s="3">
-        <v>6300</v>
+        <v>6900</v>
       </c>
       <c r="H102" s="3">
-        <v>12600</v>
+        <v>13900</v>
       </c>
       <c r="I102" s="3">
-        <v>6700</v>
+        <v>7400</v>
       </c>
       <c r="J102" s="3">
-        <v>-234700</v>
+        <v>-259100</v>
       </c>
       <c r="K102" s="3">
         <v>50100</v>

--- a/AAII_Financials/Yearly/CIG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CIG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>CIG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4971400</v>
+        <v>6553600</v>
       </c>
       <c r="E8" s="3">
-        <v>5022500</v>
+        <v>4913800</v>
       </c>
       <c r="F8" s="3">
-        <v>4387800</v>
+        <v>4964400</v>
       </c>
       <c r="G8" s="3">
-        <v>4278500</v>
+        <v>4337000</v>
       </c>
       <c r="H8" s="3">
-        <v>3699300</v>
+        <v>4229000</v>
       </c>
       <c r="I8" s="3">
-        <v>4309300</v>
+        <v>3656500</v>
       </c>
       <c r="J8" s="3">
+        <v>4259400</v>
+      </c>
+      <c r="K8" s="3">
         <v>3850500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2590100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3301400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3177300</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3910600</v>
+        <v>5244200</v>
       </c>
       <c r="E9" s="3">
-        <v>3862100</v>
+        <v>3865400</v>
       </c>
       <c r="F9" s="3">
-        <v>3483500</v>
+        <v>3817400</v>
       </c>
       <c r="G9" s="3">
-        <v>3446000</v>
+        <v>3443200</v>
       </c>
       <c r="H9" s="3">
-        <v>2843300</v>
+        <v>3406100</v>
       </c>
       <c r="I9" s="3">
-        <v>3126700</v>
+        <v>2810400</v>
       </c>
       <c r="J9" s="3">
+        <v>3090600</v>
+      </c>
+      <c r="K9" s="3">
         <v>2522900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1743900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2379600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2529300</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1060700</v>
+        <v>1309400</v>
       </c>
       <c r="E10" s="3">
-        <v>1160300</v>
+        <v>1048500</v>
       </c>
       <c r="F10" s="3">
-        <v>904300</v>
+        <v>1146900</v>
       </c>
       <c r="G10" s="3">
-        <v>832500</v>
+        <v>893900</v>
       </c>
       <c r="H10" s="3">
-        <v>856000</v>
+        <v>822900</v>
       </c>
       <c r="I10" s="3">
-        <v>1182500</v>
+        <v>846100</v>
       </c>
       <c r="J10" s="3">
+        <v>1168900</v>
+      </c>
+      <c r="K10" s="3">
         <v>1327600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>846100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>921800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>648000</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,9 +925,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -943,11 +962,14 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>1800</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -981,9 +1003,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4043900</v>
+        <v>5241500</v>
       </c>
       <c r="E17" s="3">
-        <v>4389900</v>
+        <v>3997100</v>
       </c>
       <c r="F17" s="3">
-        <v>3895900</v>
+        <v>4339100</v>
       </c>
       <c r="G17" s="3">
-        <v>3757800</v>
+        <v>3850900</v>
       </c>
       <c r="H17" s="3">
-        <v>3343600</v>
+        <v>3714300</v>
       </c>
       <c r="I17" s="3">
-        <v>3382700</v>
+        <v>3304900</v>
       </c>
       <c r="J17" s="3">
+        <v>3343500</v>
+      </c>
+      <c r="K17" s="3">
         <v>2750800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1817600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2489900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2202000</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>927400</v>
+        <v>1312100</v>
       </c>
       <c r="E18" s="3">
-        <v>632500</v>
+        <v>916700</v>
       </c>
       <c r="F18" s="3">
-        <v>491800</v>
+        <v>625200</v>
       </c>
       <c r="G18" s="3">
-        <v>520700</v>
+        <v>486200</v>
       </c>
       <c r="H18" s="3">
-        <v>355700</v>
+        <v>514700</v>
       </c>
       <c r="I18" s="3">
-        <v>926600</v>
+        <v>351600</v>
       </c>
       <c r="J18" s="3">
+        <v>915900</v>
+      </c>
+      <c r="K18" s="3">
         <v>1099700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>772500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>811400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>975300</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>53700</v>
+        <v>-173600</v>
       </c>
       <c r="E20" s="3">
-        <v>509800</v>
+        <v>53000</v>
       </c>
       <c r="F20" s="3">
-        <v>145400</v>
+        <v>503900</v>
       </c>
       <c r="G20" s="3">
-        <v>105800</v>
+        <v>143700</v>
       </c>
       <c r="H20" s="3">
-        <v>96800</v>
+        <v>104600</v>
       </c>
       <c r="I20" s="3">
-        <v>9000</v>
+        <v>95700</v>
       </c>
       <c r="J20" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-33500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>68900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>570000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>68500</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1178400</v>
+        <v>1342700</v>
       </c>
       <c r="E21" s="3">
-        <v>1333500</v>
+        <v>1162300</v>
       </c>
       <c r="F21" s="3">
-        <v>806700</v>
+        <v>1315700</v>
       </c>
       <c r="G21" s="3">
-        <v>796100</v>
+        <v>795200</v>
       </c>
       <c r="H21" s="3">
-        <v>619000</v>
+        <v>784700</v>
       </c>
       <c r="I21" s="3">
-        <v>1102100</v>
+        <v>609700</v>
       </c>
       <c r="J21" s="3">
+        <v>1087200</v>
+      </c>
+      <c r="K21" s="3">
         <v>1225900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>987900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1561600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1240600</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>232100</v>
+        <v>223400</v>
       </c>
       <c r="E22" s="3">
-        <v>241800</v>
+        <v>229400</v>
       </c>
       <c r="F22" s="3">
-        <v>247600</v>
+        <v>239000</v>
       </c>
       <c r="G22" s="3">
-        <v>302200</v>
+        <v>244700</v>
       </c>
       <c r="H22" s="3">
-        <v>380000</v>
+        <v>298700</v>
       </c>
       <c r="I22" s="3">
-        <v>273100</v>
+        <v>375600</v>
       </c>
       <c r="J22" s="3">
+        <v>270000</v>
+      </c>
+      <c r="K22" s="3">
         <v>183400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>123600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>189500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>232500</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>749000</v>
+        <v>915100</v>
       </c>
       <c r="E23" s="3">
-        <v>900600</v>
+        <v>740300</v>
       </c>
       <c r="F23" s="3">
-        <v>389700</v>
+        <v>890200</v>
       </c>
       <c r="G23" s="3">
-        <v>324300</v>
+        <v>385200</v>
       </c>
       <c r="H23" s="3">
-        <v>72500</v>
+        <v>320600</v>
       </c>
       <c r="I23" s="3">
-        <v>662400</v>
+        <v>71700</v>
       </c>
       <c r="J23" s="3">
+        <v>654800</v>
+      </c>
+      <c r="K23" s="3">
         <v>882700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>717800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1191900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>811200</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>184400</v>
+        <v>184100</v>
       </c>
       <c r="E24" s="3">
-        <v>315300</v>
+        <v>182300</v>
       </c>
       <c r="F24" s="3">
-        <v>118100</v>
+        <v>311600</v>
       </c>
       <c r="G24" s="3">
-        <v>127000</v>
+        <v>116700</v>
       </c>
       <c r="H24" s="3">
+        <v>125500</v>
+      </c>
+      <c r="I24" s="3">
         <v>6500</v>
       </c>
-      <c r="I24" s="3">
-        <v>175900</v>
-      </c>
       <c r="J24" s="3">
+        <v>173900</v>
+      </c>
+      <c r="K24" s="3">
         <v>264600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>168200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>194400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>192000</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>564600</v>
+        <v>731000</v>
       </c>
       <c r="E26" s="3">
-        <v>585300</v>
+        <v>558100</v>
       </c>
       <c r="F26" s="3">
-        <v>271600</v>
+        <v>578600</v>
       </c>
       <c r="G26" s="3">
-        <v>197400</v>
+        <v>268500</v>
       </c>
       <c r="H26" s="3">
-        <v>66000</v>
+        <v>195100</v>
       </c>
       <c r="I26" s="3">
-        <v>486500</v>
+        <v>65200</v>
       </c>
       <c r="J26" s="3">
+        <v>480900</v>
+      </c>
+      <c r="K26" s="3">
         <v>618200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>549600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>997500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>619200</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>564400</v>
+        <v>730700</v>
       </c>
       <c r="E27" s="3">
-        <v>585200</v>
+        <v>557900</v>
       </c>
       <c r="F27" s="3">
-        <v>263400</v>
+        <v>578400</v>
       </c>
       <c r="G27" s="3">
-        <v>197200</v>
+        <v>260400</v>
       </c>
       <c r="H27" s="3">
-        <v>65900</v>
+        <v>195000</v>
       </c>
       <c r="I27" s="3">
-        <v>486400</v>
+        <v>65100</v>
       </c>
       <c r="J27" s="3">
+        <v>480800</v>
+      </c>
+      <c r="K27" s="3">
         <v>618100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>549600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>997500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>619200</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1416,13 +1476,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>44200</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>71600</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
+        <v>43600</v>
+      </c>
+      <c r="G29" s="3">
+        <v>70800</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1439,12 +1499,15 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-53700</v>
+        <v>173600</v>
       </c>
       <c r="E32" s="3">
-        <v>-509800</v>
+        <v>-53000</v>
       </c>
       <c r="F32" s="3">
-        <v>-145400</v>
+        <v>-503900</v>
       </c>
       <c r="G32" s="3">
-        <v>-105800</v>
+        <v>-143700</v>
       </c>
       <c r="H32" s="3">
-        <v>-96800</v>
+        <v>-104600</v>
       </c>
       <c r="I32" s="3">
-        <v>-9000</v>
+        <v>-95700</v>
       </c>
       <c r="J32" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="K32" s="3">
         <v>33500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-68900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-570000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-68500</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>564400</v>
+        <v>730700</v>
       </c>
       <c r="E33" s="3">
-        <v>629300</v>
+        <v>557900</v>
       </c>
       <c r="F33" s="3">
-        <v>335000</v>
+        <v>622100</v>
       </c>
       <c r="G33" s="3">
-        <v>197200</v>
+        <v>331100</v>
       </c>
       <c r="H33" s="3">
-        <v>65900</v>
+        <v>195000</v>
       </c>
       <c r="I33" s="3">
-        <v>486400</v>
+        <v>65100</v>
       </c>
       <c r="J33" s="3">
+        <v>480800</v>
+      </c>
+      <c r="K33" s="3">
         <v>618100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>549600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>997500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>619200</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>564400</v>
+        <v>730700</v>
       </c>
       <c r="E35" s="3">
-        <v>629300</v>
+        <v>557900</v>
       </c>
       <c r="F35" s="3">
-        <v>335000</v>
+        <v>622100</v>
       </c>
       <c r="G35" s="3">
-        <v>197200</v>
+        <v>331100</v>
       </c>
       <c r="H35" s="3">
-        <v>65900</v>
+        <v>195000</v>
       </c>
       <c r="I35" s="3">
-        <v>486400</v>
+        <v>65100</v>
       </c>
       <c r="J35" s="3">
+        <v>480800</v>
+      </c>
+      <c r="K35" s="3">
         <v>618100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>549600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>997500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>619200</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,332 +1817,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>331100</v>
+        <v>160700</v>
       </c>
       <c r="E41" s="3">
-        <v>105600</v>
+        <v>327300</v>
       </c>
       <c r="F41" s="3">
-        <v>351100</v>
+        <v>104400</v>
       </c>
       <c r="G41" s="3">
-        <v>203000</v>
+        <v>347000</v>
       </c>
       <c r="H41" s="3">
-        <v>196100</v>
+        <v>200700</v>
       </c>
       <c r="I41" s="3">
-        <v>182200</v>
+        <v>193800</v>
       </c>
       <c r="J41" s="3">
+        <v>180100</v>
+      </c>
+      <c r="K41" s="3">
         <v>174800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>389900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>448200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>539400</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>662200</v>
+        <v>335800</v>
       </c>
       <c r="E42" s="3">
-        <v>148300</v>
+        <v>654500</v>
       </c>
       <c r="F42" s="3">
-        <v>156600</v>
+        <v>146600</v>
       </c>
       <c r="G42" s="3">
-        <v>229500</v>
+        <v>154800</v>
       </c>
       <c r="H42" s="3">
-        <v>272300</v>
+        <v>226800</v>
       </c>
       <c r="I42" s="3">
-        <v>478200</v>
+        <v>269100</v>
       </c>
       <c r="J42" s="3">
+        <v>472700</v>
+      </c>
+      <c r="K42" s="3">
         <v>196100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>165600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>548200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>102900</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1561800</v>
+        <v>1610000</v>
       </c>
       <c r="E43" s="3">
-        <v>1275900</v>
+        <v>1543700</v>
       </c>
       <c r="F43" s="3">
-        <v>1179500</v>
+        <v>1261200</v>
       </c>
       <c r="G43" s="3">
-        <v>1011400</v>
+        <v>1165900</v>
       </c>
       <c r="H43" s="3">
-        <v>970600</v>
+        <v>999700</v>
       </c>
       <c r="I43" s="3">
-        <v>1718300</v>
+        <v>959400</v>
       </c>
       <c r="J43" s="3">
+        <v>1698400</v>
+      </c>
+      <c r="K43" s="3">
         <v>677700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>587300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1341700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>976000</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="3">
-        <v>7800</v>
+      <c r="E44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F44" s="3">
-        <v>7000</v>
+        <v>7700</v>
       </c>
       <c r="G44" s="3">
-        <v>7500</v>
+        <v>6900</v>
       </c>
       <c r="H44" s="3">
-        <v>9700</v>
+        <v>7400</v>
       </c>
       <c r="I44" s="3">
+        <v>9600</v>
+      </c>
+      <c r="J44" s="3">
         <v>7300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>7900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>9600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>7900</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>490700</v>
+        <v>415600</v>
       </c>
       <c r="E45" s="3">
-        <v>586400</v>
+        <v>485000</v>
       </c>
       <c r="F45" s="3">
-        <v>4149200</v>
+        <v>579600</v>
       </c>
       <c r="G45" s="3">
-        <v>230900</v>
+        <v>4101200</v>
       </c>
       <c r="H45" s="3">
-        <v>184000</v>
+        <v>228300</v>
       </c>
       <c r="I45" s="3">
-        <v>203500</v>
+        <v>181900</v>
       </c>
       <c r="J45" s="3">
+        <v>201100</v>
+      </c>
+      <c r="K45" s="3">
         <v>235100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>31300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>72000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>287900</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3045800</v>
+        <v>2522200</v>
       </c>
       <c r="E46" s="3">
-        <v>2040100</v>
+        <v>3010600</v>
       </c>
       <c r="F46" s="3">
-        <v>5511000</v>
+        <v>2016500</v>
       </c>
       <c r="G46" s="3">
-        <v>1682400</v>
+        <v>5447300</v>
       </c>
       <c r="H46" s="3">
-        <v>1632700</v>
+        <v>1662900</v>
       </c>
       <c r="I46" s="3">
-        <v>1847800</v>
+        <v>1613800</v>
       </c>
       <c r="J46" s="3">
+        <v>1826400</v>
+      </c>
+      <c r="K46" s="3">
         <v>1291600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1180800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2055900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1478800</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3806900</v>
+        <v>3859500</v>
       </c>
       <c r="E47" s="3">
-        <v>4322600</v>
+        <v>3762900</v>
       </c>
       <c r="F47" s="3">
-        <v>4192800</v>
+        <v>4272600</v>
       </c>
       <c r="G47" s="3">
-        <v>3526800</v>
+        <v>4144300</v>
       </c>
       <c r="H47" s="3">
-        <v>3375500</v>
+        <v>3486000</v>
       </c>
       <c r="I47" s="3">
-        <v>3095100</v>
+        <v>3336400</v>
       </c>
       <c r="J47" s="3">
+        <v>3059300</v>
+      </c>
+      <c r="K47" s="3">
         <v>3601700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2497200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3381200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3724200</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>516100</v>
+        <v>515200</v>
       </c>
       <c r="E48" s="3">
-        <v>537400</v>
+        <v>510200</v>
       </c>
       <c r="F48" s="3">
-        <v>1049000</v>
+        <v>531200</v>
       </c>
       <c r="G48" s="3">
-        <v>544300</v>
+        <v>1036800</v>
       </c>
       <c r="H48" s="3">
-        <v>743900</v>
+        <v>538000</v>
       </c>
       <c r="I48" s="3">
-        <v>776500</v>
+        <v>735300</v>
       </c>
       <c r="J48" s="3">
+        <v>767500</v>
+      </c>
+      <c r="K48" s="3">
         <v>1092400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1030100</v>
       </c>
-      <c r="L48" s="3" t="s">
+      <c r="M48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3859500</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2327300</v>
+        <v>2523000</v>
       </c>
       <c r="E49" s="3">
-        <v>2290700</v>
+        <v>2300300</v>
       </c>
       <c r="F49" s="3">
-        <v>4247500</v>
+        <v>2264200</v>
       </c>
       <c r="G49" s="3">
-        <v>2198400</v>
+        <v>4198400</v>
       </c>
       <c r="H49" s="3">
-        <v>2132100</v>
+        <v>2173000</v>
       </c>
       <c r="I49" s="3">
-        <v>2024800</v>
+        <v>2107500</v>
       </c>
       <c r="J49" s="3">
+        <v>2001400</v>
+      </c>
+      <c r="K49" s="3">
         <v>665900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>354800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>875400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2101100</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>961500</v>
+        <v>717600</v>
       </c>
       <c r="E52" s="3">
-        <v>765800</v>
+        <v>950400</v>
       </c>
       <c r="F52" s="3">
-        <v>586800</v>
+        <v>756900</v>
       </c>
       <c r="G52" s="3">
-        <v>371800</v>
+        <v>580000</v>
       </c>
       <c r="H52" s="3">
-        <v>399300</v>
+        <v>367500</v>
       </c>
       <c r="I52" s="3">
-        <v>307100</v>
+        <v>394700</v>
       </c>
       <c r="J52" s="3">
+        <v>303600</v>
+      </c>
+      <c r="K52" s="3">
         <v>245500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>216200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>304500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>565800</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10657600</v>
+        <v>10137500</v>
       </c>
       <c r="E54" s="3">
-        <v>9956600</v>
+        <v>10534300</v>
       </c>
       <c r="F54" s="3">
-        <v>11890100</v>
+        <v>9841400</v>
       </c>
       <c r="G54" s="3">
-        <v>8323700</v>
+        <v>11752600</v>
       </c>
       <c r="H54" s="3">
-        <v>8283600</v>
+        <v>8227400</v>
       </c>
       <c r="I54" s="3">
-        <v>8051300</v>
+        <v>8187700</v>
       </c>
       <c r="J54" s="3">
+        <v>7958100</v>
+      </c>
+      <c r="K54" s="3">
         <v>6897100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5279200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7605700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7594200</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>464700</v>
+        <v>522700</v>
       </c>
       <c r="E57" s="3">
-        <v>409900</v>
+        <v>459400</v>
       </c>
       <c r="F57" s="3">
-        <v>355000</v>
+        <v>405100</v>
       </c>
       <c r="G57" s="3">
-        <v>461700</v>
+        <v>350800</v>
       </c>
       <c r="H57" s="3">
-        <v>382200</v>
+        <v>456300</v>
       </c>
       <c r="I57" s="3">
-        <v>374600</v>
+        <v>377800</v>
       </c>
       <c r="J57" s="3">
+        <v>370300</v>
+      </c>
+      <c r="K57" s="3">
         <v>316000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>188800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>305000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>216400</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>415200</v>
+        <v>297400</v>
       </c>
       <c r="E58" s="3">
-        <v>557900</v>
+        <v>410400</v>
       </c>
       <c r="F58" s="3">
-        <v>433100</v>
+        <v>551500</v>
       </c>
       <c r="G58" s="3">
-        <v>467100</v>
+        <v>428000</v>
       </c>
       <c r="H58" s="3">
-        <v>953200</v>
+        <v>461700</v>
       </c>
       <c r="I58" s="3">
-        <v>1241500</v>
+        <v>942100</v>
       </c>
       <c r="J58" s="3">
+        <v>1227200</v>
+      </c>
+      <c r="K58" s="3">
         <v>1042600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>396200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1510000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2271100</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1029600</v>
+        <v>1261700</v>
       </c>
       <c r="E59" s="3">
-        <v>603400</v>
+        <v>1017700</v>
       </c>
       <c r="F59" s="3">
-        <v>3846200</v>
+        <v>596400</v>
       </c>
       <c r="G59" s="3">
-        <v>778200</v>
+        <v>3801700</v>
       </c>
       <c r="H59" s="3">
-        <v>920500</v>
+        <v>769200</v>
       </c>
       <c r="I59" s="3">
-        <v>960200</v>
+        <v>909800</v>
       </c>
       <c r="J59" s="3">
+        <v>949100</v>
+      </c>
+      <c r="K59" s="3">
         <v>636300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>463500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1173700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>877400</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1909600</v>
+        <v>2081700</v>
       </c>
       <c r="E60" s="3">
-        <v>1569500</v>
+        <v>1887500</v>
       </c>
       <c r="F60" s="3">
-        <v>4618500</v>
+        <v>1551300</v>
       </c>
       <c r="G60" s="3">
-        <v>1707000</v>
+        <v>4565100</v>
       </c>
       <c r="H60" s="3">
-        <v>2255800</v>
+        <v>1687200</v>
       </c>
       <c r="I60" s="3">
-        <v>2576400</v>
+        <v>2229700</v>
       </c>
       <c r="J60" s="3">
+        <v>2546600</v>
+      </c>
+      <c r="K60" s="3">
         <v>1994900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1048500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2988700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2076400</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2589400</v>
+        <v>1963600</v>
       </c>
       <c r="E61" s="3">
-        <v>2410500</v>
+        <v>2559400</v>
       </c>
       <c r="F61" s="3">
-        <v>2477900</v>
+        <v>2382700</v>
       </c>
       <c r="G61" s="3">
-        <v>2370100</v>
+        <v>2449200</v>
       </c>
       <c r="H61" s="3">
-        <v>2038100</v>
+        <v>2342600</v>
       </c>
       <c r="I61" s="3">
-        <v>1747200</v>
+        <v>2014500</v>
       </c>
       <c r="J61" s="3">
+        <v>1727000</v>
+      </c>
+      <c r="K61" s="3">
         <v>1619500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1278400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>922300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1538300</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2714600</v>
+        <v>2301400</v>
       </c>
       <c r="E62" s="3">
-        <v>2933700</v>
+        <v>2683200</v>
       </c>
       <c r="F62" s="3">
-        <v>1767900</v>
+        <v>2899700</v>
       </c>
       <c r="G62" s="3">
-        <v>1422800</v>
+        <v>1747400</v>
       </c>
       <c r="H62" s="3">
-        <v>1440800</v>
+        <v>1406300</v>
       </c>
       <c r="I62" s="3">
-        <v>1168400</v>
+        <v>1424200</v>
       </c>
       <c r="J62" s="3">
+        <v>1154900</v>
+      </c>
+      <c r="K62" s="3">
         <v>1089800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>714400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>998900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1356400</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7214400</v>
+        <v>6347800</v>
       </c>
       <c r="E66" s="3">
-        <v>6784300</v>
+        <v>7131000</v>
       </c>
       <c r="F66" s="3">
-        <v>8988600</v>
+        <v>6705800</v>
       </c>
       <c r="G66" s="3">
-        <v>5500700</v>
+        <v>8884600</v>
       </c>
       <c r="H66" s="3">
-        <v>5735500</v>
+        <v>5437000</v>
       </c>
       <c r="I66" s="3">
-        <v>5492700</v>
+        <v>5669200</v>
       </c>
       <c r="J66" s="3">
+        <v>5429200</v>
+      </c>
+      <c r="K66" s="3">
         <v>4674100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3041300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4908600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4603300</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1982500</v>
+        <v>2132500</v>
       </c>
       <c r="E72" s="3">
-        <v>2209300</v>
+        <v>1959600</v>
       </c>
       <c r="F72" s="3">
-        <v>1282300</v>
+        <v>2183800</v>
       </c>
       <c r="G72" s="3">
-        <v>1128900</v>
+        <v>1267500</v>
       </c>
       <c r="H72" s="3">
-        <v>1024700</v>
+        <v>1115800</v>
       </c>
       <c r="I72" s="3">
-        <v>918800</v>
+        <v>1012800</v>
       </c>
       <c r="J72" s="3">
+        <v>908200</v>
+      </c>
+      <c r="K72" s="3">
         <v>511100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>679900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2257300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2702200</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3443200</v>
+        <v>3789700</v>
       </c>
       <c r="E76" s="3">
-        <v>3172300</v>
+        <v>3403300</v>
       </c>
       <c r="F76" s="3">
-        <v>2901500</v>
+        <v>3135600</v>
       </c>
       <c r="G76" s="3">
-        <v>2823100</v>
+        <v>2868000</v>
       </c>
       <c r="H76" s="3">
-        <v>2548000</v>
+        <v>2790400</v>
       </c>
       <c r="I76" s="3">
-        <v>2558600</v>
+        <v>2518600</v>
       </c>
       <c r="J76" s="3">
+        <v>2529000</v>
+      </c>
+      <c r="K76" s="3">
         <v>2223000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2237900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2697200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2990900</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>564400</v>
+        <v>730700</v>
       </c>
       <c r="E81" s="3">
-        <v>629300</v>
+        <v>557900</v>
       </c>
       <c r="F81" s="3">
-        <v>335000</v>
+        <v>622100</v>
       </c>
       <c r="G81" s="3">
-        <v>197200</v>
+        <v>331100</v>
       </c>
       <c r="H81" s="3">
-        <v>65900</v>
+        <v>195000</v>
       </c>
       <c r="I81" s="3">
-        <v>486400</v>
+        <v>65100</v>
       </c>
       <c r="J81" s="3">
+        <v>480800</v>
+      </c>
+      <c r="K81" s="3">
         <v>618100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>549600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>997500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>619200</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>194900</v>
+        <v>204300</v>
       </c>
       <c r="E83" s="3">
-        <v>188800</v>
+        <v>192600</v>
       </c>
       <c r="F83" s="3">
-        <v>167300</v>
+        <v>186600</v>
       </c>
       <c r="G83" s="3">
-        <v>167500</v>
+        <v>165400</v>
       </c>
       <c r="H83" s="3">
-        <v>164400</v>
+        <v>165500</v>
       </c>
       <c r="I83" s="3">
-        <v>164500</v>
+        <v>162500</v>
       </c>
       <c r="J83" s="3">
+        <v>162600</v>
+      </c>
+      <c r="K83" s="3">
         <v>157800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>145800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>178200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>201500</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1696500</v>
+        <v>717400</v>
       </c>
       <c r="E89" s="3">
-        <v>401400</v>
+        <v>1676900</v>
       </c>
       <c r="F89" s="3">
-        <v>198600</v>
+        <v>396800</v>
       </c>
       <c r="G89" s="3">
-        <v>114200</v>
+        <v>196300</v>
       </c>
       <c r="H89" s="3">
-        <v>239100</v>
+        <v>112900</v>
       </c>
       <c r="I89" s="3">
-        <v>592600</v>
+        <v>236300</v>
       </c>
       <c r="J89" s="3">
+        <v>585700</v>
+      </c>
+      <c r="K89" s="3">
         <v>735800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>622400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>566800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>939400</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-26200</v>
+        <v>-35600</v>
       </c>
       <c r="E91" s="3">
-        <v>-13900</v>
+        <v>-25900</v>
       </c>
       <c r="F91" s="3">
-        <v>-15200</v>
+        <v>-13700</v>
       </c>
       <c r="G91" s="3">
-        <v>-16400</v>
+        <v>-15000</v>
       </c>
       <c r="H91" s="3">
-        <v>-23600</v>
+        <v>-16200</v>
       </c>
       <c r="I91" s="3">
-        <v>-24800</v>
+        <v>-23300</v>
       </c>
       <c r="J91" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-24000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-12300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-25400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-24400</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1000500</v>
+        <v>267100</v>
       </c>
       <c r="E94" s="3">
-        <v>-234200</v>
+        <v>-988900</v>
       </c>
       <c r="F94" s="3">
-        <v>-41600</v>
+        <v>-231500</v>
       </c>
       <c r="G94" s="3">
-        <v>-76100</v>
+        <v>-41100</v>
       </c>
       <c r="H94" s="3">
-        <v>-120900</v>
+        <v>-75200</v>
       </c>
       <c r="I94" s="3">
-        <v>-633900</v>
+        <v>-119500</v>
       </c>
       <c r="J94" s="3">
+        <v>-626600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-847100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>443200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-118000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-644800</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-117900</v>
+        <v>-275900</v>
       </c>
       <c r="E96" s="3">
-        <v>-138200</v>
+        <v>-116500</v>
       </c>
       <c r="F96" s="3">
-        <v>-100300</v>
+        <v>-136600</v>
       </c>
       <c r="G96" s="3">
-        <v>-106300</v>
+        <v>-99100</v>
       </c>
       <c r="H96" s="3">
-        <v>-132900</v>
+        <v>-105100</v>
       </c>
       <c r="I96" s="3">
-        <v>-156900</v>
+        <v>-131400</v>
       </c>
       <c r="J96" s="3">
+        <v>-155100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-772000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-814600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-408100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-522000</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,45 +3910,51 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-470500</v>
+        <v>-1151100</v>
       </c>
       <c r="E100" s="3">
-        <v>-237100</v>
+        <v>-465000</v>
       </c>
       <c r="F100" s="3">
-        <v>-184500</v>
+        <v>-234400</v>
       </c>
       <c r="G100" s="3">
-        <v>-31200</v>
+        <v>-182400</v>
       </c>
       <c r="H100" s="3">
-        <v>-104300</v>
+        <v>-30800</v>
       </c>
       <c r="I100" s="3">
-        <v>48700</v>
+        <v>-103100</v>
       </c>
       <c r="J100" s="3">
+        <v>48100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-147800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1015500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-492000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-453500</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3740,43 +3988,49 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>225600</v>
+        <v>-166600</v>
       </c>
       <c r="E102" s="3">
-        <v>-70000</v>
+        <v>223000</v>
       </c>
       <c r="F102" s="3">
-        <v>-27500</v>
+        <v>-69200</v>
       </c>
       <c r="G102" s="3">
-        <v>6900</v>
+        <v>-27200</v>
       </c>
       <c r="H102" s="3">
-        <v>13900</v>
+        <v>6800</v>
       </c>
       <c r="I102" s="3">
-        <v>7400</v>
+        <v>13700</v>
       </c>
       <c r="J102" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-259100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>50100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-43100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-159000</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CIG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CIG_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6553600</v>
+        <v>6584500</v>
       </c>
       <c r="E8" s="3">
-        <v>4913800</v>
+        <v>4937000</v>
       </c>
       <c r="F8" s="3">
-        <v>4964400</v>
+        <v>4987800</v>
       </c>
       <c r="G8" s="3">
-        <v>4337000</v>
+        <v>4357500</v>
       </c>
       <c r="H8" s="3">
-        <v>4229000</v>
+        <v>4249000</v>
       </c>
       <c r="I8" s="3">
-        <v>3656500</v>
+        <v>3673800</v>
       </c>
       <c r="J8" s="3">
-        <v>4259400</v>
+        <v>4279500</v>
       </c>
       <c r="K8" s="3">
         <v>3850500</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5244200</v>
+        <v>5269000</v>
       </c>
       <c r="E9" s="3">
-        <v>3865400</v>
+        <v>3883600</v>
       </c>
       <c r="F9" s="3">
-        <v>3817400</v>
+        <v>3835500</v>
       </c>
       <c r="G9" s="3">
-        <v>3443200</v>
+        <v>3459400</v>
       </c>
       <c r="H9" s="3">
-        <v>3406100</v>
+        <v>3422200</v>
       </c>
       <c r="I9" s="3">
-        <v>2810400</v>
+        <v>2823700</v>
       </c>
       <c r="J9" s="3">
-        <v>3090600</v>
+        <v>3105200</v>
       </c>
       <c r="K9" s="3">
         <v>2522900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1309400</v>
+        <v>1315500</v>
       </c>
       <c r="E10" s="3">
-        <v>1048500</v>
+        <v>1053400</v>
       </c>
       <c r="F10" s="3">
-        <v>1146900</v>
+        <v>1152300</v>
       </c>
       <c r="G10" s="3">
-        <v>893900</v>
+        <v>898100</v>
       </c>
       <c r="H10" s="3">
-        <v>822900</v>
+        <v>826700</v>
       </c>
       <c r="I10" s="3">
-        <v>846100</v>
+        <v>850100</v>
       </c>
       <c r="J10" s="3">
-        <v>1168900</v>
+        <v>1174400</v>
       </c>
       <c r="K10" s="3">
         <v>1327600</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5241500</v>
+        <v>5266300</v>
       </c>
       <c r="E17" s="3">
-        <v>3997100</v>
+        <v>4016000</v>
       </c>
       <c r="F17" s="3">
-        <v>4339100</v>
+        <v>4359600</v>
       </c>
       <c r="G17" s="3">
-        <v>3850900</v>
+        <v>3869100</v>
       </c>
       <c r="H17" s="3">
-        <v>3714300</v>
+        <v>3731900</v>
       </c>
       <c r="I17" s="3">
-        <v>3304900</v>
+        <v>3320500</v>
       </c>
       <c r="J17" s="3">
-        <v>3343500</v>
+        <v>3359300</v>
       </c>
       <c r="K17" s="3">
         <v>2750800</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1312100</v>
+        <v>1318300</v>
       </c>
       <c r="E18" s="3">
-        <v>916700</v>
+        <v>921000</v>
       </c>
       <c r="F18" s="3">
-        <v>625200</v>
+        <v>628200</v>
       </c>
       <c r="G18" s="3">
-        <v>486200</v>
+        <v>488400</v>
       </c>
       <c r="H18" s="3">
-        <v>514700</v>
+        <v>517100</v>
       </c>
       <c r="I18" s="3">
-        <v>351600</v>
+        <v>353300</v>
       </c>
       <c r="J18" s="3">
-        <v>915900</v>
+        <v>920200</v>
       </c>
       <c r="K18" s="3">
         <v>1099700</v>
@@ -1122,22 +1122,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-173600</v>
+        <v>-174400</v>
       </c>
       <c r="E20" s="3">
-        <v>53000</v>
+        <v>53300</v>
       </c>
       <c r="F20" s="3">
-        <v>503900</v>
+        <v>506300</v>
       </c>
       <c r="G20" s="3">
-        <v>143700</v>
+        <v>144400</v>
       </c>
       <c r="H20" s="3">
-        <v>104600</v>
+        <v>105100</v>
       </c>
       <c r="I20" s="3">
-        <v>95700</v>
+        <v>96100</v>
       </c>
       <c r="J20" s="3">
         <v>8900</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1342700</v>
+        <v>1349100</v>
       </c>
       <c r="E21" s="3">
-        <v>1162300</v>
+        <v>1167800</v>
       </c>
       <c r="F21" s="3">
-        <v>1315700</v>
+        <v>1321900</v>
       </c>
       <c r="G21" s="3">
-        <v>795200</v>
+        <v>799000</v>
       </c>
       <c r="H21" s="3">
-        <v>784700</v>
+        <v>788500</v>
       </c>
       <c r="I21" s="3">
-        <v>609700</v>
+        <v>612600</v>
       </c>
       <c r="J21" s="3">
-        <v>1087200</v>
+        <v>1092400</v>
       </c>
       <c r="K21" s="3">
         <v>1225900</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>223400</v>
+        <v>224400</v>
       </c>
       <c r="E22" s="3">
-        <v>229400</v>
+        <v>230500</v>
       </c>
       <c r="F22" s="3">
-        <v>239000</v>
+        <v>240100</v>
       </c>
       <c r="G22" s="3">
-        <v>244700</v>
+        <v>245900</v>
       </c>
       <c r="H22" s="3">
-        <v>298700</v>
+        <v>300100</v>
       </c>
       <c r="I22" s="3">
-        <v>375600</v>
+        <v>377400</v>
       </c>
       <c r="J22" s="3">
-        <v>270000</v>
+        <v>271300</v>
       </c>
       <c r="K22" s="3">
         <v>183400</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>915100</v>
+        <v>919400</v>
       </c>
       <c r="E23" s="3">
-        <v>740300</v>
+        <v>743800</v>
       </c>
       <c r="F23" s="3">
-        <v>890200</v>
+        <v>894400</v>
       </c>
       <c r="G23" s="3">
-        <v>385200</v>
+        <v>387000</v>
       </c>
       <c r="H23" s="3">
-        <v>320600</v>
+        <v>322100</v>
       </c>
       <c r="I23" s="3">
-        <v>71700</v>
+        <v>72000</v>
       </c>
       <c r="J23" s="3">
-        <v>654800</v>
+        <v>657900</v>
       </c>
       <c r="K23" s="3">
         <v>882700</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>184100</v>
+        <v>185000</v>
       </c>
       <c r="E24" s="3">
-        <v>182300</v>
+        <v>183100</v>
       </c>
       <c r="F24" s="3">
-        <v>311600</v>
+        <v>313100</v>
       </c>
       <c r="G24" s="3">
-        <v>116700</v>
+        <v>117200</v>
       </c>
       <c r="H24" s="3">
-        <v>125500</v>
+        <v>126100</v>
       </c>
       <c r="I24" s="3">
         <v>6500</v>
       </c>
       <c r="J24" s="3">
-        <v>173900</v>
+        <v>174700</v>
       </c>
       <c r="K24" s="3">
         <v>264600</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>731000</v>
+        <v>734400</v>
       </c>
       <c r="E26" s="3">
-        <v>558100</v>
+        <v>560700</v>
       </c>
       <c r="F26" s="3">
-        <v>578600</v>
+        <v>581300</v>
       </c>
       <c r="G26" s="3">
-        <v>268500</v>
+        <v>269700</v>
       </c>
       <c r="H26" s="3">
-        <v>195100</v>
+        <v>196000</v>
       </c>
       <c r="I26" s="3">
-        <v>65200</v>
+        <v>65500</v>
       </c>
       <c r="J26" s="3">
-        <v>480900</v>
+        <v>483200</v>
       </c>
       <c r="K26" s="3">
         <v>618200</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>730700</v>
+        <v>734100</v>
       </c>
       <c r="E27" s="3">
-        <v>557900</v>
+        <v>560500</v>
       </c>
       <c r="F27" s="3">
-        <v>578400</v>
+        <v>581200</v>
       </c>
       <c r="G27" s="3">
-        <v>260400</v>
+        <v>261600</v>
       </c>
       <c r="H27" s="3">
-        <v>195000</v>
+        <v>195900</v>
       </c>
       <c r="I27" s="3">
-        <v>65100</v>
+        <v>65400</v>
       </c>
       <c r="J27" s="3">
-        <v>480800</v>
+        <v>483100</v>
       </c>
       <c r="K27" s="3">
         <v>618100</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>43600</v>
+        <v>43800</v>
       </c>
       <c r="G29" s="3">
-        <v>70800</v>
+        <v>71100</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1590,22 +1590,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>173600</v>
+        <v>174400</v>
       </c>
       <c r="E32" s="3">
-        <v>-53000</v>
+        <v>-53300</v>
       </c>
       <c r="F32" s="3">
-        <v>-503900</v>
+        <v>-506300</v>
       </c>
       <c r="G32" s="3">
-        <v>-143700</v>
+        <v>-144400</v>
       </c>
       <c r="H32" s="3">
-        <v>-104600</v>
+        <v>-105100</v>
       </c>
       <c r="I32" s="3">
-        <v>-95700</v>
+        <v>-96100</v>
       </c>
       <c r="J32" s="3">
         <v>-8900</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>730700</v>
+        <v>734100</v>
       </c>
       <c r="E33" s="3">
-        <v>557900</v>
+        <v>560500</v>
       </c>
       <c r="F33" s="3">
-        <v>622100</v>
+        <v>625000</v>
       </c>
       <c r="G33" s="3">
-        <v>331100</v>
+        <v>332700</v>
       </c>
       <c r="H33" s="3">
-        <v>195000</v>
+        <v>195900</v>
       </c>
       <c r="I33" s="3">
-        <v>65100</v>
+        <v>65400</v>
       </c>
       <c r="J33" s="3">
-        <v>480800</v>
+        <v>483100</v>
       </c>
       <c r="K33" s="3">
         <v>618100</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>730700</v>
+        <v>734100</v>
       </c>
       <c r="E35" s="3">
-        <v>557900</v>
+        <v>560500</v>
       </c>
       <c r="F35" s="3">
-        <v>622100</v>
+        <v>625000</v>
       </c>
       <c r="G35" s="3">
-        <v>331100</v>
+        <v>332700</v>
       </c>
       <c r="H35" s="3">
-        <v>195000</v>
+        <v>195900</v>
       </c>
       <c r="I35" s="3">
-        <v>65100</v>
+        <v>65400</v>
       </c>
       <c r="J35" s="3">
-        <v>480800</v>
+        <v>483100</v>
       </c>
       <c r="K35" s="3">
         <v>618100</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>160700</v>
+        <v>161500</v>
       </c>
       <c r="E41" s="3">
-        <v>327300</v>
+        <v>328900</v>
       </c>
       <c r="F41" s="3">
-        <v>104400</v>
+        <v>104800</v>
       </c>
       <c r="G41" s="3">
-        <v>347000</v>
+        <v>348700</v>
       </c>
       <c r="H41" s="3">
-        <v>200700</v>
+        <v>201600</v>
       </c>
       <c r="I41" s="3">
-        <v>193800</v>
+        <v>194700</v>
       </c>
       <c r="J41" s="3">
-        <v>180100</v>
+        <v>181000</v>
       </c>
       <c r="K41" s="3">
         <v>174800</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>335800</v>
+        <v>337400</v>
       </c>
       <c r="E42" s="3">
-        <v>654500</v>
+        <v>657600</v>
       </c>
       <c r="F42" s="3">
-        <v>146600</v>
+        <v>147300</v>
       </c>
       <c r="G42" s="3">
-        <v>154800</v>
+        <v>155500</v>
       </c>
       <c r="H42" s="3">
-        <v>226800</v>
+        <v>227900</v>
       </c>
       <c r="I42" s="3">
-        <v>269100</v>
+        <v>270400</v>
       </c>
       <c r="J42" s="3">
-        <v>472700</v>
+        <v>474900</v>
       </c>
       <c r="K42" s="3">
         <v>196100</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1610000</v>
+        <v>1617600</v>
       </c>
       <c r="E43" s="3">
-        <v>1543700</v>
+        <v>1551000</v>
       </c>
       <c r="F43" s="3">
-        <v>1261200</v>
+        <v>1267100</v>
       </c>
       <c r="G43" s="3">
-        <v>1165900</v>
+        <v>1171400</v>
       </c>
       <c r="H43" s="3">
-        <v>999700</v>
+        <v>1004400</v>
       </c>
       <c r="I43" s="3">
-        <v>959400</v>
+        <v>963900</v>
       </c>
       <c r="J43" s="3">
-        <v>1698400</v>
+        <v>1706500</v>
       </c>
       <c r="K43" s="3">
         <v>677700</v>
@@ -1950,13 +1950,13 @@
         <v>7700</v>
       </c>
       <c r="G44" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="H44" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="I44" s="3">
-        <v>9600</v>
+        <v>9700</v>
       </c>
       <c r="J44" s="3">
         <v>7300</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>415600</v>
+        <v>417600</v>
       </c>
       <c r="E45" s="3">
-        <v>485000</v>
+        <v>487300</v>
       </c>
       <c r="F45" s="3">
-        <v>579600</v>
+        <v>582300</v>
       </c>
       <c r="G45" s="3">
-        <v>4101200</v>
+        <v>4120500</v>
       </c>
       <c r="H45" s="3">
-        <v>228300</v>
+        <v>229300</v>
       </c>
       <c r="I45" s="3">
-        <v>181900</v>
+        <v>182700</v>
       </c>
       <c r="J45" s="3">
-        <v>201100</v>
+        <v>202100</v>
       </c>
       <c r="K45" s="3">
         <v>235100</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2522200</v>
+        <v>2534100</v>
       </c>
       <c r="E46" s="3">
-        <v>3010600</v>
+        <v>3024800</v>
       </c>
       <c r="F46" s="3">
-        <v>2016500</v>
+        <v>2026000</v>
       </c>
       <c r="G46" s="3">
-        <v>5447300</v>
+        <v>5473000</v>
       </c>
       <c r="H46" s="3">
-        <v>1662900</v>
+        <v>1670800</v>
       </c>
       <c r="I46" s="3">
-        <v>1613800</v>
+        <v>1621500</v>
       </c>
       <c r="J46" s="3">
-        <v>1826400</v>
+        <v>1835000</v>
       </c>
       <c r="K46" s="3">
         <v>1291600</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3859500</v>
+        <v>3877700</v>
       </c>
       <c r="E47" s="3">
-        <v>3762900</v>
+        <v>3780600</v>
       </c>
       <c r="F47" s="3">
-        <v>4272600</v>
+        <v>4292800</v>
       </c>
       <c r="G47" s="3">
-        <v>4144300</v>
+        <v>4163800</v>
       </c>
       <c r="H47" s="3">
-        <v>3486000</v>
+        <v>3502500</v>
       </c>
       <c r="I47" s="3">
-        <v>3336400</v>
+        <v>3352200</v>
       </c>
       <c r="J47" s="3">
-        <v>3059300</v>
+        <v>3073800</v>
       </c>
       <c r="K47" s="3">
         <v>3601700</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>515200</v>
+        <v>517600</v>
       </c>
       <c r="E48" s="3">
-        <v>510200</v>
+        <v>512600</v>
       </c>
       <c r="F48" s="3">
-        <v>531200</v>
+        <v>533700</v>
       </c>
       <c r="G48" s="3">
-        <v>1036800</v>
+        <v>1041700</v>
       </c>
       <c r="H48" s="3">
-        <v>538000</v>
+        <v>540600</v>
       </c>
       <c r="I48" s="3">
-        <v>735300</v>
+        <v>738800</v>
       </c>
       <c r="J48" s="3">
-        <v>767500</v>
+        <v>771100</v>
       </c>
       <c r="K48" s="3">
         <v>1092400</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2523000</v>
+        <v>2535000</v>
       </c>
       <c r="E49" s="3">
-        <v>2300300</v>
+        <v>2311200</v>
       </c>
       <c r="F49" s="3">
-        <v>2264200</v>
+        <v>2274900</v>
       </c>
       <c r="G49" s="3">
-        <v>4198400</v>
+        <v>4218200</v>
       </c>
       <c r="H49" s="3">
-        <v>2173000</v>
+        <v>2183200</v>
       </c>
       <c r="I49" s="3">
-        <v>2107500</v>
+        <v>2117400</v>
       </c>
       <c r="J49" s="3">
-        <v>2001400</v>
+        <v>2010800</v>
       </c>
       <c r="K49" s="3">
         <v>665900</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>717600</v>
+        <v>720900</v>
       </c>
       <c r="E52" s="3">
-        <v>950400</v>
+        <v>954900</v>
       </c>
       <c r="F52" s="3">
-        <v>756900</v>
+        <v>760500</v>
       </c>
       <c r="G52" s="3">
-        <v>580000</v>
+        <v>582800</v>
       </c>
       <c r="H52" s="3">
-        <v>367500</v>
+        <v>369200</v>
       </c>
       <c r="I52" s="3">
-        <v>394700</v>
+        <v>396600</v>
       </c>
       <c r="J52" s="3">
-        <v>303600</v>
+        <v>305000</v>
       </c>
       <c r="K52" s="3">
         <v>245500</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10137500</v>
+        <v>10185400</v>
       </c>
       <c r="E54" s="3">
-        <v>10534300</v>
+        <v>10584100</v>
       </c>
       <c r="F54" s="3">
-        <v>9841400</v>
+        <v>9887900</v>
       </c>
       <c r="G54" s="3">
-        <v>11752600</v>
+        <v>11808100</v>
       </c>
       <c r="H54" s="3">
-        <v>8227400</v>
+        <v>8266300</v>
       </c>
       <c r="I54" s="3">
-        <v>8187700</v>
+        <v>8226400</v>
       </c>
       <c r="J54" s="3">
-        <v>7958100</v>
+        <v>7995700</v>
       </c>
       <c r="K54" s="3">
         <v>6897100</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>522700</v>
+        <v>525100</v>
       </c>
       <c r="E57" s="3">
-        <v>459400</v>
+        <v>461500</v>
       </c>
       <c r="F57" s="3">
-        <v>405100</v>
+        <v>407000</v>
       </c>
       <c r="G57" s="3">
-        <v>350800</v>
+        <v>352500</v>
       </c>
       <c r="H57" s="3">
-        <v>456300</v>
+        <v>458500</v>
       </c>
       <c r="I57" s="3">
-        <v>377800</v>
+        <v>379600</v>
       </c>
       <c r="J57" s="3">
-        <v>370300</v>
+        <v>372100</v>
       </c>
       <c r="K57" s="3">
         <v>316000</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>297400</v>
+        <v>298800</v>
       </c>
       <c r="E58" s="3">
-        <v>410400</v>
+        <v>412400</v>
       </c>
       <c r="F58" s="3">
-        <v>551500</v>
+        <v>554100</v>
       </c>
       <c r="G58" s="3">
-        <v>428000</v>
+        <v>430100</v>
       </c>
       <c r="H58" s="3">
-        <v>461700</v>
+        <v>463900</v>
       </c>
       <c r="I58" s="3">
-        <v>942100</v>
+        <v>946600</v>
       </c>
       <c r="J58" s="3">
-        <v>1227200</v>
+        <v>1233000</v>
       </c>
       <c r="K58" s="3">
         <v>1042600</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1261700</v>
+        <v>1267700</v>
       </c>
       <c r="E59" s="3">
-        <v>1017700</v>
+        <v>1022500</v>
       </c>
       <c r="F59" s="3">
-        <v>596400</v>
+        <v>599200</v>
       </c>
       <c r="G59" s="3">
-        <v>3801700</v>
+        <v>3819600</v>
       </c>
       <c r="H59" s="3">
-        <v>769200</v>
+        <v>772800</v>
       </c>
       <c r="I59" s="3">
-        <v>909800</v>
+        <v>914100</v>
       </c>
       <c r="J59" s="3">
-        <v>949100</v>
+        <v>953600</v>
       </c>
       <c r="K59" s="3">
         <v>636300</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2081700</v>
+        <v>2091600</v>
       </c>
       <c r="E60" s="3">
-        <v>1887500</v>
+        <v>1896400</v>
       </c>
       <c r="F60" s="3">
-        <v>1551300</v>
+        <v>1558700</v>
       </c>
       <c r="G60" s="3">
-        <v>4565100</v>
+        <v>4586600</v>
       </c>
       <c r="H60" s="3">
-        <v>1687200</v>
+        <v>1695200</v>
       </c>
       <c r="I60" s="3">
-        <v>2229700</v>
+        <v>2240300</v>
       </c>
       <c r="J60" s="3">
-        <v>2546600</v>
+        <v>2558600</v>
       </c>
       <c r="K60" s="3">
         <v>1994900</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1963600</v>
+        <v>1972900</v>
       </c>
       <c r="E61" s="3">
-        <v>2559400</v>
+        <v>2571500</v>
       </c>
       <c r="F61" s="3">
-        <v>2382700</v>
+        <v>2393900</v>
       </c>
       <c r="G61" s="3">
-        <v>2449200</v>
+        <v>2460800</v>
       </c>
       <c r="H61" s="3">
-        <v>2342600</v>
+        <v>2353700</v>
       </c>
       <c r="I61" s="3">
-        <v>2014500</v>
+        <v>2024000</v>
       </c>
       <c r="J61" s="3">
-        <v>1727000</v>
+        <v>1735100</v>
       </c>
       <c r="K61" s="3">
         <v>1619500</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2301400</v>
+        <v>2312200</v>
       </c>
       <c r="E62" s="3">
-        <v>2683200</v>
+        <v>2695900</v>
       </c>
       <c r="F62" s="3">
-        <v>2899700</v>
+        <v>2913400</v>
       </c>
       <c r="G62" s="3">
-        <v>1747400</v>
+        <v>1755700</v>
       </c>
       <c r="H62" s="3">
-        <v>1406300</v>
+        <v>1413000</v>
       </c>
       <c r="I62" s="3">
-        <v>1424200</v>
+        <v>1430900</v>
       </c>
       <c r="J62" s="3">
-        <v>1154900</v>
+        <v>1160300</v>
       </c>
       <c r="K62" s="3">
         <v>1089800</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6347800</v>
+        <v>6377700</v>
       </c>
       <c r="E66" s="3">
-        <v>7131000</v>
+        <v>7164700</v>
       </c>
       <c r="F66" s="3">
-        <v>6705800</v>
+        <v>6737500</v>
       </c>
       <c r="G66" s="3">
-        <v>8884600</v>
+        <v>8926600</v>
       </c>
       <c r="H66" s="3">
-        <v>5437000</v>
+        <v>5462700</v>
       </c>
       <c r="I66" s="3">
-        <v>5669200</v>
+        <v>5696000</v>
       </c>
       <c r="J66" s="3">
-        <v>5429200</v>
+        <v>5454800</v>
       </c>
       <c r="K66" s="3">
         <v>4674100</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2132500</v>
+        <v>2142500</v>
       </c>
       <c r="E72" s="3">
-        <v>1959600</v>
+        <v>1968900</v>
       </c>
       <c r="F72" s="3">
-        <v>2183800</v>
+        <v>2194100</v>
       </c>
       <c r="G72" s="3">
-        <v>1267500</v>
+        <v>1273500</v>
       </c>
       <c r="H72" s="3">
-        <v>1115800</v>
+        <v>1121100</v>
       </c>
       <c r="I72" s="3">
-        <v>1012800</v>
+        <v>1017600</v>
       </c>
       <c r="J72" s="3">
-        <v>908200</v>
+        <v>912500</v>
       </c>
       <c r="K72" s="3">
         <v>511100</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3789700</v>
+        <v>3807600</v>
       </c>
       <c r="E76" s="3">
-        <v>3403300</v>
+        <v>3419400</v>
       </c>
       <c r="F76" s="3">
-        <v>3135600</v>
+        <v>3150400</v>
       </c>
       <c r="G76" s="3">
-        <v>2868000</v>
+        <v>2881500</v>
       </c>
       <c r="H76" s="3">
-        <v>2790400</v>
+        <v>2803600</v>
       </c>
       <c r="I76" s="3">
-        <v>2518600</v>
+        <v>2530500</v>
       </c>
       <c r="J76" s="3">
-        <v>2529000</v>
+        <v>2540900</v>
       </c>
       <c r="K76" s="3">
         <v>2223000</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>730700</v>
+        <v>734100</v>
       </c>
       <c r="E81" s="3">
-        <v>557900</v>
+        <v>560500</v>
       </c>
       <c r="F81" s="3">
-        <v>622100</v>
+        <v>625000</v>
       </c>
       <c r="G81" s="3">
-        <v>331100</v>
+        <v>332700</v>
       </c>
       <c r="H81" s="3">
-        <v>195000</v>
+        <v>195900</v>
       </c>
       <c r="I81" s="3">
-        <v>65100</v>
+        <v>65400</v>
       </c>
       <c r="J81" s="3">
-        <v>480800</v>
+        <v>483100</v>
       </c>
       <c r="K81" s="3">
         <v>618100</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>204300</v>
+        <v>205300</v>
       </c>
       <c r="E83" s="3">
-        <v>192600</v>
+        <v>193600</v>
       </c>
       <c r="F83" s="3">
-        <v>186600</v>
+        <v>187500</v>
       </c>
       <c r="G83" s="3">
-        <v>165400</v>
+        <v>166200</v>
       </c>
       <c r="H83" s="3">
-        <v>165500</v>
+        <v>166300</v>
       </c>
       <c r="I83" s="3">
-        <v>162500</v>
+        <v>163300</v>
       </c>
       <c r="J83" s="3">
-        <v>162600</v>
+        <v>163400</v>
       </c>
       <c r="K83" s="3">
         <v>157800</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>717400</v>
+        <v>720800</v>
       </c>
       <c r="E89" s="3">
-        <v>1676900</v>
+        <v>1684800</v>
       </c>
       <c r="F89" s="3">
-        <v>396800</v>
+        <v>398600</v>
       </c>
       <c r="G89" s="3">
-        <v>196300</v>
+        <v>197200</v>
       </c>
       <c r="H89" s="3">
-        <v>112900</v>
+        <v>113400</v>
       </c>
       <c r="I89" s="3">
-        <v>236300</v>
+        <v>237500</v>
       </c>
       <c r="J89" s="3">
-        <v>585700</v>
+        <v>588500</v>
       </c>
       <c r="K89" s="3">
         <v>735800</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-35600</v>
+        <v>-35700</v>
       </c>
       <c r="E91" s="3">
-        <v>-25900</v>
+        <v>-26000</v>
       </c>
       <c r="F91" s="3">
-        <v>-13700</v>
+        <v>-13800</v>
       </c>
       <c r="G91" s="3">
-        <v>-15000</v>
+        <v>-15100</v>
       </c>
       <c r="H91" s="3">
-        <v>-16200</v>
+        <v>-16300</v>
       </c>
       <c r="I91" s="3">
-        <v>-23300</v>
+        <v>-23500</v>
       </c>
       <c r="J91" s="3">
-        <v>-24500</v>
+        <v>-24600</v>
       </c>
       <c r="K91" s="3">
         <v>-24000</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>267100</v>
+        <v>268300</v>
       </c>
       <c r="E94" s="3">
-        <v>-988900</v>
+        <v>-993600</v>
       </c>
       <c r="F94" s="3">
-        <v>-231500</v>
+        <v>-232600</v>
       </c>
       <c r="G94" s="3">
-        <v>-41100</v>
+        <v>-41300</v>
       </c>
       <c r="H94" s="3">
-        <v>-75200</v>
+        <v>-75600</v>
       </c>
       <c r="I94" s="3">
-        <v>-119500</v>
+        <v>-120100</v>
       </c>
       <c r="J94" s="3">
-        <v>-626600</v>
+        <v>-629500</v>
       </c>
       <c r="K94" s="3">
         <v>-847100</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-275900</v>
+        <v>-277200</v>
       </c>
       <c r="E96" s="3">
-        <v>-116500</v>
+        <v>-117100</v>
       </c>
       <c r="F96" s="3">
-        <v>-136600</v>
+        <v>-137200</v>
       </c>
       <c r="G96" s="3">
-        <v>-99100</v>
+        <v>-99600</v>
       </c>
       <c r="H96" s="3">
-        <v>-105100</v>
+        <v>-105600</v>
       </c>
       <c r="I96" s="3">
-        <v>-131400</v>
+        <v>-132000</v>
       </c>
       <c r="J96" s="3">
-        <v>-155100</v>
+        <v>-155900</v>
       </c>
       <c r="K96" s="3">
         <v>-772000</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1151100</v>
+        <v>-1156500</v>
       </c>
       <c r="E100" s="3">
-        <v>-465000</v>
+        <v>-467200</v>
       </c>
       <c r="F100" s="3">
-        <v>-234400</v>
+        <v>-235500</v>
       </c>
       <c r="G100" s="3">
-        <v>-182400</v>
+        <v>-183200</v>
       </c>
       <c r="H100" s="3">
-        <v>-30800</v>
+        <v>-31000</v>
       </c>
       <c r="I100" s="3">
-        <v>-103100</v>
+        <v>-103600</v>
       </c>
       <c r="J100" s="3">
-        <v>48100</v>
+        <v>48400</v>
       </c>
       <c r="K100" s="3">
         <v>-147800</v>
@@ -3998,22 +3998,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-166600</v>
+        <v>-167400</v>
       </c>
       <c r="E102" s="3">
-        <v>223000</v>
+        <v>224000</v>
       </c>
       <c r="F102" s="3">
-        <v>-69200</v>
+        <v>-69500</v>
       </c>
       <c r="G102" s="3">
-        <v>-27200</v>
+        <v>-27300</v>
       </c>
       <c r="H102" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="I102" s="3">
-        <v>13700</v>
+        <v>13800</v>
       </c>
       <c r="J102" s="3">
         <v>7300</v>

--- a/AAII_Financials/Yearly/CIG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CIG_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6584500</v>
+        <v>6294900</v>
       </c>
       <c r="E8" s="3">
-        <v>4937000</v>
+        <v>4719800</v>
       </c>
       <c r="F8" s="3">
-        <v>4987800</v>
+        <v>4768400</v>
       </c>
       <c r="G8" s="3">
-        <v>4357500</v>
+        <v>4165800</v>
       </c>
       <c r="H8" s="3">
-        <v>4249000</v>
+        <v>4062000</v>
       </c>
       <c r="I8" s="3">
-        <v>3673800</v>
+        <v>3512200</v>
       </c>
       <c r="J8" s="3">
-        <v>4279500</v>
+        <v>4091300</v>
       </c>
       <c r="K8" s="3">
         <v>3850500</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5269000</v>
+        <v>5037200</v>
       </c>
       <c r="E9" s="3">
-        <v>3883600</v>
+        <v>3712800</v>
       </c>
       <c r="F9" s="3">
-        <v>3835500</v>
+        <v>3666700</v>
       </c>
       <c r="G9" s="3">
-        <v>3459400</v>
+        <v>3307200</v>
       </c>
       <c r="H9" s="3">
-        <v>3422200</v>
+        <v>3271700</v>
       </c>
       <c r="I9" s="3">
-        <v>2823700</v>
+        <v>2699500</v>
       </c>
       <c r="J9" s="3">
-        <v>3105200</v>
+        <v>2968500</v>
       </c>
       <c r="K9" s="3">
         <v>2522900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1315500</v>
+        <v>1257700</v>
       </c>
       <c r="E10" s="3">
-        <v>1053400</v>
+        <v>1007100</v>
       </c>
       <c r="F10" s="3">
-        <v>1152300</v>
+        <v>1101600</v>
       </c>
       <c r="G10" s="3">
-        <v>898100</v>
+        <v>858600</v>
       </c>
       <c r="H10" s="3">
-        <v>826700</v>
+        <v>790400</v>
       </c>
       <c r="I10" s="3">
-        <v>850100</v>
+        <v>812700</v>
       </c>
       <c r="J10" s="3">
-        <v>1174400</v>
+        <v>1122700</v>
       </c>
       <c r="K10" s="3">
         <v>1327600</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5266300</v>
+        <v>5034600</v>
       </c>
       <c r="E17" s="3">
-        <v>4016000</v>
+        <v>3839300</v>
       </c>
       <c r="F17" s="3">
-        <v>4359600</v>
+        <v>4167800</v>
       </c>
       <c r="G17" s="3">
-        <v>3869100</v>
+        <v>3698800</v>
       </c>
       <c r="H17" s="3">
-        <v>3731900</v>
+        <v>3567700</v>
       </c>
       <c r="I17" s="3">
-        <v>3320500</v>
+        <v>3174500</v>
       </c>
       <c r="J17" s="3">
-        <v>3359300</v>
+        <v>3211500</v>
       </c>
       <c r="K17" s="3">
         <v>2750800</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1318300</v>
+        <v>1260300</v>
       </c>
       <c r="E18" s="3">
-        <v>921000</v>
+        <v>880500</v>
       </c>
       <c r="F18" s="3">
-        <v>628200</v>
+        <v>600500</v>
       </c>
       <c r="G18" s="3">
-        <v>488400</v>
+        <v>467000</v>
       </c>
       <c r="H18" s="3">
-        <v>517100</v>
+        <v>494400</v>
       </c>
       <c r="I18" s="3">
-        <v>353300</v>
+        <v>337700</v>
       </c>
       <c r="J18" s="3">
-        <v>920200</v>
+        <v>879700</v>
       </c>
       <c r="K18" s="3">
         <v>1099700</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-174400</v>
+        <v>-166800</v>
       </c>
       <c r="E20" s="3">
-        <v>53300</v>
+        <v>50900</v>
       </c>
       <c r="F20" s="3">
-        <v>506300</v>
+        <v>484000</v>
       </c>
       <c r="G20" s="3">
-        <v>144400</v>
+        <v>138100</v>
       </c>
       <c r="H20" s="3">
-        <v>105100</v>
+        <v>100500</v>
       </c>
       <c r="I20" s="3">
-        <v>96100</v>
+        <v>91900</v>
       </c>
       <c r="J20" s="3">
-        <v>8900</v>
+        <v>8500</v>
       </c>
       <c r="K20" s="3">
         <v>-33500</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1349100</v>
+        <v>1295800</v>
       </c>
       <c r="E21" s="3">
-        <v>1167800</v>
+        <v>1122100</v>
       </c>
       <c r="F21" s="3">
-        <v>1321900</v>
+        <v>1269300</v>
       </c>
       <c r="G21" s="3">
-        <v>799000</v>
+        <v>768700</v>
       </c>
       <c r="H21" s="3">
-        <v>788500</v>
+        <v>758700</v>
       </c>
       <c r="I21" s="3">
-        <v>612600</v>
+        <v>590500</v>
       </c>
       <c r="J21" s="3">
-        <v>1092400</v>
+        <v>1049200</v>
       </c>
       <c r="K21" s="3">
         <v>1225900</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>224400</v>
+        <v>214500</v>
       </c>
       <c r="E22" s="3">
-        <v>230500</v>
+        <v>220300</v>
       </c>
       <c r="F22" s="3">
-        <v>240100</v>
+        <v>229500</v>
       </c>
       <c r="G22" s="3">
-        <v>245900</v>
+        <v>235100</v>
       </c>
       <c r="H22" s="3">
-        <v>300100</v>
+        <v>286900</v>
       </c>
       <c r="I22" s="3">
-        <v>377400</v>
+        <v>360800</v>
       </c>
       <c r="J22" s="3">
-        <v>271300</v>
+        <v>259300</v>
       </c>
       <c r="K22" s="3">
         <v>183400</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>919400</v>
+        <v>879000</v>
       </c>
       <c r="E23" s="3">
-        <v>743800</v>
+        <v>711100</v>
       </c>
       <c r="F23" s="3">
-        <v>894400</v>
+        <v>855000</v>
       </c>
       <c r="G23" s="3">
-        <v>387000</v>
+        <v>370000</v>
       </c>
       <c r="H23" s="3">
-        <v>322100</v>
+        <v>307900</v>
       </c>
       <c r="I23" s="3">
-        <v>72000</v>
+        <v>68800</v>
       </c>
       <c r="J23" s="3">
-        <v>657900</v>
+        <v>628900</v>
       </c>
       <c r="K23" s="3">
         <v>882700</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>185000</v>
+        <v>176900</v>
       </c>
       <c r="E24" s="3">
-        <v>183100</v>
+        <v>175100</v>
       </c>
       <c r="F24" s="3">
-        <v>313100</v>
+        <v>299300</v>
       </c>
       <c r="G24" s="3">
-        <v>117200</v>
+        <v>112100</v>
       </c>
       <c r="H24" s="3">
-        <v>126100</v>
+        <v>120500</v>
       </c>
       <c r="I24" s="3">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="J24" s="3">
-        <v>174700</v>
+        <v>167000</v>
       </c>
       <c r="K24" s="3">
         <v>264600</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>734400</v>
+        <v>702100</v>
       </c>
       <c r="E26" s="3">
-        <v>560700</v>
+        <v>536000</v>
       </c>
       <c r="F26" s="3">
-        <v>581300</v>
+        <v>555700</v>
       </c>
       <c r="G26" s="3">
-        <v>269700</v>
+        <v>257900</v>
       </c>
       <c r="H26" s="3">
-        <v>196000</v>
+        <v>187400</v>
       </c>
       <c r="I26" s="3">
-        <v>65500</v>
+        <v>62600</v>
       </c>
       <c r="J26" s="3">
-        <v>483200</v>
+        <v>461900</v>
       </c>
       <c r="K26" s="3">
         <v>618200</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>734100</v>
+        <v>701800</v>
       </c>
       <c r="E27" s="3">
-        <v>560500</v>
+        <v>535800</v>
       </c>
       <c r="F27" s="3">
-        <v>581200</v>
+        <v>555600</v>
       </c>
       <c r="G27" s="3">
-        <v>261600</v>
+        <v>250100</v>
       </c>
       <c r="H27" s="3">
-        <v>195900</v>
+        <v>187300</v>
       </c>
       <c r="I27" s="3">
-        <v>65400</v>
+        <v>62600</v>
       </c>
       <c r="J27" s="3">
-        <v>483100</v>
+        <v>461800</v>
       </c>
       <c r="K27" s="3">
         <v>618100</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>43800</v>
+        <v>41900</v>
       </c>
       <c r="G29" s="3">
-        <v>71100</v>
+        <v>68000</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>174400</v>
+        <v>166800</v>
       </c>
       <c r="E32" s="3">
-        <v>-53300</v>
+        <v>-50900</v>
       </c>
       <c r="F32" s="3">
-        <v>-506300</v>
+        <v>-484000</v>
       </c>
       <c r="G32" s="3">
-        <v>-144400</v>
+        <v>-138100</v>
       </c>
       <c r="H32" s="3">
-        <v>-105100</v>
+        <v>-100500</v>
       </c>
       <c r="I32" s="3">
-        <v>-96100</v>
+        <v>-91900</v>
       </c>
       <c r="J32" s="3">
-        <v>-8900</v>
+        <v>-8500</v>
       </c>
       <c r="K32" s="3">
         <v>33500</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>734100</v>
+        <v>701800</v>
       </c>
       <c r="E33" s="3">
-        <v>560500</v>
+        <v>535800</v>
       </c>
       <c r="F33" s="3">
-        <v>625000</v>
+        <v>597500</v>
       </c>
       <c r="G33" s="3">
-        <v>332700</v>
+        <v>318100</v>
       </c>
       <c r="H33" s="3">
-        <v>195900</v>
+        <v>187300</v>
       </c>
       <c r="I33" s="3">
-        <v>65400</v>
+        <v>62600</v>
       </c>
       <c r="J33" s="3">
-        <v>483100</v>
+        <v>461800</v>
       </c>
       <c r="K33" s="3">
         <v>618100</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>734100</v>
+        <v>701800</v>
       </c>
       <c r="E35" s="3">
-        <v>560500</v>
+        <v>535800</v>
       </c>
       <c r="F35" s="3">
-        <v>625000</v>
+        <v>597500</v>
       </c>
       <c r="G35" s="3">
-        <v>332700</v>
+        <v>318100</v>
       </c>
       <c r="H35" s="3">
-        <v>195900</v>
+        <v>187300</v>
       </c>
       <c r="I35" s="3">
-        <v>65400</v>
+        <v>62600</v>
       </c>
       <c r="J35" s="3">
-        <v>483100</v>
+        <v>461800</v>
       </c>
       <c r="K35" s="3">
         <v>618100</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>161500</v>
+        <v>154400</v>
       </c>
       <c r="E41" s="3">
-        <v>328900</v>
+        <v>314400</v>
       </c>
       <c r="F41" s="3">
-        <v>104800</v>
+        <v>100200</v>
       </c>
       <c r="G41" s="3">
-        <v>348700</v>
+        <v>333300</v>
       </c>
       <c r="H41" s="3">
-        <v>201600</v>
+        <v>192800</v>
       </c>
       <c r="I41" s="3">
-        <v>194700</v>
+        <v>186200</v>
       </c>
       <c r="J41" s="3">
-        <v>181000</v>
+        <v>173000</v>
       </c>
       <c r="K41" s="3">
         <v>174800</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>337400</v>
+        <v>322600</v>
       </c>
       <c r="E42" s="3">
-        <v>657600</v>
+        <v>628700</v>
       </c>
       <c r="F42" s="3">
-        <v>147300</v>
+        <v>140800</v>
       </c>
       <c r="G42" s="3">
-        <v>155500</v>
+        <v>148700</v>
       </c>
       <c r="H42" s="3">
-        <v>227900</v>
+        <v>217900</v>
       </c>
       <c r="I42" s="3">
-        <v>270400</v>
+        <v>258500</v>
       </c>
       <c r="J42" s="3">
-        <v>474900</v>
+        <v>454100</v>
       </c>
       <c r="K42" s="3">
         <v>196100</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1617600</v>
+        <v>1546500</v>
       </c>
       <c r="E43" s="3">
-        <v>1551000</v>
+        <v>1482800</v>
       </c>
       <c r="F43" s="3">
-        <v>1267100</v>
+        <v>1211400</v>
       </c>
       <c r="G43" s="3">
-        <v>1171400</v>
+        <v>1119900</v>
       </c>
       <c r="H43" s="3">
-        <v>1004400</v>
+        <v>960200</v>
       </c>
       <c r="I43" s="3">
-        <v>963900</v>
+        <v>921500</v>
       </c>
       <c r="J43" s="3">
-        <v>1706500</v>
+        <v>1631400</v>
       </c>
       <c r="K43" s="3">
         <v>677700</v>
@@ -1947,19 +1947,19 @@
         <v>8</v>
       </c>
       <c r="F44" s="3">
-        <v>7700</v>
+        <v>7400</v>
       </c>
       <c r="G44" s="3">
+        <v>6700</v>
+      </c>
+      <c r="H44" s="3">
+        <v>7100</v>
+      </c>
+      <c r="I44" s="3">
+        <v>9300</v>
+      </c>
+      <c r="J44" s="3">
         <v>7000</v>
-      </c>
-      <c r="H44" s="3">
-        <v>7500</v>
-      </c>
-      <c r="I44" s="3">
-        <v>9700</v>
-      </c>
-      <c r="J44" s="3">
-        <v>7300</v>
       </c>
       <c r="K44" s="3">
         <v>7900</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>417600</v>
+        <v>399200</v>
       </c>
       <c r="E45" s="3">
-        <v>487300</v>
+        <v>465800</v>
       </c>
       <c r="F45" s="3">
-        <v>582300</v>
+        <v>556700</v>
       </c>
       <c r="G45" s="3">
-        <v>4120500</v>
+        <v>3939300</v>
       </c>
       <c r="H45" s="3">
-        <v>229300</v>
+        <v>219200</v>
       </c>
       <c r="I45" s="3">
-        <v>182700</v>
+        <v>174700</v>
       </c>
       <c r="J45" s="3">
-        <v>202100</v>
+        <v>193200</v>
       </c>
       <c r="K45" s="3">
         <v>235100</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2534100</v>
+        <v>2422700</v>
       </c>
       <c r="E46" s="3">
-        <v>3024800</v>
+        <v>2891700</v>
       </c>
       <c r="F46" s="3">
-        <v>2026000</v>
+        <v>1936900</v>
       </c>
       <c r="G46" s="3">
-        <v>5473000</v>
+        <v>5232200</v>
       </c>
       <c r="H46" s="3">
-        <v>1670800</v>
+        <v>1597200</v>
       </c>
       <c r="I46" s="3">
-        <v>1621500</v>
+        <v>1550100</v>
       </c>
       <c r="J46" s="3">
-        <v>1835000</v>
+        <v>1754300</v>
       </c>
       <c r="K46" s="3">
         <v>1291600</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3877700</v>
+        <v>3707100</v>
       </c>
       <c r="E47" s="3">
-        <v>3780600</v>
+        <v>3614300</v>
       </c>
       <c r="F47" s="3">
-        <v>4292800</v>
+        <v>4103900</v>
       </c>
       <c r="G47" s="3">
-        <v>4163800</v>
+        <v>3980700</v>
       </c>
       <c r="H47" s="3">
-        <v>3502500</v>
+        <v>3348400</v>
       </c>
       <c r="I47" s="3">
-        <v>3352200</v>
+        <v>3204700</v>
       </c>
       <c r="J47" s="3">
-        <v>3073800</v>
+        <v>2938500</v>
       </c>
       <c r="K47" s="3">
         <v>3601700</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>517600</v>
+        <v>494800</v>
       </c>
       <c r="E48" s="3">
-        <v>512600</v>
+        <v>490000</v>
       </c>
       <c r="F48" s="3">
-        <v>533700</v>
+        <v>510200</v>
       </c>
       <c r="G48" s="3">
-        <v>1041700</v>
+        <v>995900</v>
       </c>
       <c r="H48" s="3">
-        <v>540600</v>
+        <v>516800</v>
       </c>
       <c r="I48" s="3">
-        <v>738800</v>
+        <v>706300</v>
       </c>
       <c r="J48" s="3">
-        <v>771100</v>
+        <v>737200</v>
       </c>
       <c r="K48" s="3">
         <v>1092400</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2535000</v>
+        <v>2423400</v>
       </c>
       <c r="E49" s="3">
-        <v>2311200</v>
+        <v>2209500</v>
       </c>
       <c r="F49" s="3">
-        <v>2274900</v>
+        <v>2174800</v>
       </c>
       <c r="G49" s="3">
-        <v>4218200</v>
+        <v>4032600</v>
       </c>
       <c r="H49" s="3">
-        <v>2183200</v>
+        <v>2087200</v>
       </c>
       <c r="I49" s="3">
-        <v>2117400</v>
+        <v>2024300</v>
       </c>
       <c r="J49" s="3">
-        <v>2010800</v>
+        <v>1922400</v>
       </c>
       <c r="K49" s="3">
         <v>665900</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>720900</v>
+        <v>689200</v>
       </c>
       <c r="E52" s="3">
-        <v>954900</v>
+        <v>912900</v>
       </c>
       <c r="F52" s="3">
-        <v>760500</v>
+        <v>727000</v>
       </c>
       <c r="G52" s="3">
-        <v>582800</v>
+        <v>557100</v>
       </c>
       <c r="H52" s="3">
-        <v>369200</v>
+        <v>353000</v>
       </c>
       <c r="I52" s="3">
-        <v>396600</v>
+        <v>379100</v>
       </c>
       <c r="J52" s="3">
-        <v>305000</v>
+        <v>291600</v>
       </c>
       <c r="K52" s="3">
         <v>245500</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10185400</v>
+        <v>9737300</v>
       </c>
       <c r="E54" s="3">
-        <v>10584100</v>
+        <v>10118400</v>
       </c>
       <c r="F54" s="3">
-        <v>9887900</v>
+        <v>9452900</v>
       </c>
       <c r="G54" s="3">
-        <v>11808100</v>
+        <v>11288600</v>
       </c>
       <c r="H54" s="3">
-        <v>8266300</v>
+        <v>7902600</v>
       </c>
       <c r="I54" s="3">
-        <v>8226400</v>
+        <v>7864500</v>
       </c>
       <c r="J54" s="3">
-        <v>7995700</v>
+        <v>7644000</v>
       </c>
       <c r="K54" s="3">
         <v>6897100</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>525100</v>
+        <v>502000</v>
       </c>
       <c r="E57" s="3">
-        <v>461500</v>
+        <v>441200</v>
       </c>
       <c r="F57" s="3">
-        <v>407000</v>
+        <v>389100</v>
       </c>
       <c r="G57" s="3">
-        <v>352500</v>
+        <v>337000</v>
       </c>
       <c r="H57" s="3">
-        <v>458500</v>
+        <v>438300</v>
       </c>
       <c r="I57" s="3">
-        <v>379600</v>
+        <v>362900</v>
       </c>
       <c r="J57" s="3">
-        <v>372100</v>
+        <v>355700</v>
       </c>
       <c r="K57" s="3">
         <v>316000</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>298800</v>
+        <v>285600</v>
       </c>
       <c r="E58" s="3">
-        <v>412400</v>
+        <v>394200</v>
       </c>
       <c r="F58" s="3">
-        <v>554100</v>
+        <v>529700</v>
       </c>
       <c r="G58" s="3">
-        <v>430100</v>
+        <v>411100</v>
       </c>
       <c r="H58" s="3">
-        <v>463900</v>
+        <v>443500</v>
       </c>
       <c r="I58" s="3">
-        <v>946600</v>
+        <v>904900</v>
       </c>
       <c r="J58" s="3">
-        <v>1233000</v>
+        <v>1178700</v>
       </c>
       <c r="K58" s="3">
         <v>1042600</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1267700</v>
+        <v>1211900</v>
       </c>
       <c r="E59" s="3">
-        <v>1022500</v>
+        <v>977500</v>
       </c>
       <c r="F59" s="3">
-        <v>599200</v>
+        <v>572800</v>
       </c>
       <c r="G59" s="3">
-        <v>3819600</v>
+        <v>3651600</v>
       </c>
       <c r="H59" s="3">
-        <v>772800</v>
+        <v>738800</v>
       </c>
       <c r="I59" s="3">
-        <v>914100</v>
+        <v>873900</v>
       </c>
       <c r="J59" s="3">
-        <v>953600</v>
+        <v>911600</v>
       </c>
       <c r="K59" s="3">
         <v>636300</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2091600</v>
+        <v>1999500</v>
       </c>
       <c r="E60" s="3">
-        <v>1896400</v>
+        <v>1812900</v>
       </c>
       <c r="F60" s="3">
-        <v>1558700</v>
+        <v>1490100</v>
       </c>
       <c r="G60" s="3">
-        <v>4586600</v>
+        <v>4384900</v>
       </c>
       <c r="H60" s="3">
-        <v>1695200</v>
+        <v>1620600</v>
       </c>
       <c r="I60" s="3">
-        <v>2240300</v>
+        <v>2141700</v>
       </c>
       <c r="J60" s="3">
-        <v>2558600</v>
+        <v>2446000</v>
       </c>
       <c r="K60" s="3">
         <v>1994900</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1972900</v>
+        <v>1886100</v>
       </c>
       <c r="E61" s="3">
-        <v>2571500</v>
+        <v>2458400</v>
       </c>
       <c r="F61" s="3">
-        <v>2393900</v>
+        <v>2288600</v>
       </c>
       <c r="G61" s="3">
-        <v>2460800</v>
+        <v>2352500</v>
       </c>
       <c r="H61" s="3">
-        <v>2353700</v>
+        <v>2250200</v>
       </c>
       <c r="I61" s="3">
-        <v>2024000</v>
+        <v>1935000</v>
       </c>
       <c r="J61" s="3">
-        <v>1735100</v>
+        <v>1658800</v>
       </c>
       <c r="K61" s="3">
         <v>1619500</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2312200</v>
+        <v>2210500</v>
       </c>
       <c r="E62" s="3">
-        <v>2695900</v>
+        <v>2577300</v>
       </c>
       <c r="F62" s="3">
-        <v>2913400</v>
+        <v>2785300</v>
       </c>
       <c r="G62" s="3">
-        <v>1755700</v>
+        <v>1678400</v>
       </c>
       <c r="H62" s="3">
-        <v>1413000</v>
+        <v>1350800</v>
       </c>
       <c r="I62" s="3">
-        <v>1430900</v>
+        <v>1367900</v>
       </c>
       <c r="J62" s="3">
-        <v>1160300</v>
+        <v>1109300</v>
       </c>
       <c r="K62" s="3">
         <v>1089800</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6377700</v>
+        <v>6097200</v>
       </c>
       <c r="E66" s="3">
-        <v>7164700</v>
+        <v>6849400</v>
       </c>
       <c r="F66" s="3">
-        <v>6737500</v>
+        <v>6441000</v>
       </c>
       <c r="G66" s="3">
-        <v>8926600</v>
+        <v>8533900</v>
       </c>
       <c r="H66" s="3">
-        <v>5462700</v>
+        <v>5222400</v>
       </c>
       <c r="I66" s="3">
-        <v>5696000</v>
+        <v>5445400</v>
       </c>
       <c r="J66" s="3">
-        <v>5454800</v>
+        <v>5214800</v>
       </c>
       <c r="K66" s="3">
         <v>4674100</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2142500</v>
+        <v>2048300</v>
       </c>
       <c r="E72" s="3">
-        <v>1968900</v>
+        <v>1882200</v>
       </c>
       <c r="F72" s="3">
-        <v>2194100</v>
+        <v>2097500</v>
       </c>
       <c r="G72" s="3">
-        <v>1273500</v>
+        <v>1217500</v>
       </c>
       <c r="H72" s="3">
-        <v>1121100</v>
+        <v>1071800</v>
       </c>
       <c r="I72" s="3">
-        <v>1017600</v>
+        <v>972800</v>
       </c>
       <c r="J72" s="3">
-        <v>912500</v>
+        <v>872300</v>
       </c>
       <c r="K72" s="3">
         <v>511100</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3807600</v>
+        <v>3640100</v>
       </c>
       <c r="E76" s="3">
-        <v>3419400</v>
+        <v>3269000</v>
       </c>
       <c r="F76" s="3">
-        <v>3150400</v>
+        <v>3011800</v>
       </c>
       <c r="G76" s="3">
-        <v>2881500</v>
+        <v>2754700</v>
       </c>
       <c r="H76" s="3">
-        <v>2803600</v>
+        <v>2680200</v>
       </c>
       <c r="I76" s="3">
-        <v>2530500</v>
+        <v>2419100</v>
       </c>
       <c r="J76" s="3">
-        <v>2540900</v>
+        <v>2429100</v>
       </c>
       <c r="K76" s="3">
         <v>2223000</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>734100</v>
+        <v>701800</v>
       </c>
       <c r="E81" s="3">
-        <v>560500</v>
+        <v>535800</v>
       </c>
       <c r="F81" s="3">
-        <v>625000</v>
+        <v>597500</v>
       </c>
       <c r="G81" s="3">
-        <v>332700</v>
+        <v>318100</v>
       </c>
       <c r="H81" s="3">
-        <v>195900</v>
+        <v>187300</v>
       </c>
       <c r="I81" s="3">
-        <v>65400</v>
+        <v>62600</v>
       </c>
       <c r="J81" s="3">
-        <v>483100</v>
+        <v>461800</v>
       </c>
       <c r="K81" s="3">
         <v>618100</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>205300</v>
+        <v>196300</v>
       </c>
       <c r="E83" s="3">
-        <v>193600</v>
+        <v>185000</v>
       </c>
       <c r="F83" s="3">
-        <v>187500</v>
+        <v>179300</v>
       </c>
       <c r="G83" s="3">
-        <v>166200</v>
+        <v>158900</v>
       </c>
       <c r="H83" s="3">
-        <v>166300</v>
+        <v>159000</v>
       </c>
       <c r="I83" s="3">
-        <v>163300</v>
+        <v>156100</v>
       </c>
       <c r="J83" s="3">
-        <v>163400</v>
+        <v>156200</v>
       </c>
       <c r="K83" s="3">
         <v>157800</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>720800</v>
+        <v>689100</v>
       </c>
       <c r="E89" s="3">
-        <v>1684800</v>
+        <v>1610700</v>
       </c>
       <c r="F89" s="3">
-        <v>398600</v>
+        <v>381100</v>
       </c>
       <c r="G89" s="3">
-        <v>197200</v>
+        <v>188600</v>
       </c>
       <c r="H89" s="3">
-        <v>113400</v>
+        <v>108400</v>
       </c>
       <c r="I89" s="3">
-        <v>237500</v>
+        <v>227000</v>
       </c>
       <c r="J89" s="3">
-        <v>588500</v>
+        <v>562600</v>
       </c>
       <c r="K89" s="3">
         <v>735800</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-35700</v>
+        <v>-34100</v>
       </c>
       <c r="E91" s="3">
-        <v>-26000</v>
+        <v>-24900</v>
       </c>
       <c r="F91" s="3">
-        <v>-13800</v>
+        <v>-13200</v>
       </c>
       <c r="G91" s="3">
-        <v>-15100</v>
+        <v>-14400</v>
       </c>
       <c r="H91" s="3">
-        <v>-16300</v>
+        <v>-15500</v>
       </c>
       <c r="I91" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="J91" s="3">
         <v>-23500</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-24600</v>
       </c>
       <c r="K91" s="3">
         <v>-24000</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>268300</v>
+        <v>256500</v>
       </c>
       <c r="E94" s="3">
-        <v>-993600</v>
+        <v>-949900</v>
       </c>
       <c r="F94" s="3">
-        <v>-232600</v>
+        <v>-222400</v>
       </c>
       <c r="G94" s="3">
-        <v>-41300</v>
+        <v>-39500</v>
       </c>
       <c r="H94" s="3">
-        <v>-75600</v>
+        <v>-72200</v>
       </c>
       <c r="I94" s="3">
-        <v>-120100</v>
+        <v>-114800</v>
       </c>
       <c r="J94" s="3">
-        <v>-629500</v>
+        <v>-601800</v>
       </c>
       <c r="K94" s="3">
         <v>-847100</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-277200</v>
+        <v>-265000</v>
       </c>
       <c r="E96" s="3">
-        <v>-117100</v>
+        <v>-111900</v>
       </c>
       <c r="F96" s="3">
-        <v>-137200</v>
+        <v>-131200</v>
       </c>
       <c r="G96" s="3">
-        <v>-99600</v>
+        <v>-95200</v>
       </c>
       <c r="H96" s="3">
-        <v>-105600</v>
+        <v>-101000</v>
       </c>
       <c r="I96" s="3">
-        <v>-132000</v>
+        <v>-126200</v>
       </c>
       <c r="J96" s="3">
-        <v>-155900</v>
+        <v>-149000</v>
       </c>
       <c r="K96" s="3">
         <v>-772000</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1156500</v>
+        <v>-1105700</v>
       </c>
       <c r="E100" s="3">
-        <v>-467200</v>
+        <v>-446700</v>
       </c>
       <c r="F100" s="3">
-        <v>-235500</v>
+        <v>-225100</v>
       </c>
       <c r="G100" s="3">
-        <v>-183200</v>
+        <v>-175200</v>
       </c>
       <c r="H100" s="3">
-        <v>-31000</v>
+        <v>-29600</v>
       </c>
       <c r="I100" s="3">
-        <v>-103600</v>
+        <v>-99000</v>
       </c>
       <c r="J100" s="3">
-        <v>48400</v>
+        <v>46200</v>
       </c>
       <c r="K100" s="3">
         <v>-147800</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-167400</v>
+        <v>-160000</v>
       </c>
       <c r="E102" s="3">
-        <v>224000</v>
+        <v>214200</v>
       </c>
       <c r="F102" s="3">
-        <v>-69500</v>
+        <v>-66400</v>
       </c>
       <c r="G102" s="3">
-        <v>-27300</v>
+        <v>-26100</v>
       </c>
       <c r="H102" s="3">
-        <v>6900</v>
+        <v>6600</v>
       </c>
       <c r="I102" s="3">
-        <v>13800</v>
+        <v>13200</v>
       </c>
       <c r="J102" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="K102" s="3">
         <v>-259100</v>

--- a/AAII_Financials/Yearly/CIG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CIG_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6294900</v>
+        <v>6514900</v>
       </c>
       <c r="E8" s="3">
-        <v>4719800</v>
+        <v>4884800</v>
       </c>
       <c r="F8" s="3">
-        <v>4768400</v>
+        <v>4935000</v>
       </c>
       <c r="G8" s="3">
-        <v>4165800</v>
+        <v>4311400</v>
       </c>
       <c r="H8" s="3">
-        <v>4062000</v>
+        <v>4204000</v>
       </c>
       <c r="I8" s="3">
-        <v>3512200</v>
+        <v>3634900</v>
       </c>
       <c r="J8" s="3">
-        <v>4091300</v>
+        <v>4234300</v>
       </c>
       <c r="K8" s="3">
         <v>3850500</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5037200</v>
+        <v>5213300</v>
       </c>
       <c r="E9" s="3">
-        <v>3712800</v>
+        <v>3842500</v>
       </c>
       <c r="F9" s="3">
-        <v>3666700</v>
+        <v>3794900</v>
       </c>
       <c r="G9" s="3">
-        <v>3307200</v>
+        <v>3422800</v>
       </c>
       <c r="H9" s="3">
-        <v>3271700</v>
+        <v>3386000</v>
       </c>
       <c r="I9" s="3">
-        <v>2699500</v>
+        <v>2793900</v>
       </c>
       <c r="J9" s="3">
-        <v>2968500</v>
+        <v>3072300</v>
       </c>
       <c r="K9" s="3">
         <v>2522900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1257700</v>
+        <v>1301600</v>
       </c>
       <c r="E10" s="3">
-        <v>1007100</v>
+        <v>1042300</v>
       </c>
       <c r="F10" s="3">
-        <v>1101600</v>
+        <v>1140200</v>
       </c>
       <c r="G10" s="3">
-        <v>858600</v>
+        <v>888600</v>
       </c>
       <c r="H10" s="3">
-        <v>790400</v>
+        <v>818000</v>
       </c>
       <c r="I10" s="3">
-        <v>812700</v>
+        <v>841100</v>
       </c>
       <c r="J10" s="3">
-        <v>1122700</v>
+        <v>1162000</v>
       </c>
       <c r="K10" s="3">
         <v>1327600</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5034600</v>
+        <v>5210600</v>
       </c>
       <c r="E17" s="3">
-        <v>3839300</v>
+        <v>3973500</v>
       </c>
       <c r="F17" s="3">
-        <v>4167800</v>
+        <v>4313500</v>
       </c>
       <c r="G17" s="3">
-        <v>3698800</v>
+        <v>3828100</v>
       </c>
       <c r="H17" s="3">
-        <v>3567700</v>
+        <v>3692400</v>
       </c>
       <c r="I17" s="3">
-        <v>3174500</v>
+        <v>3285400</v>
       </c>
       <c r="J17" s="3">
-        <v>3211500</v>
+        <v>3323800</v>
       </c>
       <c r="K17" s="3">
         <v>2750800</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1260300</v>
+        <v>1304300</v>
       </c>
       <c r="E18" s="3">
-        <v>880500</v>
+        <v>911300</v>
       </c>
       <c r="F18" s="3">
-        <v>600500</v>
+        <v>621500</v>
       </c>
       <c r="G18" s="3">
-        <v>467000</v>
+        <v>483300</v>
       </c>
       <c r="H18" s="3">
-        <v>494400</v>
+        <v>511600</v>
       </c>
       <c r="I18" s="3">
-        <v>337700</v>
+        <v>349500</v>
       </c>
       <c r="J18" s="3">
-        <v>879700</v>
+        <v>910500</v>
       </c>
       <c r="K18" s="3">
         <v>1099700</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-166800</v>
+        <v>-172600</v>
       </c>
       <c r="E20" s="3">
-        <v>50900</v>
+        <v>52700</v>
       </c>
       <c r="F20" s="3">
-        <v>484000</v>
+        <v>501000</v>
       </c>
       <c r="G20" s="3">
-        <v>138100</v>
+        <v>142900</v>
       </c>
       <c r="H20" s="3">
-        <v>100500</v>
+        <v>104000</v>
       </c>
       <c r="I20" s="3">
-        <v>91900</v>
+        <v>95100</v>
       </c>
       <c r="J20" s="3">
-        <v>8500</v>
+        <v>8800</v>
       </c>
       <c r="K20" s="3">
         <v>-33500</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1295800</v>
+        <v>1335600</v>
       </c>
       <c r="E21" s="3">
-        <v>1122100</v>
+        <v>1156200</v>
       </c>
       <c r="F21" s="3">
-        <v>1269300</v>
+        <v>1308700</v>
       </c>
       <c r="G21" s="3">
-        <v>768700</v>
+        <v>791200</v>
       </c>
       <c r="H21" s="3">
-        <v>758700</v>
+        <v>780800</v>
       </c>
       <c r="I21" s="3">
-        <v>590500</v>
+        <v>606800</v>
       </c>
       <c r="J21" s="3">
-        <v>1049200</v>
+        <v>1081500</v>
       </c>
       <c r="K21" s="3">
         <v>1225900</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>214500</v>
+        <v>222000</v>
       </c>
       <c r="E22" s="3">
-        <v>220300</v>
+        <v>228100</v>
       </c>
       <c r="F22" s="3">
-        <v>229500</v>
+        <v>237600</v>
       </c>
       <c r="G22" s="3">
-        <v>235100</v>
+        <v>243300</v>
       </c>
       <c r="H22" s="3">
-        <v>286900</v>
+        <v>296900</v>
       </c>
       <c r="I22" s="3">
-        <v>360800</v>
+        <v>373400</v>
       </c>
       <c r="J22" s="3">
-        <v>259300</v>
+        <v>268400</v>
       </c>
       <c r="K22" s="3">
         <v>183400</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>879000</v>
+        <v>909700</v>
       </c>
       <c r="E23" s="3">
-        <v>711100</v>
+        <v>736000</v>
       </c>
       <c r="F23" s="3">
-        <v>855000</v>
+        <v>884900</v>
       </c>
       <c r="G23" s="3">
-        <v>370000</v>
+        <v>382900</v>
       </c>
       <c r="H23" s="3">
-        <v>307900</v>
+        <v>318700</v>
       </c>
       <c r="I23" s="3">
-        <v>68800</v>
+        <v>71200</v>
       </c>
       <c r="J23" s="3">
-        <v>628900</v>
+        <v>650900</v>
       </c>
       <c r="K23" s="3">
         <v>882700</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>176900</v>
+        <v>183000</v>
       </c>
       <c r="E24" s="3">
-        <v>175100</v>
+        <v>181200</v>
       </c>
       <c r="F24" s="3">
-        <v>299300</v>
+        <v>309800</v>
       </c>
       <c r="G24" s="3">
-        <v>112100</v>
+        <v>116000</v>
       </c>
       <c r="H24" s="3">
-        <v>120500</v>
+        <v>124700</v>
       </c>
       <c r="I24" s="3">
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="J24" s="3">
-        <v>167000</v>
+        <v>172800</v>
       </c>
       <c r="K24" s="3">
         <v>264600</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>702100</v>
+        <v>726700</v>
       </c>
       <c r="E26" s="3">
-        <v>536000</v>
+        <v>554800</v>
       </c>
       <c r="F26" s="3">
-        <v>555700</v>
+        <v>575100</v>
       </c>
       <c r="G26" s="3">
-        <v>257900</v>
+        <v>266900</v>
       </c>
       <c r="H26" s="3">
-        <v>187400</v>
+        <v>193900</v>
       </c>
       <c r="I26" s="3">
-        <v>62600</v>
+        <v>64800</v>
       </c>
       <c r="J26" s="3">
-        <v>461900</v>
+        <v>478100</v>
       </c>
       <c r="K26" s="3">
         <v>618200</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>701800</v>
+        <v>726400</v>
       </c>
       <c r="E27" s="3">
-        <v>535800</v>
+        <v>554600</v>
       </c>
       <c r="F27" s="3">
-        <v>555600</v>
+        <v>575000</v>
       </c>
       <c r="G27" s="3">
-        <v>250100</v>
+        <v>258800</v>
       </c>
       <c r="H27" s="3">
-        <v>187300</v>
+        <v>193800</v>
       </c>
       <c r="I27" s="3">
-        <v>62600</v>
+        <v>64700</v>
       </c>
       <c r="J27" s="3">
-        <v>461800</v>
+        <v>478000</v>
       </c>
       <c r="K27" s="3">
         <v>618100</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>41900</v>
+        <v>43400</v>
       </c>
       <c r="G29" s="3">
-        <v>68000</v>
+        <v>70400</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>166800</v>
+        <v>172600</v>
       </c>
       <c r="E32" s="3">
-        <v>-50900</v>
+        <v>-52700</v>
       </c>
       <c r="F32" s="3">
-        <v>-484000</v>
+        <v>-501000</v>
       </c>
       <c r="G32" s="3">
-        <v>-138100</v>
+        <v>-142900</v>
       </c>
       <c r="H32" s="3">
-        <v>-100500</v>
+        <v>-104000</v>
       </c>
       <c r="I32" s="3">
-        <v>-91900</v>
+        <v>-95100</v>
       </c>
       <c r="J32" s="3">
-        <v>-8500</v>
+        <v>-8800</v>
       </c>
       <c r="K32" s="3">
         <v>33500</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>701800</v>
+        <v>726400</v>
       </c>
       <c r="E33" s="3">
-        <v>535800</v>
+        <v>554600</v>
       </c>
       <c r="F33" s="3">
-        <v>597500</v>
+        <v>618400</v>
       </c>
       <c r="G33" s="3">
-        <v>318100</v>
+        <v>329200</v>
       </c>
       <c r="H33" s="3">
-        <v>187300</v>
+        <v>193800</v>
       </c>
       <c r="I33" s="3">
-        <v>62600</v>
+        <v>64700</v>
       </c>
       <c r="J33" s="3">
-        <v>461800</v>
+        <v>478000</v>
       </c>
       <c r="K33" s="3">
         <v>618100</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>701800</v>
+        <v>726400</v>
       </c>
       <c r="E35" s="3">
-        <v>535800</v>
+        <v>554600</v>
       </c>
       <c r="F35" s="3">
-        <v>597500</v>
+        <v>618400</v>
       </c>
       <c r="G35" s="3">
-        <v>318100</v>
+        <v>329200</v>
       </c>
       <c r="H35" s="3">
-        <v>187300</v>
+        <v>193800</v>
       </c>
       <c r="I35" s="3">
-        <v>62600</v>
+        <v>64700</v>
       </c>
       <c r="J35" s="3">
-        <v>461800</v>
+        <v>478000</v>
       </c>
       <c r="K35" s="3">
         <v>618100</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>154400</v>
+        <v>159800</v>
       </c>
       <c r="E41" s="3">
-        <v>314400</v>
+        <v>325400</v>
       </c>
       <c r="F41" s="3">
-        <v>100200</v>
+        <v>103700</v>
       </c>
       <c r="G41" s="3">
-        <v>333300</v>
+        <v>345000</v>
       </c>
       <c r="H41" s="3">
-        <v>192800</v>
+        <v>199500</v>
       </c>
       <c r="I41" s="3">
-        <v>186200</v>
+        <v>192700</v>
       </c>
       <c r="J41" s="3">
-        <v>173000</v>
+        <v>179000</v>
       </c>
       <c r="K41" s="3">
         <v>174800</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>322600</v>
+        <v>333800</v>
       </c>
       <c r="E42" s="3">
-        <v>628700</v>
+        <v>650600</v>
       </c>
       <c r="F42" s="3">
-        <v>140800</v>
+        <v>145700</v>
       </c>
       <c r="G42" s="3">
-        <v>148700</v>
+        <v>153800</v>
       </c>
       <c r="H42" s="3">
-        <v>217900</v>
+        <v>225500</v>
       </c>
       <c r="I42" s="3">
-        <v>258500</v>
+        <v>267500</v>
       </c>
       <c r="J42" s="3">
-        <v>454100</v>
+        <v>469900</v>
       </c>
       <c r="K42" s="3">
         <v>196100</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1546500</v>
+        <v>1600500</v>
       </c>
       <c r="E43" s="3">
-        <v>1482800</v>
+        <v>1534600</v>
       </c>
       <c r="F43" s="3">
-        <v>1211400</v>
+        <v>1253700</v>
       </c>
       <c r="G43" s="3">
-        <v>1119900</v>
+        <v>1159000</v>
       </c>
       <c r="H43" s="3">
-        <v>960200</v>
+        <v>993800</v>
       </c>
       <c r="I43" s="3">
-        <v>921500</v>
+        <v>953700</v>
       </c>
       <c r="J43" s="3">
-        <v>1631400</v>
+        <v>1688400</v>
       </c>
       <c r="K43" s="3">
         <v>677700</v>
@@ -1947,19 +1947,19 @@
         <v>8</v>
       </c>
       <c r="F44" s="3">
+        <v>7600</v>
+      </c>
+      <c r="G44" s="3">
+        <v>6900</v>
+      </c>
+      <c r="H44" s="3">
         <v>7400</v>
       </c>
-      <c r="G44" s="3">
-        <v>6700</v>
-      </c>
-      <c r="H44" s="3">
-        <v>7100</v>
-      </c>
       <c r="I44" s="3">
-        <v>9300</v>
+        <v>9600</v>
       </c>
       <c r="J44" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="K44" s="3">
         <v>7900</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>399200</v>
+        <v>413200</v>
       </c>
       <c r="E45" s="3">
-        <v>465800</v>
+        <v>482100</v>
       </c>
       <c r="F45" s="3">
-        <v>556700</v>
+        <v>576100</v>
       </c>
       <c r="G45" s="3">
-        <v>3939300</v>
+        <v>4077000</v>
       </c>
       <c r="H45" s="3">
-        <v>219200</v>
+        <v>226900</v>
       </c>
       <c r="I45" s="3">
-        <v>174700</v>
+        <v>180800</v>
       </c>
       <c r="J45" s="3">
-        <v>193200</v>
+        <v>199900</v>
       </c>
       <c r="K45" s="3">
         <v>235100</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2422700</v>
+        <v>2507300</v>
       </c>
       <c r="E46" s="3">
-        <v>2891700</v>
+        <v>2992800</v>
       </c>
       <c r="F46" s="3">
-        <v>1936900</v>
+        <v>2004600</v>
       </c>
       <c r="G46" s="3">
-        <v>5232200</v>
+        <v>5415100</v>
       </c>
       <c r="H46" s="3">
-        <v>1597200</v>
+        <v>1653100</v>
       </c>
       <c r="I46" s="3">
-        <v>1550100</v>
+        <v>1604300</v>
       </c>
       <c r="J46" s="3">
-        <v>1754300</v>
+        <v>1815600</v>
       </c>
       <c r="K46" s="3">
         <v>1291600</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3707100</v>
+        <v>3836700</v>
       </c>
       <c r="E47" s="3">
-        <v>3614300</v>
+        <v>3740600</v>
       </c>
       <c r="F47" s="3">
-        <v>4103900</v>
+        <v>4247400</v>
       </c>
       <c r="G47" s="3">
-        <v>3980700</v>
+        <v>4119800</v>
       </c>
       <c r="H47" s="3">
-        <v>3348400</v>
+        <v>3465500</v>
       </c>
       <c r="I47" s="3">
-        <v>3204700</v>
+        <v>3316700</v>
       </c>
       <c r="J47" s="3">
-        <v>2938500</v>
+        <v>3041200</v>
       </c>
       <c r="K47" s="3">
         <v>3601700</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>494800</v>
+        <v>512100</v>
       </c>
       <c r="E48" s="3">
-        <v>490000</v>
+        <v>507200</v>
       </c>
       <c r="F48" s="3">
-        <v>510200</v>
+        <v>528000</v>
       </c>
       <c r="G48" s="3">
-        <v>995900</v>
+        <v>1030700</v>
       </c>
       <c r="H48" s="3">
-        <v>516800</v>
+        <v>534900</v>
       </c>
       <c r="I48" s="3">
-        <v>706300</v>
+        <v>731000</v>
       </c>
       <c r="J48" s="3">
-        <v>737200</v>
+        <v>763000</v>
       </c>
       <c r="K48" s="3">
         <v>1092400</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2423400</v>
+        <v>2508200</v>
       </c>
       <c r="E49" s="3">
-        <v>2209500</v>
+        <v>2286800</v>
       </c>
       <c r="F49" s="3">
-        <v>2174800</v>
+        <v>2250800</v>
       </c>
       <c r="G49" s="3">
-        <v>4032600</v>
+        <v>4173600</v>
       </c>
       <c r="H49" s="3">
-        <v>2087200</v>
+        <v>2160100</v>
       </c>
       <c r="I49" s="3">
-        <v>2024300</v>
+        <v>2095000</v>
       </c>
       <c r="J49" s="3">
-        <v>1922400</v>
+        <v>1989600</v>
       </c>
       <c r="K49" s="3">
         <v>665900</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>689200</v>
+        <v>713300</v>
       </c>
       <c r="E52" s="3">
-        <v>912900</v>
+        <v>944800</v>
       </c>
       <c r="F52" s="3">
-        <v>727000</v>
+        <v>752400</v>
       </c>
       <c r="G52" s="3">
-        <v>557100</v>
+        <v>576600</v>
       </c>
       <c r="H52" s="3">
-        <v>353000</v>
+        <v>365300</v>
       </c>
       <c r="I52" s="3">
-        <v>379100</v>
+        <v>392400</v>
       </c>
       <c r="J52" s="3">
-        <v>291600</v>
+        <v>301800</v>
       </c>
       <c r="K52" s="3">
         <v>245500</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9737300</v>
+        <v>10077600</v>
       </c>
       <c r="E54" s="3">
-        <v>10118400</v>
+        <v>10472100</v>
       </c>
       <c r="F54" s="3">
-        <v>9452900</v>
+        <v>9783300</v>
       </c>
       <c r="G54" s="3">
-        <v>11288600</v>
+        <v>11683200</v>
       </c>
       <c r="H54" s="3">
-        <v>7902600</v>
+        <v>8178900</v>
       </c>
       <c r="I54" s="3">
-        <v>7864500</v>
+        <v>8139400</v>
       </c>
       <c r="J54" s="3">
-        <v>7644000</v>
+        <v>7911200</v>
       </c>
       <c r="K54" s="3">
         <v>6897100</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>502000</v>
+        <v>519600</v>
       </c>
       <c r="E57" s="3">
-        <v>441200</v>
+        <v>456600</v>
       </c>
       <c r="F57" s="3">
-        <v>389100</v>
+        <v>402700</v>
       </c>
       <c r="G57" s="3">
-        <v>337000</v>
+        <v>348800</v>
       </c>
       <c r="H57" s="3">
-        <v>438300</v>
+        <v>453600</v>
       </c>
       <c r="I57" s="3">
-        <v>362900</v>
+        <v>375600</v>
       </c>
       <c r="J57" s="3">
-        <v>355700</v>
+        <v>368100</v>
       </c>
       <c r="K57" s="3">
         <v>316000</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>285600</v>
+        <v>295600</v>
       </c>
       <c r="E58" s="3">
-        <v>394200</v>
+        <v>408000</v>
       </c>
       <c r="F58" s="3">
-        <v>529700</v>
+        <v>548200</v>
       </c>
       <c r="G58" s="3">
-        <v>411100</v>
+        <v>425500</v>
       </c>
       <c r="H58" s="3">
-        <v>443500</v>
+        <v>459000</v>
       </c>
       <c r="I58" s="3">
-        <v>904900</v>
+        <v>936600</v>
       </c>
       <c r="J58" s="3">
-        <v>1178700</v>
+        <v>1219900</v>
       </c>
       <c r="K58" s="3">
         <v>1042600</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1211900</v>
+        <v>1254200</v>
       </c>
       <c r="E59" s="3">
-        <v>977500</v>
+        <v>1011700</v>
       </c>
       <c r="F59" s="3">
-        <v>572800</v>
+        <v>592900</v>
       </c>
       <c r="G59" s="3">
-        <v>3651600</v>
+        <v>3779200</v>
       </c>
       <c r="H59" s="3">
-        <v>738800</v>
+        <v>764600</v>
       </c>
       <c r="I59" s="3">
-        <v>873900</v>
+        <v>904400</v>
       </c>
       <c r="J59" s="3">
-        <v>911600</v>
+        <v>943500</v>
       </c>
       <c r="K59" s="3">
         <v>636300</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1999500</v>
+        <v>2069400</v>
       </c>
       <c r="E60" s="3">
-        <v>1812900</v>
+        <v>1876300</v>
       </c>
       <c r="F60" s="3">
-        <v>1490100</v>
+        <v>1542200</v>
       </c>
       <c r="G60" s="3">
-        <v>4384900</v>
+        <v>4538100</v>
       </c>
       <c r="H60" s="3">
-        <v>1620600</v>
+        <v>1677300</v>
       </c>
       <c r="I60" s="3">
-        <v>2141700</v>
+        <v>2216600</v>
       </c>
       <c r="J60" s="3">
-        <v>2446000</v>
+        <v>2531500</v>
       </c>
       <c r="K60" s="3">
         <v>1994900</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1886100</v>
+        <v>1952000</v>
       </c>
       <c r="E61" s="3">
-        <v>2458400</v>
+        <v>2544300</v>
       </c>
       <c r="F61" s="3">
-        <v>2288600</v>
+        <v>2368600</v>
       </c>
       <c r="G61" s="3">
-        <v>2352500</v>
+        <v>2434800</v>
       </c>
       <c r="H61" s="3">
-        <v>2250200</v>
+        <v>2328800</v>
       </c>
       <c r="I61" s="3">
-        <v>1935000</v>
+        <v>2002600</v>
       </c>
       <c r="J61" s="3">
-        <v>1658800</v>
+        <v>1716800</v>
       </c>
       <c r="K61" s="3">
         <v>1619500</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2210500</v>
+        <v>2287800</v>
       </c>
       <c r="E62" s="3">
-        <v>2577300</v>
+        <v>2667400</v>
       </c>
       <c r="F62" s="3">
-        <v>2785300</v>
+        <v>2882600</v>
       </c>
       <c r="G62" s="3">
-        <v>1678400</v>
+        <v>1737100</v>
       </c>
       <c r="H62" s="3">
-        <v>1350800</v>
+        <v>1398000</v>
       </c>
       <c r="I62" s="3">
-        <v>1367900</v>
+        <v>1415800</v>
       </c>
       <c r="J62" s="3">
-        <v>1109300</v>
+        <v>1148100</v>
       </c>
       <c r="K62" s="3">
         <v>1089800</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6097200</v>
+        <v>6310300</v>
       </c>
       <c r="E66" s="3">
-        <v>6849400</v>
+        <v>7088900</v>
       </c>
       <c r="F66" s="3">
-        <v>6441000</v>
+        <v>6666200</v>
       </c>
       <c r="G66" s="3">
-        <v>8533900</v>
+        <v>8832200</v>
       </c>
       <c r="H66" s="3">
-        <v>5222400</v>
+        <v>5404900</v>
       </c>
       <c r="I66" s="3">
-        <v>5445400</v>
+        <v>5635700</v>
       </c>
       <c r="J66" s="3">
-        <v>5214800</v>
+        <v>5397100</v>
       </c>
       <c r="K66" s="3">
         <v>4674100</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2048300</v>
+        <v>2119900</v>
       </c>
       <c r="E72" s="3">
-        <v>1882200</v>
+        <v>1948000</v>
       </c>
       <c r="F72" s="3">
-        <v>2097500</v>
+        <v>2170900</v>
       </c>
       <c r="G72" s="3">
-        <v>1217500</v>
+        <v>1260000</v>
       </c>
       <c r="H72" s="3">
-        <v>1071800</v>
+        <v>1109200</v>
       </c>
       <c r="I72" s="3">
-        <v>972800</v>
+        <v>1006800</v>
       </c>
       <c r="J72" s="3">
-        <v>872300</v>
+        <v>902800</v>
       </c>
       <c r="K72" s="3">
         <v>511100</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3640100</v>
+        <v>3767300</v>
       </c>
       <c r="E76" s="3">
-        <v>3269000</v>
+        <v>3383200</v>
       </c>
       <c r="F76" s="3">
-        <v>3011800</v>
+        <v>3117100</v>
       </c>
       <c r="G76" s="3">
-        <v>2754700</v>
+        <v>2851000</v>
       </c>
       <c r="H76" s="3">
-        <v>2680200</v>
+        <v>2773900</v>
       </c>
       <c r="I76" s="3">
-        <v>2419100</v>
+        <v>2503700</v>
       </c>
       <c r="J76" s="3">
-        <v>2429100</v>
+        <v>2514000</v>
       </c>
       <c r="K76" s="3">
         <v>2223000</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>701800</v>
+        <v>726400</v>
       </c>
       <c r="E81" s="3">
-        <v>535800</v>
+        <v>554600</v>
       </c>
       <c r="F81" s="3">
-        <v>597500</v>
+        <v>618400</v>
       </c>
       <c r="G81" s="3">
-        <v>318100</v>
+        <v>329200</v>
       </c>
       <c r="H81" s="3">
-        <v>187300</v>
+        <v>193800</v>
       </c>
       <c r="I81" s="3">
-        <v>62600</v>
+        <v>64700</v>
       </c>
       <c r="J81" s="3">
-        <v>461800</v>
+        <v>478000</v>
       </c>
       <c r="K81" s="3">
         <v>618100</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>196300</v>
+        <v>203100</v>
       </c>
       <c r="E83" s="3">
-        <v>185000</v>
+        <v>191500</v>
       </c>
       <c r="F83" s="3">
-        <v>179300</v>
+        <v>185500</v>
       </c>
       <c r="G83" s="3">
-        <v>158900</v>
+        <v>164400</v>
       </c>
       <c r="H83" s="3">
-        <v>159000</v>
+        <v>164500</v>
       </c>
       <c r="I83" s="3">
-        <v>156100</v>
+        <v>161500</v>
       </c>
       <c r="J83" s="3">
-        <v>156200</v>
+        <v>161600</v>
       </c>
       <c r="K83" s="3">
         <v>157800</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>689100</v>
+        <v>713200</v>
       </c>
       <c r="E89" s="3">
-        <v>1610700</v>
+        <v>1667000</v>
       </c>
       <c r="F89" s="3">
-        <v>381100</v>
+        <v>394400</v>
       </c>
       <c r="G89" s="3">
-        <v>188600</v>
+        <v>195100</v>
       </c>
       <c r="H89" s="3">
-        <v>108400</v>
+        <v>112200</v>
       </c>
       <c r="I89" s="3">
-        <v>227000</v>
+        <v>234900</v>
       </c>
       <c r="J89" s="3">
-        <v>562600</v>
+        <v>582300</v>
       </c>
       <c r="K89" s="3">
         <v>735800</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-34100</v>
+        <v>-35300</v>
       </c>
       <c r="E91" s="3">
-        <v>-24900</v>
+        <v>-25800</v>
       </c>
       <c r="F91" s="3">
-        <v>-13200</v>
+        <v>-13600</v>
       </c>
       <c r="G91" s="3">
-        <v>-14400</v>
+        <v>-14900</v>
       </c>
       <c r="H91" s="3">
-        <v>-15500</v>
+        <v>-16100</v>
       </c>
       <c r="I91" s="3">
-        <v>-22400</v>
+        <v>-23200</v>
       </c>
       <c r="J91" s="3">
-        <v>-23500</v>
+        <v>-24300</v>
       </c>
       <c r="K91" s="3">
         <v>-24000</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>256500</v>
+        <v>265500</v>
       </c>
       <c r="E94" s="3">
-        <v>-949900</v>
+        <v>-983100</v>
       </c>
       <c r="F94" s="3">
-        <v>-222400</v>
+        <v>-230200</v>
       </c>
       <c r="G94" s="3">
-        <v>-39500</v>
+        <v>-40900</v>
       </c>
       <c r="H94" s="3">
-        <v>-72200</v>
+        <v>-74800</v>
       </c>
       <c r="I94" s="3">
-        <v>-114800</v>
+        <v>-118800</v>
       </c>
       <c r="J94" s="3">
-        <v>-601800</v>
+        <v>-622900</v>
       </c>
       <c r="K94" s="3">
         <v>-847100</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-265000</v>
+        <v>-274200</v>
       </c>
       <c r="E96" s="3">
-        <v>-111900</v>
+        <v>-115800</v>
       </c>
       <c r="F96" s="3">
-        <v>-131200</v>
+        <v>-135800</v>
       </c>
       <c r="G96" s="3">
-        <v>-95200</v>
+        <v>-98500</v>
       </c>
       <c r="H96" s="3">
-        <v>-101000</v>
+        <v>-104500</v>
       </c>
       <c r="I96" s="3">
-        <v>-126200</v>
+        <v>-130600</v>
       </c>
       <c r="J96" s="3">
-        <v>-149000</v>
+        <v>-154200</v>
       </c>
       <c r="K96" s="3">
         <v>-772000</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1105700</v>
+        <v>-1144300</v>
       </c>
       <c r="E100" s="3">
-        <v>-446700</v>
+        <v>-462300</v>
       </c>
       <c r="F100" s="3">
-        <v>-225100</v>
+        <v>-233000</v>
       </c>
       <c r="G100" s="3">
-        <v>-175200</v>
+        <v>-181300</v>
       </c>
       <c r="H100" s="3">
-        <v>-29600</v>
+        <v>-30700</v>
       </c>
       <c r="I100" s="3">
-        <v>-99000</v>
+        <v>-102500</v>
       </c>
       <c r="J100" s="3">
-        <v>46200</v>
+        <v>47800</v>
       </c>
       <c r="K100" s="3">
         <v>-147800</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-160000</v>
+        <v>-165600</v>
       </c>
       <c r="E102" s="3">
-        <v>214200</v>
+        <v>221600</v>
       </c>
       <c r="F102" s="3">
-        <v>-66400</v>
+        <v>-68700</v>
       </c>
       <c r="G102" s="3">
-        <v>-26100</v>
+        <v>-27000</v>
       </c>
       <c r="H102" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="I102" s="3">
-        <v>13200</v>
+        <v>13700</v>
       </c>
       <c r="J102" s="3">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="K102" s="3">
         <v>-259100</v>

--- a/AAII_Financials/Yearly/CIG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CIG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>CIG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6514900</v>
+        <v>6940800</v>
       </c>
       <c r="E8" s="3">
-        <v>4884800</v>
+        <v>6776300</v>
       </c>
       <c r="F8" s="3">
-        <v>4935000</v>
+        <v>5080800</v>
       </c>
       <c r="G8" s="3">
-        <v>4311400</v>
+        <v>5133100</v>
       </c>
       <c r="H8" s="3">
-        <v>4204000</v>
+        <v>4484400</v>
       </c>
       <c r="I8" s="3">
-        <v>3634900</v>
+        <v>4372700</v>
       </c>
       <c r="J8" s="3">
+        <v>3780800</v>
+      </c>
+      <c r="K8" s="3">
         <v>4234300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3850500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2590100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3301400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3177300</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5213300</v>
+        <v>5569100</v>
       </c>
       <c r="E9" s="3">
-        <v>3842500</v>
+        <v>5422500</v>
       </c>
       <c r="F9" s="3">
-        <v>3794900</v>
+        <v>3996700</v>
       </c>
       <c r="G9" s="3">
-        <v>3422800</v>
+        <v>3947200</v>
       </c>
       <c r="H9" s="3">
-        <v>3386000</v>
+        <v>3560200</v>
       </c>
       <c r="I9" s="3">
-        <v>2793900</v>
+        <v>3521900</v>
       </c>
       <c r="J9" s="3">
+        <v>2906000</v>
+      </c>
+      <c r="K9" s="3">
         <v>3072300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2522900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1743900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2379600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2529300</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1301600</v>
+        <v>1371700</v>
       </c>
       <c r="E10" s="3">
-        <v>1042300</v>
+        <v>1353900</v>
       </c>
       <c r="F10" s="3">
-        <v>1140200</v>
+        <v>1084100</v>
       </c>
       <c r="G10" s="3">
-        <v>888600</v>
+        <v>1185900</v>
       </c>
       <c r="H10" s="3">
-        <v>818000</v>
+        <v>924200</v>
       </c>
       <c r="I10" s="3">
-        <v>841100</v>
+        <v>850800</v>
       </c>
       <c r="J10" s="3">
+        <v>874800</v>
+      </c>
+      <c r="K10" s="3">
         <v>1162000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1327600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>846100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>921800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>648000</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,32 +944,35 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>23700</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -965,34 +984,37 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>1800</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>14500</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1006,9 +1028,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5210600</v>
+        <v>5795400</v>
       </c>
       <c r="E17" s="3">
-        <v>3973500</v>
+        <v>5419700</v>
       </c>
       <c r="F17" s="3">
-        <v>4313500</v>
+        <v>4234100</v>
       </c>
       <c r="G17" s="3">
-        <v>3828100</v>
+        <v>4486600</v>
       </c>
       <c r="H17" s="3">
-        <v>3692400</v>
+        <v>3981700</v>
       </c>
       <c r="I17" s="3">
-        <v>3285400</v>
+        <v>3840600</v>
       </c>
       <c r="J17" s="3">
+        <v>3417300</v>
+      </c>
+      <c r="K17" s="3">
         <v>3323800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2750800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1817600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2489900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2202000</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1304300</v>
+        <v>1145400</v>
       </c>
       <c r="E18" s="3">
-        <v>911300</v>
+        <v>1356700</v>
       </c>
       <c r="F18" s="3">
-        <v>621500</v>
+        <v>846700</v>
       </c>
       <c r="G18" s="3">
-        <v>483300</v>
+        <v>646500</v>
       </c>
       <c r="H18" s="3">
-        <v>511600</v>
+        <v>502700</v>
       </c>
       <c r="I18" s="3">
-        <v>349500</v>
+        <v>532200</v>
       </c>
       <c r="J18" s="3">
+        <v>363600</v>
+      </c>
+      <c r="K18" s="3">
         <v>910500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1099700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>772500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>811400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>975300</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-172600</v>
+        <v>-128600</v>
       </c>
       <c r="E20" s="3">
-        <v>52700</v>
+        <v>-179500</v>
       </c>
       <c r="F20" s="3">
-        <v>501000</v>
+        <v>156000</v>
       </c>
       <c r="G20" s="3">
-        <v>142900</v>
+        <v>521100</v>
       </c>
       <c r="H20" s="3">
-        <v>104000</v>
+        <v>148600</v>
       </c>
       <c r="I20" s="3">
-        <v>95100</v>
+        <v>108200</v>
       </c>
       <c r="J20" s="3">
+        <v>98900</v>
+      </c>
+      <c r="K20" s="3">
         <v>8800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-33500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>68900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>570000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>68500</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1335600</v>
+        <v>1256100</v>
       </c>
       <c r="E21" s="3">
-        <v>1156200</v>
+        <v>1389500</v>
       </c>
       <c r="F21" s="3">
-        <v>1308700</v>
+        <v>1202900</v>
       </c>
       <c r="G21" s="3">
-        <v>791200</v>
+        <v>1361500</v>
       </c>
       <c r="H21" s="3">
-        <v>780800</v>
+        <v>823200</v>
       </c>
       <c r="I21" s="3">
-        <v>606800</v>
+        <v>812400</v>
       </c>
       <c r="J21" s="3">
+        <v>631400</v>
+      </c>
+      <c r="K21" s="3">
         <v>1081500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1225900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>987900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1561600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1240600</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>222000</v>
+        <v>186900</v>
       </c>
       <c r="E22" s="3">
-        <v>228100</v>
+        <v>230900</v>
       </c>
       <c r="F22" s="3">
-        <v>237600</v>
+        <v>237200</v>
       </c>
       <c r="G22" s="3">
-        <v>243300</v>
+        <v>247100</v>
       </c>
       <c r="H22" s="3">
-        <v>296900</v>
+        <v>253100</v>
       </c>
       <c r="I22" s="3">
-        <v>373400</v>
+        <v>308900</v>
       </c>
       <c r="J22" s="3">
+        <v>388400</v>
+      </c>
+      <c r="K22" s="3">
         <v>268400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>183400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>123600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>189500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>232500</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>909700</v>
+        <v>829900</v>
       </c>
       <c r="E23" s="3">
-        <v>736000</v>
+        <v>946200</v>
       </c>
       <c r="F23" s="3">
-        <v>884900</v>
+        <v>765500</v>
       </c>
       <c r="G23" s="3">
-        <v>382900</v>
+        <v>920400</v>
       </c>
       <c r="H23" s="3">
-        <v>318700</v>
+        <v>398300</v>
       </c>
       <c r="I23" s="3">
-        <v>71200</v>
+        <v>331500</v>
       </c>
       <c r="J23" s="3">
+        <v>74100</v>
+      </c>
+      <c r="K23" s="3">
         <v>650900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>882700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>717800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1191900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>811200</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>183000</v>
+        <v>5300</v>
       </c>
       <c r="E24" s="3">
-        <v>181200</v>
+        <v>190400</v>
       </c>
       <c r="F24" s="3">
-        <v>309800</v>
+        <v>188500</v>
       </c>
       <c r="G24" s="3">
-        <v>116000</v>
+        <v>322200</v>
       </c>
       <c r="H24" s="3">
-        <v>124700</v>
+        <v>120700</v>
       </c>
       <c r="I24" s="3">
-        <v>6400</v>
+        <v>129800</v>
       </c>
       <c r="J24" s="3">
+        <v>6700</v>
+      </c>
+      <c r="K24" s="3">
         <v>172800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>264600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>168200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>194400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>192000</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>726700</v>
+        <v>824600</v>
       </c>
       <c r="E26" s="3">
-        <v>554800</v>
+        <v>755800</v>
       </c>
       <c r="F26" s="3">
-        <v>575100</v>
+        <v>577000</v>
       </c>
       <c r="G26" s="3">
-        <v>266900</v>
+        <v>598200</v>
       </c>
       <c r="H26" s="3">
-        <v>193900</v>
+        <v>277600</v>
       </c>
       <c r="I26" s="3">
-        <v>64800</v>
+        <v>201700</v>
       </c>
       <c r="J26" s="3">
+        <v>67400</v>
+      </c>
+      <c r="K26" s="3">
         <v>478100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>618200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>549600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>997500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>619200</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>726400</v>
+        <v>824200</v>
       </c>
       <c r="E27" s="3">
-        <v>554600</v>
+        <v>755500</v>
       </c>
       <c r="F27" s="3">
-        <v>575000</v>
+        <v>576800</v>
       </c>
       <c r="G27" s="3">
-        <v>258800</v>
+        <v>598100</v>
       </c>
       <c r="H27" s="3">
-        <v>193800</v>
+        <v>269200</v>
       </c>
       <c r="I27" s="3">
-        <v>64700</v>
+        <v>201600</v>
       </c>
       <c r="J27" s="3">
+        <v>67300</v>
+      </c>
+      <c r="K27" s="3">
         <v>478000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>618100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>549600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>997500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>619200</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,26 +1523,29 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>43400</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>70400</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
+        <v>45100</v>
+      </c>
+      <c r="H29" s="3">
+        <v>73200</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1502,12 +1562,15 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>172600</v>
+        <v>128600</v>
       </c>
       <c r="E32" s="3">
-        <v>-52700</v>
+        <v>179500</v>
       </c>
       <c r="F32" s="3">
-        <v>-501000</v>
+        <v>-156000</v>
       </c>
       <c r="G32" s="3">
-        <v>-142900</v>
+        <v>-521100</v>
       </c>
       <c r="H32" s="3">
-        <v>-104000</v>
+        <v>-148600</v>
       </c>
       <c r="I32" s="3">
-        <v>-95100</v>
+        <v>-108200</v>
       </c>
       <c r="J32" s="3">
+        <v>-98900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-8800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>33500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-68900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-570000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-68500</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>726400</v>
+        <v>824200</v>
       </c>
       <c r="E33" s="3">
-        <v>554600</v>
+        <v>755500</v>
       </c>
       <c r="F33" s="3">
-        <v>618400</v>
+        <v>576800</v>
       </c>
       <c r="G33" s="3">
-        <v>329200</v>
+        <v>643200</v>
       </c>
       <c r="H33" s="3">
-        <v>193800</v>
+        <v>342400</v>
       </c>
       <c r="I33" s="3">
-        <v>64700</v>
+        <v>201600</v>
       </c>
       <c r="J33" s="3">
+        <v>67300</v>
+      </c>
+      <c r="K33" s="3">
         <v>478000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>618100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>549600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>997500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>619200</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>726400</v>
+        <v>824200</v>
       </c>
       <c r="E35" s="3">
-        <v>554600</v>
+        <v>755500</v>
       </c>
       <c r="F35" s="3">
-        <v>618400</v>
+        <v>576800</v>
       </c>
       <c r="G35" s="3">
-        <v>329200</v>
+        <v>643200</v>
       </c>
       <c r="H35" s="3">
-        <v>193800</v>
+        <v>342400</v>
       </c>
       <c r="I35" s="3">
-        <v>64700</v>
+        <v>201600</v>
       </c>
       <c r="J35" s="3">
+        <v>67300</v>
+      </c>
+      <c r="K35" s="3">
         <v>478000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>618100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>549600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>997500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>619200</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,125 +1903,135 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>159800</v>
+        <v>290100</v>
       </c>
       <c r="E41" s="3">
-        <v>325400</v>
+        <v>166200</v>
       </c>
       <c r="F41" s="3">
-        <v>103700</v>
+        <v>338400</v>
       </c>
       <c r="G41" s="3">
-        <v>345000</v>
+        <v>107900</v>
       </c>
       <c r="H41" s="3">
-        <v>199500</v>
+        <v>358800</v>
       </c>
       <c r="I41" s="3">
-        <v>192700</v>
+        <v>207500</v>
       </c>
       <c r="J41" s="3">
+        <v>200400</v>
+      </c>
+      <c r="K41" s="3">
         <v>179000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>174800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>389900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>448200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>539400</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>333800</v>
+        <v>351400</v>
       </c>
       <c r="E42" s="3">
-        <v>650600</v>
+        <v>347200</v>
       </c>
       <c r="F42" s="3">
-        <v>145700</v>
+        <v>676800</v>
       </c>
       <c r="G42" s="3">
-        <v>153800</v>
+        <v>151600</v>
       </c>
       <c r="H42" s="3">
-        <v>225500</v>
+        <v>160000</v>
       </c>
       <c r="I42" s="3">
-        <v>267500</v>
+        <v>234600</v>
       </c>
       <c r="J42" s="3">
+        <v>278300</v>
+      </c>
+      <c r="K42" s="3">
         <v>469900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>196100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>165600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>548200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>102900</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1600500</v>
+        <v>1720600</v>
       </c>
       <c r="E43" s="3">
-        <v>1534600</v>
+        <v>1664800</v>
       </c>
       <c r="F43" s="3">
-        <v>1253700</v>
+        <v>1596200</v>
       </c>
       <c r="G43" s="3">
-        <v>1159000</v>
+        <v>1304000</v>
       </c>
       <c r="H43" s="3">
-        <v>993800</v>
+        <v>1205500</v>
       </c>
       <c r="I43" s="3">
-        <v>953700</v>
+        <v>1033700</v>
       </c>
       <c r="J43" s="3">
+        <v>992000</v>
+      </c>
+      <c r="K43" s="3">
         <v>1688400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>677700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>587300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1341700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>976000</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,231 +2041,249 @@
       <c r="E44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="3">
-        <v>7600</v>
+      <c r="F44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G44" s="3">
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="H44" s="3">
-        <v>7400</v>
+        <v>7200</v>
       </c>
       <c r="I44" s="3">
+        <v>7700</v>
+      </c>
+      <c r="J44" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K44" s="3">
+        <v>7200</v>
+      </c>
+      <c r="L44" s="3">
+        <v>7900</v>
+      </c>
+      <c r="M44" s="3">
+        <v>6700</v>
+      </c>
+      <c r="N44" s="3">
         <v>9600</v>
       </c>
-      <c r="J44" s="3">
-        <v>7200</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="O44" s="3">
         <v>7900</v>
       </c>
-      <c r="L44" s="3">
-        <v>6700</v>
-      </c>
-      <c r="M44" s="3">
-        <v>9600</v>
-      </c>
-      <c r="N44" s="3">
-        <v>7900</v>
-      </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>413200</v>
+        <v>349800</v>
       </c>
       <c r="E45" s="3">
-        <v>482100</v>
+        <v>429800</v>
       </c>
       <c r="F45" s="3">
-        <v>576100</v>
+        <v>501500</v>
       </c>
       <c r="G45" s="3">
-        <v>4077000</v>
+        <v>599300</v>
       </c>
       <c r="H45" s="3">
-        <v>226900</v>
+        <v>4240600</v>
       </c>
       <c r="I45" s="3">
-        <v>180800</v>
+        <v>236000</v>
       </c>
       <c r="J45" s="3">
+        <v>188100</v>
+      </c>
+      <c r="K45" s="3">
         <v>199900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>235100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>31300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>72000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>287900</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2507300</v>
+        <v>2711900</v>
       </c>
       <c r="E46" s="3">
-        <v>2992800</v>
+        <v>2608000</v>
       </c>
       <c r="F46" s="3">
-        <v>2004600</v>
+        <v>3112900</v>
       </c>
       <c r="G46" s="3">
-        <v>5415100</v>
+        <v>2085000</v>
       </c>
       <c r="H46" s="3">
-        <v>1653100</v>
+        <v>5632400</v>
       </c>
       <c r="I46" s="3">
-        <v>1604300</v>
+        <v>1719400</v>
       </c>
       <c r="J46" s="3">
+        <v>1668700</v>
+      </c>
+      <c r="K46" s="3">
         <v>1815600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1291600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1180800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2055900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1478800</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3836700</v>
+        <v>3831300</v>
       </c>
       <c r="E47" s="3">
-        <v>3740600</v>
+        <v>3990700</v>
       </c>
       <c r="F47" s="3">
-        <v>4247400</v>
+        <v>3890800</v>
       </c>
       <c r="G47" s="3">
-        <v>4119800</v>
+        <v>4417800</v>
       </c>
       <c r="H47" s="3">
-        <v>3465500</v>
+        <v>4285100</v>
       </c>
       <c r="I47" s="3">
-        <v>3316700</v>
+        <v>3604500</v>
       </c>
       <c r="J47" s="3">
+        <v>3449800</v>
+      </c>
+      <c r="K47" s="3">
         <v>3041200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3601700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2497200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3381200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3724200</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>512100</v>
+        <v>551500</v>
       </c>
       <c r="E48" s="3">
-        <v>507200</v>
+        <v>532700</v>
       </c>
       <c r="F48" s="3">
-        <v>528000</v>
+        <v>527500</v>
       </c>
       <c r="G48" s="3">
-        <v>1030700</v>
+        <v>549200</v>
       </c>
       <c r="H48" s="3">
-        <v>534900</v>
+        <v>1072100</v>
       </c>
       <c r="I48" s="3">
-        <v>731000</v>
+        <v>556300</v>
       </c>
       <c r="J48" s="3">
+        <v>760300</v>
+      </c>
+      <c r="K48" s="3">
         <v>763000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1092400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1030100</v>
       </c>
-      <c r="M48" s="3" t="s">
+      <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3859500</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2508200</v>
+        <v>2944800</v>
       </c>
       <c r="E49" s="3">
-        <v>2286800</v>
+        <v>2608800</v>
       </c>
       <c r="F49" s="3">
-        <v>2250800</v>
+        <v>2378500</v>
       </c>
       <c r="G49" s="3">
-        <v>4173600</v>
+        <v>2341200</v>
       </c>
       <c r="H49" s="3">
-        <v>2160100</v>
+        <v>4341100</v>
       </c>
       <c r="I49" s="3">
-        <v>2095000</v>
+        <v>2246800</v>
       </c>
       <c r="J49" s="3">
+        <v>2179100</v>
+      </c>
+      <c r="K49" s="3">
         <v>1989600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>665900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>354800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>875400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2101100</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>713300</v>
+        <v>769800</v>
       </c>
       <c r="E52" s="3">
-        <v>944800</v>
+        <v>741900</v>
       </c>
       <c r="F52" s="3">
-        <v>752400</v>
+        <v>982700</v>
       </c>
       <c r="G52" s="3">
-        <v>576600</v>
+        <v>782600</v>
       </c>
       <c r="H52" s="3">
-        <v>365300</v>
+        <v>599700</v>
       </c>
       <c r="I52" s="3">
-        <v>392400</v>
+        <v>380000</v>
       </c>
       <c r="J52" s="3">
+        <v>408100</v>
+      </c>
+      <c r="K52" s="3">
         <v>301800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>245500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>216200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>304500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>565800</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10077600</v>
+        <v>10809300</v>
       </c>
       <c r="E54" s="3">
-        <v>10472100</v>
+        <v>10482000</v>
       </c>
       <c r="F54" s="3">
-        <v>9783300</v>
+        <v>10892300</v>
       </c>
       <c r="G54" s="3">
-        <v>11683200</v>
+        <v>10175900</v>
       </c>
       <c r="H54" s="3">
-        <v>8178900</v>
+        <v>12152000</v>
       </c>
       <c r="I54" s="3">
-        <v>8139400</v>
+        <v>8507100</v>
       </c>
       <c r="J54" s="3">
+        <v>8466000</v>
+      </c>
+      <c r="K54" s="3">
         <v>7911200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6897100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5279200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7605700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7594200</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>519600</v>
+        <v>570400</v>
       </c>
       <c r="E57" s="3">
-        <v>456600</v>
+        <v>540400</v>
       </c>
       <c r="F57" s="3">
-        <v>402700</v>
+        <v>475000</v>
       </c>
       <c r="G57" s="3">
-        <v>348800</v>
+        <v>418900</v>
       </c>
       <c r="H57" s="3">
-        <v>453600</v>
+        <v>362800</v>
       </c>
       <c r="I57" s="3">
-        <v>375600</v>
+        <v>471800</v>
       </c>
       <c r="J57" s="3">
+        <v>390600</v>
+      </c>
+      <c r="K57" s="3">
         <v>368100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>316000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>188800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>305000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>216400</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>295600</v>
+        <v>204000</v>
       </c>
       <c r="E58" s="3">
-        <v>408000</v>
+        <v>307500</v>
       </c>
       <c r="F58" s="3">
-        <v>548200</v>
+        <v>424400</v>
       </c>
       <c r="G58" s="3">
-        <v>425500</v>
+        <v>570200</v>
       </c>
       <c r="H58" s="3">
-        <v>459000</v>
+        <v>442600</v>
       </c>
       <c r="I58" s="3">
-        <v>936600</v>
+        <v>477400</v>
       </c>
       <c r="J58" s="3">
+        <v>974200</v>
+      </c>
+      <c r="K58" s="3">
         <v>1219900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1042600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>396200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1510000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2271100</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1254200</v>
+        <v>1482300</v>
       </c>
       <c r="E59" s="3">
-        <v>1011700</v>
+        <v>1304600</v>
       </c>
       <c r="F59" s="3">
-        <v>592900</v>
+        <v>1052300</v>
       </c>
       <c r="G59" s="3">
-        <v>3779200</v>
+        <v>616700</v>
       </c>
       <c r="H59" s="3">
-        <v>764600</v>
+        <v>3930900</v>
       </c>
       <c r="I59" s="3">
-        <v>904400</v>
+        <v>795300</v>
       </c>
       <c r="J59" s="3">
+        <v>940700</v>
+      </c>
+      <c r="K59" s="3">
         <v>943500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>636300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>463500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1173700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>877400</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2069400</v>
+        <v>2256700</v>
       </c>
       <c r="E60" s="3">
-        <v>1876300</v>
+        <v>2152500</v>
       </c>
       <c r="F60" s="3">
-        <v>1542200</v>
+        <v>1951600</v>
       </c>
       <c r="G60" s="3">
-        <v>4538100</v>
+        <v>1604100</v>
       </c>
       <c r="H60" s="3">
-        <v>1677300</v>
+        <v>4720200</v>
       </c>
       <c r="I60" s="3">
-        <v>2216600</v>
+        <v>1744600</v>
       </c>
       <c r="J60" s="3">
+        <v>2305500</v>
+      </c>
+      <c r="K60" s="3">
         <v>2531500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1994900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1048500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2988700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2076400</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1952000</v>
+        <v>1998100</v>
       </c>
       <c r="E61" s="3">
-        <v>2544300</v>
+        <v>2030400</v>
       </c>
       <c r="F61" s="3">
-        <v>2368600</v>
+        <v>2646400</v>
       </c>
       <c r="G61" s="3">
-        <v>2434800</v>
+        <v>2463600</v>
       </c>
       <c r="H61" s="3">
-        <v>2328800</v>
+        <v>2532500</v>
       </c>
       <c r="I61" s="3">
-        <v>2002600</v>
+        <v>2422300</v>
       </c>
       <c r="J61" s="3">
+        <v>2083000</v>
+      </c>
+      <c r="K61" s="3">
         <v>1716800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1619500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1278400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>922300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1538300</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2287800</v>
+        <v>2167300</v>
       </c>
       <c r="E62" s="3">
-        <v>2667400</v>
+        <v>2379600</v>
       </c>
       <c r="F62" s="3">
-        <v>2882600</v>
+        <v>2774400</v>
       </c>
       <c r="G62" s="3">
-        <v>1737100</v>
+        <v>2998300</v>
       </c>
       <c r="H62" s="3">
-        <v>1398000</v>
+        <v>1806800</v>
       </c>
       <c r="I62" s="3">
-        <v>1415800</v>
+        <v>1454100</v>
       </c>
       <c r="J62" s="3">
+        <v>1472600</v>
+      </c>
+      <c r="K62" s="3">
         <v>1148100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1089800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>714400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>998900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1356400</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6310300</v>
+        <v>6423300</v>
       </c>
       <c r="E66" s="3">
-        <v>7088900</v>
+        <v>6563500</v>
       </c>
       <c r="F66" s="3">
-        <v>6666200</v>
+        <v>7373300</v>
       </c>
       <c r="G66" s="3">
-        <v>8832200</v>
+        <v>6933700</v>
       </c>
       <c r="H66" s="3">
-        <v>5404900</v>
+        <v>9186600</v>
       </c>
       <c r="I66" s="3">
-        <v>5635700</v>
+        <v>5621800</v>
       </c>
       <c r="J66" s="3">
+        <v>5861900</v>
+      </c>
+      <c r="K66" s="3">
         <v>5397100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4674100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3041300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4908600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4603300</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2119900</v>
+        <v>2093500</v>
       </c>
       <c r="E72" s="3">
-        <v>1948000</v>
+        <v>2204900</v>
       </c>
       <c r="F72" s="3">
-        <v>2170900</v>
+        <v>2026200</v>
       </c>
       <c r="G72" s="3">
-        <v>1260000</v>
+        <v>2258000</v>
       </c>
       <c r="H72" s="3">
-        <v>1109200</v>
+        <v>1310600</v>
       </c>
       <c r="I72" s="3">
-        <v>1006800</v>
+        <v>1153700</v>
       </c>
       <c r="J72" s="3">
+        <v>1047300</v>
+      </c>
+      <c r="K72" s="3">
         <v>902800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>511100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>679900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2257300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2702200</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3767300</v>
+        <v>4386000</v>
       </c>
       <c r="E76" s="3">
-        <v>3383200</v>
+        <v>3918500</v>
       </c>
       <c r="F76" s="3">
-        <v>3117100</v>
+        <v>3519000</v>
       </c>
       <c r="G76" s="3">
-        <v>2851000</v>
+        <v>3242200</v>
       </c>
       <c r="H76" s="3">
-        <v>2773900</v>
+        <v>2965400</v>
       </c>
       <c r="I76" s="3">
-        <v>2503700</v>
+        <v>2885300</v>
       </c>
       <c r="J76" s="3">
+        <v>2604200</v>
+      </c>
+      <c r="K76" s="3">
         <v>2514000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2223000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2237900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2697200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2990900</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>726400</v>
+        <v>824200</v>
       </c>
       <c r="E81" s="3">
-        <v>554600</v>
+        <v>755500</v>
       </c>
       <c r="F81" s="3">
-        <v>618400</v>
+        <v>576800</v>
       </c>
       <c r="G81" s="3">
-        <v>329200</v>
+        <v>643200</v>
       </c>
       <c r="H81" s="3">
-        <v>193800</v>
+        <v>342400</v>
       </c>
       <c r="I81" s="3">
-        <v>64700</v>
+        <v>201600</v>
       </c>
       <c r="J81" s="3">
+        <v>67300</v>
+      </c>
+      <c r="K81" s="3">
         <v>478000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>618100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>549600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>997500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>619200</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>203100</v>
+        <v>238100</v>
       </c>
       <c r="E83" s="3">
-        <v>191500</v>
+        <v>211300</v>
       </c>
       <c r="F83" s="3">
-        <v>185500</v>
+        <v>199200</v>
       </c>
       <c r="G83" s="3">
-        <v>164400</v>
+        <v>193000</v>
       </c>
       <c r="H83" s="3">
-        <v>164500</v>
+        <v>171000</v>
       </c>
       <c r="I83" s="3">
-        <v>161500</v>
+        <v>171100</v>
       </c>
       <c r="J83" s="3">
+        <v>168000</v>
+      </c>
+      <c r="K83" s="3">
         <v>161600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>157800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>145800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>178200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>201500</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>713200</v>
+        <v>1331900</v>
       </c>
       <c r="E89" s="3">
-        <v>1667000</v>
+        <v>741800</v>
       </c>
       <c r="F89" s="3">
-        <v>394400</v>
+        <v>1733900</v>
       </c>
       <c r="G89" s="3">
-        <v>195100</v>
+        <v>410200</v>
       </c>
       <c r="H89" s="3">
-        <v>112200</v>
+        <v>203000</v>
       </c>
       <c r="I89" s="3">
-        <v>234900</v>
+        <v>116700</v>
       </c>
       <c r="J89" s="3">
+        <v>244400</v>
+      </c>
+      <c r="K89" s="3">
         <v>582300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>735800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>622400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>566800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>939400</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-35300</v>
+        <v>-34900</v>
       </c>
       <c r="E91" s="3">
-        <v>-25800</v>
+        <v>-36800</v>
       </c>
       <c r="F91" s="3">
-        <v>-13600</v>
+        <v>-26800</v>
       </c>
       <c r="G91" s="3">
-        <v>-14900</v>
+        <v>-14200</v>
       </c>
       <c r="H91" s="3">
-        <v>-16100</v>
+        <v>-15500</v>
       </c>
       <c r="I91" s="3">
-        <v>-23200</v>
+        <v>-16700</v>
       </c>
       <c r="J91" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-24300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-24000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-12300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-25400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-24400</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>265500</v>
+        <v>-645700</v>
       </c>
       <c r="E94" s="3">
-        <v>-983100</v>
+        <v>276200</v>
       </c>
       <c r="F94" s="3">
-        <v>-230200</v>
+        <v>-1022500</v>
       </c>
       <c r="G94" s="3">
-        <v>-40900</v>
+        <v>-239400</v>
       </c>
       <c r="H94" s="3">
-        <v>-74800</v>
+        <v>-42500</v>
       </c>
       <c r="I94" s="3">
-        <v>-118800</v>
+        <v>-77800</v>
       </c>
       <c r="J94" s="3">
+        <v>-123600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-622900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-847100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>443200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-118000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-644800</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-274200</v>
+        <v>-421700</v>
       </c>
       <c r="E96" s="3">
-        <v>-115800</v>
+        <v>-285200</v>
       </c>
       <c r="F96" s="3">
-        <v>-135800</v>
+        <v>-120500</v>
       </c>
       <c r="G96" s="3">
-        <v>-98500</v>
+        <v>-141200</v>
       </c>
       <c r="H96" s="3">
-        <v>-104500</v>
+        <v>-102500</v>
       </c>
       <c r="I96" s="3">
-        <v>-130600</v>
+        <v>-108700</v>
       </c>
       <c r="J96" s="3">
+        <v>-135900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-154200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-772000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-814600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-408100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-522000</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,48 +4155,54 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1144300</v>
+        <v>-562200</v>
       </c>
       <c r="E100" s="3">
-        <v>-462300</v>
+        <v>-1190200</v>
       </c>
       <c r="F100" s="3">
-        <v>-233000</v>
+        <v>-480800</v>
       </c>
       <c r="G100" s="3">
-        <v>-181300</v>
+        <v>-242300</v>
       </c>
       <c r="H100" s="3">
-        <v>-30700</v>
+        <v>-188600</v>
       </c>
       <c r="I100" s="3">
-        <v>-102500</v>
+        <v>-31900</v>
       </c>
       <c r="J100" s="3">
+        <v>-106600</v>
+      </c>
+      <c r="K100" s="3">
         <v>47800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-147800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1015500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-492000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-453500</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3991,46 +4239,52 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-165600</v>
+        <v>124000</v>
       </c>
       <c r="E102" s="3">
-        <v>221600</v>
+        <v>-172200</v>
       </c>
       <c r="F102" s="3">
-        <v>-68700</v>
+        <v>230500</v>
       </c>
       <c r="G102" s="3">
-        <v>-27000</v>
+        <v>-71500</v>
       </c>
       <c r="H102" s="3">
-        <v>6800</v>
+        <v>-28100</v>
       </c>
       <c r="I102" s="3">
-        <v>13700</v>
+        <v>7100</v>
       </c>
       <c r="J102" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K102" s="3">
         <v>7300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-259100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>50100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-43100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-159000</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CIG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CIG_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6940800</v>
+        <v>6956000</v>
       </c>
       <c r="E8" s="3">
-        <v>6776300</v>
+        <v>6791100</v>
       </c>
       <c r="F8" s="3">
-        <v>5080800</v>
+        <v>5091900</v>
       </c>
       <c r="G8" s="3">
-        <v>5133100</v>
+        <v>5144300</v>
       </c>
       <c r="H8" s="3">
-        <v>4484400</v>
+        <v>4494200</v>
       </c>
       <c r="I8" s="3">
-        <v>4372700</v>
+        <v>4382300</v>
       </c>
       <c r="J8" s="3">
-        <v>3780800</v>
+        <v>3789100</v>
       </c>
       <c r="K8" s="3">
         <v>4234300</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5569100</v>
+        <v>5581300</v>
       </c>
       <c r="E9" s="3">
-        <v>5422500</v>
+        <v>5434300</v>
       </c>
       <c r="F9" s="3">
-        <v>3996700</v>
+        <v>4005500</v>
       </c>
       <c r="G9" s="3">
-        <v>3947200</v>
+        <v>3955800</v>
       </c>
       <c r="H9" s="3">
-        <v>3560200</v>
+        <v>3568000</v>
       </c>
       <c r="I9" s="3">
-        <v>3521900</v>
+        <v>3529600</v>
       </c>
       <c r="J9" s="3">
-        <v>2906000</v>
+        <v>2912300</v>
       </c>
       <c r="K9" s="3">
         <v>3072300</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1371700</v>
+        <v>1374700</v>
       </c>
       <c r="E10" s="3">
-        <v>1353900</v>
+        <v>1356800</v>
       </c>
       <c r="F10" s="3">
-        <v>1084100</v>
+        <v>1086500</v>
       </c>
       <c r="G10" s="3">
-        <v>1185900</v>
+        <v>1188500</v>
       </c>
       <c r="H10" s="3">
-        <v>924200</v>
+        <v>926200</v>
       </c>
       <c r="I10" s="3">
-        <v>850800</v>
+        <v>852700</v>
       </c>
       <c r="J10" s="3">
-        <v>874800</v>
+        <v>876800</v>
       </c>
       <c r="K10" s="3">
         <v>1162000</v>
@@ -954,7 +954,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>23700</v>
+        <v>23800</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5795400</v>
+        <v>5808100</v>
       </c>
       <c r="E17" s="3">
-        <v>5419700</v>
+        <v>5431500</v>
       </c>
       <c r="F17" s="3">
-        <v>4234100</v>
+        <v>4243400</v>
       </c>
       <c r="G17" s="3">
-        <v>4486600</v>
+        <v>4496400</v>
       </c>
       <c r="H17" s="3">
-        <v>3981700</v>
+        <v>3990400</v>
       </c>
       <c r="I17" s="3">
-        <v>3840600</v>
+        <v>3848900</v>
       </c>
       <c r="J17" s="3">
-        <v>3417300</v>
+        <v>3424700</v>
       </c>
       <c r="K17" s="3">
         <v>3323800</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1145400</v>
+        <v>1147900</v>
       </c>
       <c r="E18" s="3">
-        <v>1356700</v>
+        <v>1359600</v>
       </c>
       <c r="F18" s="3">
-        <v>846700</v>
+        <v>848600</v>
       </c>
       <c r="G18" s="3">
-        <v>646500</v>
+        <v>647900</v>
       </c>
       <c r="H18" s="3">
-        <v>502700</v>
+        <v>503800</v>
       </c>
       <c r="I18" s="3">
-        <v>532200</v>
+        <v>533300</v>
       </c>
       <c r="J18" s="3">
-        <v>363600</v>
+        <v>364300</v>
       </c>
       <c r="K18" s="3">
         <v>910500</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-128600</v>
+        <v>-128900</v>
       </c>
       <c r="E20" s="3">
-        <v>-179500</v>
+        <v>-179900</v>
       </c>
       <c r="F20" s="3">
-        <v>156000</v>
+        <v>156300</v>
       </c>
       <c r="G20" s="3">
-        <v>521100</v>
+        <v>522200</v>
       </c>
       <c r="H20" s="3">
-        <v>148600</v>
+        <v>149000</v>
       </c>
       <c r="I20" s="3">
-        <v>108200</v>
+        <v>108400</v>
       </c>
       <c r="J20" s="3">
-        <v>98900</v>
+        <v>99100</v>
       </c>
       <c r="K20" s="3">
         <v>8800</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1256100</v>
+        <v>1257600</v>
       </c>
       <c r="E21" s="3">
-        <v>1389500</v>
+        <v>1391500</v>
       </c>
       <c r="F21" s="3">
-        <v>1202900</v>
+        <v>1204500</v>
       </c>
       <c r="G21" s="3">
-        <v>1361500</v>
+        <v>1363500</v>
       </c>
       <c r="H21" s="3">
-        <v>823200</v>
+        <v>824100</v>
       </c>
       <c r="I21" s="3">
-        <v>812400</v>
+        <v>813300</v>
       </c>
       <c r="J21" s="3">
-        <v>631400</v>
+        <v>631900</v>
       </c>
       <c r="K21" s="3">
         <v>1081500</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>186900</v>
+        <v>187300</v>
       </c>
       <c r="E22" s="3">
-        <v>230900</v>
+        <v>231400</v>
       </c>
       <c r="F22" s="3">
-        <v>237200</v>
+        <v>237700</v>
       </c>
       <c r="G22" s="3">
-        <v>247100</v>
+        <v>247600</v>
       </c>
       <c r="H22" s="3">
-        <v>253100</v>
+        <v>253600</v>
       </c>
       <c r="I22" s="3">
-        <v>308900</v>
+        <v>309500</v>
       </c>
       <c r="J22" s="3">
-        <v>388400</v>
+        <v>389200</v>
       </c>
       <c r="K22" s="3">
         <v>268400</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>829900</v>
+        <v>831700</v>
       </c>
       <c r="E23" s="3">
-        <v>946200</v>
+        <v>948300</v>
       </c>
       <c r="F23" s="3">
-        <v>765500</v>
+        <v>767200</v>
       </c>
       <c r="G23" s="3">
-        <v>920400</v>
+        <v>922400</v>
       </c>
       <c r="H23" s="3">
-        <v>398300</v>
+        <v>399100</v>
       </c>
       <c r="I23" s="3">
-        <v>331500</v>
+        <v>332200</v>
       </c>
       <c r="J23" s="3">
-        <v>74100</v>
+        <v>74300</v>
       </c>
       <c r="K23" s="3">
         <v>650900</v>
@@ -1326,19 +1326,19 @@
         <v>5300</v>
       </c>
       <c r="E24" s="3">
-        <v>190400</v>
+        <v>190800</v>
       </c>
       <c r="F24" s="3">
-        <v>188500</v>
+        <v>188900</v>
       </c>
       <c r="G24" s="3">
-        <v>322200</v>
+        <v>322900</v>
       </c>
       <c r="H24" s="3">
-        <v>120700</v>
+        <v>120900</v>
       </c>
       <c r="I24" s="3">
-        <v>129800</v>
+        <v>130000</v>
       </c>
       <c r="J24" s="3">
         <v>6700</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>824600</v>
+        <v>826400</v>
       </c>
       <c r="E26" s="3">
-        <v>755800</v>
+        <v>757500</v>
       </c>
       <c r="F26" s="3">
-        <v>577000</v>
+        <v>578300</v>
       </c>
       <c r="G26" s="3">
-        <v>598200</v>
+        <v>599500</v>
       </c>
       <c r="H26" s="3">
-        <v>277600</v>
+        <v>278200</v>
       </c>
       <c r="I26" s="3">
-        <v>201700</v>
+        <v>202200</v>
       </c>
       <c r="J26" s="3">
-        <v>67400</v>
+        <v>67600</v>
       </c>
       <c r="K26" s="3">
         <v>478100</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>824200</v>
+        <v>826000</v>
       </c>
       <c r="E27" s="3">
-        <v>755500</v>
+        <v>757200</v>
       </c>
       <c r="F27" s="3">
-        <v>576800</v>
+        <v>578100</v>
       </c>
       <c r="G27" s="3">
-        <v>598100</v>
+        <v>599400</v>
       </c>
       <c r="H27" s="3">
-        <v>269200</v>
+        <v>269800</v>
       </c>
       <c r="I27" s="3">
-        <v>201600</v>
+        <v>202000</v>
       </c>
       <c r="J27" s="3">
-        <v>67300</v>
+        <v>67500</v>
       </c>
       <c r="K27" s="3">
         <v>478000</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>45100</v>
+        <v>45200</v>
       </c>
       <c r="H29" s="3">
-        <v>73200</v>
+        <v>73400</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>128600</v>
+        <v>128900</v>
       </c>
       <c r="E32" s="3">
-        <v>179500</v>
+        <v>179900</v>
       </c>
       <c r="F32" s="3">
-        <v>-156000</v>
+        <v>-156300</v>
       </c>
       <c r="G32" s="3">
-        <v>-521100</v>
+        <v>-522200</v>
       </c>
       <c r="H32" s="3">
-        <v>-148600</v>
+        <v>-149000</v>
       </c>
       <c r="I32" s="3">
-        <v>-108200</v>
+        <v>-108400</v>
       </c>
       <c r="J32" s="3">
-        <v>-98900</v>
+        <v>-99100</v>
       </c>
       <c r="K32" s="3">
         <v>-8800</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>824200</v>
+        <v>826000</v>
       </c>
       <c r="E33" s="3">
-        <v>755500</v>
+        <v>757200</v>
       </c>
       <c r="F33" s="3">
-        <v>576800</v>
+        <v>578100</v>
       </c>
       <c r="G33" s="3">
-        <v>643200</v>
+        <v>644600</v>
       </c>
       <c r="H33" s="3">
-        <v>342400</v>
+        <v>343100</v>
       </c>
       <c r="I33" s="3">
-        <v>201600</v>
+        <v>202000</v>
       </c>
       <c r="J33" s="3">
-        <v>67300</v>
+        <v>67500</v>
       </c>
       <c r="K33" s="3">
         <v>478000</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>824200</v>
+        <v>826000</v>
       </c>
       <c r="E35" s="3">
-        <v>755500</v>
+        <v>757200</v>
       </c>
       <c r="F35" s="3">
-        <v>576800</v>
+        <v>578100</v>
       </c>
       <c r="G35" s="3">
-        <v>643200</v>
+        <v>644600</v>
       </c>
       <c r="H35" s="3">
-        <v>342400</v>
+        <v>343100</v>
       </c>
       <c r="I35" s="3">
-        <v>201600</v>
+        <v>202000</v>
       </c>
       <c r="J35" s="3">
-        <v>67300</v>
+        <v>67500</v>
       </c>
       <c r="K35" s="3">
         <v>478000</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>290100</v>
+        <v>290800</v>
       </c>
       <c r="E41" s="3">
-        <v>166200</v>
+        <v>166600</v>
       </c>
       <c r="F41" s="3">
-        <v>338400</v>
+        <v>339200</v>
       </c>
       <c r="G41" s="3">
-        <v>107900</v>
+        <v>108100</v>
       </c>
       <c r="H41" s="3">
-        <v>358800</v>
+        <v>359600</v>
       </c>
       <c r="I41" s="3">
-        <v>207500</v>
+        <v>207900</v>
       </c>
       <c r="J41" s="3">
-        <v>200400</v>
+        <v>200900</v>
       </c>
       <c r="K41" s="3">
         <v>179000</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>351400</v>
+        <v>352100</v>
       </c>
       <c r="E42" s="3">
-        <v>347200</v>
+        <v>348000</v>
       </c>
       <c r="F42" s="3">
-        <v>676800</v>
+        <v>678200</v>
       </c>
       <c r="G42" s="3">
-        <v>151600</v>
+        <v>151900</v>
       </c>
       <c r="H42" s="3">
-        <v>160000</v>
+        <v>160400</v>
       </c>
       <c r="I42" s="3">
-        <v>234600</v>
+        <v>235100</v>
       </c>
       <c r="J42" s="3">
-        <v>278300</v>
+        <v>278900</v>
       </c>
       <c r="K42" s="3">
         <v>469900</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1720600</v>
+        <v>1724400</v>
       </c>
       <c r="E43" s="3">
-        <v>1664800</v>
+        <v>1668400</v>
       </c>
       <c r="F43" s="3">
-        <v>1596200</v>
+        <v>1599700</v>
       </c>
       <c r="G43" s="3">
-        <v>1304000</v>
+        <v>1306900</v>
       </c>
       <c r="H43" s="3">
-        <v>1205500</v>
+        <v>1208100</v>
       </c>
       <c r="I43" s="3">
-        <v>1033700</v>
+        <v>1035900</v>
       </c>
       <c r="J43" s="3">
-        <v>992000</v>
+        <v>994200</v>
       </c>
       <c r="K43" s="3">
         <v>1688400</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>349800</v>
+        <v>350600</v>
       </c>
       <c r="E45" s="3">
-        <v>429800</v>
+        <v>430700</v>
       </c>
       <c r="F45" s="3">
-        <v>501500</v>
+        <v>502600</v>
       </c>
       <c r="G45" s="3">
-        <v>599300</v>
+        <v>600600</v>
       </c>
       <c r="H45" s="3">
-        <v>4240600</v>
+        <v>4249800</v>
       </c>
       <c r="I45" s="3">
-        <v>236000</v>
+        <v>236500</v>
       </c>
       <c r="J45" s="3">
-        <v>188100</v>
+        <v>188500</v>
       </c>
       <c r="K45" s="3">
         <v>199900</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2711900</v>
+        <v>2717800</v>
       </c>
       <c r="E46" s="3">
-        <v>2608000</v>
+        <v>2613700</v>
       </c>
       <c r="F46" s="3">
-        <v>3112900</v>
+        <v>3119700</v>
       </c>
       <c r="G46" s="3">
-        <v>2085000</v>
+        <v>2089600</v>
       </c>
       <c r="H46" s="3">
-        <v>5632400</v>
+        <v>5644700</v>
       </c>
       <c r="I46" s="3">
-        <v>1719400</v>
+        <v>1723200</v>
       </c>
       <c r="J46" s="3">
-        <v>1668700</v>
+        <v>1672300</v>
       </c>
       <c r="K46" s="3">
         <v>1815600</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3831300</v>
+        <v>3839600</v>
       </c>
       <c r="E47" s="3">
-        <v>3990700</v>
+        <v>3999400</v>
       </c>
       <c r="F47" s="3">
-        <v>3890800</v>
+        <v>3899300</v>
       </c>
       <c r="G47" s="3">
-        <v>4417800</v>
+        <v>4427500</v>
       </c>
       <c r="H47" s="3">
-        <v>4285100</v>
+        <v>4294500</v>
       </c>
       <c r="I47" s="3">
-        <v>3604500</v>
+        <v>3612400</v>
       </c>
       <c r="J47" s="3">
-        <v>3449800</v>
+        <v>3457300</v>
       </c>
       <c r="K47" s="3">
         <v>3041200</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>551500</v>
+        <v>552700</v>
       </c>
       <c r="E48" s="3">
-        <v>532700</v>
+        <v>533800</v>
       </c>
       <c r="F48" s="3">
-        <v>527500</v>
+        <v>528700</v>
       </c>
       <c r="G48" s="3">
-        <v>549200</v>
+        <v>550400</v>
       </c>
       <c r="H48" s="3">
-        <v>1072100</v>
+        <v>1074400</v>
       </c>
       <c r="I48" s="3">
-        <v>556300</v>
+        <v>557500</v>
       </c>
       <c r="J48" s="3">
-        <v>760300</v>
+        <v>762000</v>
       </c>
       <c r="K48" s="3">
         <v>763000</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2944800</v>
+        <v>2951300</v>
       </c>
       <c r="E49" s="3">
-        <v>2608800</v>
+        <v>2614500</v>
       </c>
       <c r="F49" s="3">
-        <v>2378500</v>
+        <v>2383700</v>
       </c>
       <c r="G49" s="3">
-        <v>2341200</v>
+        <v>2346300</v>
       </c>
       <c r="H49" s="3">
-        <v>4341100</v>
+        <v>4350500</v>
       </c>
       <c r="I49" s="3">
-        <v>2246800</v>
+        <v>2251700</v>
       </c>
       <c r="J49" s="3">
-        <v>2179100</v>
+        <v>2183800</v>
       </c>
       <c r="K49" s="3">
         <v>1989600</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>769800</v>
+        <v>771500</v>
       </c>
       <c r="E52" s="3">
-        <v>741900</v>
+        <v>743600</v>
       </c>
       <c r="F52" s="3">
-        <v>982700</v>
+        <v>984800</v>
       </c>
       <c r="G52" s="3">
-        <v>782600</v>
+        <v>784300</v>
       </c>
       <c r="H52" s="3">
-        <v>599700</v>
+        <v>601000</v>
       </c>
       <c r="I52" s="3">
-        <v>380000</v>
+        <v>380800</v>
       </c>
       <c r="J52" s="3">
-        <v>408100</v>
+        <v>409000</v>
       </c>
       <c r="K52" s="3">
         <v>301800</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10809300</v>
+        <v>10832900</v>
       </c>
       <c r="E54" s="3">
-        <v>10482000</v>
+        <v>10504900</v>
       </c>
       <c r="F54" s="3">
-        <v>10892300</v>
+        <v>10916100</v>
       </c>
       <c r="G54" s="3">
-        <v>10175900</v>
+        <v>10198100</v>
       </c>
       <c r="H54" s="3">
-        <v>12152000</v>
+        <v>12178600</v>
       </c>
       <c r="I54" s="3">
-        <v>8507100</v>
+        <v>8525600</v>
       </c>
       <c r="J54" s="3">
-        <v>8466000</v>
+        <v>8484500</v>
       </c>
       <c r="K54" s="3">
         <v>7911200</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>570400</v>
+        <v>571600</v>
       </c>
       <c r="E57" s="3">
-        <v>540400</v>
+        <v>541600</v>
       </c>
       <c r="F57" s="3">
-        <v>475000</v>
+        <v>476000</v>
       </c>
       <c r="G57" s="3">
-        <v>418900</v>
+        <v>419800</v>
       </c>
       <c r="H57" s="3">
-        <v>362800</v>
+        <v>363600</v>
       </c>
       <c r="I57" s="3">
-        <v>471800</v>
+        <v>472900</v>
       </c>
       <c r="J57" s="3">
-        <v>390600</v>
+        <v>391500</v>
       </c>
       <c r="K57" s="3">
         <v>368100</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>204000</v>
+        <v>204500</v>
       </c>
       <c r="E58" s="3">
-        <v>307500</v>
+        <v>308200</v>
       </c>
       <c r="F58" s="3">
-        <v>424400</v>
+        <v>425300</v>
       </c>
       <c r="G58" s="3">
-        <v>570200</v>
+        <v>571500</v>
       </c>
       <c r="H58" s="3">
-        <v>442600</v>
+        <v>443600</v>
       </c>
       <c r="I58" s="3">
-        <v>477400</v>
+        <v>478500</v>
       </c>
       <c r="J58" s="3">
-        <v>974200</v>
+        <v>976300</v>
       </c>
       <c r="K58" s="3">
         <v>1219900</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1482300</v>
+        <v>1485600</v>
       </c>
       <c r="E59" s="3">
-        <v>1304600</v>
+        <v>1307400</v>
       </c>
       <c r="F59" s="3">
-        <v>1052300</v>
+        <v>1054600</v>
       </c>
       <c r="G59" s="3">
-        <v>616700</v>
+        <v>618000</v>
       </c>
       <c r="H59" s="3">
-        <v>3930900</v>
+        <v>3939500</v>
       </c>
       <c r="I59" s="3">
-        <v>795300</v>
+        <v>797100</v>
       </c>
       <c r="J59" s="3">
-        <v>940700</v>
+        <v>942800</v>
       </c>
       <c r="K59" s="3">
         <v>943500</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2256700</v>
+        <v>2261700</v>
       </c>
       <c r="E60" s="3">
-        <v>2152500</v>
+        <v>2157200</v>
       </c>
       <c r="F60" s="3">
-        <v>1951600</v>
+        <v>1955900</v>
       </c>
       <c r="G60" s="3">
-        <v>1604100</v>
+        <v>1607600</v>
       </c>
       <c r="H60" s="3">
-        <v>4720200</v>
+        <v>4730500</v>
       </c>
       <c r="I60" s="3">
-        <v>1744600</v>
+        <v>1748400</v>
       </c>
       <c r="J60" s="3">
-        <v>2305500</v>
+        <v>2310600</v>
       </c>
       <c r="K60" s="3">
         <v>2531500</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1998100</v>
+        <v>2002500</v>
       </c>
       <c r="E61" s="3">
-        <v>2030400</v>
+        <v>2034800</v>
       </c>
       <c r="F61" s="3">
-        <v>2646400</v>
+        <v>2652200</v>
       </c>
       <c r="G61" s="3">
-        <v>2463600</v>
+        <v>2469000</v>
       </c>
       <c r="H61" s="3">
-        <v>2532500</v>
+        <v>2538000</v>
       </c>
       <c r="I61" s="3">
-        <v>2422300</v>
+        <v>2427600</v>
       </c>
       <c r="J61" s="3">
-        <v>2083000</v>
+        <v>2087500</v>
       </c>
       <c r="K61" s="3">
         <v>1716800</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2167300</v>
+        <v>2172000</v>
       </c>
       <c r="E62" s="3">
-        <v>2379600</v>
+        <v>2384800</v>
       </c>
       <c r="F62" s="3">
-        <v>2774400</v>
+        <v>2780500</v>
       </c>
       <c r="G62" s="3">
-        <v>2998300</v>
+        <v>3004800</v>
       </c>
       <c r="H62" s="3">
-        <v>1806800</v>
+        <v>1810800</v>
       </c>
       <c r="I62" s="3">
-        <v>1454100</v>
+        <v>1457300</v>
       </c>
       <c r="J62" s="3">
-        <v>1472600</v>
+        <v>1475800</v>
       </c>
       <c r="K62" s="3">
         <v>1148100</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6423300</v>
+        <v>6437400</v>
       </c>
       <c r="E66" s="3">
-        <v>6563500</v>
+        <v>6577800</v>
       </c>
       <c r="F66" s="3">
-        <v>7373300</v>
+        <v>7389400</v>
       </c>
       <c r="G66" s="3">
-        <v>6933700</v>
+        <v>6948800</v>
       </c>
       <c r="H66" s="3">
-        <v>9186600</v>
+        <v>9206700</v>
       </c>
       <c r="I66" s="3">
-        <v>5621800</v>
+        <v>5634100</v>
       </c>
       <c r="J66" s="3">
-        <v>5861900</v>
+        <v>5874700</v>
       </c>
       <c r="K66" s="3">
         <v>5397100</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2093500</v>
+        <v>2098100</v>
       </c>
       <c r="E72" s="3">
-        <v>2204900</v>
+        <v>2209800</v>
       </c>
       <c r="F72" s="3">
-        <v>2026200</v>
+        <v>2030600</v>
       </c>
       <c r="G72" s="3">
-        <v>2258000</v>
+        <v>2262900</v>
       </c>
       <c r="H72" s="3">
-        <v>1310600</v>
+        <v>1313400</v>
       </c>
       <c r="I72" s="3">
-        <v>1153700</v>
+        <v>1156300</v>
       </c>
       <c r="J72" s="3">
-        <v>1047300</v>
+        <v>1049500</v>
       </c>
       <c r="K72" s="3">
         <v>902800</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4386000</v>
+        <v>4395500</v>
       </c>
       <c r="E76" s="3">
-        <v>3918500</v>
+        <v>3927100</v>
       </c>
       <c r="F76" s="3">
-        <v>3519000</v>
+        <v>3526700</v>
       </c>
       <c r="G76" s="3">
-        <v>3242200</v>
+        <v>3249300</v>
       </c>
       <c r="H76" s="3">
-        <v>2965400</v>
+        <v>2971900</v>
       </c>
       <c r="I76" s="3">
-        <v>2885300</v>
+        <v>2891600</v>
       </c>
       <c r="J76" s="3">
-        <v>2604200</v>
+        <v>2609800</v>
       </c>
       <c r="K76" s="3">
         <v>2514000</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>824200</v>
+        <v>826000</v>
       </c>
       <c r="E81" s="3">
-        <v>755500</v>
+        <v>757200</v>
       </c>
       <c r="F81" s="3">
-        <v>576800</v>
+        <v>578100</v>
       </c>
       <c r="G81" s="3">
-        <v>643200</v>
+        <v>644600</v>
       </c>
       <c r="H81" s="3">
-        <v>342400</v>
+        <v>343100</v>
       </c>
       <c r="I81" s="3">
-        <v>201600</v>
+        <v>202000</v>
       </c>
       <c r="J81" s="3">
-        <v>67300</v>
+        <v>67500</v>
       </c>
       <c r="K81" s="3">
         <v>478000</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>238100</v>
+        <v>238600</v>
       </c>
       <c r="E83" s="3">
-        <v>211300</v>
+        <v>211800</v>
       </c>
       <c r="F83" s="3">
-        <v>199200</v>
+        <v>199600</v>
       </c>
       <c r="G83" s="3">
-        <v>193000</v>
+        <v>193400</v>
       </c>
       <c r="H83" s="3">
-        <v>171000</v>
+        <v>171400</v>
       </c>
       <c r="I83" s="3">
-        <v>171100</v>
+        <v>171500</v>
       </c>
       <c r="J83" s="3">
-        <v>168000</v>
+        <v>168400</v>
       </c>
       <c r="K83" s="3">
         <v>161600</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1331900</v>
+        <v>1334800</v>
       </c>
       <c r="E89" s="3">
-        <v>741800</v>
+        <v>743400</v>
       </c>
       <c r="F89" s="3">
-        <v>1733900</v>
+        <v>1737700</v>
       </c>
       <c r="G89" s="3">
-        <v>410200</v>
+        <v>411100</v>
       </c>
       <c r="H89" s="3">
-        <v>203000</v>
+        <v>203400</v>
       </c>
       <c r="I89" s="3">
-        <v>116700</v>
+        <v>117000</v>
       </c>
       <c r="J89" s="3">
-        <v>244400</v>
+        <v>244900</v>
       </c>
       <c r="K89" s="3">
         <v>582300</v>
@@ -3811,13 +3811,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-34900</v>
+        <v>-35000</v>
       </c>
       <c r="E91" s="3">
         <v>-36800</v>
       </c>
       <c r="F91" s="3">
-        <v>-26800</v>
+        <v>-26900</v>
       </c>
       <c r="G91" s="3">
         <v>-14200</v>
@@ -3826,10 +3826,10 @@
         <v>-15500</v>
       </c>
       <c r="I91" s="3">
-        <v>-16700</v>
+        <v>-16800</v>
       </c>
       <c r="J91" s="3">
-        <v>-24100</v>
+        <v>-24200</v>
       </c>
       <c r="K91" s="3">
         <v>-24300</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-645700</v>
+        <v>-647100</v>
       </c>
       <c r="E94" s="3">
-        <v>276200</v>
+        <v>276800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1022500</v>
+        <v>-1024700</v>
       </c>
       <c r="G94" s="3">
-        <v>-239400</v>
+        <v>-239900</v>
       </c>
       <c r="H94" s="3">
-        <v>-42500</v>
+        <v>-42600</v>
       </c>
       <c r="I94" s="3">
-        <v>-77800</v>
+        <v>-77900</v>
       </c>
       <c r="J94" s="3">
-        <v>-123600</v>
+        <v>-123800</v>
       </c>
       <c r="K94" s="3">
         <v>-622900</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-421700</v>
+        <v>-422600</v>
       </c>
       <c r="E96" s="3">
-        <v>-285200</v>
+        <v>-285900</v>
       </c>
       <c r="F96" s="3">
-        <v>-120500</v>
+        <v>-120700</v>
       </c>
       <c r="G96" s="3">
-        <v>-141200</v>
+        <v>-141500</v>
       </c>
       <c r="H96" s="3">
-        <v>-102500</v>
+        <v>-102700</v>
       </c>
       <c r="I96" s="3">
-        <v>-108700</v>
+        <v>-108900</v>
       </c>
       <c r="J96" s="3">
-        <v>-135900</v>
+        <v>-136200</v>
       </c>
       <c r="K96" s="3">
         <v>-154200</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-562200</v>
+        <v>-563400</v>
       </c>
       <c r="E100" s="3">
-        <v>-1190200</v>
+        <v>-1192800</v>
       </c>
       <c r="F100" s="3">
-        <v>-480800</v>
+        <v>-481900</v>
       </c>
       <c r="G100" s="3">
-        <v>-242300</v>
+        <v>-242900</v>
       </c>
       <c r="H100" s="3">
-        <v>-188600</v>
+        <v>-189000</v>
       </c>
       <c r="I100" s="3">
-        <v>-31900</v>
+        <v>-32000</v>
       </c>
       <c r="J100" s="3">
-        <v>-106600</v>
+        <v>-106800</v>
       </c>
       <c r="K100" s="3">
         <v>47800</v>
@@ -4249,16 +4249,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>124000</v>
+        <v>124200</v>
       </c>
       <c r="E102" s="3">
-        <v>-172200</v>
+        <v>-172600</v>
       </c>
       <c r="F102" s="3">
-        <v>230500</v>
+        <v>231000</v>
       </c>
       <c r="G102" s="3">
-        <v>-71500</v>
+        <v>-71700</v>
       </c>
       <c r="H102" s="3">
         <v>-28100</v>

--- a/AAII_Financials/Yearly/CIG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CIG_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6956000</v>
+        <v>7086600</v>
       </c>
       <c r="E8" s="3">
-        <v>6791100</v>
+        <v>6918700</v>
       </c>
       <c r="F8" s="3">
-        <v>5091900</v>
+        <v>5187600</v>
       </c>
       <c r="G8" s="3">
-        <v>5144300</v>
+        <v>5240900</v>
       </c>
       <c r="H8" s="3">
-        <v>4494200</v>
+        <v>4578600</v>
       </c>
       <c r="I8" s="3">
-        <v>4382300</v>
+        <v>4464600</v>
       </c>
       <c r="J8" s="3">
-        <v>3789100</v>
+        <v>3860200</v>
       </c>
       <c r="K8" s="3">
         <v>4234300</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5581300</v>
+        <v>5686100</v>
       </c>
       <c r="E9" s="3">
-        <v>5434300</v>
+        <v>5536400</v>
       </c>
       <c r="F9" s="3">
-        <v>4005500</v>
+        <v>4080700</v>
       </c>
       <c r="G9" s="3">
-        <v>3955800</v>
+        <v>4030100</v>
       </c>
       <c r="H9" s="3">
-        <v>3568000</v>
+        <v>3635000</v>
       </c>
       <c r="I9" s="3">
-        <v>3529600</v>
+        <v>3595900</v>
       </c>
       <c r="J9" s="3">
-        <v>2912300</v>
+        <v>2967000</v>
       </c>
       <c r="K9" s="3">
         <v>3072300</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1374700</v>
+        <v>1400500</v>
       </c>
       <c r="E10" s="3">
-        <v>1356800</v>
+        <v>1382300</v>
       </c>
       <c r="F10" s="3">
-        <v>1086500</v>
+        <v>1106900</v>
       </c>
       <c r="G10" s="3">
-        <v>1188500</v>
+        <v>1210800</v>
       </c>
       <c r="H10" s="3">
-        <v>926200</v>
+        <v>943600</v>
       </c>
       <c r="I10" s="3">
-        <v>852700</v>
+        <v>868700</v>
       </c>
       <c r="J10" s="3">
-        <v>876800</v>
+        <v>893200</v>
       </c>
       <c r="K10" s="3">
         <v>1162000</v>
@@ -954,7 +954,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>23800</v>
+        <v>24200</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -996,7 +996,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>8</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5808100</v>
+        <v>5917100</v>
       </c>
       <c r="E17" s="3">
-        <v>5431500</v>
+        <v>5533500</v>
       </c>
       <c r="F17" s="3">
-        <v>4243400</v>
+        <v>4323000</v>
       </c>
       <c r="G17" s="3">
-        <v>4496400</v>
+        <v>4580900</v>
       </c>
       <c r="H17" s="3">
-        <v>3990400</v>
+        <v>4065400</v>
       </c>
       <c r="I17" s="3">
-        <v>3848900</v>
+        <v>3921200</v>
       </c>
       <c r="J17" s="3">
-        <v>3424700</v>
+        <v>3489000</v>
       </c>
       <c r="K17" s="3">
         <v>3323800</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1147900</v>
+        <v>1169500</v>
       </c>
       <c r="E18" s="3">
-        <v>1359600</v>
+        <v>1385200</v>
       </c>
       <c r="F18" s="3">
-        <v>848600</v>
+        <v>864500</v>
       </c>
       <c r="G18" s="3">
-        <v>647900</v>
+        <v>660000</v>
       </c>
       <c r="H18" s="3">
-        <v>503800</v>
+        <v>513200</v>
       </c>
       <c r="I18" s="3">
-        <v>533300</v>
+        <v>543400</v>
       </c>
       <c r="J18" s="3">
-        <v>364300</v>
+        <v>371200</v>
       </c>
       <c r="K18" s="3">
         <v>910500</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-128900</v>
+        <v>-131300</v>
       </c>
       <c r="E20" s="3">
-        <v>-179900</v>
+        <v>-183300</v>
       </c>
       <c r="F20" s="3">
-        <v>156300</v>
+        <v>159200</v>
       </c>
       <c r="G20" s="3">
-        <v>522200</v>
+        <v>532000</v>
       </c>
       <c r="H20" s="3">
-        <v>149000</v>
+        <v>151800</v>
       </c>
       <c r="I20" s="3">
-        <v>108400</v>
+        <v>110400</v>
       </c>
       <c r="J20" s="3">
-        <v>99100</v>
+        <v>101000</v>
       </c>
       <c r="K20" s="3">
         <v>8800</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1257600</v>
+        <v>1281300</v>
       </c>
       <c r="E21" s="3">
-        <v>1391500</v>
+        <v>1417700</v>
       </c>
       <c r="F21" s="3">
-        <v>1204500</v>
+        <v>1227200</v>
       </c>
       <c r="G21" s="3">
-        <v>1363500</v>
+        <v>1389100</v>
       </c>
       <c r="H21" s="3">
-        <v>824100</v>
+        <v>839600</v>
       </c>
       <c r="I21" s="3">
-        <v>813300</v>
+        <v>828600</v>
       </c>
       <c r="J21" s="3">
-        <v>631900</v>
+        <v>643800</v>
       </c>
       <c r="K21" s="3">
         <v>1081500</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>187300</v>
+        <v>190900</v>
       </c>
       <c r="E22" s="3">
-        <v>231400</v>
+        <v>235800</v>
       </c>
       <c r="F22" s="3">
-        <v>237700</v>
+        <v>242200</v>
       </c>
       <c r="G22" s="3">
-        <v>247600</v>
+        <v>252300</v>
       </c>
       <c r="H22" s="3">
-        <v>253600</v>
+        <v>258400</v>
       </c>
       <c r="I22" s="3">
-        <v>309500</v>
+        <v>315300</v>
       </c>
       <c r="J22" s="3">
-        <v>389200</v>
+        <v>396500</v>
       </c>
       <c r="K22" s="3">
         <v>268400</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>831700</v>
+        <v>847300</v>
       </c>
       <c r="E23" s="3">
-        <v>948300</v>
+        <v>966100</v>
       </c>
       <c r="F23" s="3">
-        <v>767200</v>
+        <v>781600</v>
       </c>
       <c r="G23" s="3">
-        <v>922400</v>
+        <v>939700</v>
       </c>
       <c r="H23" s="3">
-        <v>399100</v>
+        <v>406600</v>
       </c>
       <c r="I23" s="3">
-        <v>332200</v>
+        <v>338400</v>
       </c>
       <c r="J23" s="3">
-        <v>74300</v>
+        <v>75700</v>
       </c>
       <c r="K23" s="3">
         <v>650900</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="E24" s="3">
-        <v>190800</v>
+        <v>194400</v>
       </c>
       <c r="F24" s="3">
-        <v>188900</v>
+        <v>192400</v>
       </c>
       <c r="G24" s="3">
-        <v>322900</v>
+        <v>329000</v>
       </c>
       <c r="H24" s="3">
-        <v>120900</v>
+        <v>123200</v>
       </c>
       <c r="I24" s="3">
-        <v>130000</v>
+        <v>132500</v>
       </c>
       <c r="J24" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="K24" s="3">
         <v>172800</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>826400</v>
+        <v>841900</v>
       </c>
       <c r="E26" s="3">
-        <v>757500</v>
+        <v>771700</v>
       </c>
       <c r="F26" s="3">
-        <v>578300</v>
+        <v>589200</v>
       </c>
       <c r="G26" s="3">
-        <v>599500</v>
+        <v>610800</v>
       </c>
       <c r="H26" s="3">
-        <v>278200</v>
+        <v>283400</v>
       </c>
       <c r="I26" s="3">
-        <v>202200</v>
+        <v>206000</v>
       </c>
       <c r="J26" s="3">
-        <v>67600</v>
+        <v>68800</v>
       </c>
       <c r="K26" s="3">
         <v>478100</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>826000</v>
+        <v>841500</v>
       </c>
       <c r="E27" s="3">
-        <v>757200</v>
+        <v>771400</v>
       </c>
       <c r="F27" s="3">
-        <v>578100</v>
+        <v>588900</v>
       </c>
       <c r="G27" s="3">
-        <v>599400</v>
+        <v>610600</v>
       </c>
       <c r="H27" s="3">
-        <v>269800</v>
+        <v>274900</v>
       </c>
       <c r="I27" s="3">
-        <v>202000</v>
+        <v>205800</v>
       </c>
       <c r="J27" s="3">
-        <v>67500</v>
+        <v>68700</v>
       </c>
       <c r="K27" s="3">
         <v>478000</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>45200</v>
+        <v>46100</v>
       </c>
       <c r="H29" s="3">
-        <v>73400</v>
+        <v>74700</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>128900</v>
+        <v>131300</v>
       </c>
       <c r="E32" s="3">
-        <v>179900</v>
+        <v>183300</v>
       </c>
       <c r="F32" s="3">
-        <v>-156300</v>
+        <v>-159200</v>
       </c>
       <c r="G32" s="3">
-        <v>-522200</v>
+        <v>-532000</v>
       </c>
       <c r="H32" s="3">
-        <v>-149000</v>
+        <v>-151800</v>
       </c>
       <c r="I32" s="3">
-        <v>-108400</v>
+        <v>-110400</v>
       </c>
       <c r="J32" s="3">
-        <v>-99100</v>
+        <v>-101000</v>
       </c>
       <c r="K32" s="3">
         <v>-8800</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>826000</v>
+        <v>841500</v>
       </c>
       <c r="E33" s="3">
-        <v>757200</v>
+        <v>771400</v>
       </c>
       <c r="F33" s="3">
-        <v>578100</v>
+        <v>588900</v>
       </c>
       <c r="G33" s="3">
-        <v>644600</v>
+        <v>656700</v>
       </c>
       <c r="H33" s="3">
-        <v>343100</v>
+        <v>349600</v>
       </c>
       <c r="I33" s="3">
-        <v>202000</v>
+        <v>205800</v>
       </c>
       <c r="J33" s="3">
-        <v>67500</v>
+        <v>68700</v>
       </c>
       <c r="K33" s="3">
         <v>478000</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>826000</v>
+        <v>841500</v>
       </c>
       <c r="E35" s="3">
-        <v>757200</v>
+        <v>771400</v>
       </c>
       <c r="F35" s="3">
-        <v>578100</v>
+        <v>588900</v>
       </c>
       <c r="G35" s="3">
-        <v>644600</v>
+        <v>656700</v>
       </c>
       <c r="H35" s="3">
-        <v>343100</v>
+        <v>349600</v>
       </c>
       <c r="I35" s="3">
-        <v>202000</v>
+        <v>205800</v>
       </c>
       <c r="J35" s="3">
-        <v>67500</v>
+        <v>68700</v>
       </c>
       <c r="K35" s="3">
         <v>478000</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>290800</v>
+        <v>296200</v>
       </c>
       <c r="E41" s="3">
-        <v>166600</v>
+        <v>169700</v>
       </c>
       <c r="F41" s="3">
-        <v>339200</v>
+        <v>345500</v>
       </c>
       <c r="G41" s="3">
-        <v>108100</v>
+        <v>110200</v>
       </c>
       <c r="H41" s="3">
-        <v>359600</v>
+        <v>366400</v>
       </c>
       <c r="I41" s="3">
-        <v>207900</v>
+        <v>211900</v>
       </c>
       <c r="J41" s="3">
-        <v>200900</v>
+        <v>204600</v>
       </c>
       <c r="K41" s="3">
         <v>179000</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>352100</v>
+        <v>358700</v>
       </c>
       <c r="E42" s="3">
-        <v>348000</v>
+        <v>354500</v>
       </c>
       <c r="F42" s="3">
-        <v>678200</v>
+        <v>691000</v>
       </c>
       <c r="G42" s="3">
-        <v>151900</v>
+        <v>154800</v>
       </c>
       <c r="H42" s="3">
-        <v>160400</v>
+        <v>163400</v>
       </c>
       <c r="I42" s="3">
-        <v>235100</v>
+        <v>239500</v>
       </c>
       <c r="J42" s="3">
-        <v>278900</v>
+        <v>284100</v>
       </c>
       <c r="K42" s="3">
         <v>469900</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1724400</v>
+        <v>1756700</v>
       </c>
       <c r="E43" s="3">
-        <v>1668400</v>
+        <v>1699700</v>
       </c>
       <c r="F43" s="3">
-        <v>1599700</v>
+        <v>1629700</v>
       </c>
       <c r="G43" s="3">
-        <v>1306900</v>
+        <v>1331400</v>
       </c>
       <c r="H43" s="3">
-        <v>1208100</v>
+        <v>1230800</v>
       </c>
       <c r="I43" s="3">
-        <v>1035900</v>
+        <v>1055400</v>
       </c>
       <c r="J43" s="3">
-        <v>994200</v>
+        <v>1012800</v>
       </c>
       <c r="K43" s="3">
         <v>1688400</v>
@@ -2045,16 +2045,16 @@
         <v>8</v>
       </c>
       <c r="G44" s="3">
-        <v>7900</v>
+        <v>8100</v>
       </c>
       <c r="H44" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="I44" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="J44" s="3">
-        <v>10000</v>
+        <v>10200</v>
       </c>
       <c r="K44" s="3">
         <v>7200</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>350600</v>
+        <v>357100</v>
       </c>
       <c r="E45" s="3">
-        <v>430700</v>
+        <v>438800</v>
       </c>
       <c r="F45" s="3">
-        <v>502600</v>
+        <v>512000</v>
       </c>
       <c r="G45" s="3">
-        <v>600600</v>
+        <v>611900</v>
       </c>
       <c r="H45" s="3">
-        <v>4249800</v>
+        <v>4329600</v>
       </c>
       <c r="I45" s="3">
-        <v>236500</v>
+        <v>241000</v>
       </c>
       <c r="J45" s="3">
-        <v>188500</v>
+        <v>192000</v>
       </c>
       <c r="K45" s="3">
         <v>199900</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2717800</v>
+        <v>2768800</v>
       </c>
       <c r="E46" s="3">
-        <v>2613700</v>
+        <v>2662700</v>
       </c>
       <c r="F46" s="3">
-        <v>3119700</v>
+        <v>3178300</v>
       </c>
       <c r="G46" s="3">
-        <v>2089600</v>
+        <v>2128800</v>
       </c>
       <c r="H46" s="3">
-        <v>5644700</v>
+        <v>5750700</v>
       </c>
       <c r="I46" s="3">
-        <v>1723200</v>
+        <v>1755500</v>
       </c>
       <c r="J46" s="3">
-        <v>1672300</v>
+        <v>1703700</v>
       </c>
       <c r="K46" s="3">
         <v>1815600</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3839600</v>
+        <v>3911700</v>
       </c>
       <c r="E47" s="3">
-        <v>3999400</v>
+        <v>4074500</v>
       </c>
       <c r="F47" s="3">
-        <v>3899300</v>
+        <v>3972500</v>
       </c>
       <c r="G47" s="3">
-        <v>4427500</v>
+        <v>4510600</v>
       </c>
       <c r="H47" s="3">
-        <v>4294500</v>
+        <v>4375100</v>
       </c>
       <c r="I47" s="3">
-        <v>3612400</v>
+        <v>3680200</v>
       </c>
       <c r="J47" s="3">
-        <v>3457300</v>
+        <v>3522300</v>
       </c>
       <c r="K47" s="3">
         <v>3041200</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>552700</v>
+        <v>563100</v>
       </c>
       <c r="E48" s="3">
-        <v>533800</v>
+        <v>543900</v>
       </c>
       <c r="F48" s="3">
-        <v>528700</v>
+        <v>538600</v>
       </c>
       <c r="G48" s="3">
-        <v>550400</v>
+        <v>560700</v>
       </c>
       <c r="H48" s="3">
-        <v>1074400</v>
+        <v>1094600</v>
       </c>
       <c r="I48" s="3">
-        <v>557500</v>
+        <v>568000</v>
       </c>
       <c r="J48" s="3">
-        <v>762000</v>
+        <v>776300</v>
       </c>
       <c r="K48" s="3">
         <v>763000</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2951300</v>
+        <v>3006700</v>
       </c>
       <c r="E49" s="3">
-        <v>2614500</v>
+        <v>2663600</v>
       </c>
       <c r="F49" s="3">
-        <v>2383700</v>
+        <v>2428500</v>
       </c>
       <c r="G49" s="3">
-        <v>2346300</v>
+        <v>2390300</v>
       </c>
       <c r="H49" s="3">
-        <v>4350500</v>
+        <v>4432200</v>
       </c>
       <c r="I49" s="3">
-        <v>2251700</v>
+        <v>2294000</v>
       </c>
       <c r="J49" s="3">
-        <v>2183800</v>
+        <v>2224900</v>
       </c>
       <c r="K49" s="3">
         <v>1989600</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>771500</v>
+        <v>786000</v>
       </c>
       <c r="E52" s="3">
-        <v>743600</v>
+        <v>757500</v>
       </c>
       <c r="F52" s="3">
-        <v>984800</v>
+        <v>1003300</v>
       </c>
       <c r="G52" s="3">
-        <v>784300</v>
+        <v>799100</v>
       </c>
       <c r="H52" s="3">
-        <v>601000</v>
+        <v>612300</v>
       </c>
       <c r="I52" s="3">
-        <v>380800</v>
+        <v>388000</v>
       </c>
       <c r="J52" s="3">
-        <v>409000</v>
+        <v>416700</v>
       </c>
       <c r="K52" s="3">
         <v>301800</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10832900</v>
+        <v>11036300</v>
       </c>
       <c r="E54" s="3">
-        <v>10504900</v>
+        <v>10702200</v>
       </c>
       <c r="F54" s="3">
-        <v>10916100</v>
+        <v>11121100</v>
       </c>
       <c r="G54" s="3">
-        <v>10198100</v>
+        <v>10389600</v>
       </c>
       <c r="H54" s="3">
-        <v>12178600</v>
+        <v>12407200</v>
       </c>
       <c r="I54" s="3">
-        <v>8525600</v>
+        <v>8685700</v>
       </c>
       <c r="J54" s="3">
-        <v>8484500</v>
+        <v>8643800</v>
       </c>
       <c r="K54" s="3">
         <v>7911200</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>571600</v>
+        <v>582400</v>
       </c>
       <c r="E57" s="3">
-        <v>541600</v>
+        <v>551800</v>
       </c>
       <c r="F57" s="3">
-        <v>476000</v>
+        <v>484900</v>
       </c>
       <c r="G57" s="3">
-        <v>419800</v>
+        <v>427700</v>
       </c>
       <c r="H57" s="3">
-        <v>363600</v>
+        <v>370400</v>
       </c>
       <c r="I57" s="3">
-        <v>472900</v>
+        <v>481700</v>
       </c>
       <c r="J57" s="3">
-        <v>391500</v>
+        <v>398800</v>
       </c>
       <c r="K57" s="3">
         <v>368100</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>204500</v>
+        <v>208300</v>
       </c>
       <c r="E58" s="3">
-        <v>308200</v>
+        <v>313900</v>
       </c>
       <c r="F58" s="3">
-        <v>425300</v>
+        <v>433300</v>
       </c>
       <c r="G58" s="3">
-        <v>571500</v>
+        <v>582200</v>
       </c>
       <c r="H58" s="3">
-        <v>443600</v>
+        <v>451900</v>
       </c>
       <c r="I58" s="3">
-        <v>478500</v>
+        <v>487500</v>
       </c>
       <c r="J58" s="3">
-        <v>976300</v>
+        <v>994600</v>
       </c>
       <c r="K58" s="3">
         <v>1219900</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1485600</v>
+        <v>1513500</v>
       </c>
       <c r="E59" s="3">
-        <v>1307400</v>
+        <v>1332000</v>
       </c>
       <c r="F59" s="3">
-        <v>1054600</v>
+        <v>1074400</v>
       </c>
       <c r="G59" s="3">
-        <v>618000</v>
+        <v>629600</v>
       </c>
       <c r="H59" s="3">
-        <v>3939500</v>
+        <v>4013400</v>
       </c>
       <c r="I59" s="3">
-        <v>797100</v>
+        <v>812000</v>
       </c>
       <c r="J59" s="3">
-        <v>942800</v>
+        <v>960500</v>
       </c>
       <c r="K59" s="3">
         <v>943500</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2261700</v>
+        <v>2304100</v>
       </c>
       <c r="E60" s="3">
-        <v>2157200</v>
+        <v>2197700</v>
       </c>
       <c r="F60" s="3">
-        <v>1955900</v>
+        <v>1992600</v>
       </c>
       <c r="G60" s="3">
-        <v>1607600</v>
+        <v>1637800</v>
       </c>
       <c r="H60" s="3">
-        <v>4730500</v>
+        <v>4819400</v>
       </c>
       <c r="I60" s="3">
-        <v>1748400</v>
+        <v>1781200</v>
       </c>
       <c r="J60" s="3">
-        <v>2310600</v>
+        <v>2353900</v>
       </c>
       <c r="K60" s="3">
         <v>2531500</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2002500</v>
+        <v>2040100</v>
       </c>
       <c r="E61" s="3">
-        <v>2034800</v>
+        <v>2073000</v>
       </c>
       <c r="F61" s="3">
-        <v>2652200</v>
+        <v>2702000</v>
       </c>
       <c r="G61" s="3">
-        <v>2469000</v>
+        <v>2515400</v>
       </c>
       <c r="H61" s="3">
-        <v>2538000</v>
+        <v>2585600</v>
       </c>
       <c r="I61" s="3">
-        <v>2427600</v>
+        <v>2473100</v>
       </c>
       <c r="J61" s="3">
-        <v>2087500</v>
+        <v>2126700</v>
       </c>
       <c r="K61" s="3">
         <v>1716800</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2172000</v>
+        <v>2212800</v>
       </c>
       <c r="E62" s="3">
-        <v>2384800</v>
+        <v>2429600</v>
       </c>
       <c r="F62" s="3">
-        <v>2780500</v>
+        <v>2832700</v>
       </c>
       <c r="G62" s="3">
-        <v>3004800</v>
+        <v>3061300</v>
       </c>
       <c r="H62" s="3">
-        <v>1810800</v>
+        <v>1844800</v>
       </c>
       <c r="I62" s="3">
-        <v>1457300</v>
+        <v>1484700</v>
       </c>
       <c r="J62" s="3">
-        <v>1475800</v>
+        <v>1503500</v>
       </c>
       <c r="K62" s="3">
         <v>1148100</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6437400</v>
+        <v>6558300</v>
       </c>
       <c r="E66" s="3">
-        <v>6577800</v>
+        <v>6701400</v>
       </c>
       <c r="F66" s="3">
-        <v>7389400</v>
+        <v>7528200</v>
       </c>
       <c r="G66" s="3">
-        <v>6948800</v>
+        <v>7079300</v>
       </c>
       <c r="H66" s="3">
-        <v>9206700</v>
+        <v>9379500</v>
       </c>
       <c r="I66" s="3">
-        <v>5634100</v>
+        <v>5739900</v>
       </c>
       <c r="J66" s="3">
-        <v>5874700</v>
+        <v>5985000</v>
       </c>
       <c r="K66" s="3">
         <v>5397100</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2098100</v>
+        <v>2137500</v>
       </c>
       <c r="E72" s="3">
-        <v>2209800</v>
+        <v>2251300</v>
       </c>
       <c r="F72" s="3">
-        <v>2030600</v>
+        <v>2068800</v>
       </c>
       <c r="G72" s="3">
-        <v>2262900</v>
+        <v>2305400</v>
       </c>
       <c r="H72" s="3">
-        <v>1313400</v>
+        <v>1338100</v>
       </c>
       <c r="I72" s="3">
-        <v>1156300</v>
+        <v>1178000</v>
       </c>
       <c r="J72" s="3">
-        <v>1049500</v>
+        <v>1069200</v>
       </c>
       <c r="K72" s="3">
         <v>902800</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4395500</v>
+        <v>4478100</v>
       </c>
       <c r="E76" s="3">
-        <v>3927100</v>
+        <v>4000800</v>
       </c>
       <c r="F76" s="3">
-        <v>3526700</v>
+        <v>3592900</v>
       </c>
       <c r="G76" s="3">
-        <v>3249300</v>
+        <v>3310300</v>
       </c>
       <c r="H76" s="3">
-        <v>2971900</v>
+        <v>3027700</v>
       </c>
       <c r="I76" s="3">
-        <v>2891600</v>
+        <v>2945900</v>
       </c>
       <c r="J76" s="3">
-        <v>2609800</v>
+        <v>2658900</v>
       </c>
       <c r="K76" s="3">
         <v>2514000</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>826000</v>
+        <v>841500</v>
       </c>
       <c r="E81" s="3">
-        <v>757200</v>
+        <v>771400</v>
       </c>
       <c r="F81" s="3">
-        <v>578100</v>
+        <v>588900</v>
       </c>
       <c r="G81" s="3">
-        <v>644600</v>
+        <v>656700</v>
       </c>
       <c r="H81" s="3">
-        <v>343100</v>
+        <v>349600</v>
       </c>
       <c r="I81" s="3">
-        <v>202000</v>
+        <v>205800</v>
       </c>
       <c r="J81" s="3">
-        <v>67500</v>
+        <v>68700</v>
       </c>
       <c r="K81" s="3">
         <v>478000</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>238600</v>
+        <v>243100</v>
       </c>
       <c r="E83" s="3">
-        <v>211800</v>
+        <v>215700</v>
       </c>
       <c r="F83" s="3">
-        <v>199600</v>
+        <v>203400</v>
       </c>
       <c r="G83" s="3">
-        <v>193400</v>
+        <v>197000</v>
       </c>
       <c r="H83" s="3">
-        <v>171400</v>
+        <v>174600</v>
       </c>
       <c r="I83" s="3">
-        <v>171500</v>
+        <v>174700</v>
       </c>
       <c r="J83" s="3">
-        <v>168400</v>
+        <v>171600</v>
       </c>
       <c r="K83" s="3">
         <v>161600</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1334800</v>
+        <v>1359800</v>
       </c>
       <c r="E89" s="3">
-        <v>743400</v>
+        <v>757400</v>
       </c>
       <c r="F89" s="3">
-        <v>1737700</v>
+        <v>1770300</v>
       </c>
       <c r="G89" s="3">
-        <v>411100</v>
+        <v>418900</v>
       </c>
       <c r="H89" s="3">
-        <v>203400</v>
+        <v>207200</v>
       </c>
       <c r="I89" s="3">
-        <v>117000</v>
+        <v>119200</v>
       </c>
       <c r="J89" s="3">
-        <v>244900</v>
+        <v>249500</v>
       </c>
       <c r="K89" s="3">
         <v>582300</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-35000</v>
+        <v>-35700</v>
       </c>
       <c r="E91" s="3">
-        <v>-36800</v>
+        <v>-37500</v>
       </c>
       <c r="F91" s="3">
-        <v>-26900</v>
+        <v>-27400</v>
       </c>
       <c r="G91" s="3">
-        <v>-14200</v>
+        <v>-14500</v>
       </c>
       <c r="H91" s="3">
-        <v>-15500</v>
+        <v>-15800</v>
       </c>
       <c r="I91" s="3">
-        <v>-16800</v>
+        <v>-17100</v>
       </c>
       <c r="J91" s="3">
-        <v>-24200</v>
+        <v>-24600</v>
       </c>
       <c r="K91" s="3">
         <v>-24300</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-647100</v>
+        <v>-659300</v>
       </c>
       <c r="E94" s="3">
-        <v>276800</v>
+        <v>282000</v>
       </c>
       <c r="F94" s="3">
-        <v>-1024700</v>
+        <v>-1044000</v>
       </c>
       <c r="G94" s="3">
-        <v>-239900</v>
+        <v>-244400</v>
       </c>
       <c r="H94" s="3">
-        <v>-42600</v>
+        <v>-43400</v>
       </c>
       <c r="I94" s="3">
-        <v>-77900</v>
+        <v>-79400</v>
       </c>
       <c r="J94" s="3">
-        <v>-123800</v>
+        <v>-126200</v>
       </c>
       <c r="K94" s="3">
         <v>-622900</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-422600</v>
+        <v>-430600</v>
       </c>
       <c r="E96" s="3">
-        <v>-285900</v>
+        <v>-291200</v>
       </c>
       <c r="F96" s="3">
-        <v>-120700</v>
+        <v>-123000</v>
       </c>
       <c r="G96" s="3">
-        <v>-141500</v>
+        <v>-144200</v>
       </c>
       <c r="H96" s="3">
-        <v>-102700</v>
+        <v>-104600</v>
       </c>
       <c r="I96" s="3">
-        <v>-108900</v>
+        <v>-111000</v>
       </c>
       <c r="J96" s="3">
-        <v>-136200</v>
+        <v>-138700</v>
       </c>
       <c r="K96" s="3">
         <v>-154200</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-563400</v>
+        <v>-574000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1192800</v>
+        <v>-1215200</v>
       </c>
       <c r="F100" s="3">
-        <v>-481900</v>
+        <v>-490900</v>
       </c>
       <c r="G100" s="3">
-        <v>-242900</v>
+        <v>-247400</v>
       </c>
       <c r="H100" s="3">
-        <v>-189000</v>
+        <v>-192500</v>
       </c>
       <c r="I100" s="3">
-        <v>-32000</v>
+        <v>-32600</v>
       </c>
       <c r="J100" s="3">
-        <v>-106800</v>
+        <v>-108900</v>
       </c>
       <c r="K100" s="3">
         <v>47800</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>124200</v>
+        <v>126600</v>
       </c>
       <c r="E102" s="3">
-        <v>-172600</v>
+        <v>-175900</v>
       </c>
       <c r="F102" s="3">
-        <v>231000</v>
+        <v>235400</v>
       </c>
       <c r="G102" s="3">
-        <v>-71700</v>
+        <v>-73000</v>
       </c>
       <c r="H102" s="3">
-        <v>-28100</v>
+        <v>-28700</v>
       </c>
       <c r="I102" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="J102" s="3">
-        <v>14200</v>
+        <v>14500</v>
       </c>
       <c r="K102" s="3">
         <v>7300</v>
